--- a/inst/extdata/additional_govdata.xlsx
+++ b/inst/extdata/additional_govdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Git_Projekte\bundeslaendeR\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7447CBA0-962F-4184-88F5-66C128A43CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CD8487-3AE3-42B7-9799-ADDED4E3A98B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -261,9 +261,6 @@
     <t>1948-01-22</t>
   </si>
   <si>
-    <t>KPD</t>
-  </si>
-  <si>
     <t>1947-03-27</t>
   </si>
   <si>
@@ -727,6 +724,9 @@
   </si>
   <si>
     <t>https://de.wikipedia.org/wiki/Regierungskrise_in_Th%C3%BCringen_2020#F%C3%BChrung_der_Regierungsgesch%C3%A4fte</t>
+  </si>
+  <si>
+    <t>KPD (1919)</t>
   </si>
 </sst>
 </file>
@@ -1049,8 +1049,8 @@
   <dimension ref="A1:I218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E225" sqref="E225"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1090,7 +1090,7 @@
         <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -2284,7 +2284,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>10430</v>
+        <v>10431</v>
       </c>
       <c r="B43" t="s">
         <v>40</v>
@@ -2313,7 +2313,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>10430</v>
+        <v>10431</v>
       </c>
       <c r="B44" t="s">
         <v>40</v>
@@ -2342,7 +2342,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>10431</v>
+        <v>10432</v>
       </c>
       <c r="B45" t="s">
         <v>40</v>
@@ -2371,7 +2371,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>10431</v>
+        <v>10432</v>
       </c>
       <c r="B46" t="s">
         <v>40</v>
@@ -2400,7 +2400,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>10431</v>
+        <v>10432</v>
       </c>
       <c r="B47" t="s">
         <v>40</v>
@@ -2763,7 +2763,7 @@
         <v>73</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G59" t="s">
         <v>20</v>
@@ -2792,7 +2792,7 @@
         <v>73</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G60" t="s">
         <v>11</v>
@@ -2821,10 +2821,10 @@
         <v>73</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G61" t="s">
-        <v>75</v>
+        <v>230</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -2847,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>74</v>
@@ -2876,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>74</v>
@@ -2905,10 +2905,10 @@
         <v>19</v>
       </c>
       <c r="E64" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="G64" t="s">
         <v>10</v>
@@ -2934,10 +2934,10 @@
         <v>19</v>
       </c>
       <c r="E65" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F65" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="G65" t="s">
         <v>20</v>
@@ -2963,10 +2963,10 @@
         <v>20</v>
       </c>
       <c r="E66" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F66" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="G66" t="s">
         <v>10</v>
@@ -2975,7 +2975,7 @@
         <v>4</v>
       </c>
       <c r="I66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -2992,10 +2992,10 @@
         <v>20</v>
       </c>
       <c r="E67" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="G67" t="s">
         <v>20</v>
@@ -3004,7 +3004,7 @@
         <v>3</v>
       </c>
       <c r="I67" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -3021,10 +3021,10 @@
         <v>21</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G68" t="s">
         <v>20</v>
@@ -3033,7 +3033,7 @@
         <v>6</v>
       </c>
       <c r="I68" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -3050,10 +3050,10 @@
         <v>21</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G69" t="s">
         <v>18</v>
@@ -3062,7 +3062,7 @@
         <v>2</v>
       </c>
       <c r="I69" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -3079,10 +3079,10 @@
         <v>22</v>
       </c>
       <c r="E70" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F70" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="G70" t="s">
         <v>20</v>
@@ -3091,7 +3091,7 @@
         <v>5</v>
       </c>
       <c r="I70" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -3108,10 +3108,10 @@
         <v>22</v>
       </c>
       <c r="E71" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="G71" t="s">
         <v>18</v>
@@ -3120,7 +3120,7 @@
         <v>3</v>
       </c>
       <c r="I71" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -3137,10 +3137,10 @@
         <v>23</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G72" t="s">
         <v>20</v>
@@ -3149,7 +3149,7 @@
         <v>6</v>
       </c>
       <c r="I72" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -3166,10 +3166,10 @@
         <v>23</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G73" t="s">
         <v>18</v>
@@ -3178,7 +3178,7 @@
         <v>3</v>
       </c>
       <c r="I73" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -3195,7 +3195,7 @@
         <v>24</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>24</v>
@@ -3207,7 +3207,7 @@
         <v>4</v>
       </c>
       <c r="I74" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -3224,7 +3224,7 @@
         <v>24</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>24</v>
@@ -3236,7 +3236,7 @@
         <v>3</v>
       </c>
       <c r="I75" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -3253,7 +3253,7 @@
         <v>24</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>24</v>
@@ -3265,7 +3265,7 @@
         <v>2</v>
       </c>
       <c r="I76" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -3273,7 +3273,7 @@
         <v>10720</v>
       </c>
       <c r="B77" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C77">
         <v>16</v>
@@ -3282,10 +3282,10 @@
         <v>20</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G77" t="s">
         <v>10</v>
@@ -3302,7 +3302,7 @@
         <v>10721</v>
       </c>
       <c r="B78" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C78">
         <v>17</v>
@@ -3311,10 +3311,10 @@
         <v>21</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G78" t="s">
         <v>10</v>
@@ -3323,7 +3323,7 @@
         <v>9</v>
       </c>
       <c r="I78" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -3331,7 +3331,7 @@
         <v>10722</v>
       </c>
       <c r="B79" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C79">
         <v>18</v>
@@ -3340,10 +3340,10 @@
         <v>22</v>
       </c>
       <c r="E79" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F79" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="G79" t="s">
         <v>10</v>
@@ -3352,7 +3352,7 @@
         <v>8</v>
       </c>
       <c r="I79" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -3360,7 +3360,7 @@
         <v>10722</v>
       </c>
       <c r="B80" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C80">
         <v>18</v>
@@ -3369,10 +3369,10 @@
         <v>22</v>
       </c>
       <c r="E80" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F80" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="G80" t="s">
         <v>11</v>
@@ -3381,7 +3381,7 @@
         <v>4</v>
       </c>
       <c r="I80" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -3389,7 +3389,7 @@
         <v>10723</v>
       </c>
       <c r="B81" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C81">
         <v>18</v>
@@ -3398,10 +3398,10 @@
         <v>23</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G81" t="s">
         <v>10</v>
@@ -3410,7 +3410,7 @@
         <v>8</v>
       </c>
       <c r="I81" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -3418,7 +3418,7 @@
         <v>10723</v>
       </c>
       <c r="B82" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C82">
         <v>18</v>
@@ -3427,10 +3427,10 @@
         <v>23</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G82" t="s">
         <v>11</v>
@@ -3439,7 +3439,7 @@
         <v>4</v>
       </c>
       <c r="I82" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -3447,7 +3447,7 @@
         <v>10724</v>
       </c>
       <c r="B83" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C83">
         <v>19</v>
@@ -3456,10 +3456,10 @@
         <v>24</v>
       </c>
       <c r="E83" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F83" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="G83" t="s">
         <v>10</v>
@@ -3468,7 +3468,7 @@
         <v>9</v>
       </c>
       <c r="I83" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -3476,7 +3476,7 @@
         <v>10724</v>
       </c>
       <c r="B84" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C84">
         <v>19</v>
@@ -3485,10 +3485,10 @@
         <v>24</v>
       </c>
       <c r="E84" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F84" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="G84" t="s">
         <v>18</v>
@@ -3497,7 +3497,7 @@
         <v>2</v>
       </c>
       <c r="I84" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -3505,7 +3505,7 @@
         <v>10725</v>
       </c>
       <c r="B85" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C85">
         <v>20</v>
@@ -3514,7 +3514,7 @@
         <v>25</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>24</v>
@@ -3526,7 +3526,7 @@
         <v>8</v>
       </c>
       <c r="I85" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -3534,7 +3534,7 @@
         <v>10725</v>
       </c>
       <c r="B86" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C86">
         <v>20</v>
@@ -3543,7 +3543,7 @@
         <v>25</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>24</v>
@@ -3555,7 +3555,7 @@
         <v>4</v>
       </c>
       <c r="I86" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -3563,7 +3563,7 @@
         <v>10826</v>
       </c>
       <c r="B87" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C87">
         <v>18</v>
@@ -3572,10 +3572,10 @@
         <v>26</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G87" t="s">
         <v>10</v>
@@ -3592,7 +3592,7 @@
         <v>10827</v>
       </c>
       <c r="B88" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C88">
         <v>19</v>
@@ -3601,10 +3601,10 @@
         <v>27</v>
       </c>
       <c r="E88" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F88" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="G88" t="s">
         <v>10</v>
@@ -3613,7 +3613,7 @@
         <v>6</v>
       </c>
       <c r="I88" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -3621,7 +3621,7 @@
         <v>10827</v>
       </c>
       <c r="B89" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C89">
         <v>19</v>
@@ -3630,10 +3630,10 @@
         <v>27</v>
       </c>
       <c r="E89" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F89" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="G89" t="s">
         <v>18</v>
@@ -3642,7 +3642,7 @@
         <v>3</v>
       </c>
       <c r="I89" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -3650,7 +3650,7 @@
         <v>10828</v>
       </c>
       <c r="B90" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C90">
         <v>19</v>
@@ -3659,10 +3659,10 @@
         <v>28</v>
       </c>
       <c r="E90" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F90" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="G90" t="s">
         <v>10</v>
@@ -3671,7 +3671,7 @@
         <v>8</v>
       </c>
       <c r="I90" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -3679,7 +3679,7 @@
         <v>10828</v>
       </c>
       <c r="B91" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C91">
         <v>19</v>
@@ -3688,10 +3688,10 @@
         <v>28</v>
       </c>
       <c r="E91" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F91" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="G91" t="s">
         <v>18</v>
@@ -3700,7 +3700,7 @@
         <v>3</v>
       </c>
       <c r="I91" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -3708,7 +3708,7 @@
         <v>10829</v>
       </c>
       <c r="B92" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C92">
         <v>19</v>
@@ -3717,10 +3717,10 @@
         <v>29</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G92" t="s">
         <v>10</v>
@@ -3729,7 +3729,7 @@
         <v>8</v>
       </c>
       <c r="I92" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -3737,7 +3737,7 @@
         <v>10830</v>
       </c>
       <c r="B93" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C93">
         <v>20</v>
@@ -3746,10 +3746,10 @@
         <v>30</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G93" t="s">
         <v>20</v>
@@ -3758,7 +3758,7 @@
         <v>9</v>
       </c>
       <c r="I93" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -3766,7 +3766,7 @@
         <v>10831</v>
       </c>
       <c r="B94" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C94">
         <v>21</v>
@@ -3775,10 +3775,10 @@
         <v>31</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G94" t="s">
         <v>20</v>
@@ -3787,7 +3787,7 @@
         <v>8</v>
       </c>
       <c r="I94" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -3795,7 +3795,7 @@
         <v>10831</v>
       </c>
       <c r="B95" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C95">
         <v>21</v>
@@ -3804,10 +3804,10 @@
         <v>31</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G95" t="s">
         <v>18</v>
@@ -3816,7 +3816,7 @@
         <v>3</v>
       </c>
       <c r="I95" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -3824,7 +3824,7 @@
         <v>10832</v>
       </c>
       <c r="B96" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C96">
         <v>21</v>
@@ -3833,10 +3833,10 @@
         <v>32</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G96" t="s">
         <v>20</v>
@@ -3845,7 +3845,7 @@
         <v>8</v>
       </c>
       <c r="I96" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -3853,7 +3853,7 @@
         <v>10832</v>
       </c>
       <c r="B97" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C97">
         <v>21</v>
@@ -3862,10 +3862,10 @@
         <v>32</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G97" t="s">
         <v>18</v>
@@ -3874,7 +3874,7 @@
         <v>3</v>
       </c>
       <c r="I97" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -3882,7 +3882,7 @@
         <v>10833</v>
       </c>
       <c r="B98" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C98">
         <v>22</v>
@@ -3891,7 +3891,7 @@
         <v>33</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>24</v>
@@ -3903,7 +3903,7 @@
         <v>7</v>
       </c>
       <c r="I98" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -3911,7 +3911,7 @@
         <v>10833</v>
       </c>
       <c r="B99" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C99">
         <v>22</v>
@@ -3920,7 +3920,7 @@
         <v>33</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>24</v>
@@ -3932,7 +3932,7 @@
         <v>4</v>
       </c>
       <c r="I99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -3940,7 +3940,7 @@
         <v>10905</v>
       </c>
       <c r="B100" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C100">
         <v>4</v>
@@ -3949,10 +3949,10 @@
         <v>5</v>
       </c>
       <c r="E100" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F100" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="G100" t="s">
         <v>20</v>
@@ -3969,7 +3969,7 @@
         <v>10905</v>
       </c>
       <c r="B101" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C101">
         <v>4</v>
@@ -3978,10 +3978,10 @@
         <v>5</v>
       </c>
       <c r="E101" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F101" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="G101" t="s">
         <v>53</v>
@@ -3998,7 +3998,7 @@
         <v>10906</v>
       </c>
       <c r="B102" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C102">
         <v>5</v>
@@ -4007,10 +4007,10 @@
         <v>6</v>
       </c>
       <c r="E102" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F102" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="G102" t="s">
         <v>20</v>
@@ -4019,7 +4019,7 @@
         <v>5</v>
       </c>
       <c r="I102" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -4027,7 +4027,7 @@
         <v>10906</v>
       </c>
       <c r="B103" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C103">
         <v>5</v>
@@ -4036,10 +4036,10 @@
         <v>6</v>
       </c>
       <c r="E103" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F103" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="G103" t="s">
         <v>10</v>
@@ -4048,7 +4048,7 @@
         <v>4</v>
       </c>
       <c r="I103" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -4056,7 +4056,7 @@
         <v>10910</v>
       </c>
       <c r="B104" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C104">
         <v>5</v>
@@ -4065,10 +4065,10 @@
         <v>7</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G104" t="s">
         <v>20</v>
@@ -4077,7 +4077,7 @@
         <v>5</v>
       </c>
       <c r="I104" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -4085,7 +4085,7 @@
         <v>10910</v>
       </c>
       <c r="B105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C105">
         <v>5</v>
@@ -4094,10 +4094,10 @@
         <v>7</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G105" t="s">
         <v>10</v>
@@ -4106,7 +4106,7 @@
         <v>4</v>
       </c>
       <c r="I105" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -4114,7 +4114,7 @@
         <v>10911</v>
       </c>
       <c r="B106" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C106">
         <v>6</v>
@@ -4123,10 +4123,10 @@
         <v>8</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G106" t="s">
         <v>20</v>
@@ -4135,7 +4135,7 @@
         <v>6</v>
       </c>
       <c r="I106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -4143,7 +4143,7 @@
         <v>10911</v>
       </c>
       <c r="B107" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C107">
         <v>6</v>
@@ -4152,10 +4152,10 @@
         <v>8</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G107" t="s">
         <v>10</v>
@@ -4164,7 +4164,7 @@
         <v>3</v>
       </c>
       <c r="I107" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -4172,7 +4172,7 @@
         <v>10912</v>
       </c>
       <c r="B108" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C108">
         <v>7</v>
@@ -4181,10 +4181,10 @@
         <v>9</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G108" t="s">
         <v>20</v>
@@ -4193,7 +4193,7 @@
         <v>6</v>
       </c>
       <c r="I108" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -4201,7 +4201,7 @@
         <v>10912</v>
       </c>
       <c r="B109" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C109">
         <v>7</v>
@@ -4210,10 +4210,10 @@
         <v>9</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G109" t="s">
         <v>10</v>
@@ -4222,7 +4222,7 @@
         <v>3</v>
       </c>
       <c r="I109" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -4230,7 +4230,7 @@
         <v>10913</v>
       </c>
       <c r="B110" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C110">
         <v>7</v>
@@ -4239,7 +4239,7 @@
         <v>10</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>24</v>
@@ -4251,7 +4251,7 @@
         <v>6</v>
       </c>
       <c r="I110" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -4259,7 +4259,7 @@
         <v>10913</v>
       </c>
       <c r="B111" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C111">
         <v>7</v>
@@ -4268,7 +4268,7 @@
         <v>10</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>24</v>
@@ -4280,7 +4280,7 @@
         <v>3</v>
       </c>
       <c r="I111" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -4288,7 +4288,7 @@
         <v>11027</v>
       </c>
       <c r="B112" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C112">
         <v>15</v>
@@ -4297,10 +4297,10 @@
         <v>27</v>
       </c>
       <c r="E112" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F112" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="G112" t="s">
         <v>10</v>
@@ -4317,7 +4317,7 @@
         <v>11027</v>
       </c>
       <c r="B113" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C113">
         <v>15</v>
@@ -4326,10 +4326,10 @@
         <v>27</v>
       </c>
       <c r="E113" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F113" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="G113" t="s">
         <v>11</v>
@@ -4346,7 +4346,7 @@
         <v>11028</v>
       </c>
       <c r="B114" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C114">
         <v>16</v>
@@ -4355,10 +4355,10 @@
         <v>28</v>
       </c>
       <c r="E114" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F114" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="G114" t="s">
         <v>10</v>
@@ -4367,7 +4367,7 @@
         <v>8</v>
       </c>
       <c r="I114" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -4375,7 +4375,7 @@
         <v>11028</v>
       </c>
       <c r="B115" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C115">
         <v>16</v>
@@ -4384,10 +4384,10 @@
         <v>28</v>
       </c>
       <c r="E115" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F115" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="G115" t="s">
         <v>11</v>
@@ -4396,7 +4396,7 @@
         <v>3</v>
       </c>
       <c r="I115" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -4404,7 +4404,7 @@
         <v>11029</v>
       </c>
       <c r="B116" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C116">
         <v>16</v>
@@ -4413,10 +4413,10 @@
         <v>29</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G116" t="s">
         <v>10</v>
@@ -4425,7 +4425,7 @@
         <v>8</v>
       </c>
       <c r="I116" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -4433,7 +4433,7 @@
         <v>11029</v>
       </c>
       <c r="B117" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C117">
         <v>16</v>
@@ -4442,10 +4442,10 @@
         <v>29</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G117" t="s">
         <v>11</v>
@@ -4454,7 +4454,7 @@
         <v>3</v>
       </c>
       <c r="I117" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -4462,7 +4462,7 @@
         <v>11030</v>
       </c>
       <c r="B118" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C118">
         <v>17</v>
@@ -4471,10 +4471,10 @@
         <v>30</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G118" t="s">
         <v>20</v>
@@ -4483,7 +4483,7 @@
         <v>6</v>
       </c>
       <c r="I118" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -4491,7 +4491,7 @@
         <v>11030</v>
       </c>
       <c r="B119" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C119">
         <v>17</v>
@@ -4500,10 +4500,10 @@
         <v>30</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G119" t="s">
         <v>18</v>
@@ -4512,7 +4512,7 @@
         <v>4</v>
       </c>
       <c r="I119" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -4520,7 +4520,7 @@
         <v>11031</v>
       </c>
       <c r="B120" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C120">
         <v>18</v>
@@ -4529,7 +4529,7 @@
         <v>31</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>24</v>
@@ -4541,7 +4541,7 @@
         <v>6</v>
       </c>
       <c r="I120" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -4549,7 +4549,7 @@
         <v>11031</v>
       </c>
       <c r="B121" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C121">
         <v>18</v>
@@ -4558,7 +4558,7 @@
         <v>31</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>24</v>
@@ -4570,7 +4570,7 @@
         <v>5</v>
       </c>
       <c r="I121" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -4578,7 +4578,7 @@
         <v>11122</v>
       </c>
       <c r="B122" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C122">
         <v>14</v>
@@ -4587,10 +4587,10 @@
         <v>22</v>
       </c>
       <c r="E122" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F122" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="G122" t="s">
         <v>10</v>
@@ -4607,7 +4607,7 @@
         <v>11122</v>
       </c>
       <c r="B123" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C123">
         <v>14</v>
@@ -4616,10 +4616,10 @@
         <v>22</v>
       </c>
       <c r="E123" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F123" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="G123" t="s">
         <v>11</v>
@@ -4636,7 +4636,7 @@
         <v>11123</v>
       </c>
       <c r="B124" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C124">
         <v>15</v>
@@ -4645,10 +4645,10 @@
         <v>23</v>
       </c>
       <c r="E124" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F124" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="G124" t="s">
         <v>20</v>
@@ -4657,7 +4657,7 @@
         <v>9</v>
       </c>
       <c r="I124" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -4665,7 +4665,7 @@
         <v>11123</v>
       </c>
       <c r="B125" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C125">
         <v>15</v>
@@ -4674,10 +4674,10 @@
         <v>23</v>
       </c>
       <c r="E125" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F125" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="G125" t="s">
         <v>18</v>
@@ -4686,7 +4686,7 @@
         <v>2</v>
       </c>
       <c r="I125" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -4694,7 +4694,7 @@
         <v>11124</v>
       </c>
       <c r="B126" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C126">
         <v>16</v>
@@ -4703,10 +4703,10 @@
         <v>24</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G126" t="s">
         <v>20</v>
@@ -4715,7 +4715,7 @@
         <v>10</v>
       </c>
       <c r="I126" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -4723,7 +4723,7 @@
         <v>11124</v>
       </c>
       <c r="B127" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C127">
         <v>16</v>
@@ -4732,10 +4732,10 @@
         <v>24</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G127" t="s">
         <v>18</v>
@@ -4744,7 +4744,7 @@
         <v>3</v>
       </c>
       <c r="I127" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -4752,7 +4752,7 @@
         <v>11125</v>
       </c>
       <c r="B128" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C128">
         <v>17</v>
@@ -4761,7 +4761,7 @@
         <v>25</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>24</v>
@@ -4773,7 +4773,7 @@
         <v>10</v>
       </c>
       <c r="I128" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
@@ -4781,7 +4781,7 @@
         <v>11125</v>
       </c>
       <c r="B129" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C129">
         <v>17</v>
@@ -4790,7 +4790,7 @@
         <v>25</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>24</v>
@@ -4802,7 +4802,7 @@
         <v>3</v>
       </c>
       <c r="I129" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
@@ -4810,7 +4810,7 @@
         <v>11221</v>
       </c>
       <c r="B130" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C130">
         <v>14</v>
@@ -4819,10 +4819,10 @@
         <v>21</v>
       </c>
       <c r="E130" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F130" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="G130" t="s">
         <v>10</v>
@@ -4839,7 +4839,7 @@
         <v>11221</v>
       </c>
       <c r="B131" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C131">
         <v>14</v>
@@ -4848,10 +4848,10 @@
         <v>21</v>
       </c>
       <c r="E131" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F131" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="G131" t="s">
         <v>20</v>
@@ -4868,7 +4868,7 @@
         <v>11222</v>
       </c>
       <c r="B132" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C132">
         <v>15</v>
@@ -4877,10 +4877,10 @@
         <v>22</v>
       </c>
       <c r="E132" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F132" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="G132" t="s">
         <v>20</v>
@@ -4889,7 +4889,7 @@
         <v>10</v>
       </c>
       <c r="I132" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -4897,7 +4897,7 @@
         <v>11223</v>
       </c>
       <c r="B133" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C133">
         <v>16</v>
@@ -4906,10 +4906,10 @@
         <v>23</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G133" t="s">
         <v>20</v>
@@ -4918,7 +4918,7 @@
         <v>7</v>
       </c>
       <c r="I133" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -4926,7 +4926,7 @@
         <v>11223</v>
       </c>
       <c r="B134" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C134">
         <v>16</v>
@@ -4935,10 +4935,10 @@
         <v>23</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G134" t="s">
         <v>18</v>
@@ -4947,7 +4947,7 @@
         <v>3</v>
       </c>
       <c r="I134" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
@@ -4955,7 +4955,7 @@
         <v>11224</v>
       </c>
       <c r="B135" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C135">
         <v>16</v>
@@ -4964,10 +4964,10 @@
         <v>24</v>
       </c>
       <c r="E135" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F135" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="G135" t="s">
         <v>20</v>
@@ -4976,7 +4976,7 @@
         <v>7</v>
       </c>
       <c r="I135" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -4984,7 +4984,7 @@
         <v>11224</v>
       </c>
       <c r="B136" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C136">
         <v>16</v>
@@ -4993,10 +4993,10 @@
         <v>24</v>
       </c>
       <c r="E136" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F136" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="G136" t="s">
         <v>18</v>
@@ -5005,7 +5005,7 @@
         <v>3</v>
       </c>
       <c r="I136" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
@@ -5013,7 +5013,7 @@
         <v>11225</v>
       </c>
       <c r="B137" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C137">
         <v>17</v>
@@ -5022,10 +5022,10 @@
         <v>25</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G137" t="s">
         <v>20</v>
@@ -5034,7 +5034,7 @@
         <v>6</v>
       </c>
       <c r="I137" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
@@ -5042,7 +5042,7 @@
         <v>11225</v>
       </c>
       <c r="B138" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C138">
         <v>17</v>
@@ -5051,10 +5051,10 @@
         <v>25</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G138" t="s">
         <v>11</v>
@@ -5063,7 +5063,7 @@
         <v>2</v>
       </c>
       <c r="I138" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
@@ -5071,7 +5071,7 @@
         <v>11225</v>
       </c>
       <c r="B139" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C139">
         <v>17</v>
@@ -5080,10 +5080,10 @@
         <v>25</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G139" t="s">
         <v>18</v>
@@ -5092,7 +5092,7 @@
         <v>2</v>
       </c>
       <c r="I139" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
@@ -5100,7 +5100,7 @@
         <v>11226</v>
       </c>
       <c r="B140" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C140">
         <v>18</v>
@@ -5109,7 +5109,7 @@
         <v>26</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>24</v>
@@ -5121,7 +5121,7 @@
         <v>6</v>
       </c>
       <c r="I140" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
@@ -5129,7 +5129,7 @@
         <v>11226</v>
       </c>
       <c r="B141" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C141">
         <v>18</v>
@@ -5138,7 +5138,7 @@
         <v>26</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>24</v>
@@ -5150,7 +5150,7 @@
         <v>2</v>
       </c>
       <c r="I141" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
@@ -5158,7 +5158,7 @@
         <v>11226</v>
       </c>
       <c r="B142" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C142">
         <v>18</v>
@@ -5167,7 +5167,7 @@
         <v>26</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>24</v>
@@ -5179,7 +5179,7 @@
         <v>2</v>
       </c>
       <c r="I142" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
@@ -5187,7 +5187,7 @@
         <v>11314</v>
       </c>
       <c r="B143" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C143">
         <v>-2</v>
@@ -5196,19 +5196,19 @@
         <v>-9</v>
       </c>
       <c r="E143" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F143" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F143" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="G143" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H143">
         <v>4</v>
       </c>
       <c r="I143" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
@@ -5216,7 +5216,7 @@
         <v>11314</v>
       </c>
       <c r="B144" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C144">
         <v>-2</v>
@@ -5225,19 +5225,19 @@
         <v>-9</v>
       </c>
       <c r="E144" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F144" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F144" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="G144" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H144">
         <v>2</v>
       </c>
       <c r="I144" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
@@ -5245,7 +5245,7 @@
         <v>11315</v>
       </c>
       <c r="B145" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C145">
         <v>-2</v>
@@ -5254,19 +5254,19 @@
         <v>-8</v>
       </c>
       <c r="E145" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F145" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F145" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="G145" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H145">
         <v>5</v>
       </c>
       <c r="I145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
@@ -5274,7 +5274,7 @@
         <v>11316</v>
       </c>
       <c r="B146" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C146">
         <v>-1</v>
@@ -5283,19 +5283,19 @@
         <v>-7</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G146" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H146">
         <v>7</v>
       </c>
       <c r="I146" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
@@ -5303,7 +5303,7 @@
         <v>11316</v>
       </c>
       <c r="B147" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C147">
         <v>-1</v>
@@ -5312,19 +5312,19 @@
         <v>-7</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G147" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H147">
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
@@ -5332,7 +5332,7 @@
         <v>11317</v>
       </c>
       <c r="B148" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C148">
         <v>-1</v>
@@ -5341,19 +5341,19 @@
         <v>-6</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G148" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H148">
         <v>6</v>
       </c>
       <c r="I148" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
@@ -5361,7 +5361,7 @@
         <v>11318</v>
       </c>
       <c r="B149" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C149">
         <v>-1</v>
@@ -5370,19 +5370,19 @@
         <v>-5</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F149" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G149" t="s">
         <v>170</v>
-      </c>
-      <c r="G149" t="s">
-        <v>171</v>
       </c>
       <c r="H149">
         <v>6</v>
       </c>
       <c r="I149" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
@@ -5390,7 +5390,7 @@
         <v>11319</v>
       </c>
       <c r="B150" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -5399,10 +5399,10 @@
         <v>-4</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G150" t="s">
         <v>10</v>
@@ -5411,7 +5411,7 @@
         <v>4</v>
       </c>
       <c r="I150" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
@@ -5419,7 +5419,7 @@
         <v>11319</v>
       </c>
       <c r="B151" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -5428,10 +5428,10 @@
         <v>-4</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G151" t="s">
         <v>20</v>
@@ -5440,7 +5440,7 @@
         <v>1</v>
       </c>
       <c r="I151" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
@@ -5448,7 +5448,7 @@
         <v>11319</v>
       </c>
       <c r="B152" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -5457,10 +5457,10 @@
         <v>-4</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G152" t="s">
         <v>11</v>
@@ -5469,7 +5469,7 @@
         <v>1</v>
       </c>
       <c r="I152" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
@@ -5477,7 +5477,7 @@
         <v>11320</v>
       </c>
       <c r="B153" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -5486,10 +5486,10 @@
         <v>-3</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G153" t="s">
         <v>10</v>
@@ -5498,7 +5498,7 @@
         <v>4</v>
       </c>
       <c r="I153" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
@@ -5506,7 +5506,7 @@
         <v>11320</v>
       </c>
       <c r="B154" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -5515,10 +5515,10 @@
         <v>-3</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G154" t="s">
         <v>20</v>
@@ -5527,7 +5527,7 @@
         <v>1</v>
       </c>
       <c r="I154" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
@@ -5535,7 +5535,7 @@
         <v>11321</v>
       </c>
       <c r="B155" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -5544,10 +5544,10 @@
         <v>-2</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G155" t="s">
         <v>10</v>
@@ -5556,7 +5556,7 @@
         <v>5</v>
       </c>
       <c r="I155" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
@@ -5564,7 +5564,7 @@
         <v>11321</v>
       </c>
       <c r="B156" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -5573,10 +5573,10 @@
         <v>-2</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G156" t="s">
         <v>20</v>
@@ -5585,7 +5585,7 @@
         <v>1</v>
       </c>
       <c r="I156" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
@@ -5593,7 +5593,7 @@
         <v>11321</v>
       </c>
       <c r="B157" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -5602,10 +5602,10 @@
         <v>-2</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G157" t="s">
         <v>11</v>
@@ -5614,7 +5614,7 @@
         <v>2</v>
       </c>
       <c r="I157" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
@@ -5622,7 +5622,7 @@
         <v>11322</v>
       </c>
       <c r="B158" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -5631,10 +5631,10 @@
         <v>-1</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G158" t="s">
         <v>10</v>
@@ -5643,7 +5643,7 @@
         <v>4</v>
       </c>
       <c r="I158" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
@@ -5651,7 +5651,7 @@
         <v>11322</v>
       </c>
       <c r="B159" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -5660,10 +5660,10 @@
         <v>-1</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G159" t="s">
         <v>20</v>
@@ -5672,7 +5672,7 @@
         <v>2</v>
       </c>
       <c r="I159" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
@@ -5680,7 +5680,7 @@
         <v>11322</v>
       </c>
       <c r="B160" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -5689,19 +5689,19 @@
         <v>-1</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G160" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H160">
         <v>1</v>
       </c>
       <c r="I160" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
@@ -5709,7 +5709,7 @@
         <v>11323</v>
       </c>
       <c r="B161" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -5718,10 +5718,10 @@
         <v>0</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G161" t="s">
         <v>10</v>
@@ -5730,7 +5730,7 @@
         <v>6</v>
       </c>
       <c r="I161" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
@@ -5738,7 +5738,7 @@
         <v>11323</v>
       </c>
       <c r="B162" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -5747,10 +5747,10 @@
         <v>0</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G162" t="s">
         <v>20</v>
@@ -5759,7 +5759,7 @@
         <v>2</v>
       </c>
       <c r="I162" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
@@ -5767,7 +5767,7 @@
         <v>11313</v>
       </c>
       <c r="B163" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C163">
         <v>10</v>
@@ -5776,10 +5776,10 @@
         <v>13</v>
       </c>
       <c r="E163" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F163" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="F163" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="G163" t="s">
         <v>10</v>
@@ -5796,7 +5796,7 @@
         <v>11324</v>
       </c>
       <c r="B164" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C164">
         <v>11</v>
@@ -5805,10 +5805,10 @@
         <v>14</v>
       </c>
       <c r="E164" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F164" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="F164" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="G164" t="s">
         <v>10</v>
@@ -5817,7 +5817,7 @@
         <v>5</v>
       </c>
       <c r="I164" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
@@ -5825,7 +5825,7 @@
         <v>11324</v>
       </c>
       <c r="B165" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C165">
         <v>11</v>
@@ -5834,10 +5834,10 @@
         <v>14</v>
       </c>
       <c r="E165" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F165" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="F165" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="G165" t="s">
         <v>11</v>
@@ -5846,7 +5846,7 @@
         <v>2</v>
       </c>
       <c r="I165" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
@@ -5854,7 +5854,7 @@
         <v>11324</v>
       </c>
       <c r="B166" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C166">
         <v>11</v>
@@ -5863,10 +5863,10 @@
         <v>14</v>
       </c>
       <c r="E166" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F166" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="F166" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="G166" t="s">
         <v>18</v>
@@ -5875,7 +5875,7 @@
         <v>2</v>
       </c>
       <c r="I166" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
@@ -5883,7 +5883,7 @@
         <v>11325</v>
       </c>
       <c r="B167" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C167">
         <v>11</v>
@@ -5892,10 +5892,10 @@
         <v>15</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G167" t="s">
         <v>10</v>
@@ -5904,7 +5904,7 @@
         <v>5</v>
       </c>
       <c r="I167" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
@@ -5912,7 +5912,7 @@
         <v>11325</v>
       </c>
       <c r="B168" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C168">
         <v>11</v>
@@ -5921,10 +5921,10 @@
         <v>15</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G168" t="s">
         <v>11</v>
@@ -5933,7 +5933,7 @@
         <v>2</v>
       </c>
       <c r="I168" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
@@ -5941,7 +5941,7 @@
         <v>11325</v>
       </c>
       <c r="B169" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C169">
         <v>11</v>
@@ -5950,10 +5950,10 @@
         <v>15</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G169" t="s">
         <v>18</v>
@@ -5962,7 +5962,7 @@
         <v>2</v>
       </c>
       <c r="I169" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
@@ -5970,7 +5970,7 @@
         <v>11326</v>
       </c>
       <c r="B170" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C170">
         <v>11</v>
@@ -5979,10 +5979,10 @@
         <v>16</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G170" t="s">
         <v>10</v>
@@ -5991,7 +5991,7 @@
         <v>9</v>
       </c>
       <c r="I170" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
@@ -5999,7 +5999,7 @@
         <v>11327</v>
       </c>
       <c r="B171" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C171">
         <v>12</v>
@@ -6008,10 +6008,10 @@
         <v>17</v>
       </c>
       <c r="E171" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F171" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="F171" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="G171" t="s">
         <v>10</v>
@@ -6020,7 +6020,7 @@
         <v>4</v>
       </c>
       <c r="I171" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
@@ -6028,7 +6028,7 @@
         <v>11327</v>
       </c>
       <c r="B172" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C172">
         <v>12</v>
@@ -6037,10 +6037,10 @@
         <v>17</v>
       </c>
       <c r="E172" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F172" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="F172" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="G172" t="s">
         <v>20</v>
@@ -6049,7 +6049,7 @@
         <v>4</v>
       </c>
       <c r="I172" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
@@ -6057,7 +6057,7 @@
         <v>11328</v>
       </c>
       <c r="B173" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C173">
         <v>13</v>
@@ -6066,10 +6066,10 @@
         <v>18</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G173" t="s">
         <v>10</v>
@@ -6078,7 +6078,7 @@
         <v>4</v>
       </c>
       <c r="I173" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
@@ -6086,7 +6086,7 @@
         <v>11328</v>
       </c>
       <c r="B174" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C174">
         <v>13</v>
@@ -6095,10 +6095,10 @@
         <v>18</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G174" t="s">
         <v>20</v>
@@ -6107,7 +6107,7 @@
         <v>3</v>
       </c>
       <c r="I174" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
@@ -6115,7 +6115,7 @@
         <v>11329</v>
       </c>
       <c r="B175" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C175">
         <v>13</v>
@@ -6124,7 +6124,7 @@
         <v>19</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>24</v>
@@ -6136,7 +6136,7 @@
         <v>4</v>
       </c>
       <c r="I175" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
@@ -6144,7 +6144,7 @@
         <v>11329</v>
       </c>
       <c r="B176" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C176">
         <v>13</v>
@@ -6153,7 +6153,7 @@
         <v>19</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>24</v>
@@ -6165,7 +6165,7 @@
         <v>3</v>
       </c>
       <c r="I176" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
@@ -6173,7 +6173,7 @@
         <v>11405</v>
       </c>
       <c r="B177" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C177">
         <v>4</v>
@@ -6182,10 +6182,10 @@
         <v>5</v>
       </c>
       <c r="E177" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F177" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="F177" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="G177" t="s">
         <v>10</v>
@@ -6202,7 +6202,7 @@
         <v>11405</v>
       </c>
       <c r="B178" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C178">
         <v>4</v>
@@ -6211,10 +6211,10 @@
         <v>5</v>
       </c>
       <c r="E178" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F178" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="F178" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="G178" t="s">
         <v>20</v>
@@ -6231,7 +6231,7 @@
         <v>11406</v>
       </c>
       <c r="B179" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C179">
         <v>4</v>
@@ -6240,10 +6240,10 @@
         <v>6</v>
       </c>
       <c r="E179" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F179" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="F179" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="G179" t="s">
         <v>10</v>
@@ -6252,7 +6252,7 @@
         <v>7</v>
       </c>
       <c r="I179" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
@@ -6260,7 +6260,7 @@
         <v>11406</v>
       </c>
       <c r="B180" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C180">
         <v>4</v>
@@ -6269,10 +6269,10 @@
         <v>6</v>
       </c>
       <c r="E180" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F180" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="F180" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="G180" t="s">
         <v>20</v>
@@ -6281,7 +6281,7 @@
         <v>2</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
@@ -6289,7 +6289,7 @@
         <v>11407</v>
       </c>
       <c r="B181" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C181">
         <v>5</v>
@@ -6298,10 +6298,10 @@
         <v>7</v>
       </c>
       <c r="E181" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F181" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="F181" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="G181" t="s">
         <v>10</v>
@@ -6310,7 +6310,7 @@
         <v>8</v>
       </c>
       <c r="I181" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
@@ -6318,7 +6318,7 @@
         <v>11407</v>
       </c>
       <c r="B182" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C182">
         <v>5</v>
@@ -6327,10 +6327,10 @@
         <v>7</v>
       </c>
       <c r="E182" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F182" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="F182" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="G182" t="s">
         <v>11</v>
@@ -6339,7 +6339,7 @@
         <v>2</v>
       </c>
       <c r="I182" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
@@ -6347,7 +6347,7 @@
         <v>11408</v>
       </c>
       <c r="B183" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C183">
         <v>6</v>
@@ -6356,10 +6356,10 @@
         <v>8</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G183" t="s">
         <v>10</v>
@@ -6368,7 +6368,7 @@
         <v>8</v>
       </c>
       <c r="I183" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
@@ -6376,7 +6376,7 @@
         <v>11408</v>
       </c>
       <c r="B184" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C184">
         <v>6</v>
@@ -6385,10 +6385,10 @@
         <v>8</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G184" t="s">
         <v>20</v>
@@ -6397,7 +6397,7 @@
         <v>3</v>
       </c>
       <c r="I184" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
@@ -6405,7 +6405,7 @@
         <v>11409</v>
       </c>
       <c r="B185" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C185">
         <v>6</v>
@@ -6414,10 +6414,10 @@
         <v>9</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G185" t="s">
         <v>10</v>
@@ -6426,7 +6426,7 @@
         <v>8</v>
       </c>
       <c r="I185" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
@@ -6434,7 +6434,7 @@
         <v>11409</v>
       </c>
       <c r="B186" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C186">
         <v>6</v>
@@ -6443,10 +6443,10 @@
         <v>9</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G186" t="s">
         <v>20</v>
@@ -6455,7 +6455,7 @@
         <v>3</v>
       </c>
       <c r="I186" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
@@ -6463,7 +6463,7 @@
         <v>11410</v>
       </c>
       <c r="B187" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C187">
         <v>7</v>
@@ -6472,7 +6472,7 @@
         <v>10</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>24</v>
@@ -6484,7 +6484,7 @@
         <v>8</v>
       </c>
       <c r="I187" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
@@ -6492,7 +6492,7 @@
         <v>11410</v>
       </c>
       <c r="B188" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C188">
         <v>7</v>
@@ -6501,7 +6501,7 @@
         <v>10</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>24</v>
@@ -6513,7 +6513,7 @@
         <v>2</v>
       </c>
       <c r="I188" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
@@ -6521,7 +6521,7 @@
         <v>11410</v>
       </c>
       <c r="B189" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C189">
         <v>7</v>
@@ -6530,7 +6530,7 @@
         <v>10</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>24</v>
@@ -6542,7 +6542,7 @@
         <v>2</v>
       </c>
       <c r="I189" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
@@ -6550,7 +6550,7 @@
         <v>11506</v>
       </c>
       <c r="B190" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C190">
         <v>4</v>
@@ -6559,10 +6559,10 @@
         <v>6</v>
       </c>
       <c r="E190" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F190" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="F190" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="G190" t="s">
         <v>10</v>
@@ -6579,7 +6579,7 @@
         <v>11506</v>
       </c>
       <c r="B191" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C191">
         <v>4</v>
@@ -6588,10 +6588,10 @@
         <v>6</v>
       </c>
       <c r="E191" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F191" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="F191" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="G191" t="s">
         <v>11</v>
@@ -6608,7 +6608,7 @@
         <v>11507</v>
       </c>
       <c r="B192" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C192">
         <v>5</v>
@@ -6617,10 +6617,10 @@
         <v>7</v>
       </c>
       <c r="E192" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F192" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="F192" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="G192" t="s">
         <v>10</v>
@@ -6629,7 +6629,7 @@
         <v>6</v>
       </c>
       <c r="I192" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
@@ -6637,7 +6637,7 @@
         <v>11507</v>
       </c>
       <c r="B193" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C193">
         <v>5</v>
@@ -6646,10 +6646,10 @@
         <v>7</v>
       </c>
       <c r="E193" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F193" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="F193" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="G193" t="s">
         <v>20</v>
@@ -6658,7 +6658,7 @@
         <v>4</v>
       </c>
       <c r="I193" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
@@ -6666,7 +6666,7 @@
         <v>11508</v>
       </c>
       <c r="B194" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C194">
         <v>6</v>
@@ -6675,10 +6675,10 @@
         <v>8</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G194" t="s">
         <v>10</v>
@@ -6687,7 +6687,7 @@
         <v>5</v>
       </c>
       <c r="I194" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
@@ -6695,7 +6695,7 @@
         <v>11508</v>
       </c>
       <c r="B195" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C195">
         <v>6</v>
@@ -6704,10 +6704,10 @@
         <v>8</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G195" t="s">
         <v>20</v>
@@ -6716,7 +6716,7 @@
         <v>4</v>
       </c>
       <c r="I195" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
@@ -6724,7 +6724,7 @@
         <v>11509</v>
       </c>
       <c r="B196" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C196">
         <v>7</v>
@@ -6733,7 +6733,7 @@
         <v>9</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>24</v>
@@ -6745,7 +6745,7 @@
         <v>7</v>
       </c>
       <c r="I196" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
@@ -6753,7 +6753,7 @@
         <v>11509</v>
       </c>
       <c r="B197" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C197">
         <v>7</v>
@@ -6762,7 +6762,7 @@
         <v>9</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>24</v>
@@ -6774,7 +6774,7 @@
         <v>2</v>
       </c>
       <c r="I197" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
@@ -6782,7 +6782,7 @@
         <v>11509</v>
       </c>
       <c r="B198" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C198">
         <v>7</v>
@@ -6791,7 +6791,7 @@
         <v>9</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>24</v>
@@ -6803,7 +6803,7 @@
         <v>1</v>
       </c>
       <c r="I198" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
@@ -6811,7 +6811,7 @@
         <v>11626</v>
       </c>
       <c r="B199" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C199">
         <v>16</v>
@@ -6823,7 +6823,7 @@
         <v>9</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G199" t="s">
         <v>10</v>
@@ -6840,7 +6840,7 @@
         <v>11626</v>
       </c>
       <c r="B200" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C200">
         <v>16</v>
@@ -6852,7 +6852,7 @@
         <v>9</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G200" t="s">
         <v>20</v>
@@ -6869,7 +6869,7 @@
         <v>11627</v>
       </c>
       <c r="B201" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C201">
         <v>17</v>
@@ -6878,10 +6878,10 @@
         <v>27</v>
       </c>
       <c r="E201" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F201" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="F201" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="G201" t="s">
         <v>10</v>
@@ -6890,7 +6890,7 @@
         <v>5</v>
       </c>
       <c r="I201" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
@@ -6898,7 +6898,7 @@
         <v>11627</v>
       </c>
       <c r="B202" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C202">
         <v>17</v>
@@ -6907,10 +6907,10 @@
         <v>27</v>
       </c>
       <c r="E202" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F202" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="F202" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="G202" t="s">
         <v>11</v>
@@ -6919,7 +6919,7 @@
         <v>4</v>
       </c>
       <c r="I202" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
@@ -6927,7 +6927,7 @@
         <v>11628</v>
       </c>
       <c r="B203" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C203">
         <v>18</v>
@@ -6936,10 +6936,10 @@
         <v>28</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G203" t="s">
         <v>20</v>
@@ -6948,7 +6948,7 @@
         <v>5</v>
       </c>
       <c r="I203" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
@@ -6956,7 +6956,7 @@
         <v>11628</v>
       </c>
       <c r="B204" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C204">
         <v>18</v>
@@ -6965,10 +6965,10 @@
         <v>28</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G204" t="s">
         <v>18</v>
@@ -6977,7 +6977,7 @@
         <v>2</v>
       </c>
       <c r="I204" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
@@ -6985,7 +6985,7 @@
         <v>11628</v>
       </c>
       <c r="B205" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C205">
         <v>18</v>
@@ -6994,19 +6994,19 @@
         <v>28</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F205" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G205" t="s">
         <v>218</v>
-      </c>
-      <c r="G205" t="s">
-        <v>219</v>
       </c>
       <c r="H205">
         <v>1</v>
       </c>
       <c r="I205" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
@@ -7014,7 +7014,7 @@
         <v>11629</v>
       </c>
       <c r="B206" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C206">
         <v>19</v>
@@ -7023,7 +7023,7 @@
         <v>29</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>24</v>
@@ -7035,7 +7035,7 @@
         <v>4</v>
       </c>
       <c r="I206" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
@@ -7043,7 +7043,7 @@
         <v>11629</v>
       </c>
       <c r="B207" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C207">
         <v>19</v>
@@ -7052,7 +7052,7 @@
         <v>29</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>24</v>
@@ -7064,7 +7064,7 @@
         <v>2</v>
       </c>
       <c r="I207" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
@@ -7072,7 +7072,7 @@
         <v>11629</v>
       </c>
       <c r="B208" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C208">
         <v>19</v>
@@ -7081,7 +7081,7 @@
         <v>29</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>24</v>
@@ -7093,7 +7093,7 @@
         <v>2</v>
       </c>
       <c r="I208" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
@@ -7101,7 +7101,7 @@
         <v>11706</v>
       </c>
       <c r="B209" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C209">
         <v>4</v>
@@ -7110,10 +7110,10 @@
         <v>6</v>
       </c>
       <c r="E209" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F209" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="F209" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="G209" t="s">
         <v>10</v>
@@ -7130,7 +7130,7 @@
         <v>11707</v>
       </c>
       <c r="B210" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C210">
         <v>5</v>
@@ -7139,10 +7139,10 @@
         <v>7</v>
       </c>
       <c r="E210" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F210" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="F210" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="G210" t="s">
         <v>10</v>
@@ -7151,7 +7151,7 @@
         <v>6</v>
       </c>
       <c r="I210" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
@@ -7159,7 +7159,7 @@
         <v>11707</v>
       </c>
       <c r="B211" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C211">
         <v>5</v>
@@ -7168,10 +7168,10 @@
         <v>7</v>
       </c>
       <c r="E211" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F211" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="F211" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="G211" t="s">
         <v>20</v>
@@ -7180,7 +7180,7 @@
         <v>4</v>
       </c>
       <c r="I211" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
@@ -7188,7 +7188,7 @@
         <v>11708</v>
       </c>
       <c r="B212" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C212">
         <v>6</v>
@@ -7197,10 +7197,10 @@
         <v>8</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G212" t="s">
         <v>53</v>
@@ -7209,7 +7209,7 @@
         <v>5</v>
       </c>
       <c r="I212" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
@@ -7217,7 +7217,7 @@
         <v>11708</v>
       </c>
       <c r="B213" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C213">
         <v>6</v>
@@ -7226,10 +7226,10 @@
         <v>8</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G213" t="s">
         <v>20</v>
@@ -7238,7 +7238,7 @@
         <v>3</v>
       </c>
       <c r="I213" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
@@ -7246,7 +7246,7 @@
         <v>11708</v>
       </c>
       <c r="B214" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C214">
         <v>6</v>
@@ -7255,10 +7255,10 @@
         <v>8</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G214" t="s">
         <v>18</v>
@@ -7267,7 +7267,7 @@
         <v>2</v>
       </c>
       <c r="I214" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
@@ -7275,7 +7275,7 @@
         <v>11709</v>
       </c>
       <c r="B215" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C215">
         <v>7</v>
@@ -7284,10 +7284,10 @@
         <v>9</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G215" t="s">
         <v>11</v>
@@ -7296,7 +7296,7 @@
         <v>1</v>
       </c>
       <c r="I215" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
@@ -7304,7 +7304,7 @@
         <v>11710</v>
       </c>
       <c r="B216" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C216">
         <v>7</v>
@@ -7313,7 +7313,7 @@
         <v>10</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>24</v>
@@ -7325,7 +7325,7 @@
         <v>4</v>
       </c>
       <c r="I216" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
@@ -7333,7 +7333,7 @@
         <v>11710</v>
       </c>
       <c r="B217" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C217">
         <v>7</v>
@@ -7342,7 +7342,7 @@
         <v>10</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F217" s="1" t="s">
         <v>24</v>
@@ -7354,7 +7354,7 @@
         <v>3</v>
       </c>
       <c r="I217" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
@@ -7362,7 +7362,7 @@
         <v>11710</v>
       </c>
       <c r="B218" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C218">
         <v>7</v>
@@ -7371,7 +7371,7 @@
         <v>10</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>24</v>
@@ -7383,7 +7383,7 @@
         <v>2</v>
       </c>
       <c r="I218" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/additional_govdata.xlsx
+++ b/inst/extdata/additional_govdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Git_Projekte\bundeslaendeR\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CD8487-3AE3-42B7-9799-ADDED4E3A98B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A342D1-E42F-42EB-AC9F-040816A9CCA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="239">
   <si>
     <t>gov_id</t>
   </si>
@@ -727,6 +727,30 @@
   </si>
   <si>
     <t>KPD (1919)</t>
+  </si>
+  <si>
+    <t>2021-12-21</t>
+  </si>
+  <si>
+    <t>https://de.wikipedia.org/wiki/Senat_Giffey</t>
+  </si>
+  <si>
+    <t>2021-11-15</t>
+  </si>
+  <si>
+    <t>https://de.wikipedia.org/wiki/Kabinett_Schwesig_II</t>
+  </si>
+  <si>
+    <t>2021-10-28</t>
+  </si>
+  <si>
+    <t>https://de.wikipedia.org/wiki/Kabinett_W%C3%BCst</t>
+  </si>
+  <si>
+    <t>2021-09-16</t>
+  </si>
+  <si>
+    <t>https://de.wikipedia.org/wiki/Kabinett_Haseloff_III</t>
   </si>
 </sst>
 </file>
@@ -1046,11 +1070,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I218"/>
+  <dimension ref="A1:I228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A48" sqref="A48"/>
+      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E199" sqref="E199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2357,7 +2381,7 @@
         <v>58</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="G45" t="s">
         <v>20</v>
@@ -2386,7 +2410,7 @@
         <v>58</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="G46" t="s">
         <v>18</v>
@@ -2415,7 +2439,7 @@
         <v>58</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="G47" t="s">
         <v>53</v>
@@ -2429,138 +2453,138 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>10506</v>
+        <v>10433</v>
       </c>
       <c r="B48" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C48">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D48">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>62</v>
+        <v>231</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="G48" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I48" t="s">
-        <v>14</v>
+        <v>232</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>10506</v>
+        <v>10433</v>
       </c>
       <c r="B49" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C49">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D49">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>62</v>
+        <v>231</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="G49" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H49">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I49" t="s">
-        <v>14</v>
+        <v>232</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>10507</v>
+        <v>10433</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C50">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D50">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>63</v>
+        <v>231</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="G50" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="H50">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I50" t="s">
-        <v>65</v>
+        <v>232</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>10507</v>
+        <v>10506</v>
       </c>
       <c r="B51" t="s">
         <v>61</v>
       </c>
       <c r="C51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E51" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="G51" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="H51">
         <v>4</v>
       </c>
       <c r="I51" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>10508</v>
+        <v>10506</v>
       </c>
       <c r="B52" t="s">
         <v>61</v>
       </c>
       <c r="C52">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G52" t="s">
         <v>20</v>
@@ -2569,12 +2593,12 @@
         <v>6</v>
       </c>
       <c r="I52" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>10508</v>
+        <v>10507</v>
       </c>
       <c r="B53" t="s">
         <v>61</v>
@@ -2583,187 +2607,187 @@
         <v>5</v>
       </c>
       <c r="D53">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E53" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="G53" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="H53">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I53" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>10509</v>
+        <v>10507</v>
       </c>
       <c r="B54" t="s">
         <v>61</v>
       </c>
       <c r="C54">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D54">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G54" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="H54">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I54" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>10509</v>
+        <v>10508</v>
       </c>
       <c r="B55" t="s">
         <v>61</v>
       </c>
       <c r="C55">
+        <v>5</v>
+      </c>
+      <c r="D55">
+        <v>8</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G55" t="s">
+        <v>20</v>
+      </c>
+      <c r="H55">
         <v>6</v>
       </c>
-      <c r="D55">
-        <v>9</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G55" t="s">
-        <v>53</v>
-      </c>
-      <c r="H55">
-        <v>3</v>
-      </c>
       <c r="I55" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>10510</v>
+        <v>10508</v>
       </c>
       <c r="B56" t="s">
         <v>61</v>
       </c>
       <c r="C56">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D56">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="G56" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="H56">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I56" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>10510</v>
+        <v>10509</v>
       </c>
       <c r="B57" t="s">
         <v>61</v>
       </c>
       <c r="C57">
+        <v>6</v>
+      </c>
+      <c r="D57">
+        <v>9</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G57" t="s">
+        <v>20</v>
+      </c>
+      <c r="H57">
         <v>7</v>
       </c>
-      <c r="D57">
-        <v>10</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G57" t="s">
-        <v>10</v>
-      </c>
-      <c r="H57">
-        <v>3</v>
-      </c>
       <c r="I57" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>10510</v>
+        <v>10509</v>
       </c>
       <c r="B58" t="s">
         <v>61</v>
       </c>
       <c r="C58">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D58">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E58" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G58" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I58" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>10620</v>
+        <v>10510</v>
       </c>
       <c r="B59" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D59">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="G59" t="s">
         <v>20</v>
@@ -2772,70 +2796,70 @@
         <v>6</v>
       </c>
       <c r="I59" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>10620</v>
+        <v>10510</v>
       </c>
       <c r="B60" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D60">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="G60" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H60">
         <v>3</v>
       </c>
       <c r="I60" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>10620</v>
+        <v>10510</v>
       </c>
       <c r="B61" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D61">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="G61" t="s">
-        <v>230</v>
+        <v>18</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>10621</v>
+        <v>10620</v>
       </c>
       <c r="B62" t="s">
         <v>72</v>
@@ -2844,19 +2868,19 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E62" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="G62" t="s">
         <v>20</v>
       </c>
       <c r="H62">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I62" t="s">
         <v>71</v>
@@ -2864,7 +2888,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>10621</v>
+        <v>10620</v>
       </c>
       <c r="B63" t="s">
         <v>72</v>
@@ -2873,19 +2897,19 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E63" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="G63" t="s">
         <v>11</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I63" t="s">
         <v>71</v>
@@ -2893,94 +2917,94 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>10619</v>
+        <v>10620</v>
       </c>
       <c r="B64" t="s">
         <v>72</v>
       </c>
       <c r="C64">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>19</v>
+        <v>-1</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G64" t="s">
-        <v>10</v>
+        <v>230</v>
       </c>
       <c r="H64">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>10619</v>
+        <v>10621</v>
       </c>
       <c r="B65" t="s">
         <v>72</v>
       </c>
       <c r="C65">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D65">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G65" t="s">
         <v>20</v>
       </c>
       <c r="H65">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I65" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>10622</v>
+        <v>10621</v>
       </c>
       <c r="B66" t="s">
         <v>72</v>
       </c>
       <c r="C66">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D66">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H66">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I66" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>10622</v>
+        <v>10619</v>
       </c>
       <c r="B67" t="s">
         <v>72</v>
@@ -2989,433 +3013,433 @@
         <v>15</v>
       </c>
       <c r="D67">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E67" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F67" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="G67" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I67" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>10623</v>
+        <v>10619</v>
       </c>
       <c r="B68" t="s">
         <v>72</v>
       </c>
       <c r="C68">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D68">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G68" t="s">
         <v>20</v>
       </c>
       <c r="H68">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I68" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>10623</v>
+        <v>10622</v>
       </c>
       <c r="B69" t="s">
         <v>72</v>
       </c>
       <c r="C69">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D69">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E69" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F69" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F69" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="G69" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I69" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>10624</v>
+        <v>10622</v>
       </c>
       <c r="B70" t="s">
         <v>72</v>
       </c>
       <c r="C70">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D70">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G70" t="s">
         <v>20</v>
       </c>
       <c r="H70">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I70" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>10624</v>
+        <v>10623</v>
       </c>
       <c r="B71" t="s">
         <v>72</v>
       </c>
       <c r="C71">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D71">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E71" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F71" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="G71" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H71">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I71" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>10625</v>
+        <v>10623</v>
       </c>
       <c r="B72" t="s">
         <v>72</v>
       </c>
       <c r="C72">
+        <v>16</v>
+      </c>
+      <c r="D72">
+        <v>21</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G72" t="s">
         <v>18</v>
       </c>
-      <c r="D72">
-        <v>23</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G72" t="s">
-        <v>20</v>
-      </c>
       <c r="H72">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>10625</v>
+        <v>10624</v>
       </c>
       <c r="B73" t="s">
         <v>72</v>
       </c>
       <c r="C73">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D73">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E73" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F73" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="G73" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H73">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I73" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>10626</v>
+        <v>10624</v>
       </c>
       <c r="B74" t="s">
         <v>72</v>
       </c>
       <c r="C74">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D74">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="G74" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H74">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I74" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>10626</v>
+        <v>10625</v>
       </c>
       <c r="B75" t="s">
         <v>72</v>
       </c>
       <c r="C75">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D75">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E75" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F75" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F75" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G75" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H75">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I75" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>10626</v>
+        <v>10625</v>
       </c>
       <c r="B76" t="s">
         <v>72</v>
       </c>
       <c r="C76">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D76">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E76" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F76" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G76" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I76" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>10720</v>
+        <v>10626</v>
       </c>
       <c r="B77" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C77">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D77">
+        <v>24</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G77" t="s">
         <v>20</v>
       </c>
-      <c r="E77" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G77" t="s">
-        <v>10</v>
-      </c>
       <c r="H77">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I77" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>10721</v>
+        <v>10626</v>
       </c>
       <c r="B78" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C78">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D78">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="G78" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H78">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I78" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>10722</v>
+        <v>10626</v>
       </c>
       <c r="B79" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C79">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D79">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="G79" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="H79">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I79" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>10722</v>
+        <v>10720</v>
       </c>
       <c r="B80" t="s">
         <v>87</v>
       </c>
       <c r="C80">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D80">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G80" t="s">
+        <v>10</v>
+      </c>
+      <c r="H80">
         <v>11</v>
       </c>
-      <c r="H80">
-        <v>4</v>
-      </c>
       <c r="I80" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>10723</v>
+        <v>10721</v>
       </c>
       <c r="B81" t="s">
         <v>87</v>
       </c>
       <c r="C81">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D81">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G81" t="s">
         <v>10</v>
       </c>
       <c r="H81">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I81" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>10723</v>
+        <v>10722</v>
       </c>
       <c r="B82" t="s">
         <v>87</v>
@@ -3424,259 +3448,259 @@
         <v>18</v>
       </c>
       <c r="D82">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E82" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F82" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F82" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="G82" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H82">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I82" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>10724</v>
+        <v>10722</v>
       </c>
       <c r="B83" t="s">
         <v>87</v>
       </c>
       <c r="C83">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D83">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H83">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I83" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>10724</v>
+        <v>10723</v>
       </c>
       <c r="B84" t="s">
         <v>87</v>
       </c>
       <c r="C84">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D84">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E84" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F84" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F84" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="G84" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I84" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>10725</v>
+        <v>10723</v>
       </c>
       <c r="B85" t="s">
         <v>87</v>
       </c>
       <c r="C85">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D85">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="G85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H85">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I85" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>10725</v>
+        <v>10724</v>
       </c>
       <c r="B86" t="s">
         <v>87</v>
       </c>
       <c r="C86">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D86">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E86" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F86" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F86" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G86" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H86">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I86" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>10826</v>
+        <v>10724</v>
       </c>
       <c r="B87" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C87">
+        <v>19</v>
+      </c>
+      <c r="D87">
+        <v>24</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G87" t="s">
         <v>18</v>
       </c>
-      <c r="D87">
-        <v>26</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G87" t="s">
-        <v>10</v>
-      </c>
       <c r="H87">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I87" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>10827</v>
+        <v>10725</v>
       </c>
       <c r="B88" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C88">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D88">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="G88" t="s">
         <v>10</v>
       </c>
       <c r="H88">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I88" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>10827</v>
+        <v>10725</v>
       </c>
       <c r="B89" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C89">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D89">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="G89" t="s">
         <v>18</v>
       </c>
       <c r="H89">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I89" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>10828</v>
+        <v>10826</v>
       </c>
       <c r="B90" t="s">
         <v>99</v>
       </c>
       <c r="C90">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D90">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G90" t="s">
         <v>10</v>
       </c>
       <c r="H90">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I90" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>10828</v>
+        <v>10827</v>
       </c>
       <c r="B91" t="s">
         <v>99</v>
@@ -3685,27 +3709,27 @@
         <v>19</v>
       </c>
       <c r="D91">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E91" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F91" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F91" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="G91" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H91">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I91" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>10829</v>
+        <v>10827</v>
       </c>
       <c r="B92" t="s">
         <v>99</v>
@@ -3714,143 +3738,143 @@
         <v>19</v>
       </c>
       <c r="D92">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G92" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H92">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I92" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>10830</v>
+        <v>10828</v>
       </c>
       <c r="B93" t="s">
         <v>99</v>
       </c>
       <c r="C93">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D93">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G93" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H93">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I93" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>10831</v>
+        <v>10828</v>
       </c>
       <c r="B94" t="s">
         <v>99</v>
       </c>
       <c r="C94">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D94">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G94" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H94">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I94" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>10831</v>
+        <v>10829</v>
       </c>
       <c r="B95" t="s">
         <v>99</v>
       </c>
       <c r="C95">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D95">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G95" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H95">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I95" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>10832</v>
+        <v>10830</v>
       </c>
       <c r="B96" t="s">
         <v>99</v>
       </c>
       <c r="C96">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D96">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G96" t="s">
         <v>20</v>
       </c>
       <c r="H96">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I96" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>10832</v>
+        <v>10831</v>
       </c>
       <c r="B97" t="s">
         <v>99</v>
@@ -3859,230 +3883,230 @@
         <v>21</v>
       </c>
       <c r="D97">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E97" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F97" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F97" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="G97" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H97">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I97" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>10833</v>
+        <v>10831</v>
       </c>
       <c r="B98" t="s">
         <v>99</v>
       </c>
       <c r="C98">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D98">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="G98" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H98">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I98" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>10833</v>
+        <v>10832</v>
       </c>
       <c r="B99" t="s">
         <v>99</v>
       </c>
       <c r="C99">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D99">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E99" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F99" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F99" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G99" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H99">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I99" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>10905</v>
+        <v>10832</v>
       </c>
       <c r="B100" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C100">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D100">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G100" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H100">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I100" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>10905</v>
+        <v>10833</v>
       </c>
       <c r="B101" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C101">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D101">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
       <c r="G101" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="H101">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I101" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>10906</v>
+        <v>10833</v>
       </c>
       <c r="B102" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C102">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D102">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
       <c r="G102" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H102">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I102" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>10906</v>
+        <v>10905</v>
       </c>
       <c r="B103" t="s">
         <v>114</v>
       </c>
       <c r="C103">
+        <v>4</v>
+      </c>
+      <c r="D103">
         <v>5</v>
       </c>
-      <c r="D103">
+      <c r="E103" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G103" t="s">
+        <v>20</v>
+      </c>
+      <c r="H103">
         <v>6</v>
       </c>
-      <c r="E103" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G103" t="s">
-        <v>10</v>
-      </c>
-      <c r="H103">
-        <v>4</v>
-      </c>
       <c r="I103" t="s">
-        <v>118</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>10910</v>
+        <v>10905</v>
       </c>
       <c r="B104" t="s">
         <v>114</v>
       </c>
       <c r="C104">
+        <v>4</v>
+      </c>
+      <c r="D104">
         <v>5</v>
       </c>
-      <c r="D104">
-        <v>7</v>
-      </c>
       <c r="E104" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G104" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="H104">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I104" t="s">
-        <v>120</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>10910</v>
+        <v>10906</v>
       </c>
       <c r="B105" t="s">
         <v>114</v>
@@ -4091,172 +4115,172 @@
         <v>5</v>
       </c>
       <c r="D105">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E105" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F105" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F105" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="G105" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H105">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I105" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>10911</v>
+        <v>10906</v>
       </c>
       <c r="B106" t="s">
         <v>114</v>
       </c>
       <c r="C106">
+        <v>5</v>
+      </c>
+      <c r="D106">
         <v>6</v>
       </c>
-      <c r="D106">
-        <v>8</v>
-      </c>
       <c r="E106" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G106" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H106">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I106" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>10911</v>
+        <v>10910</v>
       </c>
       <c r="B107" t="s">
         <v>114</v>
       </c>
       <c r="C107">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D107">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E107" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F107" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F107" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="G107" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H107">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I107" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>10912</v>
+        <v>10910</v>
       </c>
       <c r="B108" t="s">
         <v>114</v>
       </c>
       <c r="C108">
+        <v>5</v>
+      </c>
+      <c r="D108">
         <v>7</v>
       </c>
-      <c r="D108">
-        <v>9</v>
-      </c>
       <c r="E108" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G108" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H108">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I108" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>10912</v>
+        <v>10911</v>
       </c>
       <c r="B109" t="s">
         <v>114</v>
       </c>
       <c r="C109">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D109">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E109" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F109" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F109" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="G109" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H109">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I109" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>10913</v>
+        <v>10911</v>
       </c>
       <c r="B110" t="s">
         <v>114</v>
       </c>
       <c r="C110">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D110">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="G110" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H110">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I110" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>10913</v>
+        <v>10912</v>
       </c>
       <c r="B111" t="s">
         <v>114</v>
@@ -4265,1332 +4289,1332 @@
         <v>7</v>
       </c>
       <c r="D111">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E111" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F111" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F111" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G111" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H111">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I111" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>11027</v>
+        <v>10912</v>
       </c>
       <c r="B112" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C112">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D112">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G112" t="s">
         <v>10</v>
       </c>
       <c r="H112">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I112" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>11027</v>
+        <v>10913</v>
       </c>
       <c r="B113" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C113">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D113">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>129</v>
+        <v>233</v>
       </c>
       <c r="G113" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H113">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I113" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>11028</v>
+        <v>10913</v>
       </c>
       <c r="B114" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C114">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D114">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="G114" t="s">
         <v>10</v>
       </c>
       <c r="H114">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I114" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>11028</v>
+        <v>10914</v>
       </c>
       <c r="B115" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C115">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D115">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>129</v>
+        <v>233</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="G115" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H115">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I115" t="s">
-        <v>131</v>
+        <v>234</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>11029</v>
+        <v>10914</v>
       </c>
       <c r="B116" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C116">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D116">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>132</v>
+        <v>24</v>
       </c>
       <c r="G116" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="H116">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I116" t="s">
-        <v>133</v>
+        <v>234</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>11029</v>
+        <v>11027</v>
       </c>
       <c r="B117" t="s">
         <v>127</v>
       </c>
       <c r="C117">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D117">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G117" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H117">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I117" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>11030</v>
+        <v>11027</v>
       </c>
       <c r="B118" t="s">
         <v>127</v>
       </c>
       <c r="C118">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D118">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G118" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H118">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I118" t="s">
-        <v>135</v>
+        <v>14</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>11030</v>
+        <v>11028</v>
       </c>
       <c r="B119" t="s">
         <v>127</v>
       </c>
       <c r="C119">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D119">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G119" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H119">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I119" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>11031</v>
+        <v>11028</v>
       </c>
       <c r="B120" t="s">
         <v>127</v>
       </c>
       <c r="C120">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D120">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>24</v>
+        <v>130</v>
       </c>
       <c r="G120" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H120">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I120" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>11031</v>
+        <v>11029</v>
       </c>
       <c r="B121" t="s">
         <v>127</v>
       </c>
       <c r="C121">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D121">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="G121" t="s">
         <v>10</v>
       </c>
       <c r="H121">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I121" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>11122</v>
+        <v>11029</v>
       </c>
       <c r="B122" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C122">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D122">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H122">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I122" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>11122</v>
+        <v>11030</v>
       </c>
       <c r="B123" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C123">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D123">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G123" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I123" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>11123</v>
+        <v>11030</v>
       </c>
       <c r="B124" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C124">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D124">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G124" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H124">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I124" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>11123</v>
+        <v>11031</v>
       </c>
       <c r="B125" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C125">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D125">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>140</v>
+        <v>24</v>
       </c>
       <c r="G125" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I125" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>11124</v>
+        <v>11031</v>
       </c>
       <c r="B126" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C126">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D126">
+        <v>31</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F126" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E126" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="G126" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H126">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I126" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>11124</v>
+        <v>11122</v>
       </c>
       <c r="B127" t="s">
         <v>137</v>
       </c>
       <c r="C127">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D127">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G127" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H127">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I127" t="s">
-        <v>143</v>
+        <v>14</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>11125</v>
+        <v>11122</v>
       </c>
       <c r="B128" t="s">
         <v>137</v>
       </c>
       <c r="C128">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D128">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>24</v>
+        <v>139</v>
       </c>
       <c r="G128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H128">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I128" t="s">
-        <v>144</v>
+        <v>14</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>11125</v>
+        <v>11123</v>
       </c>
       <c r="B129" t="s">
         <v>137</v>
       </c>
       <c r="C129">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D129">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>24</v>
+        <v>140</v>
       </c>
       <c r="G129" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H129">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I129" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>11221</v>
+        <v>11123</v>
       </c>
       <c r="B130" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C130">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D130">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="G130" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H130">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I130" t="s">
-        <v>14</v>
+        <v>141</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>11221</v>
+        <v>11124</v>
       </c>
       <c r="B131" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C131">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D131">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G131" t="s">
         <v>20</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I131" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>11222</v>
+        <v>11124</v>
       </c>
       <c r="B132" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C132">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D132">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G132" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H132">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I132" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>11223</v>
+        <v>11125</v>
       </c>
       <c r="B133" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C133">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D133">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>151</v>
+        <v>235</v>
       </c>
       <c r="G133" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H133">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I133" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>11223</v>
+        <v>11125</v>
       </c>
       <c r="B134" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C134">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D134">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>151</v>
+        <v>235</v>
       </c>
       <c r="G134" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H134">
         <v>3</v>
       </c>
       <c r="I134" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>11224</v>
+        <v>11126</v>
       </c>
       <c r="B135" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C135">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D135">
+        <v>26</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F135" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E135" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="G135" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H135">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I135" t="s">
-        <v>153</v>
+        <v>236</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>11224</v>
+        <v>11126</v>
       </c>
       <c r="B136" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C136">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D136">
+        <v>26</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F136" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E136" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="G136" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H136">
         <v>3</v>
       </c>
       <c r="I136" t="s">
-        <v>153</v>
+        <v>236</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>11225</v>
+        <v>11221</v>
       </c>
       <c r="B137" t="s">
         <v>145</v>
       </c>
       <c r="C137">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D137">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="G137" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H137">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I137" t="s">
-        <v>155</v>
+        <v>14</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>11225</v>
+        <v>11221</v>
       </c>
       <c r="B138" t="s">
         <v>145</v>
       </c>
       <c r="C138">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D138">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="G138" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H138">
         <v>2</v>
       </c>
       <c r="I138" t="s">
-        <v>155</v>
+        <v>14</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>11225</v>
+        <v>11222</v>
       </c>
       <c r="B139" t="s">
         <v>145</v>
       </c>
       <c r="C139">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D139">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="G139" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I139" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>11226</v>
+        <v>11223</v>
       </c>
       <c r="B140" t="s">
         <v>145</v>
       </c>
       <c r="C140">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D140">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>24</v>
+        <v>151</v>
       </c>
       <c r="G140" t="s">
         <v>20</v>
       </c>
       <c r="H140">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I140" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>11226</v>
+        <v>11223</v>
       </c>
       <c r="B141" t="s">
         <v>145</v>
       </c>
       <c r="C141">
+        <v>16</v>
+      </c>
+      <c r="D141">
+        <v>23</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G141" t="s">
         <v>18</v>
       </c>
-      <c r="D141">
-        <v>26</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F141" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G141" t="s">
-        <v>11</v>
-      </c>
       <c r="H141">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I141" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>11226</v>
+        <v>11224</v>
       </c>
       <c r="B142" t="s">
         <v>145</v>
       </c>
       <c r="C142">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D142">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="G142" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I142" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>11314</v>
+        <v>11224</v>
       </c>
       <c r="B143" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C143">
-        <v>-2</v>
+        <v>16</v>
       </c>
       <c r="D143">
-        <v>-9</v>
+        <v>24</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G143" t="s">
-        <v>159</v>
+        <v>18</v>
       </c>
       <c r="H143">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I143" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>11314</v>
+        <v>11225</v>
       </c>
       <c r="B144" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C144">
-        <v>-2</v>
+        <v>17</v>
       </c>
       <c r="D144">
-        <v>-9</v>
+        <v>25</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="G144" t="s">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I144" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>11315</v>
+        <v>11225</v>
       </c>
       <c r="B145" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C145">
-        <v>-2</v>
+        <v>17</v>
       </c>
       <c r="D145">
-        <v>-8</v>
+        <v>25</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="G145" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="H145">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I145" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>11316</v>
+        <v>11225</v>
       </c>
       <c r="B146" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C146">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="D146">
-        <v>-7</v>
+        <v>25</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="G146" t="s">
-        <v>159</v>
+        <v>18</v>
       </c>
       <c r="H146">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I146" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>11316</v>
+        <v>11226</v>
       </c>
       <c r="B147" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C147">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="D147">
-        <v>-7</v>
+        <v>26</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>165</v>
+        <v>24</v>
       </c>
       <c r="G147" t="s">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I147" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>11317</v>
+        <v>11226</v>
       </c>
       <c r="B148" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C148">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="D148">
-        <v>-6</v>
+        <v>26</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>167</v>
+        <v>24</v>
       </c>
       <c r="G148" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="H148">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I148" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>11318</v>
+        <v>11226</v>
       </c>
       <c r="B149" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C149">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="D149">
-        <v>-5</v>
+        <v>26</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>169</v>
+        <v>24</v>
       </c>
       <c r="G149" t="s">
-        <v>170</v>
+        <v>18</v>
       </c>
       <c r="H149">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I149" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>11319</v>
+        <v>11314</v>
       </c>
       <c r="B150" t="s">
         <v>157</v>
       </c>
       <c r="C150">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D150">
-        <v>-4</v>
+        <v>-9</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="G150" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="H150">
         <v>4</v>
       </c>
       <c r="I150" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>11319</v>
+        <v>11314</v>
       </c>
       <c r="B151" t="s">
         <v>157</v>
       </c>
       <c r="C151">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D151">
-        <v>-4</v>
+        <v>-9</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="G151" t="s">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I151" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>11319</v>
+        <v>11315</v>
       </c>
       <c r="B152" t="s">
         <v>157</v>
       </c>
       <c r="C152">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D152">
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="G152" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I152" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>11320</v>
+        <v>11316</v>
       </c>
       <c r="B153" t="s">
         <v>157</v>
       </c>
       <c r="C153">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D153">
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="G153" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="H153">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I153" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>11320</v>
+        <v>11316</v>
       </c>
       <c r="B154" t="s">
         <v>157</v>
       </c>
       <c r="C154">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D154">
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="G154" t="s">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>11321</v>
+        <v>11317</v>
       </c>
       <c r="B155" t="s">
         <v>157</v>
       </c>
       <c r="C155">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D155">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="G155" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="H155">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I155" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>11321</v>
+        <v>11318</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
       </c>
       <c r="C156">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D156">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="G156" t="s">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I156" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>11321</v>
+        <v>11319</v>
       </c>
       <c r="B157" t="s">
         <v>157</v>
@@ -5599,27 +5623,27 @@
         <v>0</v>
       </c>
       <c r="D157">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G157" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I157" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>11322</v>
+        <v>11319</v>
       </c>
       <c r="B158" t="s">
         <v>157</v>
@@ -5628,27 +5652,27 @@
         <v>0</v>
       </c>
       <c r="D158">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G158" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H158">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I158" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>11322</v>
+        <v>11319</v>
       </c>
       <c r="B159" t="s">
         <v>157</v>
@@ -5657,27 +5681,27 @@
         <v>0</v>
       </c>
       <c r="D159">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G159" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I159" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>11322</v>
+        <v>11320</v>
       </c>
       <c r="B160" t="s">
         <v>157</v>
@@ -5686,27 +5710,27 @@
         <v>0</v>
       </c>
       <c r="D160">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G160" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I160" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>11323</v>
+        <v>11320</v>
       </c>
       <c r="B161" t="s">
         <v>157</v>
@@ -5715,27 +5739,27 @@
         <v>0</v>
       </c>
       <c r="D161">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="G161" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H161">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I161" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>11323</v>
+        <v>11321</v>
       </c>
       <c r="B162" t="s">
         <v>157</v>
@@ -5744,1144 +5768,1144 @@
         <v>0</v>
       </c>
       <c r="D162">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G162" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I162" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>11313</v>
+        <v>11321</v>
       </c>
       <c r="B163" t="s">
         <v>157</v>
       </c>
       <c r="C163">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D163">
-        <v>13</v>
+        <v>-2</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="G163" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H163">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I163" t="s">
-        <v>14</v>
+        <v>176</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>11324</v>
+        <v>11321</v>
       </c>
       <c r="B164" t="s">
         <v>157</v>
       </c>
       <c r="C164">
+        <v>0</v>
+      </c>
+      <c r="D164">
+        <v>-2</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G164" t="s">
         <v>11</v>
       </c>
-      <c r="D164">
-        <v>14</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F164" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="G164" t="s">
-        <v>10</v>
-      </c>
       <c r="H164">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I164" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>11324</v>
+        <v>11322</v>
       </c>
       <c r="B165" t="s">
         <v>157</v>
       </c>
       <c r="C165">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D165">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="G165" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I165" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>11324</v>
+        <v>11322</v>
       </c>
       <c r="B166" t="s">
         <v>157</v>
       </c>
       <c r="C166">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D166">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="G166" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H166">
         <v>2</v>
       </c>
       <c r="I166" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>11325</v>
+        <v>11322</v>
       </c>
       <c r="B167" t="s">
         <v>157</v>
       </c>
       <c r="C167">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D167">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G167" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="H167">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I167" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>11325</v>
+        <v>11323</v>
       </c>
       <c r="B168" t="s">
         <v>157</v>
       </c>
       <c r="C168">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D168">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G168" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I168" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>11325</v>
+        <v>11323</v>
       </c>
       <c r="B169" t="s">
         <v>157</v>
       </c>
       <c r="C169">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D169">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G169" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H169">
         <v>2</v>
       </c>
       <c r="I169" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>11326</v>
+        <v>11313</v>
       </c>
       <c r="B170" t="s">
         <v>157</v>
       </c>
       <c r="C170">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D170">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G170" t="s">
         <v>10</v>
       </c>
       <c r="H170">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I170" t="s">
-        <v>186</v>
+        <v>14</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>11327</v>
+        <v>11324</v>
       </c>
       <c r="B171" t="s">
         <v>157</v>
       </c>
       <c r="C171">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D171">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G171" t="s">
         <v>10</v>
       </c>
       <c r="H171">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I171" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>11327</v>
+        <v>11324</v>
       </c>
       <c r="B172" t="s">
         <v>157</v>
       </c>
       <c r="C172">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D172">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G172" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H172">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I172" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>11328</v>
+        <v>11324</v>
       </c>
       <c r="B173" t="s">
         <v>157</v>
       </c>
       <c r="C173">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D173">
+        <v>14</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G173" t="s">
         <v>18</v>
       </c>
-      <c r="E173" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F173" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="G173" t="s">
-        <v>10</v>
-      </c>
       <c r="H173">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I173" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>11328</v>
+        <v>11325</v>
       </c>
       <c r="B174" t="s">
         <v>157</v>
       </c>
       <c r="C174">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D174">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G174" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H174">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I174" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>11329</v>
+        <v>11325</v>
       </c>
       <c r="B175" t="s">
         <v>157</v>
       </c>
       <c r="C175">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D175">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>24</v>
+        <v>185</v>
       </c>
       <c r="G175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H175">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I175" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>11329</v>
+        <v>11325</v>
       </c>
       <c r="B176" t="s">
         <v>157</v>
       </c>
       <c r="C176">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D176">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>24</v>
+        <v>185</v>
       </c>
       <c r="G176" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H176">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I176" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>11405</v>
+        <v>11326</v>
       </c>
       <c r="B177" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="C177">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D177">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="G177" t="s">
         <v>10</v>
       </c>
       <c r="H177">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I177" t="s">
-        <v>14</v>
+        <v>186</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>11405</v>
+        <v>11327</v>
       </c>
       <c r="B178" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="C178">
+        <v>12</v>
+      </c>
+      <c r="D178">
+        <v>17</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G178" t="s">
+        <v>10</v>
+      </c>
+      <c r="H178">
         <v>4</v>
       </c>
-      <c r="D178">
-        <v>5</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F178" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G178" t="s">
-        <v>20</v>
-      </c>
-      <c r="H178">
-        <v>2</v>
-      </c>
       <c r="I178" t="s">
-        <v>14</v>
+        <v>189</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>11406</v>
+        <v>11327</v>
       </c>
       <c r="B179" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="C179">
+        <v>12</v>
+      </c>
+      <c r="D179">
+        <v>17</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G179" t="s">
+        <v>20</v>
+      </c>
+      <c r="H179">
         <v>4</v>
       </c>
-      <c r="D179">
-        <v>6</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F179" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G179" t="s">
-        <v>10</v>
-      </c>
-      <c r="H179">
-        <v>7</v>
-      </c>
-      <c r="I179" s="2" t="s">
-        <v>199</v>
+      <c r="I179" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>11406</v>
+        <v>11328</v>
       </c>
       <c r="B180" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="C180">
+        <v>13</v>
+      </c>
+      <c r="D180">
+        <v>18</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G180" t="s">
+        <v>10</v>
+      </c>
+      <c r="H180">
         <v>4</v>
       </c>
-      <c r="D180">
-        <v>6</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F180" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G180" t="s">
-        <v>20</v>
-      </c>
-      <c r="H180">
-        <v>2</v>
-      </c>
-      <c r="I180" s="2" t="s">
-        <v>199</v>
+      <c r="I180" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>11407</v>
+        <v>11328</v>
       </c>
       <c r="B181" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="C181">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D181">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="G181" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H181">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I181" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>11407</v>
+        <v>11329</v>
       </c>
       <c r="B182" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="C182">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D182">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>197</v>
+        <v>24</v>
       </c>
       <c r="G182" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I182" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>11408</v>
+        <v>11329</v>
       </c>
       <c r="B183" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="C183">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D183">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>200</v>
+        <v>24</v>
       </c>
       <c r="G183" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H183">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I183" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>11408</v>
+        <v>11405</v>
       </c>
       <c r="B184" t="s">
         <v>193</v>
       </c>
       <c r="C184">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D184">
+        <v>5</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G184" t="s">
+        <v>10</v>
+      </c>
+      <c r="H184">
         <v>8</v>
       </c>
-      <c r="E184" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F184" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="G184" t="s">
-        <v>20</v>
-      </c>
-      <c r="H184">
-        <v>3</v>
-      </c>
       <c r="I184" t="s">
-        <v>201</v>
+        <v>14</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>11409</v>
+        <v>11405</v>
       </c>
       <c r="B185" t="s">
         <v>193</v>
       </c>
       <c r="C185">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D185">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="G185" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H185">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I185" t="s">
-        <v>203</v>
+        <v>14</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>11409</v>
+        <v>11406</v>
       </c>
       <c r="B186" t="s">
         <v>193</v>
       </c>
       <c r="C186">
+        <v>4</v>
+      </c>
+      <c r="D186">
         <v>6</v>
       </c>
-      <c r="D186">
-        <v>9</v>
-      </c>
       <c r="E186" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G186" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H186">
-        <v>3</v>
-      </c>
-      <c r="I186" t="s">
-        <v>203</v>
+        <v>7</v>
+      </c>
+      <c r="I186" s="2" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>11410</v>
+        <v>11406</v>
       </c>
       <c r="B187" t="s">
         <v>193</v>
       </c>
       <c r="C187">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D187">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>24</v>
+        <v>196</v>
       </c>
       <c r="G187" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H187">
-        <v>8</v>
-      </c>
-      <c r="I187" t="s">
-        <v>204</v>
+        <v>2</v>
+      </c>
+      <c r="I187" s="2" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>11410</v>
+        <v>11407</v>
       </c>
       <c r="B188" t="s">
         <v>193</v>
       </c>
       <c r="C188">
+        <v>5</v>
+      </c>
+      <c r="D188">
         <v>7</v>
       </c>
-      <c r="D188">
-        <v>10</v>
-      </c>
       <c r="E188" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>24</v>
+        <v>197</v>
       </c>
       <c r="G188" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I188" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>11410</v>
+        <v>11407</v>
       </c>
       <c r="B189" t="s">
         <v>193</v>
       </c>
       <c r="C189">
+        <v>5</v>
+      </c>
+      <c r="D189">
         <v>7</v>
       </c>
-      <c r="D189">
-        <v>10</v>
-      </c>
       <c r="E189" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>24</v>
+        <v>197</v>
       </c>
       <c r="G189" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H189">
         <v>2</v>
       </c>
       <c r="I189" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>11506</v>
+        <v>11408</v>
       </c>
       <c r="B190" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C190">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D190">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G190" t="s">
         <v>10</v>
       </c>
       <c r="H190">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I190" t="s">
-        <v>14</v>
+        <v>201</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>11506</v>
+        <v>11408</v>
       </c>
       <c r="B191" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C191">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D191">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G191" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H191">
         <v>3</v>
       </c>
       <c r="I191" t="s">
-        <v>14</v>
+        <v>201</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>11507</v>
+        <v>11409</v>
       </c>
       <c r="B192" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C192">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D192">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G192" t="s">
         <v>10</v>
       </c>
       <c r="H192">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I192" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>11507</v>
+        <v>11409</v>
       </c>
       <c r="B193" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C193">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D193">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G193" t="s">
         <v>20</v>
       </c>
       <c r="H193">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I193" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>11508</v>
+        <v>11410</v>
       </c>
       <c r="B194" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C194">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D194">
+        <v>10</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G194" t="s">
+        <v>10</v>
+      </c>
+      <c r="H194">
         <v>8</v>
       </c>
-      <c r="E194" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F194" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="G194" t="s">
-        <v>10</v>
-      </c>
-      <c r="H194">
-        <v>5</v>
-      </c>
       <c r="I194" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>11508</v>
+        <v>11410</v>
       </c>
       <c r="B195" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C195">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D195">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>211</v>
+        <v>24</v>
       </c>
       <c r="G195" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H195">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I195" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>11509</v>
+        <v>11410</v>
       </c>
       <c r="B196" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C196">
         <v>7</v>
       </c>
       <c r="D196">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G196" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H196">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I196" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>11509</v>
+        <v>11506</v>
       </c>
       <c r="B197" t="s">
         <v>205</v>
       </c>
       <c r="C197">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D197">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="G197" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I197" t="s">
-        <v>212</v>
+        <v>14</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>11509</v>
+        <v>11506</v>
       </c>
       <c r="B198" t="s">
         <v>205</v>
       </c>
       <c r="C198">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D198">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="G198" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I198" t="s">
-        <v>212</v>
+        <v>14</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>11626</v>
+        <v>11507</v>
       </c>
       <c r="B199" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C199">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D199">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>9</v>
+        <v>207</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G199" t="s">
         <v>10</v>
       </c>
       <c r="H199">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I199" t="s">
-        <v>14</v>
+        <v>209</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>11626</v>
+        <v>11507</v>
       </c>
       <c r="B200" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C200">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D200">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>9</v>
+        <v>207</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G200" t="s">
         <v>20</v>
       </c>
       <c r="H200">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I200" t="s">
-        <v>14</v>
+        <v>209</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>11627</v>
+        <v>11508</v>
       </c>
       <c r="B201" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C201">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D201">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G201" t="s">
         <v>10</v>
@@ -6890,140 +6914,140 @@
         <v>5</v>
       </c>
       <c r="I201" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>11627</v>
+        <v>11508</v>
       </c>
       <c r="B202" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C202">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D202">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G202" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H202">
         <v>4</v>
       </c>
       <c r="I202" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>11628</v>
+        <v>11509</v>
       </c>
       <c r="B203" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C203">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D203">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="G203" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H203">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I203" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>11628</v>
+        <v>11509</v>
       </c>
       <c r="B204" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C204">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D204">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="G204" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H204">
         <v>2</v>
       </c>
       <c r="I204" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>11628</v>
+        <v>11509</v>
       </c>
       <c r="B205" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C205">
+        <v>7</v>
+      </c>
+      <c r="D205">
+        <v>9</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G205" t="s">
         <v>18</v>
-      </c>
-      <c r="D205">
-        <v>28</v>
-      </c>
-      <c r="E205" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F205" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="G205" t="s">
-        <v>218</v>
       </c>
       <c r="H205">
         <v>1</v>
       </c>
       <c r="I205" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>11629</v>
+        <v>11510</v>
       </c>
       <c r="B206" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C206">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D206">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>24</v>
@@ -7032,56 +7056,56 @@
         <v>10</v>
       </c>
       <c r="H206">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I206" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>11629</v>
+        <v>11510</v>
       </c>
       <c r="B207" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C207">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D207">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G207" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H207">
         <v>2</v>
       </c>
       <c r="I207" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>11629</v>
+        <v>11510</v>
       </c>
       <c r="B208" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C208">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D208">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>24</v>
@@ -7090,36 +7114,36 @@
         <v>11</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I208" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>11706</v>
+        <v>11626</v>
       </c>
       <c r="B209" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C209">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D209">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>222</v>
+        <v>9</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="G209" t="s">
         <v>10</v>
       </c>
       <c r="H209">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I209" t="s">
         <v>14</v>
@@ -7127,138 +7151,138 @@
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>11707</v>
+        <v>11626</v>
       </c>
       <c r="B210" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C210">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D210">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>223</v>
+        <v>9</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="G210" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H210">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I210" t="s">
-        <v>225</v>
+        <v>14</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>11707</v>
+        <v>11627</v>
       </c>
       <c r="B211" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C211">
+        <v>17</v>
+      </c>
+      <c r="D211">
+        <v>27</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G211" t="s">
+        <v>10</v>
+      </c>
+      <c r="H211">
         <v>5</v>
       </c>
-      <c r="D211">
-        <v>7</v>
-      </c>
-      <c r="E211" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="F211" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="G211" t="s">
-        <v>20</v>
-      </c>
-      <c r="H211">
-        <v>4</v>
-      </c>
       <c r="I211" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>11708</v>
+        <v>11627</v>
       </c>
       <c r="B212" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C212">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D212">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="G212" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="H212">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I212" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>11708</v>
+        <v>11628</v>
       </c>
       <c r="B213" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C213">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D213">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G213" t="s">
         <v>20</v>
       </c>
       <c r="H213">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I213" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>11708</v>
+        <v>11628</v>
       </c>
       <c r="B214" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C214">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D214">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G214" t="s">
         <v>18</v>
@@ -7267,122 +7291,412 @@
         <v>2</v>
       </c>
       <c r="I214" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>11709</v>
+        <v>11628</v>
       </c>
       <c r="B215" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C215">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D215">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="G215" t="s">
-        <v>11</v>
+        <v>218</v>
       </c>
       <c r="H215">
         <v>1</v>
       </c>
       <c r="I215" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>11710</v>
+        <v>11629</v>
       </c>
       <c r="B216" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C216">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D216">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G216" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="H216">
         <v>4</v>
       </c>
       <c r="I216" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>11710</v>
+        <v>11629</v>
       </c>
       <c r="B217" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C217">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D217">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="F217" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G217" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H217">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I217" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>11710</v>
+        <v>11629</v>
       </c>
       <c r="B218" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C218">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D218">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G218" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H218">
         <v>2</v>
       </c>
       <c r="I218" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>11706</v>
+      </c>
+      <c r="B219" t="s">
+        <v>221</v>
+      </c>
+      <c r="C219">
+        <v>4</v>
+      </c>
+      <c r="D219">
+        <v>6</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G219" t="s">
+        <v>10</v>
+      </c>
+      <c r="H219">
+        <v>10</v>
+      </c>
+      <c r="I219" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>11707</v>
+      </c>
+      <c r="B220" t="s">
+        <v>221</v>
+      </c>
+      <c r="C220">
+        <v>5</v>
+      </c>
+      <c r="D220">
+        <v>7</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G220" t="s">
+        <v>10</v>
+      </c>
+      <c r="H220">
+        <v>6</v>
+      </c>
+      <c r="I220" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>11707</v>
+      </c>
+      <c r="B221" t="s">
+        <v>221</v>
+      </c>
+      <c r="C221">
+        <v>5</v>
+      </c>
+      <c r="D221">
+        <v>7</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G221" t="s">
+        <v>20</v>
+      </c>
+      <c r="H221">
+        <v>4</v>
+      </c>
+      <c r="I221" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>11708</v>
+      </c>
+      <c r="B222" t="s">
+        <v>221</v>
+      </c>
+      <c r="C222">
+        <v>6</v>
+      </c>
+      <c r="D222">
+        <v>8</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G222" t="s">
+        <v>53</v>
+      </c>
+      <c r="H222">
+        <v>5</v>
+      </c>
+      <c r="I222" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>11708</v>
+      </c>
+      <c r="B223" t="s">
+        <v>221</v>
+      </c>
+      <c r="C223">
+        <v>6</v>
+      </c>
+      <c r="D223">
+        <v>8</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G223" t="s">
+        <v>20</v>
+      </c>
+      <c r="H223">
+        <v>3</v>
+      </c>
+      <c r="I223" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>11708</v>
+      </c>
+      <c r="B224" t="s">
+        <v>221</v>
+      </c>
+      <c r="C224">
+        <v>6</v>
+      </c>
+      <c r="D224">
+        <v>8</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G224" t="s">
+        <v>18</v>
+      </c>
+      <c r="H224">
+        <v>2</v>
+      </c>
+      <c r="I224" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>11709</v>
+      </c>
+      <c r="B225" t="s">
+        <v>221</v>
+      </c>
+      <c r="C225">
+        <v>7</v>
+      </c>
+      <c r="D225">
+        <v>9</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G225" t="s">
+        <v>11</v>
+      </c>
+      <c r="H225">
+        <v>1</v>
+      </c>
+      <c r="I225" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>11710</v>
+      </c>
+      <c r="B226" t="s">
+        <v>221</v>
+      </c>
+      <c r="C226">
+        <v>7</v>
+      </c>
+      <c r="D226">
+        <v>10</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G226" t="s">
+        <v>53</v>
+      </c>
+      <c r="H226">
+        <v>4</v>
+      </c>
+      <c r="I226" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>11710</v>
+      </c>
+      <c r="B227" t="s">
+        <v>221</v>
+      </c>
+      <c r="C227">
+        <v>7</v>
+      </c>
+      <c r="D227">
+        <v>10</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G227" t="s">
+        <v>20</v>
+      </c>
+      <c r="H227">
+        <v>3</v>
+      </c>
+      <c r="I227" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>11710</v>
+      </c>
+      <c r="B228" t="s">
+        <v>221</v>
+      </c>
+      <c r="C228">
+        <v>7</v>
+      </c>
+      <c r="D228">
+        <v>10</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G228" t="s">
+        <v>18</v>
+      </c>
+      <c r="H228">
+        <v>2</v>
+      </c>
+      <c r="I228" t="s">
         <v>227</v>
       </c>
     </row>

--- a/inst/extdata/additional_govdata.xlsx
+++ b/inst/extdata/additional_govdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Git_Projekte\bundeslaendeR\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A342D1-E42F-42EB-AC9F-040816A9CCA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD69724-D237-4E16-9E1A-2173A2FEF42C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1073,8 +1073,8 @@
   <dimension ref="A1:I228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E199" sqref="E199"/>
+      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A138" sqref="A138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5052,7 +5052,7 @@
         <v>147</v>
       </c>
       <c r="G137" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H137">
         <v>7</v>
@@ -5081,7 +5081,7 @@
         <v>147</v>
       </c>
       <c r="G138" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H138">
         <v>2</v>

--- a/inst/extdata/additional_govdata.xlsx
+++ b/inst/extdata/additional_govdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Git_Projekte\bundeslaendeR\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertstelzle/Documents/addingsaarland/bundeslaendeR/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD69724-D237-4E16-9E1A-2173A2FEF42C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C100E7E7-4E80-8E49-A35B-A3F7654ECA65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="241">
   <si>
     <t>gov_id</t>
   </si>
@@ -751,6 +751,12 @@
   </si>
   <si>
     <t>https://de.wikipedia.org/wiki/Kabinett_Haseloff_III</t>
+  </si>
+  <si>
+    <t>https://de.wikipedia.org/wiki/Kabinett_Rehlinger</t>
+  </si>
+  <si>
+    <t>2022-04-25</t>
   </si>
 </sst>
 </file>
@@ -1070,25 +1076,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I228"/>
+  <dimension ref="A1:I229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A138" sqref="A138"/>
+      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F182" sqref="F182"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
     <col min="9" max="9" width="77" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1117,7 +1123,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10219</v>
       </c>
@@ -1146,7 +1152,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10219</v>
       </c>
@@ -1175,7 +1181,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10220</v>
       </c>
@@ -1204,7 +1210,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>10220</v>
       </c>
@@ -1233,7 +1239,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>10221</v>
       </c>
@@ -1262,7 +1268,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>10221</v>
       </c>
@@ -1291,7 +1297,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>10222</v>
       </c>
@@ -1320,7 +1326,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>10222</v>
       </c>
@@ -1349,7 +1355,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10223</v>
       </c>
@@ -1378,7 +1384,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10223</v>
       </c>
@@ -1407,7 +1413,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10224</v>
       </c>
@@ -1436,7 +1442,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10224</v>
       </c>
@@ -1465,7 +1471,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10320</v>
       </c>
@@ -1494,7 +1500,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>10321</v>
       </c>
@@ -1523,7 +1529,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>10322</v>
       </c>
@@ -1552,7 +1558,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>10322</v>
       </c>
@@ -1581,7 +1587,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>10323</v>
       </c>
@@ -1610,7 +1616,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>10324</v>
       </c>
@@ -1639,7 +1645,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>10325</v>
       </c>
@@ -1668,7 +1674,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>10325</v>
       </c>
@@ -1697,7 +1703,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>10425</v>
       </c>
@@ -1726,7 +1732,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>10425</v>
       </c>
@@ -1755,7 +1761,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>10425</v>
       </c>
@@ -1784,7 +1790,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>10425</v>
       </c>
@@ -1813,7 +1819,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>10426</v>
       </c>
@@ -1842,7 +1848,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>10426</v>
       </c>
@@ -1871,7 +1877,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>10426</v>
       </c>
@@ -1900,7 +1906,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>10426</v>
       </c>
@@ -1929,7 +1935,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>10427</v>
       </c>
@@ -1958,7 +1964,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>10427</v>
       </c>
@@ -1987,7 +1993,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>10427</v>
       </c>
@@ -2016,7 +2022,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>10427</v>
       </c>
@@ -2045,7 +2051,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>10428</v>
       </c>
@@ -2074,7 +2080,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>10428</v>
       </c>
@@ -2103,7 +2109,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>10428</v>
       </c>
@@ -2132,7 +2138,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>10424</v>
       </c>
@@ -2161,7 +2167,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>10424</v>
       </c>
@@ -2190,7 +2196,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>10429</v>
       </c>
@@ -2219,7 +2225,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>10429</v>
       </c>
@@ -2248,7 +2254,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>10430</v>
       </c>
@@ -2277,7 +2283,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>10430</v>
       </c>
@@ -2306,7 +2312,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>10431</v>
       </c>
@@ -2335,7 +2341,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>10431</v>
       </c>
@@ -2364,7 +2370,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>10432</v>
       </c>
@@ -2393,7 +2399,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>10432</v>
       </c>
@@ -2422,7 +2428,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>10432</v>
       </c>
@@ -2451,7 +2457,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>10433</v>
       </c>
@@ -2480,7 +2486,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>10433</v>
       </c>
@@ -2509,7 +2515,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>10433</v>
       </c>
@@ -2538,7 +2544,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>10506</v>
       </c>
@@ -2567,7 +2573,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>10506</v>
       </c>
@@ -2596,7 +2602,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>10507</v>
       </c>
@@ -2625,7 +2631,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>10507</v>
       </c>
@@ -2654,7 +2660,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>10508</v>
       </c>
@@ -2683,7 +2689,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>10508</v>
       </c>
@@ -2712,7 +2718,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>10509</v>
       </c>
@@ -2741,7 +2747,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>10509</v>
       </c>
@@ -2770,7 +2776,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>10510</v>
       </c>
@@ -2799,7 +2805,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>10510</v>
       </c>
@@ -2828,7 +2834,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>10510</v>
       </c>
@@ -2857,7 +2863,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>10620</v>
       </c>
@@ -2886,7 +2892,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>10620</v>
       </c>
@@ -2915,7 +2921,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>10620</v>
       </c>
@@ -2944,7 +2950,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>10621</v>
       </c>
@@ -2973,7 +2979,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>10621</v>
       </c>
@@ -3002,7 +3008,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>10619</v>
       </c>
@@ -3031,7 +3037,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>10619</v>
       </c>
@@ -3060,7 +3066,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>10622</v>
       </c>
@@ -3089,7 +3095,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>10622</v>
       </c>
@@ -3118,7 +3124,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>10623</v>
       </c>
@@ -3147,7 +3153,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>10623</v>
       </c>
@@ -3176,7 +3182,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>10624</v>
       </c>
@@ -3205,7 +3211,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>10624</v>
       </c>
@@ -3234,7 +3240,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>10625</v>
       </c>
@@ -3263,7 +3269,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>10625</v>
       </c>
@@ -3292,7 +3298,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>10626</v>
       </c>
@@ -3321,7 +3327,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>10626</v>
       </c>
@@ -3350,7 +3356,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>10626</v>
       </c>
@@ -3379,7 +3385,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>10720</v>
       </c>
@@ -3408,7 +3414,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>10721</v>
       </c>
@@ -3437,7 +3443,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>10722</v>
       </c>
@@ -3466,7 +3472,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>10722</v>
       </c>
@@ -3495,7 +3501,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>10723</v>
       </c>
@@ -3524,7 +3530,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>10723</v>
       </c>
@@ -3553,7 +3559,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>10724</v>
       </c>
@@ -3582,7 +3588,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>10724</v>
       </c>
@@ -3611,7 +3617,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>10725</v>
       </c>
@@ -3640,7 +3646,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>10725</v>
       </c>
@@ -3669,7 +3675,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>10826</v>
       </c>
@@ -3698,7 +3704,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>10827</v>
       </c>
@@ -3727,7 +3733,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>10827</v>
       </c>
@@ -3756,7 +3762,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>10828</v>
       </c>
@@ -3785,7 +3791,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>10828</v>
       </c>
@@ -3814,7 +3820,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>10829</v>
       </c>
@@ -3843,7 +3849,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>10830</v>
       </c>
@@ -3872,7 +3878,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>10831</v>
       </c>
@@ -3901,7 +3907,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>10831</v>
       </c>
@@ -3930,7 +3936,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>10832</v>
       </c>
@@ -3959,7 +3965,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>10832</v>
       </c>
@@ -3988,7 +3994,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>10833</v>
       </c>
@@ -4017,7 +4023,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>10833</v>
       </c>
@@ -4046,7 +4052,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>10905</v>
       </c>
@@ -4075,7 +4081,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>10905</v>
       </c>
@@ -4104,7 +4110,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>10906</v>
       </c>
@@ -4133,7 +4139,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>10906</v>
       </c>
@@ -4162,7 +4168,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>10910</v>
       </c>
@@ -4191,7 +4197,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>10910</v>
       </c>
@@ -4220,7 +4226,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>10911</v>
       </c>
@@ -4249,7 +4255,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>10911</v>
       </c>
@@ -4278,7 +4284,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>10912</v>
       </c>
@@ -4307,7 +4313,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>10912</v>
       </c>
@@ -4336,7 +4342,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>10913</v>
       </c>
@@ -4365,7 +4371,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>10913</v>
       </c>
@@ -4394,7 +4400,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>10914</v>
       </c>
@@ -4423,7 +4429,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>10914</v>
       </c>
@@ -4452,7 +4458,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>11027</v>
       </c>
@@ -4481,7 +4487,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>11027</v>
       </c>
@@ -4510,7 +4516,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>11028</v>
       </c>
@@ -4539,7 +4545,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>11028</v>
       </c>
@@ -4568,7 +4574,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>11029</v>
       </c>
@@ -4597,7 +4603,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>11029</v>
       </c>
@@ -4626,7 +4632,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>11030</v>
       </c>
@@ -4655,7 +4661,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>11030</v>
       </c>
@@ -4684,7 +4690,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>11031</v>
       </c>
@@ -4713,7 +4719,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>11031</v>
       </c>
@@ -4742,7 +4748,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>11122</v>
       </c>
@@ -4771,7 +4777,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>11122</v>
       </c>
@@ -4800,7 +4806,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>11123</v>
       </c>
@@ -4829,7 +4835,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>11123</v>
       </c>
@@ -4858,7 +4864,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>11124</v>
       </c>
@@ -4887,7 +4893,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>11124</v>
       </c>
@@ -4916,7 +4922,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>11125</v>
       </c>
@@ -4945,7 +4951,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>11125</v>
       </c>
@@ -4974,7 +4980,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>11126</v>
       </c>
@@ -5003,7 +5009,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>11126</v>
       </c>
@@ -5032,7 +5038,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>11221</v>
       </c>
@@ -5061,7 +5067,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>11221</v>
       </c>
@@ -5090,7 +5096,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>11222</v>
       </c>
@@ -5119,7 +5125,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>11223</v>
       </c>
@@ -5148,7 +5154,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>11223</v>
       </c>
@@ -5177,7 +5183,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>11224</v>
       </c>
@@ -5206,7 +5212,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>11224</v>
       </c>
@@ -5235,7 +5241,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>11225</v>
       </c>
@@ -5264,7 +5270,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>11225</v>
       </c>
@@ -5293,7 +5299,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>11225</v>
       </c>
@@ -5322,7 +5328,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>11226</v>
       </c>
@@ -5351,7 +5357,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>11226</v>
       </c>
@@ -5380,7 +5386,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>11226</v>
       </c>
@@ -5409,7 +5415,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>11314</v>
       </c>
@@ -5438,7 +5444,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>11314</v>
       </c>
@@ -5467,7 +5473,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>11315</v>
       </c>
@@ -5496,7 +5502,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>11316</v>
       </c>
@@ -5525,7 +5531,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>11316</v>
       </c>
@@ -5554,7 +5560,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>11317</v>
       </c>
@@ -5583,7 +5589,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>11318</v>
       </c>
@@ -5612,7 +5618,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>11319</v>
       </c>
@@ -5641,7 +5647,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>11319</v>
       </c>
@@ -5670,7 +5676,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>11319</v>
       </c>
@@ -5699,7 +5705,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>11320</v>
       </c>
@@ -5728,7 +5734,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>11320</v>
       </c>
@@ -5757,7 +5763,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>11321</v>
       </c>
@@ -5786,7 +5792,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>11321</v>
       </c>
@@ -5815,7 +5821,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>11321</v>
       </c>
@@ -5844,7 +5850,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>11322</v>
       </c>
@@ -5873,7 +5879,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>11322</v>
       </c>
@@ -5902,7 +5908,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>11322</v>
       </c>
@@ -5931,7 +5937,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>11323</v>
       </c>
@@ -5960,7 +5966,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>11323</v>
       </c>
@@ -5989,7 +5995,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>11313</v>
       </c>
@@ -6018,7 +6024,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>11324</v>
       </c>
@@ -6047,7 +6053,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>11324</v>
       </c>
@@ -6076,7 +6082,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>11324</v>
       </c>
@@ -6105,7 +6111,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>11325</v>
       </c>
@@ -6134,7 +6140,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>11325</v>
       </c>
@@ -6163,7 +6169,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>11325</v>
       </c>
@@ -6192,7 +6198,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>11326</v>
       </c>
@@ -6221,7 +6227,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>11327</v>
       </c>
@@ -6250,7 +6256,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>11327</v>
       </c>
@@ -6279,7 +6285,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>11328</v>
       </c>
@@ -6308,7 +6314,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>11328</v>
       </c>
@@ -6337,7 +6343,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>11329</v>
       </c>
@@ -6354,7 +6360,7 @@
         <v>190</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>24</v>
+        <v>240</v>
       </c>
       <c r="G182" t="s">
         <v>10</v>
@@ -6366,7 +6372,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>11329</v>
       </c>
@@ -6383,7 +6389,7 @@
         <v>190</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>24</v>
+        <v>240</v>
       </c>
       <c r="G183" t="s">
         <v>20</v>
@@ -6395,36 +6401,36 @@
         <v>192</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184">
-        <v>11405</v>
+        <v>11330</v>
       </c>
       <c r="B184" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="C184">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D184">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>195</v>
+        <v>24</v>
       </c>
       <c r="G184" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H184">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I184" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>11405</v>
       </c>
@@ -6444,18 +6450,18 @@
         <v>195</v>
       </c>
       <c r="G185" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I185" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186">
-        <v>11406</v>
+        <v>11405</v>
       </c>
       <c r="B186" t="s">
         <v>193</v>
@@ -6464,25 +6470,25 @@
         <v>4</v>
       </c>
       <c r="D186">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E186" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F186" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F186" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="G186" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H186">
-        <v>7</v>
-      </c>
-      <c r="I186" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="I186" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>11406</v>
       </c>
@@ -6502,45 +6508,45 @@
         <v>196</v>
       </c>
       <c r="G187" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I187" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188">
-        <v>11407</v>
+        <v>11406</v>
       </c>
       <c r="B188" t="s">
         <v>193</v>
       </c>
       <c r="C188">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D188">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E188" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F188" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="F188" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="G188" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H188">
-        <v>8</v>
-      </c>
-      <c r="I188" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="I188" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>11407</v>
       </c>
@@ -6560,45 +6566,45 @@
         <v>197</v>
       </c>
       <c r="G189" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I189" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190">
-        <v>11408</v>
+        <v>11407</v>
       </c>
       <c r="B190" t="s">
         <v>193</v>
       </c>
       <c r="C190">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D190">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E190" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F190" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F190" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="G190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H190">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I190" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>11408</v>
       </c>
@@ -6618,18 +6624,18 @@
         <v>200</v>
       </c>
       <c r="G191" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H191">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I191" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192">
-        <v>11409</v>
+        <v>11408</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
@@ -6638,25 +6644,25 @@
         <v>6</v>
       </c>
       <c r="D192">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E192" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F192" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F192" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="G192" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H192">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I192" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>11409</v>
       </c>
@@ -6676,45 +6682,45 @@
         <v>202</v>
       </c>
       <c r="G193" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H193">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I193" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194">
-        <v>11410</v>
+        <v>11409</v>
       </c>
       <c r="B194" t="s">
         <v>193</v>
       </c>
       <c r="C194">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D194">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E194" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F194" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="F194" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G194" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H194">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I194" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>11410</v>
       </c>
@@ -6734,16 +6740,16 @@
         <v>24</v>
       </c>
       <c r="G195" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I195" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>11410</v>
       </c>
@@ -6763,7 +6769,7 @@
         <v>24</v>
       </c>
       <c r="G196" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H196">
         <v>2</v>
@@ -6772,36 +6778,36 @@
         <v>204</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197">
-        <v>11506</v>
+        <v>11410</v>
       </c>
       <c r="B197" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C197">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D197">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>207</v>
+        <v>24</v>
       </c>
       <c r="G197" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H197">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I197" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>11506</v>
       </c>
@@ -6821,45 +6827,45 @@
         <v>207</v>
       </c>
       <c r="G198" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H198">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I198" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199">
-        <v>11507</v>
+        <v>11506</v>
       </c>
       <c r="B199" t="s">
         <v>205</v>
       </c>
       <c r="C199">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D199">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E199" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F199" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F199" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="G199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H199">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I199" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>11507</v>
       </c>
@@ -6879,45 +6885,45 @@
         <v>208</v>
       </c>
       <c r="G200" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H200">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I200" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201">
-        <v>11508</v>
+        <v>11507</v>
       </c>
       <c r="B201" t="s">
         <v>205</v>
       </c>
       <c r="C201">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D201">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E201" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F201" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="F201" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="G201" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H201">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I201" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>11508</v>
       </c>
@@ -6937,45 +6943,45 @@
         <v>211</v>
       </c>
       <c r="G202" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H202">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I202" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203">
-        <v>11509</v>
+        <v>11508</v>
       </c>
       <c r="B203" t="s">
         <v>205</v>
       </c>
       <c r="C203">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D203">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E203" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F203" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="F203" s="1" t="s">
-        <v>237</v>
-      </c>
       <c r="G203" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H203">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I203" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>11509</v>
       </c>
@@ -6995,16 +7001,16 @@
         <v>237</v>
       </c>
       <c r="G204" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I204" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>11509</v>
       </c>
@@ -7024,45 +7030,45 @@
         <v>237</v>
       </c>
       <c r="G205" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I205" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206">
-        <v>11510</v>
+        <v>11509</v>
       </c>
       <c r="B206" t="s">
         <v>205</v>
       </c>
       <c r="C206">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D206">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E206" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F206" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F206" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G206" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H206">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I206" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>11510</v>
       </c>
@@ -7082,16 +7088,16 @@
         <v>24</v>
       </c>
       <c r="G207" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I207" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>11510</v>
       </c>
@@ -7111,45 +7117,45 @@
         <v>24</v>
       </c>
       <c r="G208" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I208" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209">
-        <v>11626</v>
+        <v>11510</v>
       </c>
       <c r="B209" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C209">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D209">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>9</v>
+        <v>237</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>214</v>
+        <v>24</v>
       </c>
       <c r="G209" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H209">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I209" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>11626</v>
       </c>
@@ -7169,45 +7175,45 @@
         <v>214</v>
       </c>
       <c r="G210" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H210">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I210" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211">
-        <v>11627</v>
+        <v>11626</v>
       </c>
       <c r="B211" t="s">
         <v>213</v>
       </c>
       <c r="C211">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D211">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E211" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F211" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="F211" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="G211" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H211">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I211" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>11627</v>
       </c>
@@ -7227,45 +7233,45 @@
         <v>215</v>
       </c>
       <c r="G212" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H212">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I212" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213">
-        <v>11628</v>
+        <v>11627</v>
       </c>
       <c r="B213" t="s">
         <v>213</v>
       </c>
       <c r="C213">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D213">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E213" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F213" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F213" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="G213" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H213">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I213" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>11628</v>
       </c>
@@ -7285,16 +7291,16 @@
         <v>217</v>
       </c>
       <c r="G214" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I214" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>11628</v>
       </c>
@@ -7314,45 +7320,45 @@
         <v>217</v>
       </c>
       <c r="G215" t="s">
-        <v>218</v>
+        <v>18</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I215" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216">
-        <v>11629</v>
+        <v>11628</v>
       </c>
       <c r="B216" t="s">
         <v>213</v>
       </c>
       <c r="C216">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D216">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E216" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F216" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F216" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G216" t="s">
-        <v>10</v>
+        <v>218</v>
       </c>
       <c r="H216">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I216" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>11629</v>
       </c>
@@ -7372,16 +7378,16 @@
         <v>24</v>
       </c>
       <c r="G217" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I217" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>11629</v>
       </c>
@@ -7401,7 +7407,7 @@
         <v>24</v>
       </c>
       <c r="G218" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H218">
         <v>2</v>
@@ -7410,65 +7416,65 @@
         <v>220</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219">
+        <v>11629</v>
+      </c>
+      <c r="B219" t="s">
+        <v>213</v>
+      </c>
+      <c r="C219">
+        <v>19</v>
+      </c>
+      <c r="D219">
+        <v>29</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G219" t="s">
+        <v>11</v>
+      </c>
+      <c r="H219">
+        <v>2</v>
+      </c>
+      <c r="I219" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A220">
         <v>11706</v>
-      </c>
-      <c r="B219" t="s">
-        <v>221</v>
-      </c>
-      <c r="C219">
-        <v>4</v>
-      </c>
-      <c r="D219">
-        <v>6</v>
-      </c>
-      <c r="E219" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F219" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="G219" t="s">
-        <v>10</v>
-      </c>
-      <c r="H219">
-        <v>10</v>
-      </c>
-      <c r="I219" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A220">
-        <v>11707</v>
       </c>
       <c r="B220" t="s">
         <v>221</v>
       </c>
       <c r="C220">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D220">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E220" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F220" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="F220" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="G220" t="s">
         <v>10</v>
       </c>
       <c r="H220">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I220" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>11707</v>
       </c>
@@ -7488,45 +7494,45 @@
         <v>224</v>
       </c>
       <c r="G221" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H221">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I221" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222">
-        <v>11708</v>
+        <v>11707</v>
       </c>
       <c r="B222" t="s">
         <v>221</v>
       </c>
       <c r="C222">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D222">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E222" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F222" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="F222" s="1" t="s">
-        <v>226</v>
-      </c>
       <c r="G222" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="H222">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I222" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>11708</v>
       </c>
@@ -7546,16 +7552,16 @@
         <v>226</v>
       </c>
       <c r="G223" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="H223">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I223" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>11708</v>
       </c>
@@ -7575,47 +7581,47 @@
         <v>226</v>
       </c>
       <c r="G224" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I224" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225">
-        <v>11709</v>
+        <v>11708</v>
       </c>
       <c r="B225" t="s">
         <v>221</v>
       </c>
       <c r="C225">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D225">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E225" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F225" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="F225" s="1" t="s">
-        <v>228</v>
-      </c>
       <c r="G225" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I225" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226">
-        <v>11710</v>
+        <v>11709</v>
       </c>
       <c r="B226" t="s">
         <v>221</v>
@@ -7624,25 +7630,25 @@
         <v>7</v>
       </c>
       <c r="D226">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E226" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F226" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="F226" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G226" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="H226">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I226" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>11710</v>
       </c>
@@ -7662,16 +7668,16 @@
         <v>24</v>
       </c>
       <c r="G227" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="H227">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I227" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>11710</v>
       </c>
@@ -7691,12 +7697,41 @@
         <v>24</v>
       </c>
       <c r="G228" t="s">
+        <v>20</v>
+      </c>
+      <c r="H228">
+        <v>3</v>
+      </c>
+      <c r="I228" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>11710</v>
+      </c>
+      <c r="B229" t="s">
+        <v>221</v>
+      </c>
+      <c r="C229">
+        <v>7</v>
+      </c>
+      <c r="D229">
+        <v>10</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G229" t="s">
         <v>18</v>
       </c>
-      <c r="H228">
+      <c r="H229">
         <v>2</v>
       </c>
-      <c r="I228" t="s">
+      <c r="I229" t="s">
         <v>227</v>
       </c>
     </row>

--- a/inst/extdata/additional_govdata.xlsx
+++ b/inst/extdata/additional_govdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10520"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertstelzle/Documents/addingsaarland/bundeslaendeR/inst/extdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertstelzle/git_projekte/bundeslaendeR/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C100E7E7-4E80-8E49-A35B-A3F7654ECA65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03AADB92-7F47-DD49-8072-7E328B568F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="243">
   <si>
     <t>gov_id</t>
   </si>
@@ -757,6 +757,12 @@
   </si>
   <si>
     <t>2022-04-25</t>
+  </si>
+  <si>
+    <t>2022-05-31</t>
+  </si>
+  <si>
+    <t>https://de.wikipedia.org/wiki/Kabinett_Rhein</t>
   </si>
 </sst>
 </file>
@@ -1076,11 +1082,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I229"/>
+  <dimension ref="A1:I231"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F182" sqref="F182"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3634,7 +3640,7 @@
         <v>96</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>24</v>
+        <v>241</v>
       </c>
       <c r="G88" t="s">
         <v>10</v>
@@ -3663,7 +3669,7 @@
         <v>96</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>24</v>
+        <v>241</v>
       </c>
       <c r="G89" t="s">
         <v>18</v>
@@ -3677,94 +3683,94 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>10826</v>
+        <v>10726</v>
       </c>
       <c r="B90" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C90">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D90">
         <v>26</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>100</v>
+        <v>241</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="G90" t="s">
         <v>10</v>
       </c>
       <c r="H90">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I90" t="s">
-        <v>14</v>
+        <v>242</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>10827</v>
+        <v>10726</v>
       </c>
       <c r="B91" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C91">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D91">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>102</v>
+        <v>241</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="G91" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H91">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I91" t="s">
-        <v>101</v>
+        <v>242</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>10827</v>
+        <v>10826</v>
       </c>
       <c r="B92" t="s">
         <v>99</v>
       </c>
       <c r="C92">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D92">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E92" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F92" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F92" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="G92" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H92">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I92" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>10828</v>
+        <v>10827</v>
       </c>
       <c r="B93" t="s">
         <v>99</v>
@@ -3773,27 +3779,27 @@
         <v>19</v>
       </c>
       <c r="D93">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E93" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F93" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F93" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="G93" t="s">
         <v>10</v>
       </c>
       <c r="H93">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I93" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>10828</v>
+        <v>10827</v>
       </c>
       <c r="B94" t="s">
         <v>99</v>
@@ -3802,13 +3808,13 @@
         <v>19</v>
       </c>
       <c r="D94">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E94" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F94" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="G94" t="s">
         <v>18</v>
@@ -3817,12 +3823,12 @@
         <v>3</v>
       </c>
       <c r="I94" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>10829</v>
+        <v>10828</v>
       </c>
       <c r="B95" t="s">
         <v>99</v>
@@ -3831,13 +3837,13 @@
         <v>19</v>
       </c>
       <c r="D95">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E95" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F95" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="G95" t="s">
         <v>10</v>
@@ -3851,94 +3857,94 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>10830</v>
+        <v>10828</v>
       </c>
       <c r="B96" t="s">
         <v>99</v>
       </c>
       <c r="C96">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D96">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G96" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H96">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I96" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>10831</v>
+        <v>10829</v>
       </c>
       <c r="B97" t="s">
         <v>99</v>
       </c>
       <c r="C97">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D97">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G97" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H97">
         <v>8</v>
       </c>
       <c r="I97" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>10831</v>
+        <v>10830</v>
       </c>
       <c r="B98" t="s">
         <v>99</v>
       </c>
       <c r="C98">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D98">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E98" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F98" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F98" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="G98" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H98">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I98" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>10832</v>
+        <v>10831</v>
       </c>
       <c r="B99" t="s">
         <v>99</v>
@@ -3947,13 +3953,13 @@
         <v>21</v>
       </c>
       <c r="D99">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E99" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F99" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="G99" t="s">
         <v>20</v>
@@ -3962,12 +3968,12 @@
         <v>8</v>
       </c>
       <c r="I99" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>10832</v>
+        <v>10831</v>
       </c>
       <c r="B100" t="s">
         <v>99</v>
@@ -3976,13 +3982,13 @@
         <v>21</v>
       </c>
       <c r="D100">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E100" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F100" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="G100" t="s">
         <v>18</v>
@@ -3991,186 +3997,186 @@
         <v>3</v>
       </c>
       <c r="I100" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>10833</v>
+        <v>10832</v>
       </c>
       <c r="B101" t="s">
         <v>99</v>
       </c>
       <c r="C101">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D101">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E101" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F101" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F101" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G101" t="s">
         <v>20</v>
       </c>
       <c r="H101">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I101" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>10833</v>
+        <v>10832</v>
       </c>
       <c r="B102" t="s">
         <v>99</v>
       </c>
       <c r="C102">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D102">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E102" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F102" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="G102" t="s">
         <v>18</v>
       </c>
       <c r="H102">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I102" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>10905</v>
+        <v>10833</v>
       </c>
       <c r="B103" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C103">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D103">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
       <c r="G103" t="s">
         <v>20</v>
       </c>
       <c r="H103">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I103" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>10905</v>
+        <v>10833</v>
       </c>
       <c r="B104" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C104">
+        <v>22</v>
+      </c>
+      <c r="D104">
+        <v>33</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G104" t="s">
+        <v>18</v>
+      </c>
+      <c r="H104">
         <v>4</v>
       </c>
-      <c r="D104">
-        <v>5</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G104" t="s">
-        <v>53</v>
-      </c>
-      <c r="H104">
-        <v>3</v>
-      </c>
       <c r="I104" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>10906</v>
+        <v>10905</v>
       </c>
       <c r="B105" t="s">
         <v>114</v>
       </c>
       <c r="C105">
+        <v>4</v>
+      </c>
+      <c r="D105">
         <v>5</v>
       </c>
-      <c r="D105">
+      <c r="E105" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G105" t="s">
+        <v>20</v>
+      </c>
+      <c r="H105">
         <v>6</v>
       </c>
-      <c r="E105" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G105" t="s">
-        <v>20</v>
-      </c>
-      <c r="H105">
-        <v>5</v>
-      </c>
       <c r="I105" t="s">
-        <v>118</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>10906</v>
+        <v>10905</v>
       </c>
       <c r="B106" t="s">
         <v>114</v>
       </c>
       <c r="C106">
+        <v>4</v>
+      </c>
+      <c r="D106">
         <v>5</v>
       </c>
-      <c r="D106">
-        <v>6</v>
-      </c>
       <c r="E106" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F106" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F106" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="G106" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="H106">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I106" t="s">
-        <v>118</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>10910</v>
+        <v>10906</v>
       </c>
       <c r="B107" t="s">
         <v>114</v>
@@ -4179,13 +4185,13 @@
         <v>5</v>
       </c>
       <c r="D107">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E107" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F107" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="G107" t="s">
         <v>20</v>
@@ -4194,12 +4200,12 @@
         <v>5</v>
       </c>
       <c r="I107" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>10910</v>
+        <v>10906</v>
       </c>
       <c r="B108" t="s">
         <v>114</v>
@@ -4208,13 +4214,13 @@
         <v>5</v>
       </c>
       <c r="D108">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E108" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F108" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="G108" t="s">
         <v>10</v>
@@ -4223,85 +4229,85 @@
         <v>4</v>
       </c>
       <c r="I108" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>10911</v>
+        <v>10910</v>
       </c>
       <c r="B109" t="s">
         <v>114</v>
       </c>
       <c r="C109">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D109">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E109" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F109" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F109" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="G109" t="s">
         <v>20</v>
       </c>
       <c r="H109">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I109" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>10911</v>
+        <v>10910</v>
       </c>
       <c r="B110" t="s">
         <v>114</v>
       </c>
       <c r="C110">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D110">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E110" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F110" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F110" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="G110" t="s">
         <v>10</v>
       </c>
       <c r="H110">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I110" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>10912</v>
+        <v>10911</v>
       </c>
       <c r="B111" t="s">
         <v>114</v>
       </c>
       <c r="C111">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D111">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E111" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F111" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="G111" t="s">
         <v>20</v>
@@ -4310,27 +4316,27 @@
         <v>6</v>
       </c>
       <c r="I111" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>10912</v>
+        <v>10911</v>
       </c>
       <c r="B112" t="s">
         <v>114</v>
       </c>
       <c r="C112">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D112">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E112" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F112" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="G112" t="s">
         <v>10</v>
@@ -4339,12 +4345,12 @@
         <v>3</v>
       </c>
       <c r="I112" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>10913</v>
+        <v>10912</v>
       </c>
       <c r="B113" t="s">
         <v>114</v>
@@ -4353,13 +4359,13 @@
         <v>7</v>
       </c>
       <c r="D113">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E113" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F113" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>233</v>
       </c>
       <c r="G113" t="s">
         <v>20</v>
@@ -4368,12 +4374,12 @@
         <v>6</v>
       </c>
       <c r="I113" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>10913</v>
+        <v>10912</v>
       </c>
       <c r="B114" t="s">
         <v>114</v>
@@ -4382,13 +4388,13 @@
         <v>7</v>
       </c>
       <c r="D114">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E114" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F114" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>233</v>
       </c>
       <c r="G114" t="s">
         <v>10</v>
@@ -4397,172 +4403,172 @@
         <v>3</v>
       </c>
       <c r="I114" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>10914</v>
+        <v>10913</v>
       </c>
       <c r="B115" t="s">
         <v>114</v>
       </c>
       <c r="C115">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D115">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E115" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F115" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="F115" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G115" t="s">
         <v>20</v>
       </c>
       <c r="H115">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I115" t="s">
-        <v>234</v>
+        <v>125</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>10914</v>
+        <v>10913</v>
       </c>
       <c r="B116" t="s">
         <v>114</v>
       </c>
       <c r="C116">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D116">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E116" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F116" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="F116" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G116" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I116" t="s">
-        <v>234</v>
+        <v>125</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>11027</v>
+        <v>10914</v>
       </c>
       <c r="B117" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C117">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D117">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>128</v>
+        <v>233</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="G117" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H117">
         <v>7</v>
       </c>
       <c r="I117" t="s">
-        <v>14</v>
+        <v>234</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>11027</v>
+        <v>10914</v>
       </c>
       <c r="B118" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C118">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D118">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>128</v>
+        <v>233</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="G118" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="H118">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I118" t="s">
-        <v>14</v>
+        <v>234</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>11028</v>
+        <v>11027</v>
       </c>
       <c r="B119" t="s">
         <v>127</v>
       </c>
       <c r="C119">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D119">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E119" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F119" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F119" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="G119" t="s">
         <v>10</v>
       </c>
       <c r="H119">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I119" t="s">
-        <v>131</v>
+        <v>14</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>11028</v>
+        <v>11027</v>
       </c>
       <c r="B120" t="s">
         <v>127</v>
       </c>
       <c r="C120">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D120">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E120" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F120" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="G120" t="s">
         <v>11</v>
@@ -4571,12 +4577,12 @@
         <v>3</v>
       </c>
       <c r="I120" t="s">
-        <v>131</v>
+        <v>14</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>11029</v>
+        <v>11028</v>
       </c>
       <c r="B121" t="s">
         <v>127</v>
@@ -4585,13 +4591,13 @@
         <v>16</v>
       </c>
       <c r="D121">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E121" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F121" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="G121" t="s">
         <v>10</v>
@@ -4600,12 +4606,12 @@
         <v>8</v>
       </c>
       <c r="I121" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>11029</v>
+        <v>11028</v>
       </c>
       <c r="B122" t="s">
         <v>127</v>
@@ -4614,13 +4620,13 @@
         <v>16</v>
       </c>
       <c r="D122">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E122" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F122" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="G122" t="s">
         <v>11</v>
@@ -4629,85 +4635,85 @@
         <v>3</v>
       </c>
       <c r="I122" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>11030</v>
+        <v>11029</v>
       </c>
       <c r="B123" t="s">
         <v>127</v>
       </c>
       <c r="C123">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D123">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E123" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F123" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F123" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="G123" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H123">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I123" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>11030</v>
+        <v>11029</v>
       </c>
       <c r="B124" t="s">
         <v>127</v>
       </c>
       <c r="C124">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D124">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E124" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F124" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F124" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="G124" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H124">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I124" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>11031</v>
+        <v>11030</v>
       </c>
       <c r="B125" t="s">
         <v>127</v>
       </c>
       <c r="C125">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D125">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E125" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F125" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="G125" t="s">
         <v>20</v>
@@ -4716,273 +4722,273 @@
         <v>6</v>
       </c>
       <c r="I125" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>11031</v>
+        <v>11030</v>
       </c>
       <c r="B126" t="s">
         <v>127</v>
       </c>
       <c r="C126">
+        <v>17</v>
+      </c>
+      <c r="D126">
+        <v>30</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G126" t="s">
         <v>18</v>
       </c>
-      <c r="D126">
-        <v>31</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G126" t="s">
-        <v>10</v>
-      </c>
       <c r="H126">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I126" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>11122</v>
+        <v>11031</v>
       </c>
       <c r="B127" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C127">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D127">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>139</v>
+        <v>24</v>
       </c>
       <c r="G127" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H127">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I127" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>11122</v>
+        <v>11031</v>
       </c>
       <c r="B128" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C128">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D128">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>139</v>
+        <v>24</v>
       </c>
       <c r="G128" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I128" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>11123</v>
+        <v>11122</v>
       </c>
       <c r="B129" t="s">
         <v>137</v>
       </c>
       <c r="C129">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D129">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E129" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F129" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F129" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="G129" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H129">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I129" t="s">
-        <v>141</v>
+        <v>14</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>11123</v>
+        <v>11122</v>
       </c>
       <c r="B130" t="s">
         <v>137</v>
       </c>
       <c r="C130">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D130">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E130" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F130" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F130" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="G130" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H130">
         <v>2</v>
       </c>
       <c r="I130" t="s">
-        <v>141</v>
+        <v>14</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>11124</v>
+        <v>11123</v>
       </c>
       <c r="B131" t="s">
         <v>137</v>
       </c>
       <c r="C131">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D131">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E131" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F131" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F131" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="G131" t="s">
         <v>20</v>
       </c>
       <c r="H131">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I131" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>11124</v>
+        <v>11123</v>
       </c>
       <c r="B132" t="s">
         <v>137</v>
       </c>
       <c r="C132">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D132">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E132" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F132" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="G132" t="s">
         <v>18</v>
       </c>
       <c r="H132">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I132" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>11125</v>
+        <v>11124</v>
       </c>
       <c r="B133" t="s">
         <v>137</v>
       </c>
       <c r="C133">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D133">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E133" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F133" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F133" s="1" t="s">
-        <v>235</v>
-      </c>
       <c r="G133" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H133">
         <v>10</v>
       </c>
       <c r="I133" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>11125</v>
+        <v>11124</v>
       </c>
       <c r="B134" t="s">
         <v>137</v>
       </c>
       <c r="C134">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D134">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E134" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F134" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F134" s="1" t="s">
-        <v>235</v>
-      </c>
       <c r="G134" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H134">
         <v>3</v>
       </c>
       <c r="I134" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>11126</v>
+        <v>11125</v>
       </c>
       <c r="B135" t="s">
         <v>137</v>
@@ -4991,14 +4997,14 @@
         <v>17</v>
       </c>
       <c r="D135">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E135" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F135" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="F135" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G135" t="s">
         <v>10</v>
       </c>
@@ -5006,12 +5012,12 @@
         <v>10</v>
       </c>
       <c r="I135" t="s">
-        <v>236</v>
+        <v>144</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>11126</v>
+        <v>11125</v>
       </c>
       <c r="B136" t="s">
         <v>137</v>
@@ -5020,13 +5026,13 @@
         <v>17</v>
       </c>
       <c r="D136">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E136" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F136" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="G136" t="s">
         <v>11</v>
@@ -5035,157 +5041,157 @@
         <v>3</v>
       </c>
       <c r="I136" t="s">
-        <v>236</v>
+        <v>144</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>11221</v>
+        <v>11126</v>
       </c>
       <c r="B137" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C137">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D137">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>146</v>
+        <v>235</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>147</v>
+        <v>24</v>
       </c>
       <c r="G137" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H137">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I137" t="s">
-        <v>14</v>
+        <v>236</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>11221</v>
+        <v>11126</v>
       </c>
       <c r="B138" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C138">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D138">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>146</v>
+        <v>235</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>147</v>
+        <v>24</v>
       </c>
       <c r="G138" t="s">
         <v>11</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I138" t="s">
-        <v>14</v>
+        <v>236</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>11222</v>
+        <v>11221</v>
       </c>
       <c r="B139" t="s">
         <v>145</v>
       </c>
       <c r="C139">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D139">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E139" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F139" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F139" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="G139" t="s">
         <v>20</v>
       </c>
       <c r="H139">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I139" t="s">
-        <v>149</v>
+        <v>14</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>11223</v>
+        <v>11221</v>
       </c>
       <c r="B140" t="s">
         <v>145</v>
       </c>
       <c r="C140">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D140">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G140" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H140">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I140" t="s">
-        <v>150</v>
+        <v>14</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>11223</v>
+        <v>11222</v>
       </c>
       <c r="B141" t="s">
         <v>145</v>
       </c>
       <c r="C141">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D141">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E141" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F141" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F141" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="G141" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H141">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I141" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>11224</v>
+        <v>11223</v>
       </c>
       <c r="B142" t="s">
         <v>145</v>
@@ -5194,13 +5200,13 @@
         <v>16</v>
       </c>
       <c r="D142">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E142" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F142" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="F142" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="G142" t="s">
         <v>20</v>
@@ -5209,12 +5215,12 @@
         <v>7</v>
       </c>
       <c r="I142" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>11224</v>
+        <v>11223</v>
       </c>
       <c r="B143" t="s">
         <v>145</v>
@@ -5223,13 +5229,13 @@
         <v>16</v>
       </c>
       <c r="D143">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E143" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F143" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="G143" t="s">
         <v>18</v>
@@ -5238,65 +5244,65 @@
         <v>3</v>
       </c>
       <c r="I143" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>11225</v>
+        <v>11224</v>
       </c>
       <c r="B144" t="s">
         <v>145</v>
       </c>
       <c r="C144">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D144">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E144" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F144" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F144" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="G144" t="s">
         <v>20</v>
       </c>
       <c r="H144">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I144" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>11225</v>
+        <v>11224</v>
       </c>
       <c r="B145" t="s">
         <v>145</v>
       </c>
       <c r="C145">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D145">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E145" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F145" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F145" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="G145" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I145" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
@@ -5319,10 +5325,10 @@
         <v>154</v>
       </c>
       <c r="G146" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I146" t="s">
         <v>155</v>
@@ -5330,60 +5336,60 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147">
-        <v>11226</v>
+        <v>11225</v>
       </c>
       <c r="B147" t="s">
         <v>145</v>
       </c>
       <c r="C147">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D147">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E147" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F147" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F147" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G147" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H147">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>11226</v>
+        <v>11225</v>
       </c>
       <c r="B148" t="s">
         <v>145</v>
       </c>
       <c r="C148">
+        <v>17</v>
+      </c>
+      <c r="D148">
+        <v>25</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G148" t="s">
         <v>18</v>
-      </c>
-      <c r="D148">
-        <v>26</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G148" t="s">
-        <v>11</v>
       </c>
       <c r="H148">
         <v>2</v>
       </c>
       <c r="I148" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
@@ -5406,10 +5412,10 @@
         <v>24</v>
       </c>
       <c r="G149" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I149" t="s">
         <v>156</v>
@@ -5417,65 +5423,65 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>11314</v>
+        <v>11226</v>
       </c>
       <c r="B150" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C150">
-        <v>-2</v>
+        <v>18</v>
       </c>
       <c r="D150">
-        <v>-9</v>
+        <v>26</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>162</v>
+        <v>24</v>
       </c>
       <c r="G150" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="H150">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I150" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>11314</v>
+        <v>11226</v>
       </c>
       <c r="B151" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C151">
-        <v>-2</v>
+        <v>18</v>
       </c>
       <c r="D151">
-        <v>-9</v>
+        <v>26</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>162</v>
+        <v>24</v>
       </c>
       <c r="G151" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="H151">
         <v>2</v>
       </c>
       <c r="I151" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>11315</v>
+        <v>11314</v>
       </c>
       <c r="B152" t="s">
         <v>157</v>
@@ -5484,85 +5490,85 @@
         <v>-2</v>
       </c>
       <c r="D152">
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="E152" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F152" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="F152" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="G152" t="s">
         <v>159</v>
       </c>
       <c r="H152">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I152" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153">
-        <v>11316</v>
+        <v>11314</v>
       </c>
       <c r="B153" t="s">
         <v>157</v>
       </c>
       <c r="C153">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D153">
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G153" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H153">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I153" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154">
-        <v>11316</v>
+        <v>11315</v>
       </c>
       <c r="B154" t="s">
         <v>157</v>
       </c>
       <c r="C154">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D154">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="E154" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F154" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F154" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="G154" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I154" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155">
-        <v>11317</v>
+        <v>11316</v>
       </c>
       <c r="B155" t="s">
         <v>157</v>
@@ -5571,27 +5577,27 @@
         <v>-1</v>
       </c>
       <c r="D155">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="E155" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F155" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="F155" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="G155" t="s">
         <v>159</v>
       </c>
       <c r="H155">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I155" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156">
-        <v>11318</v>
+        <v>11316</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
@@ -5600,80 +5606,80 @@
         <v>-1</v>
       </c>
       <c r="D156">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G156" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="H156">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I156" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157">
-        <v>11319</v>
+        <v>11317</v>
       </c>
       <c r="B157" t="s">
         <v>157</v>
       </c>
       <c r="C157">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D157">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="G157" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="H157">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I157" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158">
-        <v>11319</v>
+        <v>11318</v>
       </c>
       <c r="B158" t="s">
         <v>157</v>
       </c>
       <c r="C158">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D158">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="E158" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F158" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F158" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="G158" t="s">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I158" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
@@ -5696,10 +5702,10 @@
         <v>174</v>
       </c>
       <c r="G159" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I159" t="s">
         <v>173</v>
@@ -5707,7 +5713,7 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160">
-        <v>11320</v>
+        <v>11319</v>
       </c>
       <c r="B160" t="s">
         <v>157</v>
@@ -5716,19 +5722,19 @@
         <v>0</v>
       </c>
       <c r="D160">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="E160" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F160" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F160" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="G160" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H160">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I160" t="s">
         <v>173</v>
@@ -5736,7 +5742,7 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161">
-        <v>11320</v>
+        <v>11319</v>
       </c>
       <c r="B161" t="s">
         <v>157</v>
@@ -5745,16 +5751,16 @@
         <v>0</v>
       </c>
       <c r="D161">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="E161" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F161" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F161" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="G161" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H161">
         <v>1</v>
@@ -5765,7 +5771,7 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162">
-        <v>11321</v>
+        <v>11320</v>
       </c>
       <c r="B162" t="s">
         <v>157</v>
@@ -5774,27 +5780,27 @@
         <v>0</v>
       </c>
       <c r="D162">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="E162" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F162" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F162" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="G162" t="s">
         <v>10</v>
       </c>
       <c r="H162">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I162" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163">
-        <v>11321</v>
+        <v>11320</v>
       </c>
       <c r="B163" t="s">
         <v>157</v>
@@ -5803,13 +5809,13 @@
         <v>0</v>
       </c>
       <c r="D163">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="E163" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F163" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="F163" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="G163" t="s">
         <v>20</v>
@@ -5818,7 +5824,7 @@
         <v>1</v>
       </c>
       <c r="I163" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
@@ -5841,10 +5847,10 @@
         <v>175</v>
       </c>
       <c r="G164" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I164" t="s">
         <v>176</v>
@@ -5852,7 +5858,7 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165">
-        <v>11322</v>
+        <v>11321</v>
       </c>
       <c r="B165" t="s">
         <v>157</v>
@@ -5861,27 +5867,27 @@
         <v>0</v>
       </c>
       <c r="D165">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E165" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F165" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="F165" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="G165" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H165">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I165" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166">
-        <v>11322</v>
+        <v>11321</v>
       </c>
       <c r="B166" t="s">
         <v>157</v>
@@ -5890,22 +5896,22 @@
         <v>0</v>
       </c>
       <c r="D166">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E166" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F166" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="F166" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="G166" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H166">
         <v>2</v>
       </c>
       <c r="I166" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
@@ -5928,10 +5934,10 @@
         <v>177</v>
       </c>
       <c r="G167" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I167" t="s">
         <v>178</v>
@@ -5939,7 +5945,7 @@
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168">
-        <v>11323</v>
+        <v>11322</v>
       </c>
       <c r="B168" t="s">
         <v>157</v>
@@ -5948,27 +5954,27 @@
         <v>0</v>
       </c>
       <c r="D168">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E168" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F168" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F168" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="G168" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H168">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I168" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169">
-        <v>11323</v>
+        <v>11322</v>
       </c>
       <c r="B169" t="s">
         <v>157</v>
@@ -5977,109 +5983,109 @@
         <v>0</v>
       </c>
       <c r="D169">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E169" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F169" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F169" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="G169" t="s">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I169" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170">
-        <v>11313</v>
+        <v>11323</v>
       </c>
       <c r="B170" t="s">
         <v>157</v>
       </c>
       <c r="C170">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D170">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G170" t="s">
         <v>10</v>
       </c>
       <c r="H170">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I170" t="s">
-        <v>14</v>
+        <v>180</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171">
-        <v>11324</v>
+        <v>11323</v>
       </c>
       <c r="B171" t="s">
         <v>157</v>
       </c>
       <c r="C171">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D171">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G171" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H171">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I171" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172">
-        <v>11324</v>
+        <v>11313</v>
       </c>
       <c r="B172" t="s">
         <v>157</v>
       </c>
       <c r="C172">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D172">
+        <v>13</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G172" t="s">
+        <v>10</v>
+      </c>
+      <c r="H172">
+        <v>8</v>
+      </c>
+      <c r="I172" t="s">
         <v>14</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F172" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="G172" t="s">
-        <v>11</v>
-      </c>
-      <c r="H172">
-        <v>2</v>
-      </c>
-      <c r="I172" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
@@ -6102,10 +6108,10 @@
         <v>183</v>
       </c>
       <c r="G173" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I173" t="s">
         <v>184</v>
@@ -6113,7 +6119,7 @@
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174">
-        <v>11325</v>
+        <v>11324</v>
       </c>
       <c r="B174" t="s">
         <v>157</v>
@@ -6122,27 +6128,27 @@
         <v>11</v>
       </c>
       <c r="D174">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E174" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F174" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F174" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="G174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H174">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I174" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175">
-        <v>11325</v>
+        <v>11324</v>
       </c>
       <c r="B175" t="s">
         <v>157</v>
@@ -6151,22 +6157,22 @@
         <v>11</v>
       </c>
       <c r="D175">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E175" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F175" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F175" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="G175" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H175">
         <v>2</v>
       </c>
       <c r="I175" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
@@ -6189,10 +6195,10 @@
         <v>185</v>
       </c>
       <c r="G176" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I176" t="s">
         <v>186</v>
@@ -6200,7 +6206,7 @@
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177">
-        <v>11326</v>
+        <v>11325</v>
       </c>
       <c r="B177" t="s">
         <v>157</v>
@@ -6209,19 +6215,19 @@
         <v>11</v>
       </c>
       <c r="D177">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E177" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F177" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="F177" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="G177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H177">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I177" t="s">
         <v>186</v>
@@ -6229,80 +6235,80 @@
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178">
-        <v>11327</v>
+        <v>11325</v>
       </c>
       <c r="B178" t="s">
         <v>157</v>
       </c>
       <c r="C178">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D178">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G178" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H178">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I178" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179">
-        <v>11327</v>
+        <v>11326</v>
       </c>
       <c r="B179" t="s">
         <v>157</v>
       </c>
       <c r="C179">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D179">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E179" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F179" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F179" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="G179" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H179">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I179" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180">
-        <v>11328</v>
+        <v>11327</v>
       </c>
       <c r="B180" t="s">
         <v>157</v>
       </c>
       <c r="C180">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D180">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E180" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F180" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="F180" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="G180" t="s">
         <v>10</v>
@@ -6311,41 +6317,41 @@
         <v>4</v>
       </c>
       <c r="I180" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181">
-        <v>11328</v>
+        <v>11327</v>
       </c>
       <c r="B181" t="s">
         <v>157</v>
       </c>
       <c r="C181">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D181">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E181" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F181" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F181" s="1" t="s">
-        <v>190</v>
-      </c>
       <c r="G181" t="s">
         <v>20</v>
       </c>
       <c r="H181">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I181" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182">
-        <v>11329</v>
+        <v>11328</v>
       </c>
       <c r="B182" t="s">
         <v>157</v>
@@ -6354,13 +6360,13 @@
         <v>13</v>
       </c>
       <c r="D182">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E182" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F182" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="F182" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="G182" t="s">
         <v>10</v>
@@ -6369,12 +6375,12 @@
         <v>4</v>
       </c>
       <c r="I182" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183">
-        <v>11329</v>
+        <v>11328</v>
       </c>
       <c r="B183" t="s">
         <v>157</v>
@@ -6383,13 +6389,13 @@
         <v>13</v>
       </c>
       <c r="D183">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E183" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F183" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="F183" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="G183" t="s">
         <v>20</v>
@@ -6398,99 +6404,99 @@
         <v>3</v>
       </c>
       <c r="I183" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184">
-        <v>11330</v>
+        <v>11329</v>
       </c>
       <c r="B184" t="s">
         <v>157</v>
       </c>
       <c r="C184">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D184">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E184" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F184" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F184" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G184" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H184">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I184" t="s">
-        <v>239</v>
+        <v>192</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185">
-        <v>11405</v>
+        <v>11329</v>
       </c>
       <c r="B185" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="C185">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D185">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>195</v>
+        <v>240</v>
       </c>
       <c r="G185" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H185">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I185" t="s">
-        <v>14</v>
+        <v>192</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186">
-        <v>11405</v>
+        <v>11330</v>
       </c>
       <c r="B186" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="C186">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D186">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>195</v>
+        <v>24</v>
       </c>
       <c r="G186" t="s">
         <v>20</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I186" t="s">
-        <v>14</v>
+        <v>239</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187">
-        <v>11406</v>
+        <v>11405</v>
       </c>
       <c r="B187" t="s">
         <v>193</v>
@@ -6499,27 +6505,27 @@
         <v>4</v>
       </c>
       <c r="D187">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E187" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F187" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F187" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="G187" t="s">
         <v>10</v>
       </c>
       <c r="H187">
-        <v>7</v>
-      </c>
-      <c r="I187" s="2" t="s">
-        <v>199</v>
+        <v>8</v>
+      </c>
+      <c r="I187" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188">
-        <v>11406</v>
+        <v>11405</v>
       </c>
       <c r="B188" t="s">
         <v>193</v>
@@ -6528,13 +6534,13 @@
         <v>4</v>
       </c>
       <c r="D188">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E188" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F188" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="F188" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="G188" t="s">
         <v>20</v>
@@ -6542,86 +6548,86 @@
       <c r="H188">
         <v>2</v>
       </c>
-      <c r="I188" s="2" t="s">
-        <v>199</v>
+      <c r="I188" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189">
-        <v>11407</v>
+        <v>11406</v>
       </c>
       <c r="B189" t="s">
         <v>193</v>
       </c>
       <c r="C189">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D189">
+        <v>6</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G189" t="s">
+        <v>10</v>
+      </c>
+      <c r="H189">
         <v>7</v>
       </c>
-      <c r="E189" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F189" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="G189" t="s">
-        <v>10</v>
-      </c>
-      <c r="H189">
-        <v>8</v>
-      </c>
-      <c r="I189" t="s">
-        <v>198</v>
+      <c r="I189" s="2" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190">
-        <v>11407</v>
+        <v>11406</v>
       </c>
       <c r="B190" t="s">
         <v>193</v>
       </c>
       <c r="C190">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D190">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E190" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F190" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="F190" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="G190" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H190">
         <v>2</v>
       </c>
-      <c r="I190" t="s">
-        <v>198</v>
+      <c r="I190" s="2" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191">
-        <v>11408</v>
+        <v>11407</v>
       </c>
       <c r="B191" t="s">
         <v>193</v>
       </c>
       <c r="C191">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D191">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E191" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F191" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="F191" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="G191" t="s">
         <v>10</v>
@@ -6630,41 +6636,41 @@
         <v>8</v>
       </c>
       <c r="I191" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192">
-        <v>11408</v>
+        <v>11407</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
       </c>
       <c r="C192">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D192">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E192" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F192" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F192" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="G192" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H192">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I192" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193">
-        <v>11409</v>
+        <v>11408</v>
       </c>
       <c r="B193" t="s">
         <v>193</v>
@@ -6673,13 +6679,13 @@
         <v>6</v>
       </c>
       <c r="D193">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E193" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F193" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="F193" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="G193" t="s">
         <v>10</v>
@@ -6688,12 +6694,12 @@
         <v>8</v>
       </c>
       <c r="I193" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194">
-        <v>11409</v>
+        <v>11408</v>
       </c>
       <c r="B194" t="s">
         <v>193</v>
@@ -6702,13 +6708,13 @@
         <v>6</v>
       </c>
       <c r="D194">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E194" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F194" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="F194" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="G194" t="s">
         <v>20</v>
@@ -6717,27 +6723,27 @@
         <v>3</v>
       </c>
       <c r="I194" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195">
-        <v>11410</v>
+        <v>11409</v>
       </c>
       <c r="B195" t="s">
         <v>193</v>
       </c>
       <c r="C195">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D195">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E195" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F195" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="F195" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="G195" t="s">
         <v>10</v>
@@ -6746,36 +6752,36 @@
         <v>8</v>
       </c>
       <c r="I195" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196">
-        <v>11410</v>
+        <v>11409</v>
       </c>
       <c r="B196" t="s">
         <v>193</v>
       </c>
       <c r="C196">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D196">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E196" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F196" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="F196" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G196" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I196" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.2">
@@ -6798,10 +6804,10 @@
         <v>24</v>
       </c>
       <c r="G197" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I197" t="s">
         <v>204</v>
@@ -6809,167 +6815,167 @@
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198">
-        <v>11506</v>
+        <v>11410</v>
       </c>
       <c r="B198" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C198">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D198">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>207</v>
+        <v>24</v>
       </c>
       <c r="G198" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H198">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I198" t="s">
-        <v>14</v>
+        <v>204</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199">
-        <v>11506</v>
+        <v>11410</v>
       </c>
       <c r="B199" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C199">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D199">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>207</v>
+        <v>24</v>
       </c>
       <c r="G199" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H199">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I199" t="s">
-        <v>14</v>
+        <v>204</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200">
-        <v>11507</v>
+        <v>11506</v>
       </c>
       <c r="B200" t="s">
         <v>205</v>
       </c>
       <c r="C200">
+        <v>4</v>
+      </c>
+      <c r="D200">
+        <v>6</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G200" t="s">
+        <v>10</v>
+      </c>
+      <c r="H200">
         <v>5</v>
       </c>
-      <c r="D200">
-        <v>7</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F200" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G200" t="s">
-        <v>10</v>
-      </c>
-      <c r="H200">
-        <v>6</v>
-      </c>
       <c r="I200" t="s">
-        <v>209</v>
+        <v>14</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201">
-        <v>11507</v>
+        <v>11506</v>
       </c>
       <c r="B201" t="s">
         <v>205</v>
       </c>
       <c r="C201">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D201">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E201" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F201" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F201" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="G201" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H201">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I201" t="s">
-        <v>209</v>
+        <v>14</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202">
-        <v>11508</v>
+        <v>11507</v>
       </c>
       <c r="B202" t="s">
         <v>205</v>
       </c>
       <c r="C202">
+        <v>5</v>
+      </c>
+      <c r="D202">
+        <v>7</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G202" t="s">
+        <v>10</v>
+      </c>
+      <c r="H202">
         <v>6</v>
       </c>
-      <c r="D202">
-        <v>8</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F202" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="G202" t="s">
-        <v>10</v>
-      </c>
-      <c r="H202">
-        <v>5</v>
-      </c>
       <c r="I202" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203">
-        <v>11508</v>
+        <v>11507</v>
       </c>
       <c r="B203" t="s">
         <v>205</v>
       </c>
       <c r="C203">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D203">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E203" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F203" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="F203" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="G203" t="s">
         <v>20</v>
@@ -6978,65 +6984,65 @@
         <v>4</v>
       </c>
       <c r="I203" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204">
-        <v>11509</v>
+        <v>11508</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
       </c>
       <c r="C204">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D204">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E204" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F204" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="F204" s="1" t="s">
-        <v>237</v>
-      </c>
       <c r="G204" t="s">
         <v>10</v>
       </c>
       <c r="H204">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I204" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205">
-        <v>11509</v>
+        <v>11508</v>
       </c>
       <c r="B205" t="s">
         <v>205</v>
       </c>
       <c r="C205">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D205">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E205" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F205" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="F205" s="1" t="s">
-        <v>237</v>
-      </c>
       <c r="G205" t="s">
         <v>20</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I205" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.2">
@@ -7059,10 +7065,10 @@
         <v>237</v>
       </c>
       <c r="G206" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I206" t="s">
         <v>212</v>
@@ -7070,60 +7076,60 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207">
-        <v>11510</v>
+        <v>11509</v>
       </c>
       <c r="B207" t="s">
         <v>205</v>
       </c>
       <c r="C207">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D207">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E207" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F207" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F207" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G207" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H207">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I207" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208">
-        <v>11510</v>
+        <v>11509</v>
       </c>
       <c r="B208" t="s">
         <v>205</v>
       </c>
       <c r="C208">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D208">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E208" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F208" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F208" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G208" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I208" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
@@ -7146,10 +7152,10 @@
         <v>24</v>
       </c>
       <c r="G209" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I209" t="s">
         <v>238</v>
@@ -7157,80 +7163,80 @@
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210">
-        <v>11626</v>
+        <v>11510</v>
       </c>
       <c r="B210" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C210">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D210">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>9</v>
+        <v>237</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>214</v>
+        <v>24</v>
       </c>
       <c r="G210" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H210">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I210" t="s">
-        <v>14</v>
+        <v>238</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211">
-        <v>11626</v>
+        <v>11510</v>
       </c>
       <c r="B211" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C211">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D211">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>9</v>
+        <v>237</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>214</v>
+        <v>24</v>
       </c>
       <c r="G211" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H211">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I211" t="s">
-        <v>14</v>
+        <v>238</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212">
-        <v>11627</v>
+        <v>11626</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
       </c>
       <c r="C212">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D212">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E212" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F212" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="F212" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="G212" t="s">
         <v>10</v>
@@ -7239,94 +7245,94 @@
         <v>5</v>
       </c>
       <c r="I212" t="s">
-        <v>216</v>
+        <v>14</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213">
-        <v>11627</v>
+        <v>11626</v>
       </c>
       <c r="B213" t="s">
         <v>213</v>
       </c>
       <c r="C213">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D213">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E213" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F213" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="F213" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="G213" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H213">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I213" t="s">
-        <v>216</v>
+        <v>14</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214">
-        <v>11628</v>
+        <v>11627</v>
       </c>
       <c r="B214" t="s">
         <v>213</v>
       </c>
       <c r="C214">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D214">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E214" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F214" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F214" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="G214" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H214">
         <v>5</v>
       </c>
       <c r="I214" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215">
-        <v>11628</v>
+        <v>11627</v>
       </c>
       <c r="B215" t="s">
         <v>213</v>
       </c>
       <c r="C215">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D215">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E215" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F215" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F215" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="G215" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I215" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
@@ -7349,10 +7355,10 @@
         <v>217</v>
       </c>
       <c r="G216" t="s">
-        <v>218</v>
+        <v>20</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I216" t="s">
         <v>219</v>
@@ -7360,60 +7366,60 @@
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217">
-        <v>11629</v>
+        <v>11628</v>
       </c>
       <c r="B217" t="s">
         <v>213</v>
       </c>
       <c r="C217">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D217">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E217" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F217" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F217" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G217" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H217">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I217" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218">
-        <v>11629</v>
+        <v>11628</v>
       </c>
       <c r="B218" t="s">
         <v>213</v>
       </c>
       <c r="C218">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D218">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E218" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F218" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F218" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G218" t="s">
-        <v>18</v>
+        <v>218</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I218" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.2">
@@ -7436,10 +7442,10 @@
         <v>24</v>
       </c>
       <c r="G219" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I219" t="s">
         <v>220</v>
@@ -7447,147 +7453,147 @@
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220">
-        <v>11706</v>
+        <v>11629</v>
       </c>
       <c r="B220" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C220">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D220">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>223</v>
+        <v>24</v>
       </c>
       <c r="G220" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H220">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I220" t="s">
-        <v>14</v>
+        <v>220</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221">
-        <v>11707</v>
+        <v>11629</v>
       </c>
       <c r="B221" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C221">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D221">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>224</v>
+        <v>24</v>
       </c>
       <c r="G221" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H221">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I221" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222">
-        <v>11707</v>
+        <v>11706</v>
       </c>
       <c r="B222" t="s">
         <v>221</v>
       </c>
       <c r="C222">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D222">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E222" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F222" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="F222" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="G222" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H222">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I222" t="s">
-        <v>225</v>
+        <v>14</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223">
-        <v>11708</v>
+        <v>11707</v>
       </c>
       <c r="B223" t="s">
         <v>221</v>
       </c>
       <c r="C223">
+        <v>5</v>
+      </c>
+      <c r="D223">
+        <v>7</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G223" t="s">
+        <v>10</v>
+      </c>
+      <c r="H223">
         <v>6</v>
       </c>
-      <c r="D223">
-        <v>8</v>
-      </c>
-      <c r="E223" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F223" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G223" t="s">
-        <v>53</v>
-      </c>
-      <c r="H223">
-        <v>5</v>
-      </c>
       <c r="I223" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224">
-        <v>11708</v>
+        <v>11707</v>
       </c>
       <c r="B224" t="s">
         <v>221</v>
       </c>
       <c r="C224">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D224">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E224" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F224" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="F224" s="1" t="s">
-        <v>226</v>
-      </c>
       <c r="G224" t="s">
         <v>20</v>
       </c>
       <c r="H224">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I224" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.2">
@@ -7610,10 +7616,10 @@
         <v>226</v>
       </c>
       <c r="G225" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I225" t="s">
         <v>227</v>
@@ -7621,57 +7627,57 @@
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226">
-        <v>11709</v>
+        <v>11708</v>
       </c>
       <c r="B226" t="s">
         <v>221</v>
       </c>
       <c r="C226">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D226">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E226" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F226" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="F226" s="1" t="s">
-        <v>228</v>
-      </c>
       <c r="G226" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I226" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227">
-        <v>11710</v>
+        <v>11708</v>
       </c>
       <c r="B227" t="s">
         <v>221</v>
       </c>
       <c r="C227">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D227">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>24</v>
+        <v>226</v>
       </c>
       <c r="G227" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="H227">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I227" t="s">
         <v>227</v>
@@ -7679,7 +7685,7 @@
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228">
-        <v>11710</v>
+        <v>11709</v>
       </c>
       <c r="B228" t="s">
         <v>221</v>
@@ -7688,22 +7694,22 @@
         <v>7</v>
       </c>
       <c r="D228">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E228" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F228" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="F228" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G228" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H228">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I228" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.2">
@@ -7726,12 +7732,70 @@
         <v>24</v>
       </c>
       <c r="G229" t="s">
+        <v>53</v>
+      </c>
+      <c r="H229">
+        <v>4</v>
+      </c>
+      <c r="I229" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>11710</v>
+      </c>
+      <c r="B230" t="s">
+        <v>221</v>
+      </c>
+      <c r="C230">
+        <v>7</v>
+      </c>
+      <c r="D230">
+        <v>10</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G230" t="s">
+        <v>20</v>
+      </c>
+      <c r="H230">
+        <v>3</v>
+      </c>
+      <c r="I230" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>11710</v>
+      </c>
+      <c r="B231" t="s">
+        <v>221</v>
+      </c>
+      <c r="C231">
+        <v>7</v>
+      </c>
+      <c r="D231">
+        <v>10</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G231" t="s">
         <v>18</v>
       </c>
-      <c r="H229">
+      <c r="H231">
         <v>2</v>
       </c>
-      <c r="I229" t="s">
+      <c r="I231" t="s">
         <v>227</v>
       </c>
     </row>

--- a/inst/extdata/additional_govdata.xlsx
+++ b/inst/extdata/additional_govdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertstelzle/git_projekte/bundeslaendeR/inst/extdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Desktop\bldrt\bundeslaendeR\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03AADB92-7F47-DD49-8072-7E328B568F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF20CC5-D9BE-4D8A-8D67-C4A43ED93EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="245">
   <si>
     <t>gov_id</t>
   </si>
@@ -763,6 +763,12 @@
   </si>
   <si>
     <t>https://de.wikipedia.org/wiki/Kabinett_Rhein</t>
+  </si>
+  <si>
+    <t>2022-06-29</t>
+  </si>
+  <si>
+    <t>https://de.wikipedia.org/wiki/Kabinett_W%C3%BCst_II</t>
   </si>
 </sst>
 </file>
@@ -1082,25 +1088,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I231"/>
+  <dimension ref="A1:I233"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F90" sqref="F90"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I141" sqref="I141"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="19.1640625" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="21.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
     <col min="9" max="9" width="77" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1129,7 +1135,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10219</v>
       </c>
@@ -1158,7 +1164,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10219</v>
       </c>
@@ -1187,7 +1193,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10220</v>
       </c>
@@ -1216,7 +1222,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10220</v>
       </c>
@@ -1245,7 +1251,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10221</v>
       </c>
@@ -1274,7 +1280,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10221</v>
       </c>
@@ -1303,7 +1309,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10222</v>
       </c>
@@ -1332,7 +1338,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10222</v>
       </c>
@@ -1361,7 +1367,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10223</v>
       </c>
@@ -1390,7 +1396,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10223</v>
       </c>
@@ -1419,7 +1425,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10224</v>
       </c>
@@ -1448,7 +1454,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10224</v>
       </c>
@@ -1477,7 +1483,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10320</v>
       </c>
@@ -1506,7 +1512,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10321</v>
       </c>
@@ -1535,7 +1541,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10322</v>
       </c>
@@ -1564,7 +1570,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10322</v>
       </c>
@@ -1593,7 +1599,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10323</v>
       </c>
@@ -1622,7 +1628,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>10324</v>
       </c>
@@ -1651,7 +1657,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10325</v>
       </c>
@@ -1680,7 +1686,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10325</v>
       </c>
@@ -1709,7 +1715,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10425</v>
       </c>
@@ -1738,7 +1744,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>10425</v>
       </c>
@@ -1767,7 +1773,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10425</v>
       </c>
@@ -1796,7 +1802,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>10425</v>
       </c>
@@ -1825,7 +1831,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>10426</v>
       </c>
@@ -1854,7 +1860,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>10426</v>
       </c>
@@ -1883,7 +1889,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>10426</v>
       </c>
@@ -1912,7 +1918,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>10426</v>
       </c>
@@ -1941,7 +1947,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>10427</v>
       </c>
@@ -1970,7 +1976,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>10427</v>
       </c>
@@ -1999,7 +2005,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>10427</v>
       </c>
@@ -2028,7 +2034,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>10427</v>
       </c>
@@ -2057,7 +2063,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>10428</v>
       </c>
@@ -2086,7 +2092,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>10428</v>
       </c>
@@ -2115,7 +2121,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>10428</v>
       </c>
@@ -2144,7 +2150,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>10424</v>
       </c>
@@ -2173,7 +2179,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>10424</v>
       </c>
@@ -2202,7 +2208,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>10429</v>
       </c>
@@ -2231,7 +2237,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>10429</v>
       </c>
@@ -2260,7 +2266,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>10430</v>
       </c>
@@ -2289,7 +2295,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>10430</v>
       </c>
@@ -2318,7 +2324,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>10431</v>
       </c>
@@ -2347,7 +2353,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>10431</v>
       </c>
@@ -2376,7 +2382,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>10432</v>
       </c>
@@ -2405,7 +2411,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>10432</v>
       </c>
@@ -2434,7 +2440,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>10432</v>
       </c>
@@ -2463,7 +2469,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>10433</v>
       </c>
@@ -2492,7 +2498,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>10433</v>
       </c>
@@ -2521,7 +2527,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>10433</v>
       </c>
@@ -2550,7 +2556,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>10506</v>
       </c>
@@ -2579,7 +2585,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>10506</v>
       </c>
@@ -2608,7 +2614,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>10507</v>
       </c>
@@ -2637,7 +2643,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>10507</v>
       </c>
@@ -2666,7 +2672,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>10508</v>
       </c>
@@ -2695,7 +2701,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>10508</v>
       </c>
@@ -2724,7 +2730,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>10509</v>
       </c>
@@ -2753,7 +2759,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>10509</v>
       </c>
@@ -2782,7 +2788,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>10510</v>
       </c>
@@ -2811,7 +2817,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>10510</v>
       </c>
@@ -2840,7 +2846,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>10510</v>
       </c>
@@ -2869,7 +2875,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>10620</v>
       </c>
@@ -2898,7 +2904,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>10620</v>
       </c>
@@ -2927,7 +2933,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>10620</v>
       </c>
@@ -2956,7 +2962,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>10621</v>
       </c>
@@ -2985,7 +2991,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>10621</v>
       </c>
@@ -3014,7 +3020,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>10619</v>
       </c>
@@ -3043,7 +3049,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>10619</v>
       </c>
@@ -3072,7 +3078,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>10622</v>
       </c>
@@ -3101,7 +3107,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>10622</v>
       </c>
@@ -3130,7 +3136,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>10623</v>
       </c>
@@ -3159,7 +3165,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>10623</v>
       </c>
@@ -3188,7 +3194,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>10624</v>
       </c>
@@ -3217,7 +3223,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>10624</v>
       </c>
@@ -3246,7 +3252,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>10625</v>
       </c>
@@ -3275,7 +3281,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>10625</v>
       </c>
@@ -3304,7 +3310,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>10626</v>
       </c>
@@ -3333,7 +3339,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>10626</v>
       </c>
@@ -3362,7 +3368,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>10626</v>
       </c>
@@ -3391,7 +3397,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>10720</v>
       </c>
@@ -3420,7 +3426,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>10721</v>
       </c>
@@ -3449,7 +3455,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>10722</v>
       </c>
@@ -3478,7 +3484,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>10722</v>
       </c>
@@ -3507,7 +3513,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>10723</v>
       </c>
@@ -3536,7 +3542,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>10723</v>
       </c>
@@ -3565,7 +3571,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>10724</v>
       </c>
@@ -3594,7 +3600,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>10724</v>
       </c>
@@ -3623,7 +3629,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>10725</v>
       </c>
@@ -3652,7 +3658,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>10725</v>
       </c>
@@ -3681,7 +3687,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>10726</v>
       </c>
@@ -3710,7 +3716,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>10726</v>
       </c>
@@ -3739,7 +3745,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>10826</v>
       </c>
@@ -3768,7 +3774,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>10827</v>
       </c>
@@ -3797,7 +3803,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>10827</v>
       </c>
@@ -3826,7 +3832,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>10828</v>
       </c>
@@ -3855,7 +3861,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>10828</v>
       </c>
@@ -3884,7 +3890,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>10829</v>
       </c>
@@ -3913,7 +3919,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>10830</v>
       </c>
@@ -3942,7 +3948,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>10831</v>
       </c>
@@ -3971,7 +3977,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>10831</v>
       </c>
@@ -4000,7 +4006,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>10832</v>
       </c>
@@ -4029,7 +4035,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>10832</v>
       </c>
@@ -4058,7 +4064,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>10833</v>
       </c>
@@ -4087,7 +4093,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>10833</v>
       </c>
@@ -4116,7 +4122,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>10905</v>
       </c>
@@ -4145,7 +4151,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>10905</v>
       </c>
@@ -4174,7 +4180,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>10906</v>
       </c>
@@ -4203,7 +4209,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>10906</v>
       </c>
@@ -4232,7 +4238,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>10910</v>
       </c>
@@ -4261,7 +4267,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>10910</v>
       </c>
@@ -4290,7 +4296,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>10911</v>
       </c>
@@ -4319,7 +4325,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>10911</v>
       </c>
@@ -4348,7 +4354,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>10912</v>
       </c>
@@ -4377,7 +4383,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>10912</v>
       </c>
@@ -4406,7 +4412,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>10913</v>
       </c>
@@ -4435,7 +4441,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>10913</v>
       </c>
@@ -4464,7 +4470,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>10914</v>
       </c>
@@ -4493,7 +4499,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>10914</v>
       </c>
@@ -4522,7 +4528,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>11027</v>
       </c>
@@ -4551,7 +4557,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>11027</v>
       </c>
@@ -4580,7 +4586,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>11028</v>
       </c>
@@ -4609,7 +4615,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>11028</v>
       </c>
@@ -4638,7 +4644,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>11029</v>
       </c>
@@ -4667,7 +4673,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>11029</v>
       </c>
@@ -4696,7 +4702,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>11030</v>
       </c>
@@ -4725,7 +4731,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>11030</v>
       </c>
@@ -4754,7 +4760,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>11031</v>
       </c>
@@ -4783,7 +4789,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>11031</v>
       </c>
@@ -4812,7 +4818,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>11122</v>
       </c>
@@ -4841,7 +4847,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>11122</v>
       </c>
@@ -4870,7 +4876,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>11123</v>
       </c>
@@ -4899,7 +4905,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>11123</v>
       </c>
@@ -4928,7 +4934,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>11124</v>
       </c>
@@ -4957,7 +4963,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>11124</v>
       </c>
@@ -4986,7 +4992,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>11125</v>
       </c>
@@ -5015,7 +5021,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>11125</v>
       </c>
@@ -5044,7 +5050,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>11126</v>
       </c>
@@ -5061,7 +5067,7 @@
         <v>235</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>24</v>
+        <v>243</v>
       </c>
       <c r="G137" t="s">
         <v>10</v>
@@ -5073,7 +5079,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>11126</v>
       </c>
@@ -5090,7 +5096,7 @@
         <v>235</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>24</v>
+        <v>243</v>
       </c>
       <c r="G138" t="s">
         <v>11</v>
@@ -5102,154 +5108,154 @@
         <v>236</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139">
+        <v>11127</v>
+      </c>
+      <c r="B139" t="s">
+        <v>137</v>
+      </c>
+      <c r="C139">
+        <v>18</v>
+      </c>
+      <c r="D139">
+        <v>27</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G139" t="s">
+        <v>10</v>
+      </c>
+      <c r="H139">
+        <v>9</v>
+      </c>
+      <c r="I139" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>11127</v>
+      </c>
+      <c r="B140" t="s">
+        <v>137</v>
+      </c>
+      <c r="C140">
+        <v>18</v>
+      </c>
+      <c r="D140">
+        <v>27</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G140" t="s">
+        <v>18</v>
+      </c>
+      <c r="H140">
+        <v>4</v>
+      </c>
+      <c r="I140" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141">
         <v>11221</v>
-      </c>
-      <c r="B139" t="s">
-        <v>145</v>
-      </c>
-      <c r="C139">
-        <v>14</v>
-      </c>
-      <c r="D139">
-        <v>21</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G139" t="s">
-        <v>20</v>
-      </c>
-      <c r="H139">
-        <v>7</v>
-      </c>
-      <c r="I139" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A140">
-        <v>11221</v>
-      </c>
-      <c r="B140" t="s">
-        <v>145</v>
-      </c>
-      <c r="C140">
-        <v>14</v>
-      </c>
-      <c r="D140">
-        <v>21</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G140" t="s">
-        <v>11</v>
-      </c>
-      <c r="H140">
-        <v>2</v>
-      </c>
-      <c r="I140" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A141">
-        <v>11222</v>
       </c>
       <c r="B141" t="s">
         <v>145</v>
       </c>
       <c r="C141">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D141">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E141" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F141" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F141" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="G141" t="s">
         <v>20</v>
       </c>
       <c r="H141">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I141" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>11223</v>
+        <v>11221</v>
       </c>
       <c r="B142" t="s">
         <v>145</v>
       </c>
       <c r="C142">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D142">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G142" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H142">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I142" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>11223</v>
+        <v>11222</v>
       </c>
       <c r="B143" t="s">
         <v>145</v>
       </c>
       <c r="C143">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D143">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E143" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F143" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F143" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="G143" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H143">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I143" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>11224</v>
+        <v>11223</v>
       </c>
       <c r="B144" t="s">
         <v>145</v>
@@ -5258,13 +5264,13 @@
         <v>16</v>
       </c>
       <c r="D144">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E144" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F144" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="F144" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="G144" t="s">
         <v>20</v>
@@ -5273,12 +5279,12 @@
         <v>7</v>
       </c>
       <c r="I144" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>11224</v>
+        <v>11223</v>
       </c>
       <c r="B145" t="s">
         <v>145</v>
@@ -5287,13 +5293,13 @@
         <v>16</v>
       </c>
       <c r="D145">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E145" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F145" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="F145" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="G145" t="s">
         <v>18</v>
@@ -5302,68 +5308,68 @@
         <v>3</v>
       </c>
       <c r="I145" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>11225</v>
+        <v>11224</v>
       </c>
       <c r="B146" t="s">
         <v>145</v>
       </c>
       <c r="C146">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D146">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E146" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F146" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F146" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="G146" t="s">
         <v>20</v>
       </c>
       <c r="H146">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I146" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>11225</v>
+        <v>11224</v>
       </c>
       <c r="B147" t="s">
         <v>145</v>
       </c>
       <c r="C147">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D147">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E147" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F147" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F147" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="G147" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I147" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>11225</v>
       </c>
@@ -5383,74 +5389,74 @@
         <v>154</v>
       </c>
       <c r="G148" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I148" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>11226</v>
+        <v>11225</v>
       </c>
       <c r="B149" t="s">
         <v>145</v>
       </c>
       <c r="C149">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D149">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E149" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F149" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F149" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G149" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H149">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I149" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>11226</v>
+        <v>11225</v>
       </c>
       <c r="B150" t="s">
         <v>145</v>
       </c>
       <c r="C150">
+        <v>17</v>
+      </c>
+      <c r="D150">
+        <v>25</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G150" t="s">
         <v>18</v>
-      </c>
-      <c r="D150">
-        <v>26</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F150" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G150" t="s">
-        <v>11</v>
       </c>
       <c r="H150">
         <v>2</v>
       </c>
       <c r="I150" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>11226</v>
       </c>
@@ -5470,76 +5476,76 @@
         <v>24</v>
       </c>
       <c r="G151" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I151" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>11314</v>
+        <v>11226</v>
       </c>
       <c r="B152" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C152">
-        <v>-2</v>
+        <v>18</v>
       </c>
       <c r="D152">
-        <v>-9</v>
+        <v>26</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>162</v>
+        <v>24</v>
       </c>
       <c r="G152" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="H152">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I152" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>11314</v>
+        <v>11226</v>
       </c>
       <c r="B153" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C153">
-        <v>-2</v>
+        <v>18</v>
       </c>
       <c r="D153">
-        <v>-9</v>
+        <v>26</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>162</v>
+        <v>24</v>
       </c>
       <c r="G153" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="H153">
         <v>2</v>
       </c>
       <c r="I153" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>11315</v>
+        <v>11314</v>
       </c>
       <c r="B154" t="s">
         <v>157</v>
@@ -5548,85 +5554,85 @@
         <v>-2</v>
       </c>
       <c r="D154">
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="E154" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F154" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="F154" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="G154" t="s">
         <v>159</v>
       </c>
       <c r="H154">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I154" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>11316</v>
+        <v>11314</v>
       </c>
       <c r="B155" t="s">
         <v>157</v>
       </c>
       <c r="C155">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D155">
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G155" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H155">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I155" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>11316</v>
+        <v>11315</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
       </c>
       <c r="C156">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D156">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="E156" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F156" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F156" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="G156" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I156" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>11317</v>
+        <v>11316</v>
       </c>
       <c r="B157" t="s">
         <v>157</v>
@@ -5635,27 +5641,27 @@
         <v>-1</v>
       </c>
       <c r="D157">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="E157" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F157" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="F157" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="G157" t="s">
         <v>159</v>
       </c>
       <c r="H157">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I157" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>11318</v>
+        <v>11316</v>
       </c>
       <c r="B158" t="s">
         <v>157</v>
@@ -5664,83 +5670,83 @@
         <v>-1</v>
       </c>
       <c r="D158">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G158" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="H158">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I158" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>11319</v>
+        <v>11317</v>
       </c>
       <c r="B159" t="s">
         <v>157</v>
       </c>
       <c r="C159">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D159">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="G159" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="H159">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I159" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>11319</v>
+        <v>11318</v>
       </c>
       <c r="B160" t="s">
         <v>157</v>
       </c>
       <c r="C160">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D160">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="E160" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F160" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F160" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="G160" t="s">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I160" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>11319</v>
       </c>
@@ -5760,18 +5766,18 @@
         <v>174</v>
       </c>
       <c r="G161" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I161" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>11320</v>
+        <v>11319</v>
       </c>
       <c r="B162" t="s">
         <v>157</v>
@@ -5780,27 +5786,27 @@
         <v>0</v>
       </c>
       <c r="D162">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="E162" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F162" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F162" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="G162" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H162">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I162" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>11320</v>
+        <v>11319</v>
       </c>
       <c r="B163" t="s">
         <v>157</v>
@@ -5809,16 +5815,16 @@
         <v>0</v>
       </c>
       <c r="D163">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="E163" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F163" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F163" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="G163" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -5827,9 +5833,9 @@
         <v>173</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>11321</v>
+        <v>11320</v>
       </c>
       <c r="B164" t="s">
         <v>157</v>
@@ -5838,27 +5844,27 @@
         <v>0</v>
       </c>
       <c r="D164">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="E164" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F164" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F164" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="G164" t="s">
         <v>10</v>
       </c>
       <c r="H164">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I164" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>11321</v>
+        <v>11320</v>
       </c>
       <c r="B165" t="s">
         <v>157</v>
@@ -5867,13 +5873,13 @@
         <v>0</v>
       </c>
       <c r="D165">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="E165" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F165" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="F165" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="G165" t="s">
         <v>20</v>
@@ -5882,10 +5888,10 @@
         <v>1</v>
       </c>
       <c r="I165" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>11321</v>
       </c>
@@ -5905,18 +5911,18 @@
         <v>175</v>
       </c>
       <c r="G166" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I166" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>11322</v>
+        <v>11321</v>
       </c>
       <c r="B167" t="s">
         <v>157</v>
@@ -5925,27 +5931,27 @@
         <v>0</v>
       </c>
       <c r="D167">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E167" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F167" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="F167" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="G167" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H167">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I167" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>11322</v>
+        <v>11321</v>
       </c>
       <c r="B168" t="s">
         <v>157</v>
@@ -5954,25 +5960,25 @@
         <v>0</v>
       </c>
       <c r="D168">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E168" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F168" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="F168" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="G168" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H168">
         <v>2</v>
       </c>
       <c r="I168" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>11322</v>
       </c>
@@ -5992,18 +5998,18 @@
         <v>177</v>
       </c>
       <c r="G169" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I169" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>11323</v>
+        <v>11322</v>
       </c>
       <c r="B170" t="s">
         <v>157</v>
@@ -6012,27 +6018,27 @@
         <v>0</v>
       </c>
       <c r="D170">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E170" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F170" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F170" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="G170" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H170">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I170" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>11323</v>
+        <v>11322</v>
       </c>
       <c r="B171" t="s">
         <v>157</v>
@@ -6041,112 +6047,112 @@
         <v>0</v>
       </c>
       <c r="D171">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E171" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F171" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F171" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="G171" t="s">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I171" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>11313</v>
+        <v>11323</v>
       </c>
       <c r="B172" t="s">
         <v>157</v>
       </c>
       <c r="C172">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D172">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G172" t="s">
         <v>10</v>
       </c>
       <c r="H172">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I172" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>11324</v>
+        <v>11323</v>
       </c>
       <c r="B173" t="s">
         <v>157</v>
       </c>
       <c r="C173">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D173">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G173" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H173">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I173" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>11324</v>
+        <v>11313</v>
       </c>
       <c r="B174" t="s">
         <v>157</v>
       </c>
       <c r="C174">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D174">
+        <v>13</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G174" t="s">
+        <v>10</v>
+      </c>
+      <c r="H174">
+        <v>8</v>
+      </c>
+      <c r="I174" t="s">
         <v>14</v>
       </c>
-      <c r="E174" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F174" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="G174" t="s">
-        <v>11</v>
-      </c>
-      <c r="H174">
-        <v>2</v>
-      </c>
-      <c r="I174" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>11324</v>
       </c>
@@ -6166,18 +6172,18 @@
         <v>183</v>
       </c>
       <c r="G175" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I175" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>11325</v>
+        <v>11324</v>
       </c>
       <c r="B176" t="s">
         <v>157</v>
@@ -6186,27 +6192,27 @@
         <v>11</v>
       </c>
       <c r="D176">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E176" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F176" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F176" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="G176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H176">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I176" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>11325</v>
+        <v>11324</v>
       </c>
       <c r="B177" t="s">
         <v>157</v>
@@ -6215,25 +6221,25 @@
         <v>11</v>
       </c>
       <c r="D177">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E177" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F177" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F177" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="G177" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H177">
         <v>2</v>
       </c>
       <c r="I177" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>11325</v>
       </c>
@@ -6253,18 +6259,18 @@
         <v>185</v>
       </c>
       <c r="G178" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I178" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>11326</v>
+        <v>11325</v>
       </c>
       <c r="B179" t="s">
         <v>157</v>
@@ -6273,100 +6279,100 @@
         <v>11</v>
       </c>
       <c r="D179">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E179" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F179" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="F179" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="G179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H179">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I179" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>11327</v>
+        <v>11325</v>
       </c>
       <c r="B180" t="s">
         <v>157</v>
       </c>
       <c r="C180">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D180">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G180" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H180">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I180" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>11327</v>
+        <v>11326</v>
       </c>
       <c r="B181" t="s">
         <v>157</v>
       </c>
       <c r="C181">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D181">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E181" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F181" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F181" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="G181" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H181">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I181" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>11328</v>
+        <v>11327</v>
       </c>
       <c r="B182" t="s">
         <v>157</v>
       </c>
       <c r="C182">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D182">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E182" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F182" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="F182" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="G182" t="s">
         <v>10</v>
@@ -6375,41 +6381,41 @@
         <v>4</v>
       </c>
       <c r="I182" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>11328</v>
+        <v>11327</v>
       </c>
       <c r="B183" t="s">
         <v>157</v>
       </c>
       <c r="C183">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D183">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E183" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F183" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F183" s="1" t="s">
-        <v>190</v>
-      </c>
       <c r="G183" t="s">
         <v>20</v>
       </c>
       <c r="H183">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I183" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>11329</v>
+        <v>11328</v>
       </c>
       <c r="B184" t="s">
         <v>157</v>
@@ -6418,13 +6424,13 @@
         <v>13</v>
       </c>
       <c r="D184">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E184" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F184" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="F184" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="G184" t="s">
         <v>10</v>
@@ -6433,12 +6439,12 @@
         <v>4</v>
       </c>
       <c r="I184" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>11329</v>
+        <v>11328</v>
       </c>
       <c r="B185" t="s">
         <v>157</v>
@@ -6447,13 +6453,13 @@
         <v>13</v>
       </c>
       <c r="D185">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E185" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F185" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="F185" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="G185" t="s">
         <v>20</v>
@@ -6462,99 +6468,99 @@
         <v>3</v>
       </c>
       <c r="I185" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>11330</v>
+        <v>11329</v>
       </c>
       <c r="B186" t="s">
         <v>157</v>
       </c>
       <c r="C186">
+        <v>13</v>
+      </c>
+      <c r="D186">
+        <v>19</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G186" t="s">
+        <v>10</v>
+      </c>
+      <c r="H186">
+        <v>4</v>
+      </c>
+      <c r="I186" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>11329</v>
+      </c>
+      <c r="B187" t="s">
+        <v>157</v>
+      </c>
+      <c r="C187">
+        <v>13</v>
+      </c>
+      <c r="D187">
+        <v>19</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G187" t="s">
+        <v>20</v>
+      </c>
+      <c r="H187">
+        <v>3</v>
+      </c>
+      <c r="I187" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>11330</v>
+      </c>
+      <c r="B188" t="s">
+        <v>157</v>
+      </c>
+      <c r="C188">
         <v>14</v>
       </c>
-      <c r="D186">
-        <v>20</v>
-      </c>
-      <c r="E186" s="1" t="s">
+      <c r="D188">
+        <v>20</v>
+      </c>
+      <c r="E188" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F186" s="1" t="s">
+      <c r="F188" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G186" t="s">
-        <v>20</v>
-      </c>
-      <c r="H186">
+      <c r="G188" t="s">
+        <v>20</v>
+      </c>
+      <c r="H188">
         <v>7</v>
       </c>
-      <c r="I186" t="s">
+      <c r="I188" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A187">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189">
         <v>11405</v>
-      </c>
-      <c r="B187" t="s">
-        <v>193</v>
-      </c>
-      <c r="C187">
-        <v>4</v>
-      </c>
-      <c r="D187">
-        <v>5</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F187" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G187" t="s">
-        <v>10</v>
-      </c>
-      <c r="H187">
-        <v>8</v>
-      </c>
-      <c r="I187" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A188">
-        <v>11405</v>
-      </c>
-      <c r="B188" t="s">
-        <v>193</v>
-      </c>
-      <c r="C188">
-        <v>4</v>
-      </c>
-      <c r="D188">
-        <v>5</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F188" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G188" t="s">
-        <v>20</v>
-      </c>
-      <c r="H188">
-        <v>2</v>
-      </c>
-      <c r="I188" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A189">
-        <v>11406</v>
       </c>
       <c r="B189" t="s">
         <v>193</v>
@@ -6563,27 +6569,27 @@
         <v>4</v>
       </c>
       <c r="D189">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E189" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F189" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F189" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="G189" t="s">
         <v>10</v>
       </c>
       <c r="H189">
-        <v>7</v>
-      </c>
-      <c r="I189" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="I189" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>11406</v>
+        <v>11405</v>
       </c>
       <c r="B190" t="s">
         <v>193</v>
@@ -6592,13 +6598,13 @@
         <v>4</v>
       </c>
       <c r="D190">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E190" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F190" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="F190" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="G190" t="s">
         <v>20</v>
@@ -6606,86 +6612,86 @@
       <c r="H190">
         <v>2</v>
       </c>
-      <c r="I190" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I190" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>11407</v>
+        <v>11406</v>
       </c>
       <c r="B191" t="s">
         <v>193</v>
       </c>
       <c r="C191">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D191">
+        <v>6</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G191" t="s">
+        <v>10</v>
+      </c>
+      <c r="H191">
         <v>7</v>
       </c>
-      <c r="E191" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F191" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="G191" t="s">
-        <v>10</v>
-      </c>
-      <c r="H191">
-        <v>8</v>
-      </c>
-      <c r="I191" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I191" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>11407</v>
+        <v>11406</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
       </c>
       <c r="C192">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D192">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E192" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F192" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="F192" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="G192" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H192">
         <v>2</v>
       </c>
-      <c r="I192" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I192" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>11408</v>
+        <v>11407</v>
       </c>
       <c r="B193" t="s">
         <v>193</v>
       </c>
       <c r="C193">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D193">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E193" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F193" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="F193" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="G193" t="s">
         <v>10</v>
@@ -6694,41 +6700,41 @@
         <v>8</v>
       </c>
       <c r="I193" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>11408</v>
+        <v>11407</v>
       </c>
       <c r="B194" t="s">
         <v>193</v>
       </c>
       <c r="C194">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D194">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E194" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F194" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F194" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="G194" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H194">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I194" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>11409</v>
+        <v>11408</v>
       </c>
       <c r="B195" t="s">
         <v>193</v>
@@ -6737,13 +6743,13 @@
         <v>6</v>
       </c>
       <c r="D195">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E195" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F195" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="F195" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="G195" t="s">
         <v>10</v>
@@ -6752,12 +6758,12 @@
         <v>8</v>
       </c>
       <c r="I195" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>11409</v>
+        <v>11408</v>
       </c>
       <c r="B196" t="s">
         <v>193</v>
@@ -6766,13 +6772,13 @@
         <v>6</v>
       </c>
       <c r="D196">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E196" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F196" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="F196" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="G196" t="s">
         <v>20</v>
@@ -6781,27 +6787,27 @@
         <v>3</v>
       </c>
       <c r="I196" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>11410</v>
+        <v>11409</v>
       </c>
       <c r="B197" t="s">
         <v>193</v>
       </c>
       <c r="C197">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D197">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E197" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F197" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="F197" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="G197" t="s">
         <v>10</v>
@@ -6810,39 +6816,39 @@
         <v>8</v>
       </c>
       <c r="I197" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>11410</v>
+        <v>11409</v>
       </c>
       <c r="B198" t="s">
         <v>193</v>
       </c>
       <c r="C198">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D198">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E198" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F198" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="F198" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G198" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I198" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>11410</v>
       </c>
@@ -6862,178 +6868,178 @@
         <v>24</v>
       </c>
       <c r="G199" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I199" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200">
+        <v>11410</v>
+      </c>
+      <c r="B200" t="s">
+        <v>193</v>
+      </c>
+      <c r="C200">
+        <v>7</v>
+      </c>
+      <c r="D200">
+        <v>10</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G200" t="s">
+        <v>18</v>
+      </c>
+      <c r="H200">
+        <v>2</v>
+      </c>
+      <c r="I200" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>11410</v>
+      </c>
+      <c r="B201" t="s">
+        <v>193</v>
+      </c>
+      <c r="C201">
+        <v>7</v>
+      </c>
+      <c r="D201">
+        <v>10</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G201" t="s">
+        <v>20</v>
+      </c>
+      <c r="H201">
+        <v>2</v>
+      </c>
+      <c r="I201" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A202">
         <v>11506</v>
-      </c>
-      <c r="B200" t="s">
-        <v>205</v>
-      </c>
-      <c r="C200">
-        <v>4</v>
-      </c>
-      <c r="D200">
-        <v>6</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="F200" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G200" t="s">
-        <v>10</v>
-      </c>
-      <c r="H200">
-        <v>5</v>
-      </c>
-      <c r="I200" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A201">
-        <v>11506</v>
-      </c>
-      <c r="B201" t="s">
-        <v>205</v>
-      </c>
-      <c r="C201">
-        <v>4</v>
-      </c>
-      <c r="D201">
-        <v>6</v>
-      </c>
-      <c r="E201" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="F201" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G201" t="s">
-        <v>11</v>
-      </c>
-      <c r="H201">
-        <v>3</v>
-      </c>
-      <c r="I201" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A202">
-        <v>11507</v>
       </c>
       <c r="B202" t="s">
         <v>205</v>
       </c>
       <c r="C202">
+        <v>4</v>
+      </c>
+      <c r="D202">
+        <v>6</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G202" t="s">
+        <v>10</v>
+      </c>
+      <c r="H202">
         <v>5</v>
       </c>
-      <c r="D202">
-        <v>7</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F202" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G202" t="s">
-        <v>10</v>
-      </c>
-      <c r="H202">
-        <v>6</v>
-      </c>
       <c r="I202" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>11507</v>
+        <v>11506</v>
       </c>
       <c r="B203" t="s">
         <v>205</v>
       </c>
       <c r="C203">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D203">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E203" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F203" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F203" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="G203" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H203">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I203" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>11508</v>
+        <v>11507</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
       </c>
       <c r="C204">
+        <v>5</v>
+      </c>
+      <c r="D204">
+        <v>7</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G204" t="s">
+        <v>10</v>
+      </c>
+      <c r="H204">
         <v>6</v>
       </c>
-      <c r="D204">
-        <v>8</v>
-      </c>
-      <c r="E204" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F204" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="G204" t="s">
-        <v>10</v>
-      </c>
-      <c r="H204">
-        <v>5</v>
-      </c>
       <c r="I204" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>11508</v>
+        <v>11507</v>
       </c>
       <c r="B205" t="s">
         <v>205</v>
       </c>
       <c r="C205">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D205">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E205" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F205" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="F205" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="G205" t="s">
         <v>20</v>
@@ -7042,68 +7048,68 @@
         <v>4</v>
       </c>
       <c r="I205" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>11509</v>
+        <v>11508</v>
       </c>
       <c r="B206" t="s">
         <v>205</v>
       </c>
       <c r="C206">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D206">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E206" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F206" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="F206" s="1" t="s">
-        <v>237</v>
-      </c>
       <c r="G206" t="s">
         <v>10</v>
       </c>
       <c r="H206">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I206" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>11509</v>
+        <v>11508</v>
       </c>
       <c r="B207" t="s">
         <v>205</v>
       </c>
       <c r="C207">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D207">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E207" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F207" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="F207" s="1" t="s">
-        <v>237</v>
-      </c>
       <c r="G207" t="s">
         <v>20</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I207" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>11509</v>
       </c>
@@ -7123,74 +7129,74 @@
         <v>237</v>
       </c>
       <c r="G208" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I208" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>11510</v>
+        <v>11509</v>
       </c>
       <c r="B209" t="s">
         <v>205</v>
       </c>
       <c r="C209">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D209">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E209" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F209" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F209" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G209" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H209">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I209" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>11510</v>
+        <v>11509</v>
       </c>
       <c r="B210" t="s">
         <v>205</v>
       </c>
       <c r="C210">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D210">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E210" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F210" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F210" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G210" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I210" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>11510</v>
       </c>
@@ -7210,91 +7216,91 @@
         <v>24</v>
       </c>
       <c r="G211" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I211" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212">
+        <v>11510</v>
+      </c>
+      <c r="B212" t="s">
+        <v>205</v>
+      </c>
+      <c r="C212">
+        <v>8</v>
+      </c>
+      <c r="D212">
+        <v>10</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G212" t="s">
+        <v>20</v>
+      </c>
+      <c r="H212">
+        <v>2</v>
+      </c>
+      <c r="I212" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>11510</v>
+      </c>
+      <c r="B213" t="s">
+        <v>205</v>
+      </c>
+      <c r="C213">
+        <v>8</v>
+      </c>
+      <c r="D213">
+        <v>10</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G213" t="s">
+        <v>11</v>
+      </c>
+      <c r="H213">
+        <v>1</v>
+      </c>
+      <c r="I213" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A214">
         <v>11626</v>
-      </c>
-      <c r="B212" t="s">
-        <v>213</v>
-      </c>
-      <c r="C212">
-        <v>16</v>
-      </c>
-      <c r="D212">
-        <v>26</v>
-      </c>
-      <c r="E212" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F212" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="G212" t="s">
-        <v>10</v>
-      </c>
-      <c r="H212">
-        <v>5</v>
-      </c>
-      <c r="I212" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A213">
-        <v>11626</v>
-      </c>
-      <c r="B213" t="s">
-        <v>213</v>
-      </c>
-      <c r="C213">
-        <v>16</v>
-      </c>
-      <c r="D213">
-        <v>26</v>
-      </c>
-      <c r="E213" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F213" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="G213" t="s">
-        <v>20</v>
-      </c>
-      <c r="H213">
-        <v>3</v>
-      </c>
-      <c r="I213" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A214">
-        <v>11627</v>
       </c>
       <c r="B214" t="s">
         <v>213</v>
       </c>
       <c r="C214">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D214">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E214" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F214" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="F214" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="G214" t="s">
         <v>10</v>
@@ -7303,97 +7309,97 @@
         <v>5</v>
       </c>
       <c r="I214" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>11627</v>
+        <v>11626</v>
       </c>
       <c r="B215" t="s">
         <v>213</v>
       </c>
       <c r="C215">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D215">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E215" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F215" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="F215" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="G215" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H215">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I215" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>11628</v>
+        <v>11627</v>
       </c>
       <c r="B216" t="s">
         <v>213</v>
       </c>
       <c r="C216">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D216">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E216" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F216" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F216" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="G216" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H216">
         <v>5</v>
       </c>
       <c r="I216" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>11628</v>
+        <v>11627</v>
       </c>
       <c r="B217" t="s">
         <v>213</v>
       </c>
       <c r="C217">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D217">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E217" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F217" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F217" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="G217" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I217" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>11628</v>
       </c>
@@ -7413,74 +7419,74 @@
         <v>217</v>
       </c>
       <c r="G218" t="s">
-        <v>218</v>
+        <v>20</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I218" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>11629</v>
+        <v>11628</v>
       </c>
       <c r="B219" t="s">
         <v>213</v>
       </c>
       <c r="C219">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D219">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E219" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F219" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F219" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G219" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H219">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I219" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>11629</v>
+        <v>11628</v>
       </c>
       <c r="B220" t="s">
         <v>213</v>
       </c>
       <c r="C220">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D220">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E220" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F220" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F220" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G220" t="s">
-        <v>18</v>
+        <v>218</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I220" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>11629</v>
       </c>
@@ -7500,161 +7506,161 @@
         <v>24</v>
       </c>
       <c r="G221" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I221" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222">
+        <v>11629</v>
+      </c>
+      <c r="B222" t="s">
+        <v>213</v>
+      </c>
+      <c r="C222">
+        <v>19</v>
+      </c>
+      <c r="D222">
+        <v>29</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G222" t="s">
+        <v>18</v>
+      </c>
+      <c r="H222">
+        <v>2</v>
+      </c>
+      <c r="I222" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>11629</v>
+      </c>
+      <c r="B223" t="s">
+        <v>213</v>
+      </c>
+      <c r="C223">
+        <v>19</v>
+      </c>
+      <c r="D223">
+        <v>29</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G223" t="s">
+        <v>11</v>
+      </c>
+      <c r="H223">
+        <v>2</v>
+      </c>
+      <c r="I223" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A224">
         <v>11706</v>
-      </c>
-      <c r="B222" t="s">
-        <v>221</v>
-      </c>
-      <c r="C222">
-        <v>4</v>
-      </c>
-      <c r="D222">
-        <v>6</v>
-      </c>
-      <c r="E222" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F222" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="G222" t="s">
-        <v>10</v>
-      </c>
-      <c r="H222">
-        <v>10</v>
-      </c>
-      <c r="I222" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A223">
-        <v>11707</v>
-      </c>
-      <c r="B223" t="s">
-        <v>221</v>
-      </c>
-      <c r="C223">
-        <v>5</v>
-      </c>
-      <c r="D223">
-        <v>7</v>
-      </c>
-      <c r="E223" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="F223" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="G223" t="s">
-        <v>10</v>
-      </c>
-      <c r="H223">
-        <v>6</v>
-      </c>
-      <c r="I223" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A224">
-        <v>11707</v>
       </c>
       <c r="B224" t="s">
         <v>221</v>
       </c>
       <c r="C224">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D224">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E224" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F224" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="F224" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="G224" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H224">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I224" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>11708</v>
+        <v>11707</v>
       </c>
       <c r="B225" t="s">
         <v>221</v>
       </c>
       <c r="C225">
+        <v>5</v>
+      </c>
+      <c r="D225">
+        <v>7</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G225" t="s">
+        <v>10</v>
+      </c>
+      <c r="H225">
         <v>6</v>
       </c>
-      <c r="D225">
-        <v>8</v>
-      </c>
-      <c r="E225" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F225" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G225" t="s">
-        <v>53</v>
-      </c>
-      <c r="H225">
-        <v>5</v>
-      </c>
       <c r="I225" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>11708</v>
+        <v>11707</v>
       </c>
       <c r="B226" t="s">
         <v>221</v>
       </c>
       <c r="C226">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D226">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E226" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F226" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="F226" s="1" t="s">
-        <v>226</v>
-      </c>
       <c r="G226" t="s">
         <v>20</v>
       </c>
       <c r="H226">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I226" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>11708</v>
       </c>
@@ -7674,76 +7680,76 @@
         <v>226</v>
       </c>
       <c r="G227" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I227" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>11709</v>
+        <v>11708</v>
       </c>
       <c r="B228" t="s">
         <v>221</v>
       </c>
       <c r="C228">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D228">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E228" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F228" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="F228" s="1" t="s">
-        <v>228</v>
-      </c>
       <c r="G228" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I228" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>11710</v>
+        <v>11708</v>
       </c>
       <c r="B229" t="s">
         <v>221</v>
       </c>
       <c r="C229">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D229">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>24</v>
+        <v>226</v>
       </c>
       <c r="G229" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="H229">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I229" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>11710</v>
+        <v>11709</v>
       </c>
       <c r="B230" t="s">
         <v>221</v>
@@ -7752,25 +7758,25 @@
         <v>7</v>
       </c>
       <c r="D230">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E230" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F230" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="F230" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G230" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H230">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I230" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>11710</v>
       </c>
@@ -7790,12 +7796,70 @@
         <v>24</v>
       </c>
       <c r="G231" t="s">
+        <v>53</v>
+      </c>
+      <c r="H231">
+        <v>4</v>
+      </c>
+      <c r="I231" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>11710</v>
+      </c>
+      <c r="B232" t="s">
+        <v>221</v>
+      </c>
+      <c r="C232">
+        <v>7</v>
+      </c>
+      <c r="D232">
+        <v>10</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G232" t="s">
+        <v>20</v>
+      </c>
+      <c r="H232">
+        <v>3</v>
+      </c>
+      <c r="I232" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>11710</v>
+      </c>
+      <c r="B233" t="s">
+        <v>221</v>
+      </c>
+      <c r="C233">
+        <v>7</v>
+      </c>
+      <c r="D233">
+        <v>10</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G233" t="s">
         <v>18</v>
       </c>
-      <c r="H231">
+      <c r="H233">
         <v>2</v>
       </c>
-      <c r="I231" t="s">
+      <c r="I233" t="s">
         <v>227</v>
       </c>
     </row>

--- a/inst/extdata/additional_govdata.xlsx
+++ b/inst/extdata/additional_govdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Desktop\bldrt\bundeslaendeR\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF20CC5-D9BE-4D8A-8D67-C4A43ED93EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50805598-1A14-47D3-88D5-8BC36C99B419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="246">
   <si>
     <t>gov_id</t>
   </si>
@@ -769,6 +769,9 @@
   </si>
   <si>
     <t>https://de.wikipedia.org/wiki/Kabinett_W%C3%BCst_II</t>
+  </si>
+  <si>
+    <t>https://de.wikipedia.org/wiki/Kabinett_G%C3%BCnther_II</t>
   </si>
 </sst>
 </file>
@@ -1088,11 +1091,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I233"/>
+  <dimension ref="A1:I235"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I141" sqref="I141"/>
+      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I225" sqref="I225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7503,7 +7506,7 @@
         <v>217</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>24</v>
+        <v>243</v>
       </c>
       <c r="G221" t="s">
         <v>10</v>
@@ -7532,7 +7535,7 @@
         <v>217</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>24</v>
+        <v>243</v>
       </c>
       <c r="G222" t="s">
         <v>18</v>
@@ -7561,7 +7564,7 @@
         <v>217</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>24</v>
+        <v>243</v>
       </c>
       <c r="G223" t="s">
         <v>11</v>
@@ -7575,147 +7578,147 @@
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>11706</v>
+        <v>11630</v>
       </c>
       <c r="B224" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C224">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D224">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>223</v>
+        <v>24</v>
       </c>
       <c r="G224" t="s">
         <v>10</v>
       </c>
       <c r="H224">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I224" t="s">
-        <v>14</v>
+        <v>245</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>11707</v>
+        <v>11630</v>
       </c>
       <c r="B225" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C225">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D225">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>224</v>
+        <v>24</v>
       </c>
       <c r="G225" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H225">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I225" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>11707</v>
+        <v>11706</v>
       </c>
       <c r="B226" t="s">
         <v>221</v>
       </c>
       <c r="C226">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D226">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E226" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F226" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="F226" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="G226" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H226">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I226" t="s">
-        <v>225</v>
+        <v>14</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>11708</v>
+        <v>11707</v>
       </c>
       <c r="B227" t="s">
         <v>221</v>
       </c>
       <c r="C227">
+        <v>5</v>
+      </c>
+      <c r="D227">
+        <v>7</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G227" t="s">
+        <v>10</v>
+      </c>
+      <c r="H227">
         <v>6</v>
       </c>
-      <c r="D227">
-        <v>8</v>
-      </c>
-      <c r="E227" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F227" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G227" t="s">
-        <v>53</v>
-      </c>
-      <c r="H227">
-        <v>5</v>
-      </c>
       <c r="I227" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>11708</v>
+        <v>11707</v>
       </c>
       <c r="B228" t="s">
         <v>221</v>
       </c>
       <c r="C228">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D228">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E228" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F228" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="F228" s="1" t="s">
-        <v>226</v>
-      </c>
       <c r="G228" t="s">
         <v>20</v>
       </c>
       <c r="H228">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I228" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
@@ -7738,10 +7741,10 @@
         <v>226</v>
       </c>
       <c r="G229" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I229" t="s">
         <v>227</v>
@@ -7749,57 +7752,57 @@
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>11709</v>
+        <v>11708</v>
       </c>
       <c r="B230" t="s">
         <v>221</v>
       </c>
       <c r="C230">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D230">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E230" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F230" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="F230" s="1" t="s">
-        <v>228</v>
-      </c>
       <c r="G230" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I230" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>11710</v>
+        <v>11708</v>
       </c>
       <c r="B231" t="s">
         <v>221</v>
       </c>
       <c r="C231">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D231">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>24</v>
+        <v>226</v>
       </c>
       <c r="G231" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="H231">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I231" t="s">
         <v>227</v>
@@ -7807,7 +7810,7 @@
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>11710</v>
+        <v>11709</v>
       </c>
       <c r="B232" t="s">
         <v>221</v>
@@ -7816,22 +7819,22 @@
         <v>7</v>
       </c>
       <c r="D232">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E232" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F232" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="F232" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G232" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H232">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I232" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
@@ -7854,12 +7857,70 @@
         <v>24</v>
       </c>
       <c r="G233" t="s">
+        <v>53</v>
+      </c>
+      <c r="H233">
+        <v>4</v>
+      </c>
+      <c r="I233" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>11710</v>
+      </c>
+      <c r="B234" t="s">
+        <v>221</v>
+      </c>
+      <c r="C234">
+        <v>7</v>
+      </c>
+      <c r="D234">
+        <v>10</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G234" t="s">
+        <v>20</v>
+      </c>
+      <c r="H234">
+        <v>3</v>
+      </c>
+      <c r="I234" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>11710</v>
+      </c>
+      <c r="B235" t="s">
+        <v>221</v>
+      </c>
+      <c r="C235">
+        <v>7</v>
+      </c>
+      <c r="D235">
+        <v>10</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G235" t="s">
         <v>18</v>
       </c>
-      <c r="H233">
+      <c r="H235">
         <v>2</v>
       </c>
-      <c r="I233" t="s">
+      <c r="I235" t="s">
         <v>227</v>
       </c>
     </row>

--- a/inst/extdata/additional_govdata.xlsx
+++ b/inst/extdata/additional_govdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Desktop\bldrt\bundeslaendeR\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertstelzle/git_projekte/add_nds21/bundeslaendeR/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50805598-1A14-47D3-88D5-8BC36C99B419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FAD15A5-D305-8E48-9591-81B4F11A55F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="248">
   <si>
     <t>gov_id</t>
   </si>
@@ -772,6 +772,12 @@
   </si>
   <si>
     <t>https://de.wikipedia.org/wiki/Kabinett_G%C3%BCnther_II</t>
+  </si>
+  <si>
+    <t>2022-11-08</t>
+  </si>
+  <si>
+    <t>https://de.wikipedia.org/wiki/Kabinett_Weil_III</t>
   </si>
 </sst>
 </file>
@@ -1091,25 +1097,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I235"/>
+  <dimension ref="A1:I237"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I225" sqref="I225"/>
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G129" sqref="G129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
     <col min="9" max="9" width="77" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1138,7 +1144,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10219</v>
       </c>
@@ -1167,7 +1173,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10219</v>
       </c>
@@ -1196,7 +1202,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10220</v>
       </c>
@@ -1225,7 +1231,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>10220</v>
       </c>
@@ -1254,7 +1260,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>10221</v>
       </c>
@@ -1283,7 +1289,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>10221</v>
       </c>
@@ -1312,7 +1318,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>10222</v>
       </c>
@@ -1341,7 +1347,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>10222</v>
       </c>
@@ -1370,7 +1376,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10223</v>
       </c>
@@ -1399,7 +1405,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10223</v>
       </c>
@@ -1428,7 +1434,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10224</v>
       </c>
@@ -1457,7 +1463,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10224</v>
       </c>
@@ -1486,7 +1492,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10320</v>
       </c>
@@ -1515,7 +1521,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>10321</v>
       </c>
@@ -1544,7 +1550,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>10322</v>
       </c>
@@ -1573,7 +1579,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>10322</v>
       </c>
@@ -1602,7 +1608,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>10323</v>
       </c>
@@ -1631,7 +1637,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>10324</v>
       </c>
@@ -1660,7 +1666,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>10325</v>
       </c>
@@ -1689,7 +1695,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>10325</v>
       </c>
@@ -1718,7 +1724,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>10425</v>
       </c>
@@ -1747,7 +1753,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>10425</v>
       </c>
@@ -1776,7 +1782,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>10425</v>
       </c>
@@ -1805,7 +1811,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>10425</v>
       </c>
@@ -1834,7 +1840,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>10426</v>
       </c>
@@ -1863,7 +1869,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>10426</v>
       </c>
@@ -1892,7 +1898,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>10426</v>
       </c>
@@ -1921,7 +1927,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>10426</v>
       </c>
@@ -1950,7 +1956,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>10427</v>
       </c>
@@ -1979,7 +1985,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>10427</v>
       </c>
@@ -2008,7 +2014,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>10427</v>
       </c>
@@ -2037,7 +2043,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>10427</v>
       </c>
@@ -2066,7 +2072,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>10428</v>
       </c>
@@ -2095,7 +2101,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>10428</v>
       </c>
@@ -2124,7 +2130,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>10428</v>
       </c>
@@ -2153,7 +2159,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>10424</v>
       </c>
@@ -2182,7 +2188,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>10424</v>
       </c>
@@ -2211,7 +2217,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>10429</v>
       </c>
@@ -2240,7 +2246,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>10429</v>
       </c>
@@ -2269,7 +2275,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>10430</v>
       </c>
@@ -2298,7 +2304,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>10430</v>
       </c>
@@ -2327,7 +2333,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>10431</v>
       </c>
@@ -2356,7 +2362,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>10431</v>
       </c>
@@ -2385,7 +2391,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>10432</v>
       </c>
@@ -2414,7 +2420,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>10432</v>
       </c>
@@ -2443,7 +2449,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>10432</v>
       </c>
@@ -2472,7 +2478,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>10433</v>
       </c>
@@ -2501,7 +2507,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>10433</v>
       </c>
@@ -2530,7 +2536,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>10433</v>
       </c>
@@ -2559,7 +2565,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>10506</v>
       </c>
@@ -2588,7 +2594,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>10506</v>
       </c>
@@ -2617,7 +2623,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>10507</v>
       </c>
@@ -2646,7 +2652,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>10507</v>
       </c>
@@ -2675,7 +2681,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>10508</v>
       </c>
@@ -2704,7 +2710,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>10508</v>
       </c>
@@ -2733,7 +2739,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>10509</v>
       </c>
@@ -2762,7 +2768,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>10509</v>
       </c>
@@ -2791,7 +2797,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>10510</v>
       </c>
@@ -2820,7 +2826,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>10510</v>
       </c>
@@ -2849,7 +2855,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>10510</v>
       </c>
@@ -2878,7 +2884,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>10620</v>
       </c>
@@ -2907,7 +2913,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>10620</v>
       </c>
@@ -2936,7 +2942,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>10620</v>
       </c>
@@ -2965,7 +2971,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>10621</v>
       </c>
@@ -2994,7 +3000,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>10621</v>
       </c>
@@ -3023,7 +3029,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>10619</v>
       </c>
@@ -3052,7 +3058,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>10619</v>
       </c>
@@ -3081,7 +3087,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>10622</v>
       </c>
@@ -3110,7 +3116,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>10622</v>
       </c>
@@ -3139,7 +3145,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>10623</v>
       </c>
@@ -3168,7 +3174,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>10623</v>
       </c>
@@ -3197,7 +3203,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>10624</v>
       </c>
@@ -3226,7 +3232,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>10624</v>
       </c>
@@ -3255,7 +3261,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>10625</v>
       </c>
@@ -3284,7 +3290,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>10625</v>
       </c>
@@ -3313,7 +3319,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>10626</v>
       </c>
@@ -3342,7 +3348,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>10626</v>
       </c>
@@ -3371,7 +3377,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>10626</v>
       </c>
@@ -3400,7 +3406,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>10720</v>
       </c>
@@ -3429,7 +3435,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>10721</v>
       </c>
@@ -3458,7 +3464,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>10722</v>
       </c>
@@ -3487,7 +3493,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>10722</v>
       </c>
@@ -3516,7 +3522,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>10723</v>
       </c>
@@ -3545,7 +3551,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>10723</v>
       </c>
@@ -3574,7 +3580,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>10724</v>
       </c>
@@ -3603,7 +3609,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>10724</v>
       </c>
@@ -3632,7 +3638,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>10725</v>
       </c>
@@ -3661,7 +3667,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>10725</v>
       </c>
@@ -3690,7 +3696,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>10726</v>
       </c>
@@ -3719,7 +3725,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>10726</v>
       </c>
@@ -3748,7 +3754,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>10826</v>
       </c>
@@ -3777,7 +3783,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>10827</v>
       </c>
@@ -3806,7 +3812,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>10827</v>
       </c>
@@ -3835,7 +3841,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>10828</v>
       </c>
@@ -3864,7 +3870,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>10828</v>
       </c>
@@ -3893,7 +3899,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>10829</v>
       </c>
@@ -3922,7 +3928,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>10830</v>
       </c>
@@ -3951,7 +3957,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>10831</v>
       </c>
@@ -3980,7 +3986,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>10831</v>
       </c>
@@ -4009,7 +4015,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>10832</v>
       </c>
@@ -4038,7 +4044,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>10832</v>
       </c>
@@ -4067,7 +4073,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>10833</v>
       </c>
@@ -4096,7 +4102,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>10833</v>
       </c>
@@ -4125,7 +4131,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>10905</v>
       </c>
@@ -4154,7 +4160,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>10905</v>
       </c>
@@ -4183,7 +4189,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>10906</v>
       </c>
@@ -4212,7 +4218,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>10906</v>
       </c>
@@ -4241,7 +4247,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>10910</v>
       </c>
@@ -4270,7 +4276,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>10910</v>
       </c>
@@ -4299,7 +4305,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>10911</v>
       </c>
@@ -4328,7 +4334,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>10911</v>
       </c>
@@ -4357,7 +4363,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>10912</v>
       </c>
@@ -4386,7 +4392,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>10912</v>
       </c>
@@ -4415,7 +4421,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>10913</v>
       </c>
@@ -4444,7 +4450,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>10913</v>
       </c>
@@ -4473,7 +4479,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>10914</v>
       </c>
@@ -4502,7 +4508,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>10914</v>
       </c>
@@ -4531,7 +4537,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>11027</v>
       </c>
@@ -4560,7 +4566,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>11027</v>
       </c>
@@ -4589,7 +4595,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>11028</v>
       </c>
@@ -4618,7 +4624,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>11028</v>
       </c>
@@ -4647,7 +4653,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>11029</v>
       </c>
@@ -4676,7 +4682,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>11029</v>
       </c>
@@ -4705,7 +4711,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>11030</v>
       </c>
@@ -4734,7 +4740,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>11030</v>
       </c>
@@ -4763,7 +4769,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>11031</v>
       </c>
@@ -4780,7 +4786,7 @@
         <v>134</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>24</v>
+        <v>246</v>
       </c>
       <c r="G127" t="s">
         <v>20</v>
@@ -4792,7 +4798,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>11031</v>
       </c>
@@ -4809,7 +4815,7 @@
         <v>134</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>24</v>
+        <v>246</v>
       </c>
       <c r="G128" t="s">
         <v>10</v>
@@ -4821,241 +4827,241 @@
         <v>136</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129">
+        <v>11032</v>
+      </c>
+      <c r="B129" t="s">
+        <v>127</v>
+      </c>
+      <c r="C129">
+        <v>19</v>
+      </c>
+      <c r="D129">
+        <v>32</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G129" t="s">
+        <v>20</v>
+      </c>
+      <c r="H129">
+        <v>7</v>
+      </c>
+      <c r="I129" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>11032</v>
+      </c>
+      <c r="B130" t="s">
+        <v>127</v>
+      </c>
+      <c r="C130">
+        <v>19</v>
+      </c>
+      <c r="D130">
+        <v>32</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G130" t="s">
+        <v>18</v>
+      </c>
+      <c r="H130">
+        <v>4</v>
+      </c>
+      <c r="I130" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A131">
         <v>11122</v>
-      </c>
-      <c r="B129" t="s">
-        <v>137</v>
-      </c>
-      <c r="C129">
-        <v>14</v>
-      </c>
-      <c r="D129">
-        <v>22</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G129" t="s">
-        <v>10</v>
-      </c>
-      <c r="H129">
-        <v>10</v>
-      </c>
-      <c r="I129" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>11122</v>
-      </c>
-      <c r="B130" t="s">
-        <v>137</v>
-      </c>
-      <c r="C130">
-        <v>14</v>
-      </c>
-      <c r="D130">
-        <v>22</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G130" t="s">
-        <v>11</v>
-      </c>
-      <c r="H130">
-        <v>2</v>
-      </c>
-      <c r="I130" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>11123</v>
       </c>
       <c r="B131" t="s">
         <v>137</v>
       </c>
       <c r="C131">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D131">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E131" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F131" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F131" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="G131" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H131">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I131" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>11123</v>
+        <v>11122</v>
       </c>
       <c r="B132" t="s">
         <v>137</v>
       </c>
       <c r="C132">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D132">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E132" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F132" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F132" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="G132" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H132">
         <v>2</v>
       </c>
       <c r="I132" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>11124</v>
+        <v>11123</v>
       </c>
       <c r="B133" t="s">
         <v>137</v>
       </c>
       <c r="C133">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D133">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E133" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F133" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F133" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="G133" t="s">
         <v>20</v>
       </c>
       <c r="H133">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I133" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>11124</v>
+        <v>11123</v>
       </c>
       <c r="B134" t="s">
         <v>137</v>
       </c>
       <c r="C134">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D134">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E134" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F134" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="G134" t="s">
         <v>18</v>
       </c>
       <c r="H134">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I134" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>11125</v>
+        <v>11124</v>
       </c>
       <c r="B135" t="s">
         <v>137</v>
       </c>
       <c r="C135">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D135">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E135" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F135" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F135" s="1" t="s">
-        <v>235</v>
-      </c>
       <c r="G135" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H135">
         <v>10</v>
       </c>
       <c r="I135" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>11125</v>
+        <v>11124</v>
       </c>
       <c r="B136" t="s">
         <v>137</v>
       </c>
       <c r="C136">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D136">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E136" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F136" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F136" s="1" t="s">
-        <v>235</v>
-      </c>
       <c r="G136" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H136">
         <v>3</v>
       </c>
       <c r="I136" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>11126</v>
+        <v>11125</v>
       </c>
       <c r="B137" t="s">
         <v>137</v>
@@ -5064,14 +5070,14 @@
         <v>17</v>
       </c>
       <c r="D137">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E137" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F137" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="F137" s="1" t="s">
-        <v>243</v>
-      </c>
       <c r="G137" t="s">
         <v>10</v>
       </c>
@@ -5079,12 +5085,12 @@
         <v>10</v>
       </c>
       <c r="I137" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>11126</v>
+        <v>11125</v>
       </c>
       <c r="B138" t="s">
         <v>137</v>
@@ -5093,13 +5099,13 @@
         <v>17</v>
       </c>
       <c r="D138">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E138" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F138" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>243</v>
       </c>
       <c r="G138" t="s">
         <v>11</v>
@@ -5108,215 +5114,215 @@
         <v>3</v>
       </c>
       <c r="I138" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>11127</v>
+        <v>11126</v>
       </c>
       <c r="B139" t="s">
         <v>137</v>
       </c>
       <c r="C139">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D139">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E139" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F139" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="F139" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G139" t="s">
         <v>10</v>
       </c>
       <c r="H139">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I139" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>11127</v>
+        <v>11126</v>
       </c>
       <c r="B140" t="s">
         <v>137</v>
       </c>
       <c r="C140">
+        <v>17</v>
+      </c>
+      <c r="D140">
+        <v>26</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G140" t="s">
+        <v>11</v>
+      </c>
+      <c r="H140">
+        <v>3</v>
+      </c>
+      <c r="I140" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>11127</v>
+      </c>
+      <c r="B141" t="s">
+        <v>137</v>
+      </c>
+      <c r="C141">
         <v>18</v>
       </c>
-      <c r="D140">
+      <c r="D141">
         <v>27</v>
       </c>
-      <c r="E140" s="1" t="s">
+      <c r="E141" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="F140" s="1" t="s">
+      <c r="F141" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G140" t="s">
+      <c r="G141" t="s">
+        <v>10</v>
+      </c>
+      <c r="H141">
+        <v>9</v>
+      </c>
+      <c r="I141" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>11127</v>
+      </c>
+      <c r="B142" t="s">
+        <v>137</v>
+      </c>
+      <c r="C142">
         <v>18</v>
       </c>
-      <c r="H140">
+      <c r="D142">
+        <v>27</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G142" t="s">
+        <v>18</v>
+      </c>
+      <c r="H142">
         <v>4</v>
       </c>
-      <c r="I140" t="s">
+      <c r="I142" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A141">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A143">
         <v>11221</v>
-      </c>
-      <c r="B141" t="s">
-        <v>145</v>
-      </c>
-      <c r="C141">
-        <v>14</v>
-      </c>
-      <c r="D141">
-        <v>21</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F141" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G141" t="s">
-        <v>20</v>
-      </c>
-      <c r="H141">
-        <v>7</v>
-      </c>
-      <c r="I141" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>11221</v>
-      </c>
-      <c r="B142" t="s">
-        <v>145</v>
-      </c>
-      <c r="C142">
-        <v>14</v>
-      </c>
-      <c r="D142">
-        <v>21</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F142" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G142" t="s">
-        <v>11</v>
-      </c>
-      <c r="H142">
-        <v>2</v>
-      </c>
-      <c r="I142" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>11222</v>
       </c>
       <c r="B143" t="s">
         <v>145</v>
       </c>
       <c r="C143">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D143">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E143" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F143" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F143" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="G143" t="s">
         <v>20</v>
       </c>
       <c r="H143">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I143" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>11223</v>
+        <v>11221</v>
       </c>
       <c r="B144" t="s">
         <v>145</v>
       </c>
       <c r="C144">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D144">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G144" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H144">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I144" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>11223</v>
+        <v>11222</v>
       </c>
       <c r="B145" t="s">
         <v>145</v>
       </c>
       <c r="C145">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D145">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E145" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F145" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F145" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="G145" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H145">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I145" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>11224</v>
+        <v>11223</v>
       </c>
       <c r="B146" t="s">
         <v>145</v>
@@ -5325,13 +5331,13 @@
         <v>16</v>
       </c>
       <c r="D146">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E146" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F146" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="G146" t="s">
         <v>20</v>
@@ -5340,12 +5346,12 @@
         <v>7</v>
       </c>
       <c r="I146" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147">
-        <v>11224</v>
+        <v>11223</v>
       </c>
       <c r="B147" t="s">
         <v>145</v>
@@ -5354,13 +5360,13 @@
         <v>16</v>
       </c>
       <c r="D147">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E147" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F147" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="G147" t="s">
         <v>18</v>
@@ -5369,68 +5375,68 @@
         <v>3</v>
       </c>
       <c r="I147" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>11225</v>
+        <v>11224</v>
       </c>
       <c r="B148" t="s">
         <v>145</v>
       </c>
       <c r="C148">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D148">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E148" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F148" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F148" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="G148" t="s">
         <v>20</v>
       </c>
       <c r="H148">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I148" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>11225</v>
+        <v>11224</v>
       </c>
       <c r="B149" t="s">
         <v>145</v>
       </c>
       <c r="C149">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D149">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E149" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F149" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F149" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="G149" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I149" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>11225</v>
       </c>
@@ -5450,74 +5456,74 @@
         <v>154</v>
       </c>
       <c r="G150" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I150" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>11226</v>
+        <v>11225</v>
       </c>
       <c r="B151" t="s">
         <v>145</v>
       </c>
       <c r="C151">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D151">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E151" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F151" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F151" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G151" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H151">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I151" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>11226</v>
+        <v>11225</v>
       </c>
       <c r="B152" t="s">
         <v>145</v>
       </c>
       <c r="C152">
+        <v>17</v>
+      </c>
+      <c r="D152">
+        <v>25</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G152" t="s">
         <v>18</v>
-      </c>
-      <c r="D152">
-        <v>26</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F152" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G152" t="s">
-        <v>11</v>
       </c>
       <c r="H152">
         <v>2</v>
       </c>
       <c r="I152" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>11226</v>
       </c>
@@ -5537,76 +5543,76 @@
         <v>24</v>
       </c>
       <c r="G153" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I153" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154">
-        <v>11314</v>
+        <v>11226</v>
       </c>
       <c r="B154" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C154">
-        <v>-2</v>
+        <v>18</v>
       </c>
       <c r="D154">
-        <v>-9</v>
+        <v>26</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>162</v>
+        <v>24</v>
       </c>
       <c r="G154" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="H154">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155">
-        <v>11314</v>
+        <v>11226</v>
       </c>
       <c r="B155" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C155">
-        <v>-2</v>
+        <v>18</v>
       </c>
       <c r="D155">
-        <v>-9</v>
+        <v>26</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>162</v>
+        <v>24</v>
       </c>
       <c r="G155" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="H155">
         <v>2</v>
       </c>
       <c r="I155" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156">
-        <v>11315</v>
+        <v>11314</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
@@ -5615,85 +5621,85 @@
         <v>-2</v>
       </c>
       <c r="D156">
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="E156" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F156" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="F156" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="G156" t="s">
         <v>159</v>
       </c>
       <c r="H156">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I156" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157">
-        <v>11316</v>
+        <v>11314</v>
       </c>
       <c r="B157" t="s">
         <v>157</v>
       </c>
       <c r="C157">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D157">
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G157" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H157">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I157" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158">
-        <v>11316</v>
+        <v>11315</v>
       </c>
       <c r="B158" t="s">
         <v>157</v>
       </c>
       <c r="C158">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D158">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="E158" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F158" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F158" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="G158" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I158" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159">
-        <v>11317</v>
+        <v>11316</v>
       </c>
       <c r="B159" t="s">
         <v>157</v>
@@ -5702,27 +5708,27 @@
         <v>-1</v>
       </c>
       <c r="D159">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="E159" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F159" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="F159" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="G159" t="s">
         <v>159</v>
       </c>
       <c r="H159">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I159" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160">
-        <v>11318</v>
+        <v>11316</v>
       </c>
       <c r="B160" t="s">
         <v>157</v>
@@ -5731,83 +5737,83 @@
         <v>-1</v>
       </c>
       <c r="D160">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G160" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="H160">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I160" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161">
-        <v>11319</v>
+        <v>11317</v>
       </c>
       <c r="B161" t="s">
         <v>157</v>
       </c>
       <c r="C161">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D161">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="G161" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="H161">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I161" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162">
-        <v>11319</v>
+        <v>11318</v>
       </c>
       <c r="B162" t="s">
         <v>157</v>
       </c>
       <c r="C162">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D162">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="E162" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F162" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F162" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="G162" t="s">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I162" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>11319</v>
       </c>
@@ -5827,18 +5833,18 @@
         <v>174</v>
       </c>
       <c r="G163" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I163" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164">
-        <v>11320</v>
+        <v>11319</v>
       </c>
       <c r="B164" t="s">
         <v>157</v>
@@ -5847,27 +5853,27 @@
         <v>0</v>
       </c>
       <c r="D164">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="E164" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F164" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F164" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="G164" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H164">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I164" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165">
-        <v>11320</v>
+        <v>11319</v>
       </c>
       <c r="B165" t="s">
         <v>157</v>
@@ -5876,16 +5882,16 @@
         <v>0</v>
       </c>
       <c r="D165">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="E165" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F165" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F165" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="G165" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -5894,9 +5900,9 @@
         <v>173</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166">
-        <v>11321</v>
+        <v>11320</v>
       </c>
       <c r="B166" t="s">
         <v>157</v>
@@ -5905,27 +5911,27 @@
         <v>0</v>
       </c>
       <c r="D166">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="E166" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F166" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F166" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="G166" t="s">
         <v>10</v>
       </c>
       <c r="H166">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I166" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167">
-        <v>11321</v>
+        <v>11320</v>
       </c>
       <c r="B167" t="s">
         <v>157</v>
@@ -5934,13 +5940,13 @@
         <v>0</v>
       </c>
       <c r="D167">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="E167" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F167" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="F167" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="G167" t="s">
         <v>20</v>
@@ -5949,10 +5955,10 @@
         <v>1</v>
       </c>
       <c r="I167" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>11321</v>
       </c>
@@ -5972,18 +5978,18 @@
         <v>175</v>
       </c>
       <c r="G168" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I168" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169">
-        <v>11322</v>
+        <v>11321</v>
       </c>
       <c r="B169" t="s">
         <v>157</v>
@@ -5992,27 +5998,27 @@
         <v>0</v>
       </c>
       <c r="D169">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E169" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F169" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="F169" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="G169" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H169">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I169" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170">
-        <v>11322</v>
+        <v>11321</v>
       </c>
       <c r="B170" t="s">
         <v>157</v>
@@ -6021,25 +6027,25 @@
         <v>0</v>
       </c>
       <c r="D170">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E170" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F170" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="F170" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="G170" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H170">
         <v>2</v>
       </c>
       <c r="I170" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>11322</v>
       </c>
@@ -6059,18 +6065,18 @@
         <v>177</v>
       </c>
       <c r="G171" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I171" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172">
-        <v>11323</v>
+        <v>11322</v>
       </c>
       <c r="B172" t="s">
         <v>157</v>
@@ -6079,27 +6085,27 @@
         <v>0</v>
       </c>
       <c r="D172">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E172" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F172" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F172" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="G172" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H172">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I172" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173">
-        <v>11323</v>
+        <v>11322</v>
       </c>
       <c r="B173" t="s">
         <v>157</v>
@@ -6108,112 +6114,112 @@
         <v>0</v>
       </c>
       <c r="D173">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E173" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F173" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F173" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="G173" t="s">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I173" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174">
-        <v>11313</v>
+        <v>11323</v>
       </c>
       <c r="B174" t="s">
         <v>157</v>
       </c>
       <c r="C174">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D174">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G174" t="s">
         <v>10</v>
       </c>
       <c r="H174">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I174" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175">
-        <v>11324</v>
+        <v>11323</v>
       </c>
       <c r="B175" t="s">
         <v>157</v>
       </c>
       <c r="C175">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D175">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G175" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H175">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I175" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176">
-        <v>11324</v>
+        <v>11313</v>
       </c>
       <c r="B176" t="s">
         <v>157</v>
       </c>
       <c r="C176">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D176">
+        <v>13</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G176" t="s">
+        <v>10</v>
+      </c>
+      <c r="H176">
+        <v>8</v>
+      </c>
+      <c r="I176" t="s">
         <v>14</v>
       </c>
-      <c r="E176" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F176" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="G176" t="s">
-        <v>11</v>
-      </c>
-      <c r="H176">
-        <v>2</v>
-      </c>
-      <c r="I176" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>11324</v>
       </c>
@@ -6233,18 +6239,18 @@
         <v>183</v>
       </c>
       <c r="G177" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I177" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178">
-        <v>11325</v>
+        <v>11324</v>
       </c>
       <c r="B178" t="s">
         <v>157</v>
@@ -6253,27 +6259,27 @@
         <v>11</v>
       </c>
       <c r="D178">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E178" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F178" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F178" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="G178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H178">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I178" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179">
-        <v>11325</v>
+        <v>11324</v>
       </c>
       <c r="B179" t="s">
         <v>157</v>
@@ -6282,25 +6288,25 @@
         <v>11</v>
       </c>
       <c r="D179">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E179" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F179" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F179" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="G179" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H179">
         <v>2</v>
       </c>
       <c r="I179" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>11325</v>
       </c>
@@ -6320,18 +6326,18 @@
         <v>185</v>
       </c>
       <c r="G180" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I180" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181">
-        <v>11326</v>
+        <v>11325</v>
       </c>
       <c r="B181" t="s">
         <v>157</v>
@@ -6340,100 +6346,100 @@
         <v>11</v>
       </c>
       <c r="D181">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E181" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F181" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="F181" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="G181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H181">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I181" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182">
-        <v>11327</v>
+        <v>11325</v>
       </c>
       <c r="B182" t="s">
         <v>157</v>
       </c>
       <c r="C182">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D182">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G182" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H182">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I182" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183">
-        <v>11327</v>
+        <v>11326</v>
       </c>
       <c r="B183" t="s">
         <v>157</v>
       </c>
       <c r="C183">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D183">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E183" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F183" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F183" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="G183" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H183">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I183" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184">
-        <v>11328</v>
+        <v>11327</v>
       </c>
       <c r="B184" t="s">
         <v>157</v>
       </c>
       <c r="C184">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D184">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E184" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F184" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="F184" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="G184" t="s">
         <v>10</v>
@@ -6442,41 +6448,41 @@
         <v>4</v>
       </c>
       <c r="I184" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185">
-        <v>11328</v>
+        <v>11327</v>
       </c>
       <c r="B185" t="s">
         <v>157</v>
       </c>
       <c r="C185">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D185">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E185" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F185" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F185" s="1" t="s">
-        <v>190</v>
-      </c>
       <c r="G185" t="s">
         <v>20</v>
       </c>
       <c r="H185">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I185" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186">
-        <v>11329</v>
+        <v>11328</v>
       </c>
       <c r="B186" t="s">
         <v>157</v>
@@ -6485,13 +6491,13 @@
         <v>13</v>
       </c>
       <c r="D186">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E186" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F186" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="F186" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="G186" t="s">
         <v>10</v>
@@ -6500,12 +6506,12 @@
         <v>4</v>
       </c>
       <c r="I186" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187">
-        <v>11329</v>
+        <v>11328</v>
       </c>
       <c r="B187" t="s">
         <v>157</v>
@@ -6514,13 +6520,13 @@
         <v>13</v>
       </c>
       <c r="D187">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E187" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F187" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="F187" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="G187" t="s">
         <v>20</v>
@@ -6529,99 +6535,99 @@
         <v>3</v>
       </c>
       <c r="I187" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188">
-        <v>11330</v>
+        <v>11329</v>
       </c>
       <c r="B188" t="s">
         <v>157</v>
       </c>
       <c r="C188">
+        <v>13</v>
+      </c>
+      <c r="D188">
+        <v>19</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G188" t="s">
+        <v>10</v>
+      </c>
+      <c r="H188">
+        <v>4</v>
+      </c>
+      <c r="I188" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>11329</v>
+      </c>
+      <c r="B189" t="s">
+        <v>157</v>
+      </c>
+      <c r="C189">
+        <v>13</v>
+      </c>
+      <c r="D189">
+        <v>19</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G189" t="s">
+        <v>20</v>
+      </c>
+      <c r="H189">
+        <v>3</v>
+      </c>
+      <c r="I189" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>11330</v>
+      </c>
+      <c r="B190" t="s">
+        <v>157</v>
+      </c>
+      <c r="C190">
         <v>14</v>
       </c>
-      <c r="D188">
-        <v>20</v>
-      </c>
-      <c r="E188" s="1" t="s">
+      <c r="D190">
+        <v>20</v>
+      </c>
+      <c r="E190" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F188" s="1" t="s">
+      <c r="F190" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G188" t="s">
-        <v>20</v>
-      </c>
-      <c r="H188">
+      <c r="G190" t="s">
+        <v>20</v>
+      </c>
+      <c r="H190">
         <v>7</v>
       </c>
-      <c r="I188" t="s">
+      <c r="I190" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A189">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A191">
         <v>11405</v>
-      </c>
-      <c r="B189" t="s">
-        <v>193</v>
-      </c>
-      <c r="C189">
-        <v>4</v>
-      </c>
-      <c r="D189">
-        <v>5</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F189" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G189" t="s">
-        <v>10</v>
-      </c>
-      <c r="H189">
-        <v>8</v>
-      </c>
-      <c r="I189" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A190">
-        <v>11405</v>
-      </c>
-      <c r="B190" t="s">
-        <v>193</v>
-      </c>
-      <c r="C190">
-        <v>4</v>
-      </c>
-      <c r="D190">
-        <v>5</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F190" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G190" t="s">
-        <v>20</v>
-      </c>
-      <c r="H190">
-        <v>2</v>
-      </c>
-      <c r="I190" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A191">
-        <v>11406</v>
       </c>
       <c r="B191" t="s">
         <v>193</v>
@@ -6630,27 +6636,27 @@
         <v>4</v>
       </c>
       <c r="D191">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E191" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F191" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F191" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="G191" t="s">
         <v>10</v>
       </c>
       <c r="H191">
-        <v>7</v>
-      </c>
-      <c r="I191" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="I191" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192">
-        <v>11406</v>
+        <v>11405</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
@@ -6659,13 +6665,13 @@
         <v>4</v>
       </c>
       <c r="D192">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E192" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F192" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="F192" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="G192" t="s">
         <v>20</v>
@@ -6673,86 +6679,86 @@
       <c r="H192">
         <v>2</v>
       </c>
-      <c r="I192" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I192" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193">
-        <v>11407</v>
+        <v>11406</v>
       </c>
       <c r="B193" t="s">
         <v>193</v>
       </c>
       <c r="C193">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D193">
+        <v>6</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G193" t="s">
+        <v>10</v>
+      </c>
+      <c r="H193">
         <v>7</v>
       </c>
-      <c r="E193" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F193" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="G193" t="s">
-        <v>10</v>
-      </c>
-      <c r="H193">
-        <v>8</v>
-      </c>
-      <c r="I193" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I193" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194">
-        <v>11407</v>
+        <v>11406</v>
       </c>
       <c r="B194" t="s">
         <v>193</v>
       </c>
       <c r="C194">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D194">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E194" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F194" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="F194" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="G194" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H194">
         <v>2</v>
       </c>
-      <c r="I194" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I194" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195">
-        <v>11408</v>
+        <v>11407</v>
       </c>
       <c r="B195" t="s">
         <v>193</v>
       </c>
       <c r="C195">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D195">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E195" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F195" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="F195" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="G195" t="s">
         <v>10</v>
@@ -6761,41 +6767,41 @@
         <v>8</v>
       </c>
       <c r="I195" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196">
-        <v>11408</v>
+        <v>11407</v>
       </c>
       <c r="B196" t="s">
         <v>193</v>
       </c>
       <c r="C196">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D196">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E196" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F196" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F196" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="G196" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H196">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I196" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197">
-        <v>11409</v>
+        <v>11408</v>
       </c>
       <c r="B197" t="s">
         <v>193</v>
@@ -6804,13 +6810,13 @@
         <v>6</v>
       </c>
       <c r="D197">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E197" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F197" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="F197" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="G197" t="s">
         <v>10</v>
@@ -6819,12 +6825,12 @@
         <v>8</v>
       </c>
       <c r="I197" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198">
-        <v>11409</v>
+        <v>11408</v>
       </c>
       <c r="B198" t="s">
         <v>193</v>
@@ -6833,13 +6839,13 @@
         <v>6</v>
       </c>
       <c r="D198">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E198" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F198" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="F198" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="G198" t="s">
         <v>20</v>
@@ -6848,27 +6854,27 @@
         <v>3</v>
       </c>
       <c r="I198" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199">
-        <v>11410</v>
+        <v>11409</v>
       </c>
       <c r="B199" t="s">
         <v>193</v>
       </c>
       <c r="C199">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D199">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E199" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F199" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="F199" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="G199" t="s">
         <v>10</v>
@@ -6877,39 +6883,39 @@
         <v>8</v>
       </c>
       <c r="I199" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200">
-        <v>11410</v>
+        <v>11409</v>
       </c>
       <c r="B200" t="s">
         <v>193</v>
       </c>
       <c r="C200">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D200">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E200" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F200" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="F200" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G200" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I200" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>11410</v>
       </c>
@@ -6929,178 +6935,178 @@
         <v>24</v>
       </c>
       <c r="G201" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I201" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202">
+        <v>11410</v>
+      </c>
+      <c r="B202" t="s">
+        <v>193</v>
+      </c>
+      <c r="C202">
+        <v>7</v>
+      </c>
+      <c r="D202">
+        <v>10</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G202" t="s">
+        <v>18</v>
+      </c>
+      <c r="H202">
+        <v>2</v>
+      </c>
+      <c r="I202" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>11410</v>
+      </c>
+      <c r="B203" t="s">
+        <v>193</v>
+      </c>
+      <c r="C203">
+        <v>7</v>
+      </c>
+      <c r="D203">
+        <v>10</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G203" t="s">
+        <v>20</v>
+      </c>
+      <c r="H203">
+        <v>2</v>
+      </c>
+      <c r="I203" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A204">
         <v>11506</v>
-      </c>
-      <c r="B202" t="s">
-        <v>205</v>
-      </c>
-      <c r="C202">
-        <v>4</v>
-      </c>
-      <c r="D202">
-        <v>6</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="F202" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G202" t="s">
-        <v>10</v>
-      </c>
-      <c r="H202">
-        <v>5</v>
-      </c>
-      <c r="I202" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A203">
-        <v>11506</v>
-      </c>
-      <c r="B203" t="s">
-        <v>205</v>
-      </c>
-      <c r="C203">
-        <v>4</v>
-      </c>
-      <c r="D203">
-        <v>6</v>
-      </c>
-      <c r="E203" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="F203" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G203" t="s">
-        <v>11</v>
-      </c>
-      <c r="H203">
-        <v>3</v>
-      </c>
-      <c r="I203" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A204">
-        <v>11507</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
       </c>
       <c r="C204">
+        <v>4</v>
+      </c>
+      <c r="D204">
+        <v>6</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G204" t="s">
+        <v>10</v>
+      </c>
+      <c r="H204">
         <v>5</v>
       </c>
-      <c r="D204">
-        <v>7</v>
-      </c>
-      <c r="E204" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F204" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G204" t="s">
-        <v>10</v>
-      </c>
-      <c r="H204">
-        <v>6</v>
-      </c>
       <c r="I204" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205">
-        <v>11507</v>
+        <v>11506</v>
       </c>
       <c r="B205" t="s">
         <v>205</v>
       </c>
       <c r="C205">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D205">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E205" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F205" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F205" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="G205" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H205">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I205" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206">
-        <v>11508</v>
+        <v>11507</v>
       </c>
       <c r="B206" t="s">
         <v>205</v>
       </c>
       <c r="C206">
+        <v>5</v>
+      </c>
+      <c r="D206">
+        <v>7</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G206" t="s">
+        <v>10</v>
+      </c>
+      <c r="H206">
         <v>6</v>
       </c>
-      <c r="D206">
-        <v>8</v>
-      </c>
-      <c r="E206" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F206" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="G206" t="s">
-        <v>10</v>
-      </c>
-      <c r="H206">
-        <v>5</v>
-      </c>
       <c r="I206" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207">
-        <v>11508</v>
+        <v>11507</v>
       </c>
       <c r="B207" t="s">
         <v>205</v>
       </c>
       <c r="C207">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D207">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E207" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F207" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="F207" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="G207" t="s">
         <v>20</v>
@@ -7109,68 +7115,68 @@
         <v>4</v>
       </c>
       <c r="I207" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208">
-        <v>11509</v>
+        <v>11508</v>
       </c>
       <c r="B208" t="s">
         <v>205</v>
       </c>
       <c r="C208">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D208">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E208" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F208" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="F208" s="1" t="s">
-        <v>237</v>
-      </c>
       <c r="G208" t="s">
         <v>10</v>
       </c>
       <c r="H208">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I208" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209">
-        <v>11509</v>
+        <v>11508</v>
       </c>
       <c r="B209" t="s">
         <v>205</v>
       </c>
       <c r="C209">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D209">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E209" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F209" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="F209" s="1" t="s">
-        <v>237</v>
-      </c>
       <c r="G209" t="s">
         <v>20</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I209" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>11509</v>
       </c>
@@ -7190,74 +7196,74 @@
         <v>237</v>
       </c>
       <c r="G210" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I210" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211">
-        <v>11510</v>
+        <v>11509</v>
       </c>
       <c r="B211" t="s">
         <v>205</v>
       </c>
       <c r="C211">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D211">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E211" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F211" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F211" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G211" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H211">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I211" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212">
-        <v>11510</v>
+        <v>11509</v>
       </c>
       <c r="B212" t="s">
         <v>205</v>
       </c>
       <c r="C212">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D212">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E212" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F212" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F212" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G212" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I212" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>11510</v>
       </c>
@@ -7277,91 +7283,91 @@
         <v>24</v>
       </c>
       <c r="G213" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I213" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214">
+        <v>11510</v>
+      </c>
+      <c r="B214" t="s">
+        <v>205</v>
+      </c>
+      <c r="C214">
+        <v>8</v>
+      </c>
+      <c r="D214">
+        <v>10</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G214" t="s">
+        <v>20</v>
+      </c>
+      <c r="H214">
+        <v>2</v>
+      </c>
+      <c r="I214" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>11510</v>
+      </c>
+      <c r="B215" t="s">
+        <v>205</v>
+      </c>
+      <c r="C215">
+        <v>8</v>
+      </c>
+      <c r="D215">
+        <v>10</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G215" t="s">
+        <v>11</v>
+      </c>
+      <c r="H215">
+        <v>1</v>
+      </c>
+      <c r="I215" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A216">
         <v>11626</v>
-      </c>
-      <c r="B214" t="s">
-        <v>213</v>
-      </c>
-      <c r="C214">
-        <v>16</v>
-      </c>
-      <c r="D214">
-        <v>26</v>
-      </c>
-      <c r="E214" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F214" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="G214" t="s">
-        <v>10</v>
-      </c>
-      <c r="H214">
-        <v>5</v>
-      </c>
-      <c r="I214" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A215">
-        <v>11626</v>
-      </c>
-      <c r="B215" t="s">
-        <v>213</v>
-      </c>
-      <c r="C215">
-        <v>16</v>
-      </c>
-      <c r="D215">
-        <v>26</v>
-      </c>
-      <c r="E215" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F215" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="G215" t="s">
-        <v>20</v>
-      </c>
-      <c r="H215">
-        <v>3</v>
-      </c>
-      <c r="I215" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A216">
-        <v>11627</v>
       </c>
       <c r="B216" t="s">
         <v>213</v>
       </c>
       <c r="C216">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D216">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E216" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F216" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="F216" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="G216" t="s">
         <v>10</v>
@@ -7370,97 +7376,97 @@
         <v>5</v>
       </c>
       <c r="I216" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217">
-        <v>11627</v>
+        <v>11626</v>
       </c>
       <c r="B217" t="s">
         <v>213</v>
       </c>
       <c r="C217">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D217">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E217" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F217" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="F217" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="G217" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H217">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I217" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218">
-        <v>11628</v>
+        <v>11627</v>
       </c>
       <c r="B218" t="s">
         <v>213</v>
       </c>
       <c r="C218">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D218">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E218" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F218" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F218" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="G218" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H218">
         <v>5</v>
       </c>
       <c r="I218" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219">
-        <v>11628</v>
+        <v>11627</v>
       </c>
       <c r="B219" t="s">
         <v>213</v>
       </c>
       <c r="C219">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D219">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E219" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F219" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F219" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="G219" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I219" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>11628</v>
       </c>
@@ -7480,74 +7486,74 @@
         <v>217</v>
       </c>
       <c r="G220" t="s">
-        <v>218</v>
+        <v>20</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I220" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221">
-        <v>11629</v>
+        <v>11628</v>
       </c>
       <c r="B221" t="s">
         <v>213</v>
       </c>
       <c r="C221">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D221">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E221" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F221" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F221" s="1" t="s">
-        <v>243</v>
-      </c>
       <c r="G221" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H221">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I221" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222">
-        <v>11629</v>
+        <v>11628</v>
       </c>
       <c r="B222" t="s">
         <v>213</v>
       </c>
       <c r="C222">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D222">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E222" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F222" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F222" s="1" t="s">
-        <v>243</v>
-      </c>
       <c r="G222" t="s">
-        <v>18</v>
+        <v>218</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I222" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>11629</v>
       </c>
@@ -7567,219 +7573,219 @@
         <v>243</v>
       </c>
       <c r="G223" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I223" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224">
-        <v>11630</v>
+        <v>11629</v>
       </c>
       <c r="B224" t="s">
         <v>213</v>
       </c>
       <c r="C224">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D224">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E224" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F224" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="F224" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G224" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H224">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I224" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225">
-        <v>11630</v>
+        <v>11629</v>
       </c>
       <c r="B225" t="s">
         <v>213</v>
       </c>
       <c r="C225">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D225">
+        <v>29</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G225" t="s">
+        <v>11</v>
+      </c>
+      <c r="H225">
+        <v>2</v>
+      </c>
+      <c r="I225" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>11630</v>
+      </c>
+      <c r="B226" t="s">
+        <v>213</v>
+      </c>
+      <c r="C226">
+        <v>20</v>
+      </c>
+      <c r="D226">
         <v>30</v>
       </c>
-      <c r="E225" s="1" t="s">
+      <c r="E226" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="F225" s="1" t="s">
+      <c r="F226" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G225" t="s">
+      <c r="G226" t="s">
+        <v>10</v>
+      </c>
+      <c r="H226">
+        <v>7</v>
+      </c>
+      <c r="I226" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>11630</v>
+      </c>
+      <c r="B227" t="s">
+        <v>213</v>
+      </c>
+      <c r="C227">
+        <v>20</v>
+      </c>
+      <c r="D227">
+        <v>30</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G227" t="s">
         <v>18</v>
       </c>
-      <c r="H225">
+      <c r="H227">
         <v>3</v>
       </c>
-      <c r="I225" t="s">
+      <c r="I227" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A226">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A228">
         <v>11706</v>
-      </c>
-      <c r="B226" t="s">
-        <v>221</v>
-      </c>
-      <c r="C226">
-        <v>4</v>
-      </c>
-      <c r="D226">
-        <v>6</v>
-      </c>
-      <c r="E226" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F226" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="G226" t="s">
-        <v>10</v>
-      </c>
-      <c r="H226">
-        <v>10</v>
-      </c>
-      <c r="I226" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A227">
-        <v>11707</v>
-      </c>
-      <c r="B227" t="s">
-        <v>221</v>
-      </c>
-      <c r="C227">
-        <v>5</v>
-      </c>
-      <c r="D227">
-        <v>7</v>
-      </c>
-      <c r="E227" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="F227" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="G227" t="s">
-        <v>10</v>
-      </c>
-      <c r="H227">
-        <v>6</v>
-      </c>
-      <c r="I227" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A228">
-        <v>11707</v>
       </c>
       <c r="B228" t="s">
         <v>221</v>
       </c>
       <c r="C228">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D228">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E228" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F228" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="F228" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="G228" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H228">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I228" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229">
-        <v>11708</v>
+        <v>11707</v>
       </c>
       <c r="B229" t="s">
         <v>221</v>
       </c>
       <c r="C229">
+        <v>5</v>
+      </c>
+      <c r="D229">
+        <v>7</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G229" t="s">
+        <v>10</v>
+      </c>
+      <c r="H229">
         <v>6</v>
       </c>
-      <c r="D229">
-        <v>8</v>
-      </c>
-      <c r="E229" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F229" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G229" t="s">
-        <v>53</v>
-      </c>
-      <c r="H229">
-        <v>5</v>
-      </c>
       <c r="I229" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230">
-        <v>11708</v>
+        <v>11707</v>
       </c>
       <c r="B230" t="s">
         <v>221</v>
       </c>
       <c r="C230">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D230">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E230" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F230" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="F230" s="1" t="s">
-        <v>226</v>
-      </c>
       <c r="G230" t="s">
         <v>20</v>
       </c>
       <c r="H230">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I230" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>11708</v>
       </c>
@@ -7799,76 +7805,76 @@
         <v>226</v>
       </c>
       <c r="G231" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I231" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232">
-        <v>11709</v>
+        <v>11708</v>
       </c>
       <c r="B232" t="s">
         <v>221</v>
       </c>
       <c r="C232">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D232">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E232" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F232" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="F232" s="1" t="s">
-        <v>228</v>
-      </c>
       <c r="G232" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I232" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233">
-        <v>11710</v>
+        <v>11708</v>
       </c>
       <c r="B233" t="s">
         <v>221</v>
       </c>
       <c r="C233">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D233">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>24</v>
+        <v>226</v>
       </c>
       <c r="G233" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="H233">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I233" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234">
-        <v>11710</v>
+        <v>11709</v>
       </c>
       <c r="B234" t="s">
         <v>221</v>
@@ -7877,25 +7883,25 @@
         <v>7</v>
       </c>
       <c r="D234">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E234" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F234" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="F234" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G234" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H234">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I234" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>11710</v>
       </c>
@@ -7915,12 +7921,70 @@
         <v>24</v>
       </c>
       <c r="G235" t="s">
+        <v>53</v>
+      </c>
+      <c r="H235">
+        <v>4</v>
+      </c>
+      <c r="I235" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>11710</v>
+      </c>
+      <c r="B236" t="s">
+        <v>221</v>
+      </c>
+      <c r="C236">
+        <v>7</v>
+      </c>
+      <c r="D236">
+        <v>10</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G236" t="s">
+        <v>20</v>
+      </c>
+      <c r="H236">
+        <v>3</v>
+      </c>
+      <c r="I236" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>11710</v>
+      </c>
+      <c r="B237" t="s">
+        <v>221</v>
+      </c>
+      <c r="C237">
+        <v>7</v>
+      </c>
+      <c r="D237">
+        <v>10</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G237" t="s">
         <v>18</v>
       </c>
-      <c r="H235">
+      <c r="H237">
         <v>2</v>
       </c>
-      <c r="I235" t="s">
+      <c r="I237" t="s">
         <v>227</v>
       </c>
     </row>

--- a/inst/extdata/additional_govdata.xlsx
+++ b/inst/extdata/additional_govdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertstelzle/git_projekte/add_nds21/bundeslaendeR/inst/extdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertstelzle/git_projekte/bundeslaendeR/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FAD15A5-D305-8E48-9591-81B4F11A55F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61003A8-E9E9-004A-8933-55F1F6F669C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="250">
   <si>
     <t>gov_id</t>
   </si>
@@ -778,6 +778,12 @@
   </si>
   <si>
     <t>https://de.wikipedia.org/wiki/Kabinett_Weil_III</t>
+  </si>
+  <si>
+    <t>2023-04-27</t>
+  </si>
+  <si>
+    <t>https://de.wikipedia.org/wiki/Senat_Wegner</t>
   </si>
 </sst>
 </file>
@@ -813,10 +819,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1097,11 +1102,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I237"/>
+  <dimension ref="A1:I239"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G129" sqref="G129"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2524,7 +2529,7 @@
         <v>231</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>24</v>
+        <v>248</v>
       </c>
       <c r="G49" t="s">
         <v>18</v>
@@ -2553,7 +2558,7 @@
         <v>231</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>24</v>
+        <v>248</v>
       </c>
       <c r="G50" t="s">
         <v>53</v>
@@ -2567,123 +2572,123 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>10506</v>
+        <v>10434</v>
       </c>
       <c r="B51" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C51">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D51">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>62</v>
+        <v>248</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="G51" t="s">
         <v>10</v>
       </c>
       <c r="H51">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I51" t="s">
-        <v>14</v>
+        <v>249</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>10506</v>
+        <v>10434</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C52">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D52">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>62</v>
+        <v>248</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="G52" t="s">
         <v>20</v>
       </c>
       <c r="H52">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I52" t="s">
-        <v>14</v>
+        <v>249</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>10507</v>
+        <v>10506</v>
       </c>
       <c r="B53" t="s">
         <v>61</v>
       </c>
       <c r="C53">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E53" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="G53" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H53">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I53" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>10507</v>
+        <v>10506</v>
       </c>
       <c r="B54" t="s">
         <v>61</v>
       </c>
       <c r="C54">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E54" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="G54" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="H54">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I54" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>10508</v>
+        <v>10507</v>
       </c>
       <c r="B55" t="s">
         <v>61</v>
@@ -2692,13 +2697,13 @@
         <v>5</v>
       </c>
       <c r="D55">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="G55" t="s">
         <v>20</v>
@@ -2707,12 +2712,12 @@
         <v>6</v>
       </c>
       <c r="I55" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>10508</v>
+        <v>10507</v>
       </c>
       <c r="B56" t="s">
         <v>61</v>
@@ -2721,13 +2726,13 @@
         <v>5</v>
       </c>
       <c r="D56">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E56" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="G56" t="s">
         <v>53</v>
@@ -2736,123 +2741,123 @@
         <v>4</v>
       </c>
       <c r="I56" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>10509</v>
+        <v>10508</v>
       </c>
       <c r="B57" t="s">
         <v>61</v>
       </c>
       <c r="C57">
+        <v>5</v>
+      </c>
+      <c r="D57">
+        <v>8</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G57" t="s">
+        <v>20</v>
+      </c>
+      <c r="H57">
         <v>6</v>
       </c>
-      <c r="D57">
-        <v>9</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G57" t="s">
-        <v>20</v>
-      </c>
-      <c r="H57">
-        <v>7</v>
-      </c>
       <c r="I57" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>10509</v>
+        <v>10508</v>
       </c>
       <c r="B58" t="s">
         <v>61</v>
       </c>
       <c r="C58">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D58">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E58" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="G58" t="s">
         <v>53</v>
       </c>
       <c r="H58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I58" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>10510</v>
+        <v>10509</v>
       </c>
       <c r="B59" t="s">
         <v>61</v>
       </c>
       <c r="C59">
+        <v>6</v>
+      </c>
+      <c r="D59">
+        <v>9</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G59" t="s">
+        <v>20</v>
+      </c>
+      <c r="H59">
         <v>7</v>
       </c>
-      <c r="D59">
-        <v>10</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G59" t="s">
-        <v>20</v>
-      </c>
-      <c r="H59">
-        <v>6</v>
-      </c>
       <c r="I59" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>10510</v>
+        <v>10509</v>
       </c>
       <c r="B60" t="s">
         <v>61</v>
       </c>
       <c r="C60">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D60">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E60" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F60" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G60" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="H60">
         <v>3</v>
       </c>
       <c r="I60" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -2875,10 +2880,10 @@
         <v>24</v>
       </c>
       <c r="G61" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I61" t="s">
         <v>69</v>
@@ -2886,60 +2891,60 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>10620</v>
+        <v>10510</v>
       </c>
       <c r="B62" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D62">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="G62" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H62">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I62" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>10620</v>
+        <v>10510</v>
       </c>
       <c r="B63" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D63">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="G63" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I63" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
@@ -2962,10 +2967,10 @@
         <v>75</v>
       </c>
       <c r="G64" t="s">
-        <v>230</v>
+        <v>20</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I64" t="s">
         <v>71</v>
@@ -2973,7 +2978,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>10621</v>
+        <v>10620</v>
       </c>
       <c r="B65" t="s">
         <v>72</v>
@@ -2982,19 +2987,19 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E65" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F65" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F65" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="G65" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H65">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I65" t="s">
         <v>71</v>
@@ -3002,7 +3007,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>10621</v>
+        <v>10620</v>
       </c>
       <c r="B66" t="s">
         <v>72</v>
@@ -3011,19 +3016,19 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E66" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F66" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F66" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="G66" t="s">
-        <v>11</v>
+        <v>230</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="s">
         <v>71</v>
@@ -3031,65 +3036,65 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>10619</v>
+        <v>10621</v>
       </c>
       <c r="B67" t="s">
         <v>72</v>
       </c>
       <c r="C67">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G67" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H67">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I67" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>10619</v>
+        <v>10621</v>
       </c>
       <c r="B68" t="s">
         <v>72</v>
       </c>
       <c r="C68">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D68">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G68" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H68">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I68" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>10622</v>
+        <v>10619</v>
       </c>
       <c r="B69" t="s">
         <v>72</v>
@@ -3098,13 +3103,13 @@
         <v>15</v>
       </c>
       <c r="D69">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E69" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F69" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="G69" t="s">
         <v>10</v>
@@ -3113,12 +3118,12 @@
         <v>4</v>
       </c>
       <c r="I69" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>10622</v>
+        <v>10619</v>
       </c>
       <c r="B70" t="s">
         <v>72</v>
@@ -3127,187 +3132,187 @@
         <v>15</v>
       </c>
       <c r="D70">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E70" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F70" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F70" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="G70" t="s">
         <v>20</v>
       </c>
       <c r="H70">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I70" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>10623</v>
+        <v>10622</v>
       </c>
       <c r="B71" t="s">
         <v>72</v>
       </c>
       <c r="C71">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D71">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E71" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F71" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="G71" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H71">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I71" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>10623</v>
+        <v>10622</v>
       </c>
       <c r="B72" t="s">
         <v>72</v>
       </c>
       <c r="C72">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D72">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E72" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F72" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="G72" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I72" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>10624</v>
+        <v>10623</v>
       </c>
       <c r="B73" t="s">
         <v>72</v>
       </c>
       <c r="C73">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D73">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E73" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F73" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="G73" t="s">
         <v>20</v>
       </c>
       <c r="H73">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I73" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>10624</v>
+        <v>10623</v>
       </c>
       <c r="B74" t="s">
         <v>72</v>
       </c>
       <c r="C74">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D74">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E74" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="G74" t="s">
         <v>18</v>
       </c>
       <c r="H74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I74" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>10625</v>
+        <v>10624</v>
       </c>
       <c r="B75" t="s">
         <v>72</v>
       </c>
       <c r="C75">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D75">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E75" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F75" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F75" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="G75" t="s">
         <v>20</v>
       </c>
       <c r="H75">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I75" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>10625</v>
+        <v>10624</v>
       </c>
       <c r="B76" t="s">
         <v>72</v>
       </c>
       <c r="C76">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D76">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E76" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="G76" t="s">
         <v>18</v>
@@ -3316,56 +3321,56 @@
         <v>3</v>
       </c>
       <c r="I76" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>10626</v>
+        <v>10625</v>
       </c>
       <c r="B77" t="s">
         <v>72</v>
       </c>
       <c r="C77">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D77">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E77" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F77" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G77" t="s">
         <v>20</v>
       </c>
       <c r="H77">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I77" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>10626</v>
+        <v>10625</v>
       </c>
       <c r="B78" t="s">
         <v>72</v>
       </c>
       <c r="C78">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D78">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E78" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F78" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="G78" t="s">
         <v>18</v>
@@ -3374,7 +3379,7 @@
         <v>3</v>
       </c>
       <c r="I78" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
@@ -3397,10 +3402,10 @@
         <v>24</v>
       </c>
       <c r="G79" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I79" t="s">
         <v>86</v>
@@ -3408,123 +3413,123 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>10720</v>
+        <v>10626</v>
       </c>
       <c r="B80" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C80">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D80">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="G80" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H80">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I80" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>10721</v>
+        <v>10626</v>
       </c>
       <c r="B81" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C81">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D81">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="G81" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="H81">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I81" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>10722</v>
+        <v>10720</v>
       </c>
       <c r="B82" t="s">
         <v>87</v>
       </c>
       <c r="C82">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D82">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G82" t="s">
         <v>10</v>
       </c>
       <c r="H82">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I82" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>10722</v>
+        <v>10721</v>
       </c>
       <c r="B83" t="s">
         <v>87</v>
       </c>
       <c r="C83">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D83">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E83" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F83" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F83" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="G83" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H83">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I83" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>10723</v>
+        <v>10722</v>
       </c>
       <c r="B84" t="s">
         <v>87</v>
@@ -3533,13 +3538,13 @@
         <v>18</v>
       </c>
       <c r="D84">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E84" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F84" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="G84" t="s">
         <v>10</v>
@@ -3548,12 +3553,12 @@
         <v>8</v>
       </c>
       <c r="I84" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>10723</v>
+        <v>10722</v>
       </c>
       <c r="B85" t="s">
         <v>87</v>
@@ -3562,13 +3567,13 @@
         <v>18</v>
       </c>
       <c r="D85">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E85" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F85" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="G85" t="s">
         <v>11</v>
@@ -3577,128 +3582,128 @@
         <v>4</v>
       </c>
       <c r="I85" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>10724</v>
+        <v>10723</v>
       </c>
       <c r="B86" t="s">
         <v>87</v>
       </c>
       <c r="C86">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D86">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E86" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F86" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F86" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="G86" t="s">
         <v>10</v>
       </c>
       <c r="H86">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I86" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>10724</v>
+        <v>10723</v>
       </c>
       <c r="B87" t="s">
         <v>87</v>
       </c>
       <c r="C87">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D87">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E87" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F87" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F87" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="G87" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I87" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>10725</v>
+        <v>10724</v>
       </c>
       <c r="B88" t="s">
         <v>87</v>
       </c>
       <c r="C88">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D88">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E88" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F88" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F88" s="1" t="s">
-        <v>241</v>
-      </c>
       <c r="G88" t="s">
         <v>10</v>
       </c>
       <c r="H88">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I88" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>10725</v>
+        <v>10724</v>
       </c>
       <c r="B89" t="s">
         <v>87</v>
       </c>
       <c r="C89">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D89">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E89" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F89" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>241</v>
       </c>
       <c r="G89" t="s">
         <v>18</v>
       </c>
       <c r="H89">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I89" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>10726</v>
+        <v>10725</v>
       </c>
       <c r="B90" t="s">
         <v>87</v>
@@ -3707,13 +3712,13 @@
         <v>20</v>
       </c>
       <c r="D90">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E90" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F90" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="G90" t="s">
         <v>10</v>
@@ -3722,12 +3727,12 @@
         <v>8</v>
       </c>
       <c r="I90" t="s">
-        <v>242</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>10726</v>
+        <v>10725</v>
       </c>
       <c r="B91" t="s">
         <v>87</v>
@@ -3736,13 +3741,13 @@
         <v>20</v>
       </c>
       <c r="D91">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E91" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F91" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="G91" t="s">
         <v>18</v>
@@ -3751,99 +3756,99 @@
         <v>4</v>
       </c>
       <c r="I91" t="s">
-        <v>242</v>
+        <v>98</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>10826</v>
+        <v>10726</v>
       </c>
       <c r="B92" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C92">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D92">
         <v>26</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>100</v>
+        <v>241</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="G92" t="s">
         <v>10</v>
       </c>
       <c r="H92">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I92" t="s">
-        <v>14</v>
+        <v>242</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>10827</v>
+        <v>10726</v>
       </c>
       <c r="B93" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C93">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D93">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>102</v>
+        <v>241</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="G93" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H93">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I93" t="s">
-        <v>101</v>
+        <v>242</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>10827</v>
+        <v>10826</v>
       </c>
       <c r="B94" t="s">
         <v>99</v>
       </c>
       <c r="C94">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D94">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E94" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F94" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F94" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="G94" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H94">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I94" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>10828</v>
+        <v>10827</v>
       </c>
       <c r="B95" t="s">
         <v>99</v>
@@ -3852,27 +3857,27 @@
         <v>19</v>
       </c>
       <c r="D95">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E95" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F95" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F95" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="G95" t="s">
         <v>10</v>
       </c>
       <c r="H95">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I95" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>10828</v>
+        <v>10827</v>
       </c>
       <c r="B96" t="s">
         <v>99</v>
@@ -3881,13 +3886,13 @@
         <v>19</v>
       </c>
       <c r="D96">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E96" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F96" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="G96" t="s">
         <v>18</v>
@@ -3896,12 +3901,12 @@
         <v>3</v>
       </c>
       <c r="I96" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>10829</v>
+        <v>10828</v>
       </c>
       <c r="B97" t="s">
         <v>99</v>
@@ -3910,13 +3915,13 @@
         <v>19</v>
       </c>
       <c r="D97">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E97" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F97" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="G97" t="s">
         <v>10</v>
@@ -3930,94 +3935,94 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>10830</v>
+        <v>10828</v>
       </c>
       <c r="B98" t="s">
         <v>99</v>
       </c>
       <c r="C98">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D98">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G98" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H98">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I98" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>10831</v>
+        <v>10829</v>
       </c>
       <c r="B99" t="s">
         <v>99</v>
       </c>
       <c r="C99">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D99">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G99" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H99">
         <v>8</v>
       </c>
       <c r="I99" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>10831</v>
+        <v>10830</v>
       </c>
       <c r="B100" t="s">
         <v>99</v>
       </c>
       <c r="C100">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D100">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E100" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F100" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F100" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="G100" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H100">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I100" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>10832</v>
+        <v>10831</v>
       </c>
       <c r="B101" t="s">
         <v>99</v>
@@ -4026,13 +4031,13 @@
         <v>21</v>
       </c>
       <c r="D101">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E101" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F101" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="G101" t="s">
         <v>20</v>
@@ -4041,12 +4046,12 @@
         <v>8</v>
       </c>
       <c r="I101" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>10832</v>
+        <v>10831</v>
       </c>
       <c r="B102" t="s">
         <v>99</v>
@@ -4055,13 +4060,13 @@
         <v>21</v>
       </c>
       <c r="D102">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E102" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F102" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="G102" t="s">
         <v>18</v>
@@ -4070,186 +4075,186 @@
         <v>3</v>
       </c>
       <c r="I102" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>10833</v>
+        <v>10832</v>
       </c>
       <c r="B103" t="s">
         <v>99</v>
       </c>
       <c r="C103">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D103">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E103" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F103" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F103" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G103" t="s">
         <v>20</v>
       </c>
       <c r="H103">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I103" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>10833</v>
+        <v>10832</v>
       </c>
       <c r="B104" t="s">
         <v>99</v>
       </c>
       <c r="C104">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D104">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E104" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F104" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="G104" t="s">
         <v>18</v>
       </c>
       <c r="H104">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I104" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>10905</v>
+        <v>10833</v>
       </c>
       <c r="B105" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C105">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D105">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
       <c r="G105" t="s">
         <v>20</v>
       </c>
       <c r="H105">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I105" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>10905</v>
+        <v>10833</v>
       </c>
       <c r="B106" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C106">
+        <v>22</v>
+      </c>
+      <c r="D106">
+        <v>33</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G106" t="s">
+        <v>18</v>
+      </c>
+      <c r="H106">
         <v>4</v>
       </c>
-      <c r="D106">
-        <v>5</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G106" t="s">
-        <v>53</v>
-      </c>
-      <c r="H106">
-        <v>3</v>
-      </c>
       <c r="I106" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>10906</v>
+        <v>10905</v>
       </c>
       <c r="B107" t="s">
         <v>114</v>
       </c>
       <c r="C107">
+        <v>4</v>
+      </c>
+      <c r="D107">
         <v>5</v>
       </c>
-      <c r="D107">
+      <c r="E107" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G107" t="s">
+        <v>20</v>
+      </c>
+      <c r="H107">
         <v>6</v>
       </c>
-      <c r="E107" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G107" t="s">
-        <v>20</v>
-      </c>
-      <c r="H107">
-        <v>5</v>
-      </c>
       <c r="I107" t="s">
-        <v>118</v>
+        <v>14</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>10906</v>
+        <v>10905</v>
       </c>
       <c r="B108" t="s">
         <v>114</v>
       </c>
       <c r="C108">
+        <v>4</v>
+      </c>
+      <c r="D108">
         <v>5</v>
       </c>
-      <c r="D108">
-        <v>6</v>
-      </c>
       <c r="E108" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F108" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F108" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="G108" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="H108">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I108" t="s">
-        <v>118</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>10910</v>
+        <v>10906</v>
       </c>
       <c r="B109" t="s">
         <v>114</v>
@@ -4258,13 +4263,13 @@
         <v>5</v>
       </c>
       <c r="D109">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E109" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F109" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="G109" t="s">
         <v>20</v>
@@ -4273,12 +4278,12 @@
         <v>5</v>
       </c>
       <c r="I109" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>10910</v>
+        <v>10906</v>
       </c>
       <c r="B110" t="s">
         <v>114</v>
@@ -4287,13 +4292,13 @@
         <v>5</v>
       </c>
       <c r="D110">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E110" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F110" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="G110" t="s">
         <v>10</v>
@@ -4302,85 +4307,85 @@
         <v>4</v>
       </c>
       <c r="I110" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>10911</v>
+        <v>10910</v>
       </c>
       <c r="B111" t="s">
         <v>114</v>
       </c>
       <c r="C111">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D111">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E111" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F111" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F111" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="G111" t="s">
         <v>20</v>
       </c>
       <c r="H111">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I111" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>10911</v>
+        <v>10910</v>
       </c>
       <c r="B112" t="s">
         <v>114</v>
       </c>
       <c r="C112">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D112">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E112" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F112" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F112" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="G112" t="s">
         <v>10</v>
       </c>
       <c r="H112">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I112" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>10912</v>
+        <v>10911</v>
       </c>
       <c r="B113" t="s">
         <v>114</v>
       </c>
       <c r="C113">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D113">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E113" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F113" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="G113" t="s">
         <v>20</v>
@@ -4389,27 +4394,27 @@
         <v>6</v>
       </c>
       <c r="I113" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>10912</v>
+        <v>10911</v>
       </c>
       <c r="B114" t="s">
         <v>114</v>
       </c>
       <c r="C114">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D114">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E114" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F114" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="G114" t="s">
         <v>10</v>
@@ -4418,12 +4423,12 @@
         <v>3</v>
       </c>
       <c r="I114" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>10913</v>
+        <v>10912</v>
       </c>
       <c r="B115" t="s">
         <v>114</v>
@@ -4432,13 +4437,13 @@
         <v>7</v>
       </c>
       <c r="D115">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E115" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F115" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>233</v>
       </c>
       <c r="G115" t="s">
         <v>20</v>
@@ -4447,12 +4452,12 @@
         <v>6</v>
       </c>
       <c r="I115" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>10913</v>
+        <v>10912</v>
       </c>
       <c r="B116" t="s">
         <v>114</v>
@@ -4461,13 +4466,13 @@
         <v>7</v>
       </c>
       <c r="D116">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E116" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F116" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>233</v>
       </c>
       <c r="G116" t="s">
         <v>10</v>
@@ -4476,172 +4481,172 @@
         <v>3</v>
       </c>
       <c r="I116" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>10914</v>
+        <v>10913</v>
       </c>
       <c r="B117" t="s">
         <v>114</v>
       </c>
       <c r="C117">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D117">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E117" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F117" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="F117" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G117" t="s">
         <v>20</v>
       </c>
       <c r="H117">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I117" t="s">
-        <v>234</v>
+        <v>125</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>10914</v>
+        <v>10913</v>
       </c>
       <c r="B118" t="s">
         <v>114</v>
       </c>
       <c r="C118">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D118">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E118" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F118" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="F118" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G118" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I118" t="s">
-        <v>234</v>
+        <v>125</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>11027</v>
+        <v>10914</v>
       </c>
       <c r="B119" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C119">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D119">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>128</v>
+        <v>233</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="G119" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H119">
         <v>7</v>
       </c>
       <c r="I119" t="s">
-        <v>14</v>
+        <v>234</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>11027</v>
+        <v>10914</v>
       </c>
       <c r="B120" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C120">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D120">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>128</v>
+        <v>233</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="G120" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="H120">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I120" t="s">
-        <v>14</v>
+        <v>234</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>11028</v>
+        <v>11027</v>
       </c>
       <c r="B121" t="s">
         <v>127</v>
       </c>
       <c r="C121">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D121">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E121" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F121" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F121" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="G121" t="s">
         <v>10</v>
       </c>
       <c r="H121">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I121" t="s">
-        <v>131</v>
+        <v>14</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>11028</v>
+        <v>11027</v>
       </c>
       <c r="B122" t="s">
         <v>127</v>
       </c>
       <c r="C122">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D122">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E122" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F122" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="G122" t="s">
         <v>11</v>
@@ -4650,12 +4655,12 @@
         <v>3</v>
       </c>
       <c r="I122" t="s">
-        <v>131</v>
+        <v>14</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>11029</v>
+        <v>11028</v>
       </c>
       <c r="B123" t="s">
         <v>127</v>
@@ -4664,13 +4669,13 @@
         <v>16</v>
       </c>
       <c r="D123">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E123" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F123" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="G123" t="s">
         <v>10</v>
@@ -4679,12 +4684,12 @@
         <v>8</v>
       </c>
       <c r="I123" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>11029</v>
+        <v>11028</v>
       </c>
       <c r="B124" t="s">
         <v>127</v>
@@ -4693,13 +4698,13 @@
         <v>16</v>
       </c>
       <c r="D124">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E124" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F124" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="G124" t="s">
         <v>11</v>
@@ -4708,85 +4713,85 @@
         <v>3</v>
       </c>
       <c r="I124" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>11030</v>
+        <v>11029</v>
       </c>
       <c r="B125" t="s">
         <v>127</v>
       </c>
       <c r="C125">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D125">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E125" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F125" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F125" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="G125" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H125">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I125" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>11030</v>
+        <v>11029</v>
       </c>
       <c r="B126" t="s">
         <v>127</v>
       </c>
       <c r="C126">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D126">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E126" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F126" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F126" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="G126" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H126">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I126" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>11031</v>
+        <v>11030</v>
       </c>
       <c r="B127" t="s">
         <v>127</v>
       </c>
       <c r="C127">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D127">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E127" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F127" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="G127" t="s">
         <v>20</v>
@@ -4795,331 +4800,331 @@
         <v>6</v>
       </c>
       <c r="I127" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>11031</v>
+        <v>11030</v>
       </c>
       <c r="B128" t="s">
         <v>127</v>
       </c>
       <c r="C128">
+        <v>17</v>
+      </c>
+      <c r="D128">
+        <v>30</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G128" t="s">
         <v>18</v>
       </c>
-      <c r="D128">
-        <v>31</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="G128" t="s">
-        <v>10</v>
-      </c>
       <c r="H128">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I128" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>11032</v>
+        <v>11031</v>
       </c>
       <c r="B129" t="s">
         <v>127</v>
       </c>
       <c r="C129">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D129">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E129" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F129" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="F129" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G129" t="s">
         <v>20</v>
       </c>
       <c r="H129">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I129" t="s">
-        <v>247</v>
+        <v>136</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>11032</v>
+        <v>11031</v>
       </c>
       <c r="B130" t="s">
         <v>127</v>
       </c>
       <c r="C130">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D130">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E130" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F130" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="F130" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G130" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H130">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I130" t="s">
-        <v>247</v>
+        <v>136</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>11122</v>
+        <v>11032</v>
       </c>
       <c r="B131" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C131">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D131">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>138</v>
+        <v>246</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>139</v>
+        <v>24</v>
       </c>
       <c r="G131" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H131">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I131" t="s">
-        <v>14</v>
+        <v>247</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>11122</v>
+        <v>11032</v>
       </c>
       <c r="B132" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C132">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D132">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>138</v>
+        <v>246</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>139</v>
+        <v>24</v>
       </c>
       <c r="G132" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I132" t="s">
-        <v>14</v>
+        <v>247</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>11123</v>
+        <v>11122</v>
       </c>
       <c r="B133" t="s">
         <v>137</v>
       </c>
       <c r="C133">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D133">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E133" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F133" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F133" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="G133" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H133">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I133" t="s">
-        <v>141</v>
+        <v>14</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>11123</v>
+        <v>11122</v>
       </c>
       <c r="B134" t="s">
         <v>137</v>
       </c>
       <c r="C134">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D134">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E134" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F134" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F134" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="G134" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H134">
         <v>2</v>
       </c>
       <c r="I134" t="s">
-        <v>141</v>
+        <v>14</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>11124</v>
+        <v>11123</v>
       </c>
       <c r="B135" t="s">
         <v>137</v>
       </c>
       <c r="C135">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D135">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E135" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F135" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F135" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="G135" t="s">
         <v>20</v>
       </c>
       <c r="H135">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I135" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>11124</v>
+        <v>11123</v>
       </c>
       <c r="B136" t="s">
         <v>137</v>
       </c>
       <c r="C136">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D136">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E136" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F136" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="G136" t="s">
         <v>18</v>
       </c>
       <c r="H136">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I136" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>11125</v>
+        <v>11124</v>
       </c>
       <c r="B137" t="s">
         <v>137</v>
       </c>
       <c r="C137">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D137">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E137" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F137" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F137" s="1" t="s">
-        <v>235</v>
-      </c>
       <c r="G137" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H137">
         <v>10</v>
       </c>
       <c r="I137" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>11125</v>
+        <v>11124</v>
       </c>
       <c r="B138" t="s">
         <v>137</v>
       </c>
       <c r="C138">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D138">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E138" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F138" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F138" s="1" t="s">
-        <v>235</v>
-      </c>
       <c r="G138" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H138">
         <v>3</v>
       </c>
       <c r="I138" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>11126</v>
+        <v>11125</v>
       </c>
       <c r="B139" t="s">
         <v>137</v>
@@ -5128,14 +5133,14 @@
         <v>17</v>
       </c>
       <c r="D139">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E139" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F139" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="F139" s="1" t="s">
-        <v>243</v>
-      </c>
       <c r="G139" t="s">
         <v>10</v>
       </c>
@@ -5143,12 +5148,12 @@
         <v>10</v>
       </c>
       <c r="I139" t="s">
-        <v>236</v>
+        <v>144</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>11126</v>
+        <v>11125</v>
       </c>
       <c r="B140" t="s">
         <v>137</v>
@@ -5157,13 +5162,13 @@
         <v>17</v>
       </c>
       <c r="D140">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E140" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F140" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>243</v>
       </c>
       <c r="G140" t="s">
         <v>11</v>
@@ -5172,215 +5177,215 @@
         <v>3</v>
       </c>
       <c r="I140" t="s">
-        <v>236</v>
+        <v>144</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>11127</v>
+        <v>11126</v>
       </c>
       <c r="B141" t="s">
         <v>137</v>
       </c>
       <c r="C141">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D141">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E141" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F141" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="F141" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G141" t="s">
         <v>10</v>
       </c>
       <c r="H141">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I141" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>11127</v>
+        <v>11126</v>
       </c>
       <c r="B142" t="s">
         <v>137</v>
       </c>
       <c r="C142">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D142">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E142" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F142" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="F142" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G142" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H142">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I142" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>11221</v>
+        <v>11127</v>
       </c>
       <c r="B143" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C143">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D143">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>146</v>
+        <v>243</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>147</v>
+        <v>24</v>
       </c>
       <c r="G143" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H143">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I143" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>11221</v>
+        <v>11127</v>
       </c>
       <c r="B144" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C144">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D144">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>146</v>
+        <v>243</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>147</v>
+        <v>24</v>
       </c>
       <c r="G144" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I144" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>11222</v>
+        <v>11221</v>
       </c>
       <c r="B145" t="s">
         <v>145</v>
       </c>
       <c r="C145">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D145">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E145" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F145" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F145" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="G145" t="s">
         <v>20</v>
       </c>
       <c r="H145">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I145" t="s">
-        <v>149</v>
+        <v>14</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>11223</v>
+        <v>11221</v>
       </c>
       <c r="B146" t="s">
         <v>145</v>
       </c>
       <c r="C146">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D146">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G146" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H146">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I146" t="s">
-        <v>150</v>
+        <v>14</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147">
-        <v>11223</v>
+        <v>11222</v>
       </c>
       <c r="B147" t="s">
         <v>145</v>
       </c>
       <c r="C147">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D147">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E147" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F147" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F147" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="G147" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H147">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I147" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>11224</v>
+        <v>11223</v>
       </c>
       <c r="B148" t="s">
         <v>145</v>
@@ -5389,13 +5394,13 @@
         <v>16</v>
       </c>
       <c r="D148">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E148" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F148" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="G148" t="s">
         <v>20</v>
@@ -5404,12 +5409,12 @@
         <v>7</v>
       </c>
       <c r="I148" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>11224</v>
+        <v>11223</v>
       </c>
       <c r="B149" t="s">
         <v>145</v>
@@ -5418,13 +5423,13 @@
         <v>16</v>
       </c>
       <c r="D149">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E149" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F149" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="F149" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="G149" t="s">
         <v>18</v>
@@ -5433,65 +5438,65 @@
         <v>3</v>
       </c>
       <c r="I149" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>11225</v>
+        <v>11224</v>
       </c>
       <c r="B150" t="s">
         <v>145</v>
       </c>
       <c r="C150">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D150">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E150" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F150" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F150" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="G150" t="s">
         <v>20</v>
       </c>
       <c r="H150">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I150" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>11225</v>
+        <v>11224</v>
       </c>
       <c r="B151" t="s">
         <v>145</v>
       </c>
       <c r="C151">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D151">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E151" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F151" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F151" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="G151" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I151" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.2">
@@ -5514,10 +5519,10 @@
         <v>154</v>
       </c>
       <c r="G152" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I152" t="s">
         <v>155</v>
@@ -5525,60 +5530,60 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153">
-        <v>11226</v>
+        <v>11225</v>
       </c>
       <c r="B153" t="s">
         <v>145</v>
       </c>
       <c r="C153">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D153">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E153" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F153" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F153" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G153" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H153">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I153" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154">
-        <v>11226</v>
+        <v>11225</v>
       </c>
       <c r="B154" t="s">
         <v>145</v>
       </c>
       <c r="C154">
+        <v>17</v>
+      </c>
+      <c r="D154">
+        <v>25</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G154" t="s">
         <v>18</v>
-      </c>
-      <c r="D154">
-        <v>26</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F154" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G154" t="s">
-        <v>11</v>
       </c>
       <c r="H154">
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
@@ -5601,10 +5606,10 @@
         <v>24</v>
       </c>
       <c r="G155" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I155" t="s">
         <v>156</v>
@@ -5612,65 +5617,65 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156">
-        <v>11314</v>
+        <v>11226</v>
       </c>
       <c r="B156" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C156">
-        <v>-2</v>
+        <v>18</v>
       </c>
       <c r="D156">
-        <v>-9</v>
+        <v>26</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>162</v>
+        <v>24</v>
       </c>
       <c r="G156" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="H156">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I156" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157">
-        <v>11314</v>
+        <v>11226</v>
       </c>
       <c r="B157" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C157">
-        <v>-2</v>
+        <v>18</v>
       </c>
       <c r="D157">
-        <v>-9</v>
+        <v>26</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>162</v>
+        <v>24</v>
       </c>
       <c r="G157" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="H157">
         <v>2</v>
       </c>
       <c r="I157" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158">
-        <v>11315</v>
+        <v>11314</v>
       </c>
       <c r="B158" t="s">
         <v>157</v>
@@ -5679,85 +5684,85 @@
         <v>-2</v>
       </c>
       <c r="D158">
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="E158" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F158" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="F158" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="G158" t="s">
         <v>159</v>
       </c>
       <c r="H158">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I158" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159">
-        <v>11316</v>
+        <v>11314</v>
       </c>
       <c r="B159" t="s">
         <v>157</v>
       </c>
       <c r="C159">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D159">
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G159" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H159">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I159" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160">
-        <v>11316</v>
+        <v>11315</v>
       </c>
       <c r="B160" t="s">
         <v>157</v>
       </c>
       <c r="C160">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D160">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="E160" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F160" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F160" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="G160" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I160" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161">
-        <v>11317</v>
+        <v>11316</v>
       </c>
       <c r="B161" t="s">
         <v>157</v>
@@ -5766,27 +5771,27 @@
         <v>-1</v>
       </c>
       <c r="D161">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="E161" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F161" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="F161" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="G161" t="s">
         <v>159</v>
       </c>
       <c r="H161">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I161" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162">
-        <v>11318</v>
+        <v>11316</v>
       </c>
       <c r="B162" t="s">
         <v>157</v>
@@ -5795,80 +5800,80 @@
         <v>-1</v>
       </c>
       <c r="D162">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G162" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="H162">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I162" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163">
-        <v>11319</v>
+        <v>11317</v>
       </c>
       <c r="B163" t="s">
         <v>157</v>
       </c>
       <c r="C163">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D163">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="G163" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="H163">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I163" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164">
-        <v>11319</v>
+        <v>11318</v>
       </c>
       <c r="B164" t="s">
         <v>157</v>
       </c>
       <c r="C164">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D164">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="E164" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F164" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F164" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="G164" t="s">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I164" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
@@ -5891,10 +5896,10 @@
         <v>174</v>
       </c>
       <c r="G165" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I165" t="s">
         <v>173</v>
@@ -5902,7 +5907,7 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166">
-        <v>11320</v>
+        <v>11319</v>
       </c>
       <c r="B166" t="s">
         <v>157</v>
@@ -5911,19 +5916,19 @@
         <v>0</v>
       </c>
       <c r="D166">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="E166" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F166" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F166" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="G166" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H166">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I166" t="s">
         <v>173</v>
@@ -5931,7 +5936,7 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167">
-        <v>11320</v>
+        <v>11319</v>
       </c>
       <c r="B167" t="s">
         <v>157</v>
@@ -5940,16 +5945,16 @@
         <v>0</v>
       </c>
       <c r="D167">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="E167" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F167" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F167" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="G167" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H167">
         <v>1</v>
@@ -5960,7 +5965,7 @@
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168">
-        <v>11321</v>
+        <v>11320</v>
       </c>
       <c r="B168" t="s">
         <v>157</v>
@@ -5969,27 +5974,27 @@
         <v>0</v>
       </c>
       <c r="D168">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="E168" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F168" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F168" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="G168" t="s">
         <v>10</v>
       </c>
       <c r="H168">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I168" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169">
-        <v>11321</v>
+        <v>11320</v>
       </c>
       <c r="B169" t="s">
         <v>157</v>
@@ -5998,13 +6003,13 @@
         <v>0</v>
       </c>
       <c r="D169">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="E169" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F169" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="F169" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="G169" t="s">
         <v>20</v>
@@ -6013,7 +6018,7 @@
         <v>1</v>
       </c>
       <c r="I169" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
@@ -6036,10 +6041,10 @@
         <v>175</v>
       </c>
       <c r="G170" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I170" t="s">
         <v>176</v>
@@ -6047,7 +6052,7 @@
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171">
-        <v>11322</v>
+        <v>11321</v>
       </c>
       <c r="B171" t="s">
         <v>157</v>
@@ -6056,27 +6061,27 @@
         <v>0</v>
       </c>
       <c r="D171">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E171" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F171" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="F171" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="G171" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H171">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I171" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172">
-        <v>11322</v>
+        <v>11321</v>
       </c>
       <c r="B172" t="s">
         <v>157</v>
@@ -6085,22 +6090,22 @@
         <v>0</v>
       </c>
       <c r="D172">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E172" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F172" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="F172" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="G172" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H172">
         <v>2</v>
       </c>
       <c r="I172" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
@@ -6123,10 +6128,10 @@
         <v>177</v>
       </c>
       <c r="G173" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I173" t="s">
         <v>178</v>
@@ -6134,7 +6139,7 @@
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174">
-        <v>11323</v>
+        <v>11322</v>
       </c>
       <c r="B174" t="s">
         <v>157</v>
@@ -6143,27 +6148,27 @@
         <v>0</v>
       </c>
       <c r="D174">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E174" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F174" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F174" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="G174" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H174">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I174" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175">
-        <v>11323</v>
+        <v>11322</v>
       </c>
       <c r="B175" t="s">
         <v>157</v>
@@ -6172,109 +6177,109 @@
         <v>0</v>
       </c>
       <c r="D175">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E175" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F175" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F175" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="G175" t="s">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I175" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176">
-        <v>11313</v>
+        <v>11323</v>
       </c>
       <c r="B176" t="s">
         <v>157</v>
       </c>
       <c r="C176">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D176">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G176" t="s">
         <v>10</v>
       </c>
       <c r="H176">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I176" t="s">
-        <v>14</v>
+        <v>180</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177">
-        <v>11324</v>
+        <v>11323</v>
       </c>
       <c r="B177" t="s">
         <v>157</v>
       </c>
       <c r="C177">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D177">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G177" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H177">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I177" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178">
-        <v>11324</v>
+        <v>11313</v>
       </c>
       <c r="B178" t="s">
         <v>157</v>
       </c>
       <c r="C178">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D178">
+        <v>13</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G178" t="s">
+        <v>10</v>
+      </c>
+      <c r="H178">
+        <v>8</v>
+      </c>
+      <c r="I178" t="s">
         <v>14</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F178" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="G178" t="s">
-        <v>11</v>
-      </c>
-      <c r="H178">
-        <v>2</v>
-      </c>
-      <c r="I178" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
@@ -6297,10 +6302,10 @@
         <v>183</v>
       </c>
       <c r="G179" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I179" t="s">
         <v>184</v>
@@ -6308,7 +6313,7 @@
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180">
-        <v>11325</v>
+        <v>11324</v>
       </c>
       <c r="B180" t="s">
         <v>157</v>
@@ -6317,27 +6322,27 @@
         <v>11</v>
       </c>
       <c r="D180">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E180" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F180" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F180" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="G180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H180">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I180" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181">
-        <v>11325</v>
+        <v>11324</v>
       </c>
       <c r="B181" t="s">
         <v>157</v>
@@ -6346,22 +6351,22 @@
         <v>11</v>
       </c>
       <c r="D181">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E181" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F181" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F181" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="G181" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H181">
         <v>2</v>
       </c>
       <c r="I181" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.2">
@@ -6384,10 +6389,10 @@
         <v>185</v>
       </c>
       <c r="G182" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I182" t="s">
         <v>186</v>
@@ -6395,7 +6400,7 @@
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183">
-        <v>11326</v>
+        <v>11325</v>
       </c>
       <c r="B183" t="s">
         <v>157</v>
@@ -6404,19 +6409,19 @@
         <v>11</v>
       </c>
       <c r="D183">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E183" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F183" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="F183" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="G183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H183">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I183" t="s">
         <v>186</v>
@@ -6424,80 +6429,80 @@
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184">
-        <v>11327</v>
+        <v>11325</v>
       </c>
       <c r="B184" t="s">
         <v>157</v>
       </c>
       <c r="C184">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D184">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G184" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H184">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I184" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185">
-        <v>11327</v>
+        <v>11326</v>
       </c>
       <c r="B185" t="s">
         <v>157</v>
       </c>
       <c r="C185">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D185">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E185" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F185" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F185" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="G185" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H185">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I185" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186">
-        <v>11328</v>
+        <v>11327</v>
       </c>
       <c r="B186" t="s">
         <v>157</v>
       </c>
       <c r="C186">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D186">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E186" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F186" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="F186" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="G186" t="s">
         <v>10</v>
@@ -6506,41 +6511,41 @@
         <v>4</v>
       </c>
       <c r="I186" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187">
-        <v>11328</v>
+        <v>11327</v>
       </c>
       <c r="B187" t="s">
         <v>157</v>
       </c>
       <c r="C187">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D187">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E187" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F187" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F187" s="1" t="s">
-        <v>190</v>
-      </c>
       <c r="G187" t="s">
         <v>20</v>
       </c>
       <c r="H187">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I187" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188">
-        <v>11329</v>
+        <v>11328</v>
       </c>
       <c r="B188" t="s">
         <v>157</v>
@@ -6549,13 +6554,13 @@
         <v>13</v>
       </c>
       <c r="D188">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E188" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F188" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="F188" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="G188" t="s">
         <v>10</v>
@@ -6564,12 +6569,12 @@
         <v>4</v>
       </c>
       <c r="I188" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189">
-        <v>11329</v>
+        <v>11328</v>
       </c>
       <c r="B189" t="s">
         <v>157</v>
@@ -6578,13 +6583,13 @@
         <v>13</v>
       </c>
       <c r="D189">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E189" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F189" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="F189" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="G189" t="s">
         <v>20</v>
@@ -6593,99 +6598,99 @@
         <v>3</v>
       </c>
       <c r="I189" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190">
-        <v>11330</v>
+        <v>11329</v>
       </c>
       <c r="B190" t="s">
         <v>157</v>
       </c>
       <c r="C190">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D190">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E190" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F190" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F190" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G190" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H190">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I190" t="s">
-        <v>239</v>
+        <v>192</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191">
-        <v>11405</v>
+        <v>11329</v>
       </c>
       <c r="B191" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="C191">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D191">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>195</v>
+        <v>240</v>
       </c>
       <c r="G191" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H191">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I191" t="s">
-        <v>14</v>
+        <v>192</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192">
-        <v>11405</v>
+        <v>11330</v>
       </c>
       <c r="B192" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="C192">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D192">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>195</v>
+        <v>24</v>
       </c>
       <c r="G192" t="s">
         <v>20</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I192" t="s">
-        <v>14</v>
+        <v>239</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193">
-        <v>11406</v>
+        <v>11405</v>
       </c>
       <c r="B193" t="s">
         <v>193</v>
@@ -6694,27 +6699,27 @@
         <v>4</v>
       </c>
       <c r="D193">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E193" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F193" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F193" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="G193" t="s">
         <v>10</v>
       </c>
       <c r="H193">
-        <v>7</v>
-      </c>
-      <c r="I193" s="2" t="s">
-        <v>199</v>
+        <v>8</v>
+      </c>
+      <c r="I193" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194">
-        <v>11406</v>
+        <v>11405</v>
       </c>
       <c r="B194" t="s">
         <v>193</v>
@@ -6723,13 +6728,13 @@
         <v>4</v>
       </c>
       <c r="D194">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E194" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F194" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="F194" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="G194" t="s">
         <v>20</v>
@@ -6737,86 +6742,86 @@
       <c r="H194">
         <v>2</v>
       </c>
-      <c r="I194" s="2" t="s">
-        <v>199</v>
+      <c r="I194" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195">
-        <v>11407</v>
+        <v>11406</v>
       </c>
       <c r="B195" t="s">
         <v>193</v>
       </c>
       <c r="C195">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D195">
+        <v>6</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G195" t="s">
+        <v>10</v>
+      </c>
+      <c r="H195">
         <v>7</v>
       </c>
-      <c r="E195" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F195" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="G195" t="s">
-        <v>10</v>
-      </c>
-      <c r="H195">
-        <v>8</v>
-      </c>
       <c r="I195" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196">
-        <v>11407</v>
+        <v>11406</v>
       </c>
       <c r="B196" t="s">
         <v>193</v>
       </c>
       <c r="C196">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D196">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E196" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F196" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="F196" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="G196" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H196">
         <v>2</v>
       </c>
       <c r="I196" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197">
-        <v>11408</v>
+        <v>11407</v>
       </c>
       <c r="B197" t="s">
         <v>193</v>
       </c>
       <c r="C197">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D197">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E197" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F197" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="F197" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="G197" t="s">
         <v>10</v>
@@ -6825,41 +6830,41 @@
         <v>8</v>
       </c>
       <c r="I197" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198">
-        <v>11408</v>
+        <v>11407</v>
       </c>
       <c r="B198" t="s">
         <v>193</v>
       </c>
       <c r="C198">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D198">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E198" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F198" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F198" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="G198" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H198">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I198" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199">
-        <v>11409</v>
+        <v>11408</v>
       </c>
       <c r="B199" t="s">
         <v>193</v>
@@ -6868,13 +6873,13 @@
         <v>6</v>
       </c>
       <c r="D199">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E199" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F199" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="F199" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="G199" t="s">
         <v>10</v>
@@ -6883,12 +6888,12 @@
         <v>8</v>
       </c>
       <c r="I199" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200">
-        <v>11409</v>
+        <v>11408</v>
       </c>
       <c r="B200" t="s">
         <v>193</v>
@@ -6897,13 +6902,13 @@
         <v>6</v>
       </c>
       <c r="D200">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E200" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F200" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="F200" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="G200" t="s">
         <v>20</v>
@@ -6912,27 +6917,27 @@
         <v>3</v>
       </c>
       <c r="I200" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201">
-        <v>11410</v>
+        <v>11409</v>
       </c>
       <c r="B201" t="s">
         <v>193</v>
       </c>
       <c r="C201">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D201">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E201" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F201" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="F201" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="G201" t="s">
         <v>10</v>
@@ -6941,36 +6946,36 @@
         <v>8</v>
       </c>
       <c r="I201" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202">
-        <v>11410</v>
+        <v>11409</v>
       </c>
       <c r="B202" t="s">
         <v>193</v>
       </c>
       <c r="C202">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D202">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E202" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F202" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="F202" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G202" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I202" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.2">
@@ -6993,10 +6998,10 @@
         <v>24</v>
       </c>
       <c r="G203" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I203" t="s">
         <v>204</v>
@@ -7004,167 +7009,167 @@
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204">
-        <v>11506</v>
+        <v>11410</v>
       </c>
       <c r="B204" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C204">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D204">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>207</v>
+        <v>24</v>
       </c>
       <c r="G204" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H204">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I204" t="s">
-        <v>14</v>
+        <v>204</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205">
-        <v>11506</v>
+        <v>11410</v>
       </c>
       <c r="B205" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C205">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D205">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>207</v>
+        <v>24</v>
       </c>
       <c r="G205" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H205">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I205" t="s">
-        <v>14</v>
+        <v>204</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206">
-        <v>11507</v>
+        <v>11506</v>
       </c>
       <c r="B206" t="s">
         <v>205</v>
       </c>
       <c r="C206">
+        <v>4</v>
+      </c>
+      <c r="D206">
+        <v>6</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G206" t="s">
+        <v>10</v>
+      </c>
+      <c r="H206">
         <v>5</v>
       </c>
-      <c r="D206">
-        <v>7</v>
-      </c>
-      <c r="E206" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F206" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G206" t="s">
-        <v>10</v>
-      </c>
-      <c r="H206">
-        <v>6</v>
-      </c>
       <c r="I206" t="s">
-        <v>209</v>
+        <v>14</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207">
-        <v>11507</v>
+        <v>11506</v>
       </c>
       <c r="B207" t="s">
         <v>205</v>
       </c>
       <c r="C207">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D207">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E207" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F207" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F207" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="G207" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H207">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I207" t="s">
-        <v>209</v>
+        <v>14</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208">
-        <v>11508</v>
+        <v>11507</v>
       </c>
       <c r="B208" t="s">
         <v>205</v>
       </c>
       <c r="C208">
+        <v>5</v>
+      </c>
+      <c r="D208">
+        <v>7</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G208" t="s">
+        <v>10</v>
+      </c>
+      <c r="H208">
         <v>6</v>
       </c>
-      <c r="D208">
-        <v>8</v>
-      </c>
-      <c r="E208" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F208" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="G208" t="s">
-        <v>10</v>
-      </c>
-      <c r="H208">
-        <v>5</v>
-      </c>
       <c r="I208" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209">
-        <v>11508</v>
+        <v>11507</v>
       </c>
       <c r="B209" t="s">
         <v>205</v>
       </c>
       <c r="C209">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D209">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E209" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F209" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="F209" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="G209" t="s">
         <v>20</v>
@@ -7173,65 +7178,65 @@
         <v>4</v>
       </c>
       <c r="I209" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210">
-        <v>11509</v>
+        <v>11508</v>
       </c>
       <c r="B210" t="s">
         <v>205</v>
       </c>
       <c r="C210">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D210">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E210" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F210" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="F210" s="1" t="s">
-        <v>237</v>
-      </c>
       <c r="G210" t="s">
         <v>10</v>
       </c>
       <c r="H210">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I210" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211">
-        <v>11509</v>
+        <v>11508</v>
       </c>
       <c r="B211" t="s">
         <v>205</v>
       </c>
       <c r="C211">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D211">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E211" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F211" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="F211" s="1" t="s">
-        <v>237</v>
-      </c>
       <c r="G211" t="s">
         <v>20</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I211" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
@@ -7254,10 +7259,10 @@
         <v>237</v>
       </c>
       <c r="G212" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I212" t="s">
         <v>212</v>
@@ -7265,60 +7270,60 @@
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213">
-        <v>11510</v>
+        <v>11509</v>
       </c>
       <c r="B213" t="s">
         <v>205</v>
       </c>
       <c r="C213">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D213">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E213" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F213" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F213" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G213" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H213">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I213" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214">
-        <v>11510</v>
+        <v>11509</v>
       </c>
       <c r="B214" t="s">
         <v>205</v>
       </c>
       <c r="C214">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D214">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E214" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F214" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F214" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G214" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I214" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
@@ -7341,10 +7346,10 @@
         <v>24</v>
       </c>
       <c r="G215" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I215" t="s">
         <v>238</v>
@@ -7352,80 +7357,80 @@
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216">
-        <v>11626</v>
+        <v>11510</v>
       </c>
       <c r="B216" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C216">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D216">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>9</v>
+        <v>237</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>214</v>
+        <v>24</v>
       </c>
       <c r="G216" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H216">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I216" t="s">
-        <v>14</v>
+        <v>238</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217">
-        <v>11626</v>
+        <v>11510</v>
       </c>
       <c r="B217" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C217">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D217">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>9</v>
+        <v>237</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>214</v>
+        <v>24</v>
       </c>
       <c r="G217" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H217">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I217" t="s">
-        <v>14</v>
+        <v>238</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218">
-        <v>11627</v>
+        <v>11626</v>
       </c>
       <c r="B218" t="s">
         <v>213</v>
       </c>
       <c r="C218">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D218">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E218" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F218" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="F218" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="G218" t="s">
         <v>10</v>
@@ -7434,94 +7439,94 @@
         <v>5</v>
       </c>
       <c r="I218" t="s">
-        <v>216</v>
+        <v>14</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219">
-        <v>11627</v>
+        <v>11626</v>
       </c>
       <c r="B219" t="s">
         <v>213</v>
       </c>
       <c r="C219">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D219">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E219" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F219" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="F219" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="G219" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H219">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I219" t="s">
-        <v>216</v>
+        <v>14</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220">
-        <v>11628</v>
+        <v>11627</v>
       </c>
       <c r="B220" t="s">
         <v>213</v>
       </c>
       <c r="C220">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D220">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E220" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F220" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F220" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="G220" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H220">
         <v>5</v>
       </c>
       <c r="I220" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221">
-        <v>11628</v>
+        <v>11627</v>
       </c>
       <c r="B221" t="s">
         <v>213</v>
       </c>
       <c r="C221">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D221">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E221" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F221" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F221" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="G221" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I221" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.2">
@@ -7544,10 +7549,10 @@
         <v>217</v>
       </c>
       <c r="G222" t="s">
-        <v>218</v>
+        <v>20</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I222" t="s">
         <v>219</v>
@@ -7555,60 +7560,60 @@
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223">
-        <v>11629</v>
+        <v>11628</v>
       </c>
       <c r="B223" t="s">
         <v>213</v>
       </c>
       <c r="C223">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D223">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E223" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F223" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F223" s="1" t="s">
-        <v>243</v>
-      </c>
       <c r="G223" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H223">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I223" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224">
-        <v>11629</v>
+        <v>11628</v>
       </c>
       <c r="B224" t="s">
         <v>213</v>
       </c>
       <c r="C224">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D224">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E224" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F224" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F224" s="1" t="s">
-        <v>243</v>
-      </c>
       <c r="G224" t="s">
-        <v>18</v>
+        <v>218</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I224" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.2">
@@ -7631,10 +7636,10 @@
         <v>243</v>
       </c>
       <c r="G225" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I225" t="s">
         <v>220</v>
@@ -7642,205 +7647,205 @@
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226">
-        <v>11630</v>
+        <v>11629</v>
       </c>
       <c r="B226" t="s">
         <v>213</v>
       </c>
       <c r="C226">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D226">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E226" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F226" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="F226" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G226" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H226">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I226" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227">
-        <v>11630</v>
+        <v>11629</v>
       </c>
       <c r="B227" t="s">
         <v>213</v>
       </c>
       <c r="C227">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D227">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E227" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F227" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="F227" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G227" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H227">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I227" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228">
-        <v>11706</v>
+        <v>11630</v>
       </c>
       <c r="B228" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C228">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D228">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>223</v>
+        <v>24</v>
       </c>
       <c r="G228" t="s">
         <v>10</v>
       </c>
       <c r="H228">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I228" t="s">
-        <v>14</v>
+        <v>245</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229">
-        <v>11707</v>
+        <v>11630</v>
       </c>
       <c r="B229" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C229">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D229">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>224</v>
+        <v>24</v>
       </c>
       <c r="G229" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H229">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I229" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230">
-        <v>11707</v>
+        <v>11706</v>
       </c>
       <c r="B230" t="s">
         <v>221</v>
       </c>
       <c r="C230">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D230">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E230" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F230" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="F230" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="G230" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H230">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I230" t="s">
-        <v>225</v>
+        <v>14</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231">
-        <v>11708</v>
+        <v>11707</v>
       </c>
       <c r="B231" t="s">
         <v>221</v>
       </c>
       <c r="C231">
+        <v>5</v>
+      </c>
+      <c r="D231">
+        <v>7</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G231" t="s">
+        <v>10</v>
+      </c>
+      <c r="H231">
         <v>6</v>
       </c>
-      <c r="D231">
-        <v>8</v>
-      </c>
-      <c r="E231" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F231" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G231" t="s">
-        <v>53</v>
-      </c>
-      <c r="H231">
-        <v>5</v>
-      </c>
       <c r="I231" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232">
-        <v>11708</v>
+        <v>11707</v>
       </c>
       <c r="B232" t="s">
         <v>221</v>
       </c>
       <c r="C232">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D232">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E232" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F232" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="F232" s="1" t="s">
-        <v>226</v>
-      </c>
       <c r="G232" t="s">
         <v>20</v>
       </c>
       <c r="H232">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I232" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.2">
@@ -7863,10 +7868,10 @@
         <v>226</v>
       </c>
       <c r="G233" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I233" t="s">
         <v>227</v>
@@ -7874,57 +7879,57 @@
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234">
-        <v>11709</v>
+        <v>11708</v>
       </c>
       <c r="B234" t="s">
         <v>221</v>
       </c>
       <c r="C234">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D234">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E234" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F234" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="F234" s="1" t="s">
-        <v>228</v>
-      </c>
       <c r="G234" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I234" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235">
-        <v>11710</v>
+        <v>11708</v>
       </c>
       <c r="B235" t="s">
         <v>221</v>
       </c>
       <c r="C235">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D235">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>24</v>
+        <v>226</v>
       </c>
       <c r="G235" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="H235">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I235" t="s">
         <v>227</v>
@@ -7932,7 +7937,7 @@
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236">
-        <v>11710</v>
+        <v>11709</v>
       </c>
       <c r="B236" t="s">
         <v>221</v>
@@ -7941,22 +7946,22 @@
         <v>7</v>
       </c>
       <c r="D236">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E236" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F236" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="F236" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G236" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H236">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I236" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.2">
@@ -7979,16 +7984,75 @@
         <v>24</v>
       </c>
       <c r="G237" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I237" t="s">
         <v>227</v>
       </c>
     </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>11710</v>
+      </c>
+      <c r="B238" t="s">
+        <v>221</v>
+      </c>
+      <c r="C238">
+        <v>7</v>
+      </c>
+      <c r="D238">
+        <v>10</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G238" t="s">
+        <v>20</v>
+      </c>
+      <c r="H238">
+        <v>3</v>
+      </c>
+      <c r="I238" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>11710</v>
+      </c>
+      <c r="B239" t="s">
+        <v>221</v>
+      </c>
+      <c r="C239">
+        <v>7</v>
+      </c>
+      <c r="D239">
+        <v>10</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G239" t="s">
+        <v>18</v>
+      </c>
+      <c r="H239">
+        <v>2</v>
+      </c>
+      <c r="I239" t="s">
+        <v>227</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/inst/extdata/additional_govdata.xlsx
+++ b/inst/extdata/additional_govdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertstelzle/git_projekte/bundeslaendeR/inst/extdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Desktop\add\bundeslaendeR\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61003A8-E9E9-004A-8933-55F1F6F669C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DE5BB2-E9E2-44E8-B930-E6ADCE282CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="252">
   <si>
     <t>gov_id</t>
   </si>
@@ -784,6 +784,12 @@
   </si>
   <si>
     <t>https://de.wikipedia.org/wiki/Senat_Wegner</t>
+  </si>
+  <si>
+    <t>2023-07-05</t>
+  </si>
+  <si>
+    <t>https://de.wikipedia.org/wiki/Senat_Bovenschulte_II</t>
   </si>
 </sst>
 </file>
@@ -1102,25 +1108,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I239"/>
+  <dimension ref="A1:I242"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="19.1640625" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="21.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
     <col min="9" max="9" width="77" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1149,7 +1155,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10219</v>
       </c>
@@ -1178,7 +1184,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10219</v>
       </c>
@@ -1207,7 +1213,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10220</v>
       </c>
@@ -1236,7 +1242,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10220</v>
       </c>
@@ -1265,7 +1271,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10221</v>
       </c>
@@ -1294,7 +1300,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10221</v>
       </c>
@@ -1323,7 +1329,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10222</v>
       </c>
@@ -1352,7 +1358,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10222</v>
       </c>
@@ -1381,7 +1387,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10223</v>
       </c>
@@ -1410,7 +1416,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10223</v>
       </c>
@@ -1439,7 +1445,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10224</v>
       </c>
@@ -1468,7 +1474,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10224</v>
       </c>
@@ -1497,7 +1503,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10320</v>
       </c>
@@ -1526,7 +1532,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10321</v>
       </c>
@@ -1555,7 +1561,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10322</v>
       </c>
@@ -1584,7 +1590,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10322</v>
       </c>
@@ -1613,7 +1619,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10323</v>
       </c>
@@ -1642,7 +1648,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>10324</v>
       </c>
@@ -1671,7 +1677,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10325</v>
       </c>
@@ -1700,7 +1706,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10325</v>
       </c>
@@ -1729,7 +1735,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10425</v>
       </c>
@@ -1758,7 +1764,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>10425</v>
       </c>
@@ -1787,7 +1793,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10425</v>
       </c>
@@ -1816,7 +1822,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>10425</v>
       </c>
@@ -1845,7 +1851,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>10426</v>
       </c>
@@ -1874,7 +1880,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>10426</v>
       </c>
@@ -1903,7 +1909,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>10426</v>
       </c>
@@ -1932,7 +1938,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>10426</v>
       </c>
@@ -1961,7 +1967,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>10427</v>
       </c>
@@ -1990,7 +1996,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>10427</v>
       </c>
@@ -2019,7 +2025,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>10427</v>
       </c>
@@ -2048,7 +2054,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>10427</v>
       </c>
@@ -2077,7 +2083,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>10428</v>
       </c>
@@ -2106,7 +2112,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>10428</v>
       </c>
@@ -2135,7 +2141,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>10428</v>
       </c>
@@ -2164,7 +2170,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>10424</v>
       </c>
@@ -2193,7 +2199,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>10424</v>
       </c>
@@ -2222,7 +2228,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>10429</v>
       </c>
@@ -2251,7 +2257,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>10429</v>
       </c>
@@ -2280,7 +2286,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>10430</v>
       </c>
@@ -2309,7 +2315,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>10430</v>
       </c>
@@ -2338,7 +2344,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>10431</v>
       </c>
@@ -2367,7 +2373,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>10431</v>
       </c>
@@ -2396,7 +2402,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>10432</v>
       </c>
@@ -2425,7 +2431,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>10432</v>
       </c>
@@ -2454,7 +2460,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>10432</v>
       </c>
@@ -2483,7 +2489,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>10433</v>
       </c>
@@ -2512,7 +2518,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>10433</v>
       </c>
@@ -2541,7 +2547,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>10433</v>
       </c>
@@ -2570,7 +2576,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>10434</v>
       </c>
@@ -2599,7 +2605,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>10434</v>
       </c>
@@ -2628,7 +2634,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>10506</v>
       </c>
@@ -2657,7 +2663,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>10506</v>
       </c>
@@ -2686,7 +2692,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>10507</v>
       </c>
@@ -2715,7 +2721,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>10507</v>
       </c>
@@ -2744,7 +2750,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>10508</v>
       </c>
@@ -2773,7 +2779,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>10508</v>
       </c>
@@ -2802,7 +2808,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>10509</v>
       </c>
@@ -2831,7 +2837,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>10509</v>
       </c>
@@ -2860,7 +2866,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>10510</v>
       </c>
@@ -2889,7 +2895,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>10510</v>
       </c>
@@ -2918,7 +2924,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>10510</v>
       </c>
@@ -2947,7 +2953,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>10620</v>
       </c>
@@ -2976,7 +2982,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>10620</v>
       </c>
@@ -3005,7 +3011,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>10620</v>
       </c>
@@ -3034,7 +3040,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>10621</v>
       </c>
@@ -3063,7 +3069,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>10621</v>
       </c>
@@ -3092,7 +3098,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>10619</v>
       </c>
@@ -3121,7 +3127,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>10619</v>
       </c>
@@ -3150,7 +3156,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>10622</v>
       </c>
@@ -3179,7 +3185,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>10622</v>
       </c>
@@ -3208,7 +3214,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>10623</v>
       </c>
@@ -3237,7 +3243,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>10623</v>
       </c>
@@ -3266,7 +3272,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>10624</v>
       </c>
@@ -3295,7 +3301,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>10624</v>
       </c>
@@ -3324,7 +3330,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>10625</v>
       </c>
@@ -3353,7 +3359,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>10625</v>
       </c>
@@ -3382,7 +3388,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>10626</v>
       </c>
@@ -3399,7 +3405,7 @@
         <v>84</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>24</v>
+        <v>250</v>
       </c>
       <c r="G79" t="s">
         <v>20</v>
@@ -3411,7 +3417,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>10626</v>
       </c>
@@ -3428,7 +3434,7 @@
         <v>84</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>24</v>
+        <v>250</v>
       </c>
       <c r="G80" t="s">
         <v>18</v>
@@ -3440,7 +3446,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>10626</v>
       </c>
@@ -3457,7 +3463,7 @@
         <v>84</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>24</v>
+        <v>250</v>
       </c>
       <c r="G81" t="s">
         <v>53</v>
@@ -3469,154 +3475,154 @@
         <v>86</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
+        <v>10627</v>
+      </c>
+      <c r="B82" t="s">
+        <v>72</v>
+      </c>
+      <c r="C82">
+        <v>20</v>
+      </c>
+      <c r="D82">
+        <v>25</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G82" t="s">
+        <v>20</v>
+      </c>
+      <c r="H82">
+        <v>5</v>
+      </c>
+      <c r="I82" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>10627</v>
+      </c>
+      <c r="B83" t="s">
+        <v>72</v>
+      </c>
+      <c r="C83">
+        <v>20</v>
+      </c>
+      <c r="D83">
+        <v>25</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G83" t="s">
+        <v>18</v>
+      </c>
+      <c r="H83">
+        <v>2</v>
+      </c>
+      <c r="I83" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>10627</v>
+      </c>
+      <c r="B84" t="s">
+        <v>72</v>
+      </c>
+      <c r="C84">
+        <v>20</v>
+      </c>
+      <c r="D84">
+        <v>25</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G84" t="s">
+        <v>53</v>
+      </c>
+      <c r="H84">
+        <v>2</v>
+      </c>
+      <c r="I84" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85">
         <v>10720</v>
-      </c>
-      <c r="B82" t="s">
-        <v>87</v>
-      </c>
-      <c r="C82">
-        <v>16</v>
-      </c>
-      <c r="D82">
-        <v>20</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G82" t="s">
-        <v>10</v>
-      </c>
-      <c r="H82">
-        <v>11</v>
-      </c>
-      <c r="I82" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>10721</v>
-      </c>
-      <c r="B83" t="s">
-        <v>87</v>
-      </c>
-      <c r="C83">
-        <v>17</v>
-      </c>
-      <c r="D83">
-        <v>21</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G83" t="s">
-        <v>10</v>
-      </c>
-      <c r="H83">
-        <v>9</v>
-      </c>
-      <c r="I83" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>10722</v>
-      </c>
-      <c r="B84" t="s">
-        <v>87</v>
-      </c>
-      <c r="C84">
-        <v>18</v>
-      </c>
-      <c r="D84">
-        <v>22</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G84" t="s">
-        <v>10</v>
-      </c>
-      <c r="H84">
-        <v>8</v>
-      </c>
-      <c r="I84" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>10722</v>
       </c>
       <c r="B85" t="s">
         <v>87</v>
       </c>
       <c r="C85">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D85">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G85" t="s">
+        <v>10</v>
+      </c>
+      <c r="H85">
         <v>11</v>
       </c>
-      <c r="H85">
-        <v>4</v>
-      </c>
       <c r="I85" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>10723</v>
+        <v>10721</v>
       </c>
       <c r="B86" t="s">
         <v>87</v>
       </c>
       <c r="C86">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D86">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G86" t="s">
         <v>10</v>
       </c>
       <c r="H86">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I86" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>10723</v>
+        <v>10722</v>
       </c>
       <c r="B87" t="s">
         <v>87</v>
@@ -3625,172 +3631,172 @@
         <v>18</v>
       </c>
       <c r="D87">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E87" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F87" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F87" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="G87" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H87">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I87" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>10724</v>
+        <v>10722</v>
       </c>
       <c r="B88" t="s">
         <v>87</v>
       </c>
       <c r="C88">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D88">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H88">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I88" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>10724</v>
+        <v>10723</v>
       </c>
       <c r="B89" t="s">
         <v>87</v>
       </c>
       <c r="C89">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D89">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E89" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F89" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F89" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="G89" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I89" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>10725</v>
+        <v>10723</v>
       </c>
       <c r="B90" t="s">
         <v>87</v>
       </c>
       <c r="C90">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D90">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>241</v>
+        <v>95</v>
       </c>
       <c r="G90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H90">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I90" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>10725</v>
+        <v>10724</v>
       </c>
       <c r="B91" t="s">
         <v>87</v>
       </c>
       <c r="C91">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D91">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E91" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F91" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F91" s="1" t="s">
-        <v>241</v>
-      </c>
       <c r="G91" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H91">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I91" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>10726</v>
+        <v>10724</v>
       </c>
       <c r="B92" t="s">
         <v>87</v>
       </c>
       <c r="C92">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D92">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>241</v>
+        <v>95</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="G92" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H92">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I92" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>10726</v>
+        <v>10725</v>
       </c>
       <c r="B93" t="s">
         <v>87</v>
@@ -3799,143 +3805,143 @@
         <v>20</v>
       </c>
       <c r="D93">
+        <v>25</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G93" t="s">
+        <v>10</v>
+      </c>
+      <c r="H93">
+        <v>8</v>
+      </c>
+      <c r="I93" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>10725</v>
+      </c>
+      <c r="B94" t="s">
+        <v>87</v>
+      </c>
+      <c r="C94">
+        <v>20</v>
+      </c>
+      <c r="D94">
+        <v>25</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G94" t="s">
+        <v>18</v>
+      </c>
+      <c r="H94">
+        <v>4</v>
+      </c>
+      <c r="I94" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>10726</v>
+      </c>
+      <c r="B95" t="s">
+        <v>87</v>
+      </c>
+      <c r="C95">
+        <v>20</v>
+      </c>
+      <c r="D95">
         <v>26</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="E95" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="F93" s="1" t="s">
+      <c r="F95" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G93" t="s">
-        <v>18</v>
-      </c>
-      <c r="H93">
-        <v>4</v>
-      </c>
-      <c r="I93" t="s">
+      <c r="G95" t="s">
+        <v>10</v>
+      </c>
+      <c r="H95">
+        <v>8</v>
+      </c>
+      <c r="I95" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>10826</v>
-      </c>
-      <c r="B94" t="s">
-        <v>99</v>
-      </c>
-      <c r="C94">
-        <v>18</v>
-      </c>
-      <c r="D94">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>10726</v>
+      </c>
+      <c r="B96" t="s">
+        <v>87</v>
+      </c>
+      <c r="C96">
+        <v>20</v>
+      </c>
+      <c r="D96">
         <v>26</v>
       </c>
-      <c r="E94" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G94" t="s">
-        <v>10</v>
-      </c>
-      <c r="H94">
-        <v>7</v>
-      </c>
-      <c r="I94" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>10827</v>
-      </c>
-      <c r="B95" t="s">
-        <v>99</v>
-      </c>
-      <c r="C95">
-        <v>19</v>
-      </c>
-      <c r="D95">
-        <v>27</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G95" t="s">
-        <v>10</v>
-      </c>
-      <c r="H95">
-        <v>6</v>
-      </c>
-      <c r="I95" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>10827</v>
-      </c>
-      <c r="B96" t="s">
-        <v>99</v>
-      </c>
-      <c r="C96">
-        <v>19</v>
-      </c>
-      <c r="D96">
-        <v>27</v>
-      </c>
       <c r="E96" s="1" t="s">
-        <v>102</v>
+        <v>241</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="G96" t="s">
         <v>18</v>
       </c>
       <c r="H96">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I96" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>10828</v>
+        <v>10826</v>
       </c>
       <c r="B97" t="s">
         <v>99</v>
       </c>
       <c r="C97">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D97">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G97" t="s">
         <v>10</v>
       </c>
       <c r="H97">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I97" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>10828</v>
+        <v>10827</v>
       </c>
       <c r="B98" t="s">
         <v>99</v>
@@ -3944,27 +3950,27 @@
         <v>19</v>
       </c>
       <c r="D98">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E98" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F98" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F98" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="G98" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H98">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I98" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>10829</v>
+        <v>10827</v>
       </c>
       <c r="B99" t="s">
         <v>99</v>
@@ -3973,143 +3979,143 @@
         <v>19</v>
       </c>
       <c r="D99">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G99" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H99">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I99" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>10830</v>
+        <v>10828</v>
       </c>
       <c r="B100" t="s">
         <v>99</v>
       </c>
       <c r="C100">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D100">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G100" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H100">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I100" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>10831</v>
+        <v>10828</v>
       </c>
       <c r="B101" t="s">
         <v>99</v>
       </c>
       <c r="C101">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D101">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G101" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H101">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I101" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>10831</v>
+        <v>10829</v>
       </c>
       <c r="B102" t="s">
         <v>99</v>
       </c>
       <c r="C102">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D102">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G102" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H102">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I102" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>10832</v>
+        <v>10830</v>
       </c>
       <c r="B103" t="s">
         <v>99</v>
       </c>
       <c r="C103">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D103">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G103" t="s">
         <v>20</v>
       </c>
       <c r="H103">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I103" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>10832</v>
+        <v>10831</v>
       </c>
       <c r="B104" t="s">
         <v>99</v>
@@ -4118,230 +4124,230 @@
         <v>21</v>
       </c>
       <c r="D104">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E104" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F104" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F104" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="G104" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H104">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I104" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>10833</v>
+        <v>10831</v>
       </c>
       <c r="B105" t="s">
         <v>99</v>
       </c>
       <c r="C105">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D105">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="G105" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H105">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I105" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>10833</v>
+        <v>10832</v>
       </c>
       <c r="B106" t="s">
         <v>99</v>
       </c>
       <c r="C106">
+        <v>21</v>
+      </c>
+      <c r="D106">
+        <v>32</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G106" t="s">
+        <v>20</v>
+      </c>
+      <c r="H106">
+        <v>8</v>
+      </c>
+      <c r="I106" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>10832</v>
+      </c>
+      <c r="B107" t="s">
+        <v>99</v>
+      </c>
+      <c r="C107">
+        <v>21</v>
+      </c>
+      <c r="D107">
+        <v>32</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G107" t="s">
+        <v>18</v>
+      </c>
+      <c r="H107">
+        <v>3</v>
+      </c>
+      <c r="I107" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>10833</v>
+      </c>
+      <c r="B108" t="s">
+        <v>99</v>
+      </c>
+      <c r="C108">
         <v>22</v>
       </c>
-      <c r="D106">
+      <c r="D108">
         <v>33</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="E108" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F106" s="1" t="s">
+      <c r="F108" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G106" t="s">
+      <c r="G108" t="s">
+        <v>20</v>
+      </c>
+      <c r="H108">
+        <v>7</v>
+      </c>
+      <c r="I108" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>10833</v>
+      </c>
+      <c r="B109" t="s">
+        <v>99</v>
+      </c>
+      <c r="C109">
+        <v>22</v>
+      </c>
+      <c r="D109">
+        <v>33</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G109" t="s">
         <v>18</v>
       </c>
-      <c r="H106">
+      <c r="H109">
         <v>4</v>
       </c>
-      <c r="I106" t="s">
+      <c r="I109" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A107">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110">
         <v>10905</v>
-      </c>
-      <c r="B107" t="s">
-        <v>114</v>
-      </c>
-      <c r="C107">
-        <v>4</v>
-      </c>
-      <c r="D107">
-        <v>5</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G107" t="s">
-        <v>20</v>
-      </c>
-      <c r="H107">
-        <v>6</v>
-      </c>
-      <c r="I107" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A108">
-        <v>10905</v>
-      </c>
-      <c r="B108" t="s">
-        <v>114</v>
-      </c>
-      <c r="C108">
-        <v>4</v>
-      </c>
-      <c r="D108">
-        <v>5</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G108" t="s">
-        <v>53</v>
-      </c>
-      <c r="H108">
-        <v>3</v>
-      </c>
-      <c r="I108" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A109">
-        <v>10906</v>
-      </c>
-      <c r="B109" t="s">
-        <v>114</v>
-      </c>
-      <c r="C109">
-        <v>5</v>
-      </c>
-      <c r="D109">
-        <v>6</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G109" t="s">
-        <v>20</v>
-      </c>
-      <c r="H109">
-        <v>5</v>
-      </c>
-      <c r="I109" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A110">
-        <v>10906</v>
       </c>
       <c r="B110" t="s">
         <v>114</v>
       </c>
       <c r="C110">
+        <v>4</v>
+      </c>
+      <c r="D110">
         <v>5</v>
       </c>
-      <c r="D110">
+      <c r="E110" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G110" t="s">
+        <v>20</v>
+      </c>
+      <c r="H110">
         <v>6</v>
       </c>
-      <c r="E110" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G110" t="s">
-        <v>10</v>
-      </c>
-      <c r="H110">
-        <v>4</v>
-      </c>
       <c r="I110" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>10910</v>
+        <v>10905</v>
       </c>
       <c r="B111" t="s">
         <v>114</v>
       </c>
       <c r="C111">
+        <v>4</v>
+      </c>
+      <c r="D111">
         <v>5</v>
       </c>
-      <c r="D111">
-        <v>7</v>
-      </c>
       <c r="E111" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G111" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="H111">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I111" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>10910</v>
+        <v>10906</v>
       </c>
       <c r="B112" t="s">
         <v>114</v>
@@ -4350,172 +4356,172 @@
         <v>5</v>
       </c>
       <c r="D112">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E112" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F112" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F112" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="G112" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I112" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>10911</v>
+        <v>10906</v>
       </c>
       <c r="B113" t="s">
         <v>114</v>
       </c>
       <c r="C113">
+        <v>5</v>
+      </c>
+      <c r="D113">
         <v>6</v>
       </c>
-      <c r="D113">
-        <v>8</v>
-      </c>
       <c r="E113" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G113" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H113">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I113" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>10911</v>
+        <v>10910</v>
       </c>
       <c r="B114" t="s">
         <v>114</v>
       </c>
       <c r="C114">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D114">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E114" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F114" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F114" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="G114" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H114">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I114" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>10912</v>
+        <v>10910</v>
       </c>
       <c r="B115" t="s">
         <v>114</v>
       </c>
       <c r="C115">
+        <v>5</v>
+      </c>
+      <c r="D115">
         <v>7</v>
       </c>
-      <c r="D115">
-        <v>9</v>
-      </c>
       <c r="E115" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G115" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H115">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I115" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>10912</v>
+        <v>10911</v>
       </c>
       <c r="B116" t="s">
         <v>114</v>
       </c>
       <c r="C116">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D116">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E116" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F116" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F116" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="G116" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H116">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I116" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>10913</v>
+        <v>10911</v>
       </c>
       <c r="B117" t="s">
         <v>114</v>
       </c>
       <c r="C117">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D117">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>233</v>
+        <v>121</v>
       </c>
       <c r="G117" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H117">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I117" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>10913</v>
+        <v>10912</v>
       </c>
       <c r="B118" t="s">
         <v>114</v>
@@ -4524,230 +4530,230 @@
         <v>7</v>
       </c>
       <c r="D118">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E118" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F118" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F118" s="1" t="s">
-        <v>233</v>
-      </c>
       <c r="G118" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H118">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I118" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>10914</v>
+        <v>10912</v>
       </c>
       <c r="B119" t="s">
         <v>114</v>
       </c>
       <c r="C119">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D119">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>233</v>
+        <v>121</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="G119" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H119">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I119" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>10914</v>
+        <v>10913</v>
       </c>
       <c r="B120" t="s">
         <v>114</v>
       </c>
       <c r="C120">
+        <v>7</v>
+      </c>
+      <c r="D120">
+        <v>10</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G120" t="s">
+        <v>20</v>
+      </c>
+      <c r="H120">
+        <v>6</v>
+      </c>
+      <c r="I120" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>10913</v>
+      </c>
+      <c r="B121" t="s">
+        <v>114</v>
+      </c>
+      <c r="C121">
+        <v>7</v>
+      </c>
+      <c r="D121">
+        <v>10</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G121" t="s">
+        <v>10</v>
+      </c>
+      <c r="H121">
+        <v>3</v>
+      </c>
+      <c r="I121" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>10914</v>
+      </c>
+      <c r="B122" t="s">
+        <v>114</v>
+      </c>
+      <c r="C122">
         <v>8</v>
       </c>
-      <c r="D120">
+      <c r="D122">
         <v>11</v>
       </c>
-      <c r="E120" s="1" t="s">
+      <c r="E122" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="F120" s="1" t="s">
+      <c r="F122" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G120" t="s">
+      <c r="G122" t="s">
+        <v>20</v>
+      </c>
+      <c r="H122">
+        <v>7</v>
+      </c>
+      <c r="I122" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>10914</v>
+      </c>
+      <c r="B123" t="s">
+        <v>114</v>
+      </c>
+      <c r="C123">
+        <v>8</v>
+      </c>
+      <c r="D123">
+        <v>11</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G123" t="s">
         <v>53</v>
       </c>
-      <c r="H120">
+      <c r="H123">
         <v>2</v>
       </c>
-      <c r="I120" t="s">
+      <c r="I123" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A121">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124">
         <v>11027</v>
-      </c>
-      <c r="B121" t="s">
-        <v>127</v>
-      </c>
-      <c r="C121">
-        <v>15</v>
-      </c>
-      <c r="D121">
-        <v>27</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G121" t="s">
-        <v>10</v>
-      </c>
-      <c r="H121">
-        <v>7</v>
-      </c>
-      <c r="I121" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A122">
-        <v>11027</v>
-      </c>
-      <c r="B122" t="s">
-        <v>127</v>
-      </c>
-      <c r="C122">
-        <v>15</v>
-      </c>
-      <c r="D122">
-        <v>27</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G122" t="s">
-        <v>11</v>
-      </c>
-      <c r="H122">
-        <v>3</v>
-      </c>
-      <c r="I122" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A123">
-        <v>11028</v>
-      </c>
-      <c r="B123" t="s">
-        <v>127</v>
-      </c>
-      <c r="C123">
-        <v>16</v>
-      </c>
-      <c r="D123">
-        <v>28</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G123" t="s">
-        <v>10</v>
-      </c>
-      <c r="H123">
-        <v>8</v>
-      </c>
-      <c r="I123" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A124">
-        <v>11028</v>
       </c>
       <c r="B124" t="s">
         <v>127</v>
       </c>
       <c r="C124">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D124">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E124" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F124" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F124" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="G124" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H124">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I124" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>11029</v>
+        <v>11027</v>
       </c>
       <c r="B125" t="s">
         <v>127</v>
       </c>
       <c r="C125">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D125">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H125">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I125" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>11029</v>
+        <v>11028</v>
       </c>
       <c r="B126" t="s">
         <v>127</v>
@@ -4756,462 +4762,462 @@
         <v>16</v>
       </c>
       <c r="D126">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E126" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F126" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F126" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="G126" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H126">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I126" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>11030</v>
+        <v>11028</v>
       </c>
       <c r="B127" t="s">
         <v>127</v>
       </c>
       <c r="C127">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D127">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G127" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H127">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I127" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>11030</v>
+        <v>11029</v>
       </c>
       <c r="B128" t="s">
         <v>127</v>
       </c>
       <c r="C128">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D128">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E128" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F128" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F128" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="G128" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H128">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I128" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>11031</v>
+        <v>11029</v>
       </c>
       <c r="B129" t="s">
         <v>127</v>
       </c>
       <c r="C129">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D129">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>246</v>
+        <v>132</v>
       </c>
       <c r="G129" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H129">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I129" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>11031</v>
+        <v>11030</v>
       </c>
       <c r="B130" t="s">
         <v>127</v>
       </c>
       <c r="C130">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D130">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E130" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F130" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F130" s="1" t="s">
-        <v>246</v>
-      </c>
       <c r="G130" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H130">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I130" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>11032</v>
+        <v>11030</v>
       </c>
       <c r="B131" t="s">
         <v>127</v>
       </c>
       <c r="C131">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D131">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>246</v>
+        <v>132</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>24</v>
+        <v>134</v>
       </c>
       <c r="G131" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H131">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I131" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>11032</v>
+        <v>11031</v>
       </c>
       <c r="B132" t="s">
         <v>127</v>
       </c>
       <c r="C132">
+        <v>18</v>
+      </c>
+      <c r="D132">
+        <v>31</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G132" t="s">
+        <v>20</v>
+      </c>
+      <c r="H132">
+        <v>6</v>
+      </c>
+      <c r="I132" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>11031</v>
+      </c>
+      <c r="B133" t="s">
+        <v>127</v>
+      </c>
+      <c r="C133">
+        <v>18</v>
+      </c>
+      <c r="D133">
+        <v>31</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G133" t="s">
+        <v>10</v>
+      </c>
+      <c r="H133">
+        <v>5</v>
+      </c>
+      <c r="I133" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>11032</v>
+      </c>
+      <c r="B134" t="s">
+        <v>127</v>
+      </c>
+      <c r="C134">
         <v>19</v>
       </c>
-      <c r="D132">
+      <c r="D134">
         <v>32</v>
       </c>
-      <c r="E132" s="1" t="s">
+      <c r="E134" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="F132" s="1" t="s">
+      <c r="F134" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G132" t="s">
+      <c r="G134" t="s">
+        <v>20</v>
+      </c>
+      <c r="H134">
+        <v>7</v>
+      </c>
+      <c r="I134" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>11032</v>
+      </c>
+      <c r="B135" t="s">
+        <v>127</v>
+      </c>
+      <c r="C135">
+        <v>19</v>
+      </c>
+      <c r="D135">
+        <v>32</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G135" t="s">
         <v>18</v>
       </c>
-      <c r="H132">
+      <c r="H135">
         <v>4</v>
       </c>
-      <c r="I132" t="s">
+      <c r="I135" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A133">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136">
         <v>11122</v>
-      </c>
-      <c r="B133" t="s">
-        <v>137</v>
-      </c>
-      <c r="C133">
-        <v>14</v>
-      </c>
-      <c r="D133">
-        <v>22</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G133" t="s">
-        <v>10</v>
-      </c>
-      <c r="H133">
-        <v>10</v>
-      </c>
-      <c r="I133" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A134">
-        <v>11122</v>
-      </c>
-      <c r="B134" t="s">
-        <v>137</v>
-      </c>
-      <c r="C134">
-        <v>14</v>
-      </c>
-      <c r="D134">
-        <v>22</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G134" t="s">
-        <v>11</v>
-      </c>
-      <c r="H134">
-        <v>2</v>
-      </c>
-      <c r="I134" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A135">
-        <v>11123</v>
-      </c>
-      <c r="B135" t="s">
-        <v>137</v>
-      </c>
-      <c r="C135">
-        <v>15</v>
-      </c>
-      <c r="D135">
-        <v>23</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G135" t="s">
-        <v>20</v>
-      </c>
-      <c r="H135">
-        <v>9</v>
-      </c>
-      <c r="I135" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A136">
-        <v>11123</v>
       </c>
       <c r="B136" t="s">
         <v>137</v>
       </c>
       <c r="C136">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D136">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E136" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F136" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F136" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="G136" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I136" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>11124</v>
+        <v>11122</v>
       </c>
       <c r="B137" t="s">
         <v>137</v>
       </c>
       <c r="C137">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D137">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G137" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H137">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I137" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>11124</v>
+        <v>11123</v>
       </c>
       <c r="B138" t="s">
         <v>137</v>
       </c>
       <c r="C138">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D138">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E138" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F138" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F138" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="G138" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H138">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I138" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>11125</v>
+        <v>11123</v>
       </c>
       <c r="B139" t="s">
         <v>137</v>
       </c>
       <c r="C139">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D139">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>235</v>
+        <v>140</v>
       </c>
       <c r="G139" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H139">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I139" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>11125</v>
+        <v>11124</v>
       </c>
       <c r="B140" t="s">
         <v>137</v>
       </c>
       <c r="C140">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D140">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E140" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F140" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F140" s="1" t="s">
-        <v>235</v>
-      </c>
       <c r="G140" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H140">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I140" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>11126</v>
+        <v>11124</v>
       </c>
       <c r="B141" t="s">
         <v>137</v>
       </c>
       <c r="C141">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D141">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>235</v>
+        <v>140</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>243</v>
+        <v>142</v>
       </c>
       <c r="G141" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H141">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I141" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>11126</v>
+        <v>11125</v>
       </c>
       <c r="B142" t="s">
         <v>137</v>
@@ -5220,187 +5226,187 @@
         <v>17</v>
       </c>
       <c r="D142">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E142" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F142" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="F142" s="1" t="s">
-        <v>243</v>
-      </c>
       <c r="G142" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H142">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I142" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>11127</v>
+        <v>11125</v>
       </c>
       <c r="B143" t="s">
         <v>137</v>
       </c>
       <c r="C143">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D143">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>243</v>
+        <v>142</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>24</v>
+        <v>235</v>
       </c>
       <c r="G143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H143">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I143" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>11127</v>
+        <v>11126</v>
       </c>
       <c r="B144" t="s">
         <v>137</v>
       </c>
       <c r="C144">
+        <v>17</v>
+      </c>
+      <c r="D144">
+        <v>26</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G144" t="s">
+        <v>10</v>
+      </c>
+      <c r="H144">
+        <v>10</v>
+      </c>
+      <c r="I144" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>11126</v>
+      </c>
+      <c r="B145" t="s">
+        <v>137</v>
+      </c>
+      <c r="C145">
+        <v>17</v>
+      </c>
+      <c r="D145">
+        <v>26</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G145" t="s">
+        <v>11</v>
+      </c>
+      <c r="H145">
+        <v>3</v>
+      </c>
+      <c r="I145" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>11127</v>
+      </c>
+      <c r="B146" t="s">
+        <v>137</v>
+      </c>
+      <c r="C146">
         <v>18</v>
       </c>
-      <c r="D144">
+      <c r="D146">
         <v>27</v>
       </c>
-      <c r="E144" s="1" t="s">
+      <c r="E146" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="F144" s="1" t="s">
+      <c r="F146" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G144" t="s">
+      <c r="G146" t="s">
+        <v>10</v>
+      </c>
+      <c r="H146">
+        <v>9</v>
+      </c>
+      <c r="I146" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>11127</v>
+      </c>
+      <c r="B147" t="s">
+        <v>137</v>
+      </c>
+      <c r="C147">
         <v>18</v>
       </c>
-      <c r="H144">
+      <c r="D147">
+        <v>27</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G147" t="s">
+        <v>18</v>
+      </c>
+      <c r="H147">
         <v>4</v>
       </c>
-      <c r="I144" t="s">
+      <c r="I147" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A145">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148">
         <v>11221</v>
-      </c>
-      <c r="B145" t="s">
-        <v>145</v>
-      </c>
-      <c r="C145">
-        <v>14</v>
-      </c>
-      <c r="D145">
-        <v>21</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F145" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G145" t="s">
-        <v>20</v>
-      </c>
-      <c r="H145">
-        <v>7</v>
-      </c>
-      <c r="I145" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A146">
-        <v>11221</v>
-      </c>
-      <c r="B146" t="s">
-        <v>145</v>
-      </c>
-      <c r="C146">
-        <v>14</v>
-      </c>
-      <c r="D146">
-        <v>21</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G146" t="s">
-        <v>11</v>
-      </c>
-      <c r="H146">
-        <v>2</v>
-      </c>
-      <c r="I146" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A147">
-        <v>11222</v>
-      </c>
-      <c r="B147" t="s">
-        <v>145</v>
-      </c>
-      <c r="C147">
-        <v>15</v>
-      </c>
-      <c r="D147">
-        <v>22</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G147" t="s">
-        <v>20</v>
-      </c>
-      <c r="H147">
-        <v>10</v>
-      </c>
-      <c r="I147" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A148">
-        <v>11223</v>
       </c>
       <c r="B148" t="s">
         <v>145</v>
       </c>
       <c r="C148">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D148">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G148" t="s">
         <v>20</v>
@@ -5409,70 +5415,70 @@
         <v>7</v>
       </c>
       <c r="I148" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>11223</v>
+        <v>11221</v>
       </c>
       <c r="B149" t="s">
         <v>145</v>
       </c>
       <c r="C149">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D149">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G149" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H149">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I149" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>11224</v>
+        <v>11222</v>
       </c>
       <c r="B150" t="s">
         <v>145</v>
       </c>
       <c r="C150">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D150">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G150" t="s">
         <v>20</v>
       </c>
       <c r="H150">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I150" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>11224</v>
+        <v>11223</v>
       </c>
       <c r="B151" t="s">
         <v>145</v>
@@ -5481,129 +5487,129 @@
         <v>16</v>
       </c>
       <c r="D151">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E151" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F151" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F151" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="G151" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H151">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I151" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>11225</v>
+        <v>11223</v>
       </c>
       <c r="B152" t="s">
         <v>145</v>
       </c>
       <c r="C152">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D152">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G152" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H152">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I152" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>11225</v>
+        <v>11224</v>
       </c>
       <c r="B153" t="s">
         <v>145</v>
       </c>
       <c r="C153">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D153">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E153" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F153" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F153" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="G153" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I153" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>11225</v>
+        <v>11224</v>
       </c>
       <c r="B154" t="s">
         <v>145</v>
       </c>
       <c r="C154">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D154">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E154" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F154" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="F154" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="G154" t="s">
         <v>18</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I154" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>11226</v>
+        <v>11225</v>
       </c>
       <c r="B155" t="s">
         <v>145</v>
       </c>
       <c r="C155">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D155">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E155" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F155" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="F155" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="G155" t="s">
         <v>20</v>
@@ -5612,27 +5618,27 @@
         <v>6</v>
       </c>
       <c r="I155" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>11226</v>
+        <v>11225</v>
       </c>
       <c r="B156" t="s">
         <v>145</v>
       </c>
       <c r="C156">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D156">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E156" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F156" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="F156" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="G156" t="s">
         <v>11</v>
@@ -5641,27 +5647,27 @@
         <v>2</v>
       </c>
       <c r="I156" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>11226</v>
+        <v>11225</v>
       </c>
       <c r="B157" t="s">
         <v>145</v>
       </c>
       <c r="C157">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D157">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E157" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F157" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="F157" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="G157" t="s">
         <v>18</v>
@@ -5670,143 +5676,143 @@
         <v>2</v>
       </c>
       <c r="I157" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>11226</v>
+      </c>
+      <c r="B158" t="s">
+        <v>145</v>
+      </c>
+      <c r="C158">
+        <v>18</v>
+      </c>
+      <c r="D158">
+        <v>26</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G158" t="s">
+        <v>20</v>
+      </c>
+      <c r="H158">
+        <v>6</v>
+      </c>
+      <c r="I158" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A158">
-        <v>11314</v>
-      </c>
-      <c r="B158" t="s">
-        <v>157</v>
-      </c>
-      <c r="C158">
-        <v>-2</v>
-      </c>
-      <c r="D158">
-        <v>-9</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F158" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G158" t="s">
-        <v>159</v>
-      </c>
-      <c r="H158">
-        <v>4</v>
-      </c>
-      <c r="I158" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>11314</v>
+        <v>11226</v>
       </c>
       <c r="B159" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C159">
-        <v>-2</v>
+        <v>18</v>
       </c>
       <c r="D159">
-        <v>-9</v>
+        <v>26</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>162</v>
+        <v>24</v>
       </c>
       <c r="G159" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="H159">
         <v>2</v>
       </c>
       <c r="I159" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>11315</v>
+        <v>11226</v>
       </c>
       <c r="B160" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C160">
-        <v>-2</v>
+        <v>18</v>
       </c>
       <c r="D160">
-        <v>-8</v>
+        <v>26</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="G160" t="s">
-        <v>159</v>
+        <v>18</v>
       </c>
       <c r="H160">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I160" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>11316</v>
+        <v>11314</v>
       </c>
       <c r="B161" t="s">
         <v>157</v>
       </c>
       <c r="C161">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D161">
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G161" t="s">
         <v>159</v>
       </c>
       <c r="H161">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I161" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>11316</v>
+        <v>11314</v>
       </c>
       <c r="B162" t="s">
         <v>157</v>
       </c>
       <c r="C162">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D162">
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G162" t="s">
         <v>160</v>
@@ -5815,41 +5821,41 @@
         <v>2</v>
       </c>
       <c r="I162" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>11317</v>
+        <v>11315</v>
       </c>
       <c r="B163" t="s">
         <v>157</v>
       </c>
       <c r="C163">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D163">
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G163" t="s">
         <v>159</v>
       </c>
       <c r="H163">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I163" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>11318</v>
+        <v>11316</v>
       </c>
       <c r="B164" t="s">
         <v>157</v>
@@ -5858,114 +5864,114 @@
         <v>-1</v>
       </c>
       <c r="D164">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G164" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="H164">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I164" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>11319</v>
+        <v>11316</v>
       </c>
       <c r="B165" t="s">
         <v>157</v>
       </c>
       <c r="C165">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D165">
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="G165" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="H165">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I165" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>11319</v>
+        <v>11317</v>
       </c>
       <c r="B166" t="s">
         <v>157</v>
       </c>
       <c r="C166">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D166">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="G166" t="s">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I166" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>11319</v>
+        <v>11318</v>
       </c>
       <c r="B167" t="s">
         <v>157</v>
       </c>
       <c r="C167">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D167">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="E167" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F167" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F167" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="G167" t="s">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I167" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>11320</v>
+        <v>11319</v>
       </c>
       <c r="B168" t="s">
         <v>157</v>
@@ -5974,13 +5980,13 @@
         <v>0</v>
       </c>
       <c r="D168">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="E168" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F168" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="F168" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="G168" t="s">
         <v>10</v>
@@ -5992,9 +5998,9 @@
         <v>173</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>11320</v>
+        <v>11319</v>
       </c>
       <c r="B169" t="s">
         <v>157</v>
@@ -6003,13 +6009,13 @@
         <v>0</v>
       </c>
       <c r="D169">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="E169" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F169" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="F169" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="G169" t="s">
         <v>20</v>
@@ -6021,9 +6027,9 @@
         <v>173</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>11321</v>
+        <v>11319</v>
       </c>
       <c r="B170" t="s">
         <v>157</v>
@@ -6032,27 +6038,27 @@
         <v>0</v>
       </c>
       <c r="D170">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H170">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I170" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>11321</v>
+        <v>11320</v>
       </c>
       <c r="B171" t="s">
         <v>157</v>
@@ -6061,27 +6067,27 @@
         <v>0</v>
       </c>
       <c r="D171">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="E171" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F171" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F171" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="G171" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I171" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>11321</v>
+        <v>11320</v>
       </c>
       <c r="B172" t="s">
         <v>157</v>
@@ -6090,27 +6096,27 @@
         <v>0</v>
       </c>
       <c r="D172">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="E172" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F172" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F172" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="G172" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I172" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>11322</v>
+        <v>11321</v>
       </c>
       <c r="B173" t="s">
         <v>157</v>
@@ -6119,27 +6125,27 @@
         <v>0</v>
       </c>
       <c r="D173">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E173" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F173" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="F173" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="G173" t="s">
         <v>10</v>
       </c>
       <c r="H173">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I173" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>11322</v>
+        <v>11321</v>
       </c>
       <c r="B174" t="s">
         <v>157</v>
@@ -6148,27 +6154,27 @@
         <v>0</v>
       </c>
       <c r="D174">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E174" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F174" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="F174" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="G174" t="s">
         <v>20</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I174" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>11322</v>
+        <v>11321</v>
       </c>
       <c r="B175" t="s">
         <v>157</v>
@@ -6177,27 +6183,27 @@
         <v>0</v>
       </c>
       <c r="D175">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E175" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F175" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="F175" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="G175" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I175" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>11323</v>
+        <v>11322</v>
       </c>
       <c r="B176" t="s">
         <v>157</v>
@@ -6206,27 +6212,27 @@
         <v>0</v>
       </c>
       <c r="D176">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E176" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F176" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F176" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="G176" t="s">
         <v>10</v>
       </c>
       <c r="H176">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I176" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>11323</v>
+        <v>11322</v>
       </c>
       <c r="B177" t="s">
         <v>157</v>
@@ -6235,13 +6241,13 @@
         <v>0</v>
       </c>
       <c r="D177">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E177" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F177" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="F177" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="G177" t="s">
         <v>20</v>
@@ -6250,128 +6256,128 @@
         <v>2</v>
       </c>
       <c r="I177" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>11313</v>
+        <v>11322</v>
       </c>
       <c r="B178" t="s">
         <v>157</v>
       </c>
       <c r="C178">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D178">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G178" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="H178">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I178" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>11324</v>
+        <v>11323</v>
       </c>
       <c r="B179" t="s">
         <v>157</v>
       </c>
       <c r="C179">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D179">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G179" t="s">
         <v>10</v>
       </c>
       <c r="H179">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I179" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>11324</v>
+        <v>11323</v>
       </c>
       <c r="B180" t="s">
         <v>157</v>
       </c>
       <c r="C180">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D180">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G180" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H180">
         <v>2</v>
       </c>
       <c r="I180" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>11324</v>
+        <v>11313</v>
       </c>
       <c r="B181" t="s">
         <v>157</v>
       </c>
       <c r="C181">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D181">
+        <v>13</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G181" t="s">
+        <v>10</v>
+      </c>
+      <c r="H181">
+        <v>8</v>
+      </c>
+      <c r="I181" t="s">
         <v>14</v>
       </c>
-      <c r="E181" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F181" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="G181" t="s">
-        <v>18</v>
-      </c>
-      <c r="H181">
-        <v>2</v>
-      </c>
-      <c r="I181" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>11325</v>
+        <v>11324</v>
       </c>
       <c r="B182" t="s">
         <v>157</v>
@@ -6380,13 +6386,13 @@
         <v>11</v>
       </c>
       <c r="D182">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E182" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F182" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="F182" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="G182" t="s">
         <v>10</v>
@@ -6395,12 +6401,12 @@
         <v>5</v>
       </c>
       <c r="I182" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>11325</v>
+        <v>11324</v>
       </c>
       <c r="B183" t="s">
         <v>157</v>
@@ -6409,13 +6415,13 @@
         <v>11</v>
       </c>
       <c r="D183">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E183" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F183" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="F183" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="G183" t="s">
         <v>11</v>
@@ -6424,12 +6430,12 @@
         <v>2</v>
       </c>
       <c r="I183" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>11325</v>
+        <v>11324</v>
       </c>
       <c r="B184" t="s">
         <v>157</v>
@@ -6438,13 +6444,13 @@
         <v>11</v>
       </c>
       <c r="D184">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E184" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F184" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="F184" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="G184" t="s">
         <v>18</v>
@@ -6453,12 +6459,12 @@
         <v>2</v>
       </c>
       <c r="I184" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>11326</v>
+        <v>11325</v>
       </c>
       <c r="B185" t="s">
         <v>157</v>
@@ -6467,172 +6473,172 @@
         <v>11</v>
       </c>
       <c r="D185">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E185" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F185" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="F185" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="G185" t="s">
         <v>10</v>
       </c>
       <c r="H185">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I185" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>11327</v>
+        <v>11325</v>
       </c>
       <c r="B186" t="s">
         <v>157</v>
       </c>
       <c r="C186">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D186">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H186">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I186" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>11327</v>
+        <v>11325</v>
       </c>
       <c r="B187" t="s">
         <v>157</v>
       </c>
       <c r="C187">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D187">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G187" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H187">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I187" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>11328</v>
+        <v>11326</v>
       </c>
       <c r="B188" t="s">
         <v>157</v>
       </c>
       <c r="C188">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D188">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G188" t="s">
         <v>10</v>
       </c>
       <c r="H188">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I188" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>11328</v>
+        <v>11327</v>
       </c>
       <c r="B189" t="s">
         <v>157</v>
       </c>
       <c r="C189">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D189">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E189" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F189" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F189" s="1" t="s">
-        <v>190</v>
-      </c>
       <c r="G189" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H189">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I189" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>11329</v>
+        <v>11327</v>
       </c>
       <c r="B190" t="s">
         <v>157</v>
       </c>
       <c r="C190">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D190">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>240</v>
+        <v>188</v>
       </c>
       <c r="G190" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H190">
         <v>4</v>
       </c>
       <c r="I190" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>11329</v>
+        <v>11328</v>
       </c>
       <c r="B191" t="s">
         <v>157</v>
@@ -6641,143 +6647,143 @@
         <v>13</v>
       </c>
       <c r="D191">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E191" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F191" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F191" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="G191" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H191">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I191" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>11330</v>
+        <v>11328</v>
       </c>
       <c r="B192" t="s">
         <v>157</v>
       </c>
       <c r="C192">
+        <v>13</v>
+      </c>
+      <c r="D192">
+        <v>18</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G192" t="s">
+        <v>20</v>
+      </c>
+      <c r="H192">
+        <v>3</v>
+      </c>
+      <c r="I192" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>11329</v>
+      </c>
+      <c r="B193" t="s">
+        <v>157</v>
+      </c>
+      <c r="C193">
+        <v>13</v>
+      </c>
+      <c r="D193">
+        <v>19</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G193" t="s">
+        <v>10</v>
+      </c>
+      <c r="H193">
+        <v>4</v>
+      </c>
+      <c r="I193" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>11329</v>
+      </c>
+      <c r="B194" t="s">
+        <v>157</v>
+      </c>
+      <c r="C194">
+        <v>13</v>
+      </c>
+      <c r="D194">
+        <v>19</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G194" t="s">
+        <v>20</v>
+      </c>
+      <c r="H194">
+        <v>3</v>
+      </c>
+      <c r="I194" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>11330</v>
+      </c>
+      <c r="B195" t="s">
+        <v>157</v>
+      </c>
+      <c r="C195">
         <v>14</v>
       </c>
-      <c r="D192">
-        <v>20</v>
-      </c>
-      <c r="E192" s="1" t="s">
+      <c r="D195">
+        <v>20</v>
+      </c>
+      <c r="E195" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F192" s="1" t="s">
+      <c r="F195" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G192" t="s">
-        <v>20</v>
-      </c>
-      <c r="H192">
-        <v>7</v>
-      </c>
-      <c r="I192" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A193">
-        <v>11405</v>
-      </c>
-      <c r="B193" t="s">
-        <v>193</v>
-      </c>
-      <c r="C193">
-        <v>4</v>
-      </c>
-      <c r="D193">
-        <v>5</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F193" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G193" t="s">
-        <v>10</v>
-      </c>
-      <c r="H193">
-        <v>8</v>
-      </c>
-      <c r="I193" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A194">
-        <v>11405</v>
-      </c>
-      <c r="B194" t="s">
-        <v>193</v>
-      </c>
-      <c r="C194">
-        <v>4</v>
-      </c>
-      <c r="D194">
-        <v>5</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F194" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G194" t="s">
-        <v>20</v>
-      </c>
-      <c r="H194">
-        <v>2</v>
-      </c>
-      <c r="I194" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A195">
-        <v>11406</v>
-      </c>
-      <c r="B195" t="s">
-        <v>193</v>
-      </c>
-      <c r="C195">
-        <v>4</v>
-      </c>
-      <c r="D195">
-        <v>6</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F195" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="G195" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H195">
         <v>7</v>
       </c>
       <c r="I195" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>11406</v>
+        <v>11405</v>
       </c>
       <c r="B196" t="s">
         <v>193</v>
@@ -6786,172 +6792,172 @@
         <v>4</v>
       </c>
       <c r="D196">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E196" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F196" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F196" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="G196" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I196" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>11407</v>
+        <v>11405</v>
       </c>
       <c r="B197" t="s">
         <v>193</v>
       </c>
       <c r="C197">
+        <v>4</v>
+      </c>
+      <c r="D197">
         <v>5</v>
       </c>
-      <c r="D197">
-        <v>7</v>
-      </c>
       <c r="E197" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G197" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H197">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I197" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>11407</v>
+        <v>11406</v>
       </c>
       <c r="B198" t="s">
         <v>193</v>
       </c>
       <c r="C198">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D198">
+        <v>6</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G198" t="s">
+        <v>10</v>
+      </c>
+      <c r="H198">
         <v>7</v>
       </c>
-      <c r="E198" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F198" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="G198" t="s">
-        <v>11</v>
-      </c>
-      <c r="H198">
-        <v>2</v>
-      </c>
       <c r="I198" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>11408</v>
+        <v>11406</v>
       </c>
       <c r="B199" t="s">
         <v>193</v>
       </c>
       <c r="C199">
+        <v>4</v>
+      </c>
+      <c r="D199">
         <v>6</v>
       </c>
-      <c r="D199">
-        <v>8</v>
-      </c>
       <c r="E199" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G199" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H199">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I199" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>11408</v>
+        <v>11407</v>
       </c>
       <c r="B200" t="s">
         <v>193</v>
       </c>
       <c r="C200">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D200">
+        <v>7</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G200" t="s">
+        <v>10</v>
+      </c>
+      <c r="H200">
         <v>8</v>
       </c>
-      <c r="E200" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F200" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="G200" t="s">
-        <v>20</v>
-      </c>
-      <c r="H200">
-        <v>3</v>
-      </c>
       <c r="I200" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>11409</v>
+        <v>11407</v>
       </c>
       <c r="B201" t="s">
         <v>193</v>
       </c>
       <c r="C201">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D201">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H201">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I201" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>11409</v>
+        <v>11408</v>
       </c>
       <c r="B202" t="s">
         <v>193</v>
@@ -6960,390 +6966,390 @@
         <v>6</v>
       </c>
       <c r="D202">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E202" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F202" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F202" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="G202" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H202">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I202" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>11410</v>
+        <v>11408</v>
       </c>
       <c r="B203" t="s">
         <v>193</v>
       </c>
       <c r="C203">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D203">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>24</v>
+        <v>200</v>
       </c>
       <c r="G203" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H203">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I203" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>11410</v>
+        <v>11409</v>
       </c>
       <c r="B204" t="s">
         <v>193</v>
       </c>
       <c r="C204">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D204">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E204" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F204" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="F204" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G204" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I204" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>11410</v>
+        <v>11409</v>
       </c>
       <c r="B205" t="s">
         <v>193</v>
       </c>
       <c r="C205">
+        <v>6</v>
+      </c>
+      <c r="D205">
+        <v>9</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G205" t="s">
+        <v>20</v>
+      </c>
+      <c r="H205">
+        <v>3</v>
+      </c>
+      <c r="I205" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>11410</v>
+      </c>
+      <c r="B206" t="s">
+        <v>193</v>
+      </c>
+      <c r="C206">
         <v>7</v>
       </c>
-      <c r="D205">
-        <v>10</v>
-      </c>
-      <c r="E205" s="1" t="s">
+      <c r="D206">
+        <v>10</v>
+      </c>
+      <c r="E206" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="F205" s="1" t="s">
+      <c r="F206" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G205" t="s">
-        <v>20</v>
-      </c>
-      <c r="H205">
+      <c r="G206" t="s">
+        <v>10</v>
+      </c>
+      <c r="H206">
+        <v>8</v>
+      </c>
+      <c r="I206" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>11410</v>
+      </c>
+      <c r="B207" t="s">
+        <v>193</v>
+      </c>
+      <c r="C207">
+        <v>7</v>
+      </c>
+      <c r="D207">
+        <v>10</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G207" t="s">
+        <v>18</v>
+      </c>
+      <c r="H207">
         <v>2</v>
       </c>
-      <c r="I205" t="s">
+      <c r="I207" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A206">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>11410</v>
+      </c>
+      <c r="B208" t="s">
+        <v>193</v>
+      </c>
+      <c r="C208">
+        <v>7</v>
+      </c>
+      <c r="D208">
+        <v>10</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G208" t="s">
+        <v>20</v>
+      </c>
+      <c r="H208">
+        <v>2</v>
+      </c>
+      <c r="I208" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A209">
         <v>11506</v>
-      </c>
-      <c r="B206" t="s">
-        <v>205</v>
-      </c>
-      <c r="C206">
-        <v>4</v>
-      </c>
-      <c r="D206">
-        <v>6</v>
-      </c>
-      <c r="E206" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="F206" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G206" t="s">
-        <v>10</v>
-      </c>
-      <c r="H206">
-        <v>5</v>
-      </c>
-      <c r="I206" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A207">
-        <v>11506</v>
-      </c>
-      <c r="B207" t="s">
-        <v>205</v>
-      </c>
-      <c r="C207">
-        <v>4</v>
-      </c>
-      <c r="D207">
-        <v>6</v>
-      </c>
-      <c r="E207" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="F207" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G207" t="s">
-        <v>11</v>
-      </c>
-      <c r="H207">
-        <v>3</v>
-      </c>
-      <c r="I207" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A208">
-        <v>11507</v>
-      </c>
-      <c r="B208" t="s">
-        <v>205</v>
-      </c>
-      <c r="C208">
-        <v>5</v>
-      </c>
-      <c r="D208">
-        <v>7</v>
-      </c>
-      <c r="E208" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F208" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G208" t="s">
-        <v>10</v>
-      </c>
-      <c r="H208">
-        <v>6</v>
-      </c>
-      <c r="I208" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A209">
-        <v>11507</v>
       </c>
       <c r="B209" t="s">
         <v>205</v>
       </c>
       <c r="C209">
+        <v>4</v>
+      </c>
+      <c r="D209">
+        <v>6</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G209" t="s">
+        <v>10</v>
+      </c>
+      <c r="H209">
         <v>5</v>
       </c>
-      <c r="D209">
-        <v>7</v>
-      </c>
-      <c r="E209" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F209" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G209" t="s">
-        <v>20</v>
-      </c>
-      <c r="H209">
-        <v>4</v>
-      </c>
       <c r="I209" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>11508</v>
+        <v>11506</v>
       </c>
       <c r="B210" t="s">
         <v>205</v>
       </c>
       <c r="C210">
+        <v>4</v>
+      </c>
+      <c r="D210">
         <v>6</v>
       </c>
-      <c r="D210">
-        <v>8</v>
-      </c>
       <c r="E210" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G210" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H210">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I210" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>11508</v>
+        <v>11507</v>
       </c>
       <c r="B211" t="s">
         <v>205</v>
       </c>
       <c r="C211">
+        <v>5</v>
+      </c>
+      <c r="D211">
+        <v>7</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G211" t="s">
+        <v>10</v>
+      </c>
+      <c r="H211">
         <v>6</v>
       </c>
-      <c r="D211">
-        <v>8</v>
-      </c>
-      <c r="E211" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F211" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="G211" t="s">
-        <v>20</v>
-      </c>
-      <c r="H211">
-        <v>4</v>
-      </c>
       <c r="I211" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>11509</v>
+        <v>11507</v>
       </c>
       <c r="B212" t="s">
         <v>205</v>
       </c>
       <c r="C212">
+        <v>5</v>
+      </c>
+      <c r="D212">
         <v>7</v>
       </c>
-      <c r="D212">
-        <v>9</v>
-      </c>
       <c r="E212" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="G212" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H212">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I212" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>11509</v>
+        <v>11508</v>
       </c>
       <c r="B213" t="s">
         <v>205</v>
       </c>
       <c r="C213">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D213">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E213" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F213" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="F213" s="1" t="s">
-        <v>237</v>
-      </c>
       <c r="G213" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I213" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>11509</v>
+        <v>11508</v>
       </c>
       <c r="B214" t="s">
         <v>205</v>
       </c>
       <c r="C214">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D214">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E214" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F214" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="F214" s="1" t="s">
-        <v>237</v>
-      </c>
       <c r="G214" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I214" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>11510</v>
+        <v>11509</v>
       </c>
       <c r="B215" t="s">
         <v>205</v>
       </c>
       <c r="C215">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D215">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E215" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F215" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="F215" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="G215" t="s">
         <v>10</v>
@@ -7352,27 +7358,27 @@
         <v>7</v>
       </c>
       <c r="I215" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>11510</v>
+        <v>11509</v>
       </c>
       <c r="B216" t="s">
         <v>205</v>
       </c>
       <c r="C216">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D216">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E216" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F216" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="F216" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="G216" t="s">
         <v>20</v>
@@ -7381,288 +7387,288 @@
         <v>2</v>
       </c>
       <c r="I216" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>11510</v>
+        <v>11509</v>
       </c>
       <c r="B217" t="s">
         <v>205</v>
       </c>
       <c r="C217">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D217">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E217" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F217" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F217" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G217" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H217">
         <v>1</v>
       </c>
       <c r="I217" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>11510</v>
+      </c>
+      <c r="B218" t="s">
+        <v>205</v>
+      </c>
+      <c r="C218">
+        <v>8</v>
+      </c>
+      <c r="D218">
+        <v>10</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G218" t="s">
+        <v>10</v>
+      </c>
+      <c r="H218">
+        <v>7</v>
+      </c>
+      <c r="I218" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A218">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>11510</v>
+      </c>
+      <c r="B219" t="s">
+        <v>205</v>
+      </c>
+      <c r="C219">
+        <v>8</v>
+      </c>
+      <c r="D219">
+        <v>10</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G219" t="s">
+        <v>20</v>
+      </c>
+      <c r="H219">
+        <v>2</v>
+      </c>
+      <c r="I219" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>11510</v>
+      </c>
+      <c r="B220" t="s">
+        <v>205</v>
+      </c>
+      <c r="C220">
+        <v>8</v>
+      </c>
+      <c r="D220">
+        <v>10</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G220" t="s">
+        <v>11</v>
+      </c>
+      <c r="H220">
+        <v>1</v>
+      </c>
+      <c r="I220" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A221">
         <v>11626</v>
-      </c>
-      <c r="B218" t="s">
-        <v>213</v>
-      </c>
-      <c r="C218">
-        <v>16</v>
-      </c>
-      <c r="D218">
-        <v>26</v>
-      </c>
-      <c r="E218" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F218" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="G218" t="s">
-        <v>10</v>
-      </c>
-      <c r="H218">
-        <v>5</v>
-      </c>
-      <c r="I218" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A219">
-        <v>11626</v>
-      </c>
-      <c r="B219" t="s">
-        <v>213</v>
-      </c>
-      <c r="C219">
-        <v>16</v>
-      </c>
-      <c r="D219">
-        <v>26</v>
-      </c>
-      <c r="E219" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F219" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="G219" t="s">
-        <v>20</v>
-      </c>
-      <c r="H219">
-        <v>3</v>
-      </c>
-      <c r="I219" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A220">
-        <v>11627</v>
-      </c>
-      <c r="B220" t="s">
-        <v>213</v>
-      </c>
-      <c r="C220">
-        <v>17</v>
-      </c>
-      <c r="D220">
-        <v>27</v>
-      </c>
-      <c r="E220" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="F220" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="G220" t="s">
-        <v>10</v>
-      </c>
-      <c r="H220">
-        <v>5</v>
-      </c>
-      <c r="I220" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A221">
-        <v>11627</v>
       </c>
       <c r="B221" t="s">
         <v>213</v>
       </c>
       <c r="C221">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D221">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E221" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F221" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="F221" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="G221" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H221">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I221" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>11628</v>
+        <v>11626</v>
       </c>
       <c r="B222" t="s">
         <v>213</v>
       </c>
       <c r="C222">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D222">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>215</v>
+        <v>9</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G222" t="s">
         <v>20</v>
       </c>
       <c r="H222">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I222" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>11628</v>
+        <v>11627</v>
       </c>
       <c r="B223" t="s">
         <v>213</v>
       </c>
       <c r="C223">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D223">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E223" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F223" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F223" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="G223" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I223" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>11628</v>
+        <v>11627</v>
       </c>
       <c r="B224" t="s">
         <v>213</v>
       </c>
       <c r="C224">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D224">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E224" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F224" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F224" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="G224" t="s">
-        <v>218</v>
+        <v>11</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I224" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>11629</v>
+        <v>11628</v>
       </c>
       <c r="B225" t="s">
         <v>213</v>
       </c>
       <c r="C225">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D225">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E225" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F225" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F225" s="1" t="s">
-        <v>243</v>
-      </c>
       <c r="G225" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H225">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I225" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>11629</v>
+        <v>11628</v>
       </c>
       <c r="B226" t="s">
         <v>213</v>
       </c>
       <c r="C226">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D226">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E226" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F226" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="F226" s="1" t="s">
-        <v>243</v>
       </c>
       <c r="G226" t="s">
         <v>18</v>
@@ -7671,360 +7677,360 @@
         <v>2</v>
       </c>
       <c r="I226" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>11629</v>
+        <v>11628</v>
       </c>
       <c r="B227" t="s">
         <v>213</v>
       </c>
       <c r="C227">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D227">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E227" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F227" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F227" s="1" t="s">
-        <v>243</v>
-      </c>
       <c r="G227" t="s">
-        <v>11</v>
+        <v>218</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I227" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>11630</v>
+        <v>11629</v>
       </c>
       <c r="B228" t="s">
         <v>213</v>
       </c>
       <c r="C228">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D228">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E228" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F228" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="F228" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G228" t="s">
         <v>10</v>
       </c>
       <c r="H228">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I228" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>11630</v>
+        <v>11629</v>
       </c>
       <c r="B229" t="s">
         <v>213</v>
       </c>
       <c r="C229">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D229">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E229" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F229" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="F229" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="G229" t="s">
         <v>18</v>
       </c>
       <c r="H229">
+        <v>2</v>
+      </c>
+      <c r="I229" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>11629</v>
+      </c>
+      <c r="B230" t="s">
+        <v>213</v>
+      </c>
+      <c r="C230">
+        <v>19</v>
+      </c>
+      <c r="D230">
+        <v>29</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G230" t="s">
+        <v>11</v>
+      </c>
+      <c r="H230">
+        <v>2</v>
+      </c>
+      <c r="I230" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>11630</v>
+      </c>
+      <c r="B231" t="s">
+        <v>213</v>
+      </c>
+      <c r="C231">
+        <v>20</v>
+      </c>
+      <c r="D231">
+        <v>30</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G231" t="s">
+        <v>10</v>
+      </c>
+      <c r="H231">
+        <v>7</v>
+      </c>
+      <c r="I231" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>11630</v>
+      </c>
+      <c r="B232" t="s">
+        <v>213</v>
+      </c>
+      <c r="C232">
+        <v>20</v>
+      </c>
+      <c r="D232">
+        <v>30</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G232" t="s">
+        <v>18</v>
+      </c>
+      <c r="H232">
         <v>3</v>
       </c>
-      <c r="I229" t="s">
+      <c r="I232" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A230">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A233">
         <v>11706</v>
-      </c>
-      <c r="B230" t="s">
-        <v>221</v>
-      </c>
-      <c r="C230">
-        <v>4</v>
-      </c>
-      <c r="D230">
-        <v>6</v>
-      </c>
-      <c r="E230" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F230" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="G230" t="s">
-        <v>10</v>
-      </c>
-      <c r="H230">
-        <v>10</v>
-      </c>
-      <c r="I230" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A231">
-        <v>11707</v>
-      </c>
-      <c r="B231" t="s">
-        <v>221</v>
-      </c>
-      <c r="C231">
-        <v>5</v>
-      </c>
-      <c r="D231">
-        <v>7</v>
-      </c>
-      <c r="E231" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="F231" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="G231" t="s">
-        <v>10</v>
-      </c>
-      <c r="H231">
-        <v>6</v>
-      </c>
-      <c r="I231" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A232">
-        <v>11707</v>
-      </c>
-      <c r="B232" t="s">
-        <v>221</v>
-      </c>
-      <c r="C232">
-        <v>5</v>
-      </c>
-      <c r="D232">
-        <v>7</v>
-      </c>
-      <c r="E232" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="F232" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="G232" t="s">
-        <v>20</v>
-      </c>
-      <c r="H232">
-        <v>4</v>
-      </c>
-      <c r="I232" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A233">
-        <v>11708</v>
       </c>
       <c r="B233" t="s">
         <v>221</v>
       </c>
       <c r="C233">
+        <v>4</v>
+      </c>
+      <c r="D233">
         <v>6</v>
       </c>
-      <c r="D233">
-        <v>8</v>
-      </c>
       <c r="E233" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G233" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="H233">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I233" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>11708</v>
+        <v>11707</v>
       </c>
       <c r="B234" t="s">
         <v>221</v>
       </c>
       <c r="C234">
+        <v>5</v>
+      </c>
+      <c r="D234">
+        <v>7</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G234" t="s">
+        <v>10</v>
+      </c>
+      <c r="H234">
         <v>6</v>
       </c>
-      <c r="D234">
-        <v>8</v>
-      </c>
-      <c r="E234" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F234" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G234" t="s">
-        <v>20</v>
-      </c>
-      <c r="H234">
-        <v>3</v>
-      </c>
       <c r="I234" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>11708</v>
+        <v>11707</v>
       </c>
       <c r="B235" t="s">
         <v>221</v>
       </c>
       <c r="C235">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D235">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E235" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F235" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="F235" s="1" t="s">
-        <v>226</v>
-      </c>
       <c r="G235" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I235" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>11709</v>
+        <v>11708</v>
       </c>
       <c r="B236" t="s">
         <v>221</v>
       </c>
       <c r="C236">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D236">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E236" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F236" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="F236" s="1" t="s">
-        <v>228</v>
-      </c>
       <c r="G236" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I236" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>11710</v>
+        <v>11708</v>
       </c>
       <c r="B237" t="s">
         <v>221</v>
       </c>
       <c r="C237">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D237">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>24</v>
+        <v>226</v>
       </c>
       <c r="G237" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="H237">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I237" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>11710</v>
+        <v>11708</v>
       </c>
       <c r="B238" t="s">
         <v>221</v>
       </c>
       <c r="C238">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D238">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>24</v>
+        <v>226</v>
       </c>
       <c r="G238" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H238">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I238" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>11710</v>
+        <v>11709</v>
       </c>
       <c r="B239" t="s">
         <v>221</v>
@@ -8033,21 +8039,108 @@
         <v>7</v>
       </c>
       <c r="D239">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E239" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F239" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="F239" s="1" t="s">
+      <c r="G239" t="s">
+        <v>11</v>
+      </c>
+      <c r="H239">
+        <v>1</v>
+      </c>
+      <c r="I239" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>11710</v>
+      </c>
+      <c r="B240" t="s">
+        <v>221</v>
+      </c>
+      <c r="C240">
+        <v>7</v>
+      </c>
+      <c r="D240">
+        <v>10</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F240" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G239" t="s">
+      <c r="G240" t="s">
+        <v>53</v>
+      </c>
+      <c r="H240">
+        <v>4</v>
+      </c>
+      <c r="I240" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>11710</v>
+      </c>
+      <c r="B241" t="s">
+        <v>221</v>
+      </c>
+      <c r="C241">
+        <v>7</v>
+      </c>
+      <c r="D241">
+        <v>10</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G241" t="s">
+        <v>20</v>
+      </c>
+      <c r="H241">
+        <v>3</v>
+      </c>
+      <c r="I241" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>11710</v>
+      </c>
+      <c r="B242" t="s">
+        <v>221</v>
+      </c>
+      <c r="C242">
+        <v>7</v>
+      </c>
+      <c r="D242">
+        <v>10</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G242" t="s">
         <v>18</v>
       </c>
-      <c r="H239">
+      <c r="H242">
         <v>2</v>
       </c>
-      <c r="I239" t="s">
+      <c r="I242" t="s">
         <v>227</v>
       </c>
     </row>

--- a/inst/extdata/additional_govdata.xlsx
+++ b/inst/extdata/additional_govdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Desktop\add\bundeslaendeR\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DE5BB2-E9E2-44E8-B930-E6ADCE282CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A340BBD0-397D-480E-8F25-0423DAAFAD3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="254">
   <si>
     <t>gov_id</t>
   </si>
@@ -790,6 +790,12 @@
   </si>
   <si>
     <t>https://de.wikipedia.org/wiki/Senat_Bovenschulte_II</t>
+  </si>
+  <si>
+    <t>2023-10-31</t>
+  </si>
+  <si>
+    <t>https://de.wikipedia.org/wiki/Kabinett_S%C3%B6der_III</t>
   </si>
 </sst>
 </file>
@@ -1108,11 +1114,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I242"/>
+  <dimension ref="A1:I244"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G76" sqref="G76"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1694,7 +1700,7 @@
         <v>36</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>24</v>
+        <v>252</v>
       </c>
       <c r="G20" t="s">
         <v>29</v>
@@ -1723,7 +1729,7 @@
         <v>36</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>24</v>
+        <v>252</v>
       </c>
       <c r="G21" t="s">
         <v>38</v>
@@ -1737,60 +1743,60 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>10425</v>
+        <v>10326</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C22">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="D22">
-        <v>-3</v>
+        <v>26</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>42</v>
+        <v>252</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="G22" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="H22">
         <v>11</v>
       </c>
       <c r="I22" t="s">
-        <v>41</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>10425</v>
+        <v>10326</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C23">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="D23">
-        <v>-3</v>
+        <v>26</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>42</v>
+        <v>252</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="G23" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="H23">
         <v>4</v>
       </c>
       <c r="I23" t="s">
-        <v>41</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1813,10 +1819,10 @@
         <v>43</v>
       </c>
       <c r="G24" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I24" t="s">
         <v>41</v>
@@ -1842,10 +1848,10 @@
         <v>43</v>
       </c>
       <c r="G25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I25" t="s">
         <v>41</v>
@@ -1853,7 +1859,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>10426</v>
+        <v>10425</v>
       </c>
       <c r="B26" t="s">
         <v>40</v>
@@ -1862,27 +1868,27 @@
         <v>-1</v>
       </c>
       <c r="D26">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="E26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="G26" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="H26">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I26" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>10426</v>
+        <v>10425</v>
       </c>
       <c r="B27" t="s">
         <v>40</v>
@@ -1891,22 +1897,22 @@
         <v>-1</v>
       </c>
       <c r="D27">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="E27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="G27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I27" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1929,10 +1935,10 @@
         <v>45</v>
       </c>
       <c r="G28" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I28" t="s">
         <v>46</v>
@@ -1958,10 +1964,10 @@
         <v>45</v>
       </c>
       <c r="G29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I29" t="s">
         <v>46</v>
@@ -1969,7 +1975,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>10427</v>
+        <v>10426</v>
       </c>
       <c r="B30" t="s">
         <v>40</v>
@@ -1978,27 +1984,27 @@
         <v>-1</v>
       </c>
       <c r="D30">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="G30" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="H30">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>10427</v>
+        <v>10426</v>
       </c>
       <c r="B31" t="s">
         <v>40</v>
@@ -2007,22 +2013,22 @@
         <v>-1</v>
       </c>
       <c r="D31">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="G31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -2045,10 +2051,10 @@
         <v>47</v>
       </c>
       <c r="G32" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I32" t="s">
         <v>48</v>
@@ -2074,10 +2080,10 @@
         <v>47</v>
       </c>
       <c r="G33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I33" t="s">
         <v>48</v>
@@ -2085,60 +2091,60 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>10428</v>
+        <v>10427</v>
       </c>
       <c r="B34" t="s">
         <v>40</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="G34" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="H34">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I34" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>10428</v>
+        <v>10427</v>
       </c>
       <c r="B35" t="s">
         <v>40</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="G35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -2161,10 +2167,10 @@
         <v>49</v>
       </c>
       <c r="G36" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I36" t="s">
         <v>50</v>
@@ -2172,181 +2178,181 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>10424</v>
+        <v>10428</v>
       </c>
       <c r="B37" t="s">
         <v>40</v>
       </c>
       <c r="C37">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G37" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="H37">
         <v>3</v>
       </c>
       <c r="I37" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>10424</v>
+        <v>10428</v>
       </c>
       <c r="B38" t="s">
         <v>40</v>
       </c>
       <c r="C38">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G38" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H38">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>10429</v>
+        <v>10424</v>
       </c>
       <c r="B39" t="s">
         <v>40</v>
       </c>
       <c r="C39">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D39">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="G39" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="H39">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I39" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>10429</v>
+        <v>10424</v>
       </c>
       <c r="B40" t="s">
         <v>40</v>
       </c>
       <c r="C40">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D40">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E40" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="G40" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I40" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>10430</v>
+        <v>10429</v>
       </c>
       <c r="B41" t="s">
         <v>40</v>
       </c>
       <c r="C41">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D41">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="G41" t="s">
         <v>20</v>
       </c>
       <c r="H41">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I41" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>10430</v>
+        <v>10429</v>
       </c>
       <c r="B42" t="s">
         <v>40</v>
       </c>
       <c r="C42">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D42">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="G42" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="H42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>10431</v>
+        <v>10430</v>
       </c>
       <c r="B43" t="s">
         <v>40</v>
@@ -2355,13 +2361,13 @@
         <v>17</v>
       </c>
       <c r="D43">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="G43" t="s">
         <v>20</v>
@@ -2370,12 +2376,12 @@
         <v>5</v>
       </c>
       <c r="I43" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>10431</v>
+        <v>10430</v>
       </c>
       <c r="B44" t="s">
         <v>40</v>
@@ -2384,13 +2390,13 @@
         <v>17</v>
       </c>
       <c r="D44">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E44" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -2399,27 +2405,27 @@
         <v>4</v>
       </c>
       <c r="I44" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>10432</v>
+        <v>10431</v>
       </c>
       <c r="B45" t="s">
         <v>40</v>
       </c>
       <c r="C45">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D45">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="G45" t="s">
         <v>20</v>
@@ -2428,36 +2434,36 @@
         <v>5</v>
       </c>
       <c r="I45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>10432</v>
+        <v>10431</v>
       </c>
       <c r="B46" t="s">
         <v>40</v>
       </c>
       <c r="C46">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D46">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E46" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="G46" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -2480,10 +2486,10 @@
         <v>231</v>
       </c>
       <c r="G47" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="H47">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I47" t="s">
         <v>60</v>
@@ -2491,60 +2497,60 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>10433</v>
+        <v>10432</v>
       </c>
       <c r="B48" t="s">
         <v>40</v>
       </c>
       <c r="C48">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D48">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E48" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G48" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I48" t="s">
-        <v>232</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>10433</v>
+        <v>10432</v>
       </c>
       <c r="B49" t="s">
         <v>40</v>
       </c>
       <c r="C49">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D49">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E49" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>248</v>
-      </c>
       <c r="G49" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="H49">
         <v>3</v>
       </c>
       <c r="I49" t="s">
-        <v>232</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -2564,13 +2570,13 @@
         <v>231</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>248</v>
+        <v>24</v>
       </c>
       <c r="G50" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="H50">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I50" t="s">
         <v>232</v>
@@ -2578,181 +2584,181 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>10434</v>
+        <v>10433</v>
       </c>
       <c r="B51" t="s">
         <v>40</v>
       </c>
       <c r="C51">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D51">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E51" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G51" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I51" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>10434</v>
+        <v>10433</v>
       </c>
       <c r="B52" t="s">
         <v>40</v>
       </c>
       <c r="C52">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D52">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E52" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G52" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="H52">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I52" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>10506</v>
+        <v>10434</v>
       </c>
       <c r="B53" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C53">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D53">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>62</v>
+        <v>248</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="G53" t="s">
         <v>10</v>
       </c>
       <c r="H53">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I53" t="s">
-        <v>14</v>
+        <v>249</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>10506</v>
+        <v>10434</v>
       </c>
       <c r="B54" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C54">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D54">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>62</v>
+        <v>248</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="G54" t="s">
         <v>20</v>
       </c>
       <c r="H54">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I54" t="s">
-        <v>14</v>
+        <v>249</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>10507</v>
+        <v>10506</v>
       </c>
       <c r="B55" t="s">
         <v>61</v>
       </c>
       <c r="C55">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E55" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="G55" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H55">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I55" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>10507</v>
+        <v>10506</v>
       </c>
       <c r="B56" t="s">
         <v>61</v>
       </c>
       <c r="C56">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E56" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="G56" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="H56">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I56" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>10508</v>
+        <v>10507</v>
       </c>
       <c r="B57" t="s">
         <v>61</v>
@@ -2761,13 +2767,13 @@
         <v>5</v>
       </c>
       <c r="D57">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E57" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="G57" t="s">
         <v>20</v>
@@ -2776,12 +2782,12 @@
         <v>6</v>
       </c>
       <c r="I57" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>10508</v>
+        <v>10507</v>
       </c>
       <c r="B58" t="s">
         <v>61</v>
@@ -2790,13 +2796,13 @@
         <v>5</v>
       </c>
       <c r="D58">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="G58" t="s">
         <v>53</v>
@@ -2805,123 +2811,123 @@
         <v>4</v>
       </c>
       <c r="I58" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>10509</v>
+        <v>10508</v>
       </c>
       <c r="B59" t="s">
         <v>61</v>
       </c>
       <c r="C59">
+        <v>5</v>
+      </c>
+      <c r="D59">
+        <v>8</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G59" t="s">
+        <v>20</v>
+      </c>
+      <c r="H59">
         <v>6</v>
       </c>
-      <c r="D59">
-        <v>9</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G59" t="s">
-        <v>20</v>
-      </c>
-      <c r="H59">
-        <v>7</v>
-      </c>
       <c r="I59" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>10509</v>
+        <v>10508</v>
       </c>
       <c r="B60" t="s">
         <v>61</v>
       </c>
       <c r="C60">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D60">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E60" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F60" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="G60" t="s">
         <v>53</v>
       </c>
       <c r="H60">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I60" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>10510</v>
+        <v>10509</v>
       </c>
       <c r="B61" t="s">
         <v>61</v>
       </c>
       <c r="C61">
+        <v>6</v>
+      </c>
+      <c r="D61">
+        <v>9</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G61" t="s">
+        <v>20</v>
+      </c>
+      <c r="H61">
         <v>7</v>
       </c>
-      <c r="D61">
-        <v>10</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G61" t="s">
-        <v>20</v>
-      </c>
-      <c r="H61">
-        <v>6</v>
-      </c>
       <c r="I61" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>10510</v>
+        <v>10509</v>
       </c>
       <c r="B62" t="s">
         <v>61</v>
       </c>
       <c r="C62">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D62">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E62" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F62" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G62" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="H62">
         <v>3</v>
       </c>
       <c r="I62" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -2944,10 +2950,10 @@
         <v>24</v>
       </c>
       <c r="G63" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I63" t="s">
         <v>69</v>
@@ -2955,60 +2961,60 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>10620</v>
+        <v>10510</v>
       </c>
       <c r="B64" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D64">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="G64" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H64">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I64" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>10620</v>
+        <v>10510</v>
       </c>
       <c r="B65" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D65">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="G65" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I65" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -3031,10 +3037,10 @@
         <v>75</v>
       </c>
       <c r="G66" t="s">
-        <v>230</v>
+        <v>20</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I66" t="s">
         <v>71</v>
@@ -3042,7 +3048,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>10621</v>
+        <v>10620</v>
       </c>
       <c r="B67" t="s">
         <v>72</v>
@@ -3051,19 +3057,19 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E67" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F67" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="G67" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H67">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I67" t="s">
         <v>71</v>
@@ -3071,7 +3077,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>10621</v>
+        <v>10620</v>
       </c>
       <c r="B68" t="s">
         <v>72</v>
@@ -3080,19 +3086,19 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E68" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F68" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F68" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="G68" t="s">
-        <v>11</v>
+        <v>230</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="s">
         <v>71</v>
@@ -3100,65 +3106,65 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>10619</v>
+        <v>10621</v>
       </c>
       <c r="B69" t="s">
         <v>72</v>
       </c>
       <c r="C69">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D69">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G69" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H69">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I69" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>10619</v>
+        <v>10621</v>
       </c>
       <c r="B70" t="s">
         <v>72</v>
       </c>
       <c r="C70">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G70" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H70">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I70" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>10622</v>
+        <v>10619</v>
       </c>
       <c r="B71" t="s">
         <v>72</v>
@@ -3167,13 +3173,13 @@
         <v>15</v>
       </c>
       <c r="D71">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E71" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="G71" t="s">
         <v>10</v>
@@ -3182,12 +3188,12 @@
         <v>4</v>
       </c>
       <c r="I71" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>10622</v>
+        <v>10619</v>
       </c>
       <c r="B72" t="s">
         <v>72</v>
@@ -3196,187 +3202,187 @@
         <v>15</v>
       </c>
       <c r="D72">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E72" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F72" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="G72" t="s">
         <v>20</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I72" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>10623</v>
+        <v>10622</v>
       </c>
       <c r="B73" t="s">
         <v>72</v>
       </c>
       <c r="C73">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D73">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E73" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F73" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="G73" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H73">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I73" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>10623</v>
+        <v>10622</v>
       </c>
       <c r="B74" t="s">
         <v>72</v>
       </c>
       <c r="C74">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D74">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E74" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F74" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="G74" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I74" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>10624</v>
+        <v>10623</v>
       </c>
       <c r="B75" t="s">
         <v>72</v>
       </c>
       <c r="C75">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D75">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E75" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F75" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F75" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="G75" t="s">
         <v>20</v>
       </c>
       <c r="H75">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I75" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>10624</v>
+        <v>10623</v>
       </c>
       <c r="B76" t="s">
         <v>72</v>
       </c>
       <c r="C76">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D76">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E76" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="G76" t="s">
         <v>18</v>
       </c>
       <c r="H76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I76" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>10625</v>
+        <v>10624</v>
       </c>
       <c r="B77" t="s">
         <v>72</v>
       </c>
       <c r="C77">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D77">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E77" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F77" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="G77" t="s">
         <v>20</v>
       </c>
       <c r="H77">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I77" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>10625</v>
+        <v>10624</v>
       </c>
       <c r="B78" t="s">
         <v>72</v>
       </c>
       <c r="C78">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D78">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E78" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F78" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="G78" t="s">
         <v>18</v>
@@ -3385,56 +3391,56 @@
         <v>3</v>
       </c>
       <c r="I78" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>10626</v>
+        <v>10625</v>
       </c>
       <c r="B79" t="s">
         <v>72</v>
       </c>
       <c r="C79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E79" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F79" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F79" s="1" t="s">
-        <v>250</v>
-      </c>
       <c r="G79" t="s">
         <v>20</v>
       </c>
       <c r="H79">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I79" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>10626</v>
+        <v>10625</v>
       </c>
       <c r="B80" t="s">
         <v>72</v>
       </c>
       <c r="C80">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D80">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E80" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F80" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="G80" t="s">
         <v>18</v>
@@ -3443,7 +3449,7 @@
         <v>3</v>
       </c>
       <c r="I80" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -3466,10 +3472,10 @@
         <v>250</v>
       </c>
       <c r="G81" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I81" t="s">
         <v>86</v>
@@ -3477,60 +3483,60 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>10627</v>
+        <v>10626</v>
       </c>
       <c r="B82" t="s">
         <v>72</v>
       </c>
       <c r="C82">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D82">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E82" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F82" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="F82" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G82" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H82">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I82" t="s">
-        <v>251</v>
+        <v>86</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>10627</v>
+        <v>10626</v>
       </c>
       <c r="B83" t="s">
         <v>72</v>
       </c>
       <c r="C83">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D83">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E83" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F83" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="F83" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G83" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="H83">
         <v>2</v>
       </c>
       <c r="I83" t="s">
-        <v>251</v>
+        <v>86</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -3553,10 +3559,10 @@
         <v>24</v>
       </c>
       <c r="G84" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I84" t="s">
         <v>251</v>
@@ -3564,123 +3570,123 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>10720</v>
+        <v>10627</v>
       </c>
       <c r="B85" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C85">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D85">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>88</v>
+        <v>250</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="G85" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H85">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I85" t="s">
-        <v>14</v>
+        <v>251</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>10721</v>
+        <v>10627</v>
       </c>
       <c r="B86" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C86">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D86">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>92</v>
+        <v>250</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="G86" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="H86">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I86" t="s">
-        <v>93</v>
+        <v>251</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>10722</v>
+        <v>10720</v>
       </c>
       <c r="B87" t="s">
         <v>87</v>
       </c>
       <c r="C87">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D87">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G87" t="s">
         <v>10</v>
       </c>
       <c r="H87">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I87" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>10722</v>
+        <v>10721</v>
       </c>
       <c r="B88" t="s">
         <v>87</v>
       </c>
       <c r="C88">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D88">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E88" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F88" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F88" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="G88" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H88">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I88" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>10723</v>
+        <v>10722</v>
       </c>
       <c r="B89" t="s">
         <v>87</v>
@@ -3689,13 +3695,13 @@
         <v>18</v>
       </c>
       <c r="D89">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E89" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F89" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="G89" t="s">
         <v>10</v>
@@ -3704,12 +3710,12 @@
         <v>8</v>
       </c>
       <c r="I89" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>10723</v>
+        <v>10722</v>
       </c>
       <c r="B90" t="s">
         <v>87</v>
@@ -3718,13 +3724,13 @@
         <v>18</v>
       </c>
       <c r="D90">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E90" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F90" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="G90" t="s">
         <v>11</v>
@@ -3733,128 +3739,128 @@
         <v>4</v>
       </c>
       <c r="I90" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>10724</v>
+        <v>10723</v>
       </c>
       <c r="B91" t="s">
         <v>87</v>
       </c>
       <c r="C91">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D91">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E91" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F91" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F91" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="G91" t="s">
         <v>10</v>
       </c>
       <c r="H91">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I91" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>10724</v>
+        <v>10723</v>
       </c>
       <c r="B92" t="s">
         <v>87</v>
       </c>
       <c r="C92">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D92">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E92" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F92" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F92" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="G92" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I92" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>10725</v>
+        <v>10724</v>
       </c>
       <c r="B93" t="s">
         <v>87</v>
       </c>
       <c r="C93">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D93">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E93" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F93" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F93" s="1" t="s">
-        <v>241</v>
-      </c>
       <c r="G93" t="s">
         <v>10</v>
       </c>
       <c r="H93">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I93" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>10725</v>
+        <v>10724</v>
       </c>
       <c r="B94" t="s">
         <v>87</v>
       </c>
       <c r="C94">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D94">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E94" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F94" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>241</v>
       </c>
       <c r="G94" t="s">
         <v>18</v>
       </c>
       <c r="H94">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>10726</v>
+        <v>10725</v>
       </c>
       <c r="B95" t="s">
         <v>87</v>
@@ -3863,13 +3869,13 @@
         <v>20</v>
       </c>
       <c r="D95">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E95" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F95" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="G95" t="s">
         <v>10</v>
@@ -3878,12 +3884,12 @@
         <v>8</v>
       </c>
       <c r="I95" t="s">
-        <v>242</v>
+        <v>98</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>10726</v>
+        <v>10725</v>
       </c>
       <c r="B96" t="s">
         <v>87</v>
@@ -3892,13 +3898,13 @@
         <v>20</v>
       </c>
       <c r="D96">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E96" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F96" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="G96" t="s">
         <v>18</v>
@@ -3907,99 +3913,99 @@
         <v>4</v>
       </c>
       <c r="I96" t="s">
-        <v>242</v>
+        <v>98</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>10826</v>
+        <v>10726</v>
       </c>
       <c r="B97" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C97">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D97">
         <v>26</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>100</v>
+        <v>241</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="G97" t="s">
         <v>10</v>
       </c>
       <c r="H97">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I97" t="s">
-        <v>14</v>
+        <v>242</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>10827</v>
+        <v>10726</v>
       </c>
       <c r="B98" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C98">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D98">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>102</v>
+        <v>241</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="G98" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H98">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I98" t="s">
-        <v>101</v>
+        <v>242</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>10827</v>
+        <v>10826</v>
       </c>
       <c r="B99" t="s">
         <v>99</v>
       </c>
       <c r="C99">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D99">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E99" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F99" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F99" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="G99" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H99">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I99" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>10828</v>
+        <v>10827</v>
       </c>
       <c r="B100" t="s">
         <v>99</v>
@@ -4008,27 +4014,27 @@
         <v>19</v>
       </c>
       <c r="D100">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E100" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F100" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F100" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="G100" t="s">
         <v>10</v>
       </c>
       <c r="H100">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I100" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>10828</v>
+        <v>10827</v>
       </c>
       <c r="B101" t="s">
         <v>99</v>
@@ -4037,13 +4043,13 @@
         <v>19</v>
       </c>
       <c r="D101">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E101" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F101" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="G101" t="s">
         <v>18</v>
@@ -4052,12 +4058,12 @@
         <v>3</v>
       </c>
       <c r="I101" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>10829</v>
+        <v>10828</v>
       </c>
       <c r="B102" t="s">
         <v>99</v>
@@ -4066,13 +4072,13 @@
         <v>19</v>
       </c>
       <c r="D102">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E102" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F102" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="G102" t="s">
         <v>10</v>
@@ -4086,94 +4092,94 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>10830</v>
+        <v>10828</v>
       </c>
       <c r="B103" t="s">
         <v>99</v>
       </c>
       <c r="C103">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D103">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G103" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H103">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I103" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>10831</v>
+        <v>10829</v>
       </c>
       <c r="B104" t="s">
         <v>99</v>
       </c>
       <c r="C104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D104">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G104" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H104">
         <v>8</v>
       </c>
       <c r="I104" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>10831</v>
+        <v>10830</v>
       </c>
       <c r="B105" t="s">
         <v>99</v>
       </c>
       <c r="C105">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D105">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E105" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F105" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F105" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="G105" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H105">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I105" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>10832</v>
+        <v>10831</v>
       </c>
       <c r="B106" t="s">
         <v>99</v>
@@ -4182,13 +4188,13 @@
         <v>21</v>
       </c>
       <c r="D106">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E106" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F106" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="G106" t="s">
         <v>20</v>
@@ -4197,12 +4203,12 @@
         <v>8</v>
       </c>
       <c r="I106" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>10832</v>
+        <v>10831</v>
       </c>
       <c r="B107" t="s">
         <v>99</v>
@@ -4211,13 +4217,13 @@
         <v>21</v>
       </c>
       <c r="D107">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E107" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F107" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="G107" t="s">
         <v>18</v>
@@ -4226,186 +4232,186 @@
         <v>3</v>
       </c>
       <c r="I107" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>10833</v>
+        <v>10832</v>
       </c>
       <c r="B108" t="s">
         <v>99</v>
       </c>
       <c r="C108">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D108">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E108" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F108" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F108" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G108" t="s">
         <v>20</v>
       </c>
       <c r="H108">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I108" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>10833</v>
+        <v>10832</v>
       </c>
       <c r="B109" t="s">
         <v>99</v>
       </c>
       <c r="C109">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D109">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E109" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F109" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="G109" t="s">
         <v>18</v>
       </c>
       <c r="H109">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I109" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>10905</v>
+        <v>10833</v>
       </c>
       <c r="B110" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C110">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D110">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
       <c r="G110" t="s">
         <v>20</v>
       </c>
       <c r="H110">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I110" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>10905</v>
+        <v>10833</v>
       </c>
       <c r="B111" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C111">
+        <v>22</v>
+      </c>
+      <c r="D111">
+        <v>33</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G111" t="s">
+        <v>18</v>
+      </c>
+      <c r="H111">
         <v>4</v>
       </c>
-      <c r="D111">
-        <v>5</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G111" t="s">
-        <v>53</v>
-      </c>
-      <c r="H111">
-        <v>3</v>
-      </c>
       <c r="I111" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>10906</v>
+        <v>10905</v>
       </c>
       <c r="B112" t="s">
         <v>114</v>
       </c>
       <c r="C112">
+        <v>4</v>
+      </c>
+      <c r="D112">
         <v>5</v>
       </c>
-      <c r="D112">
+      <c r="E112" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G112" t="s">
+        <v>20</v>
+      </c>
+      <c r="H112">
         <v>6</v>
       </c>
-      <c r="E112" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G112" t="s">
-        <v>20</v>
-      </c>
-      <c r="H112">
-        <v>5</v>
-      </c>
       <c r="I112" t="s">
-        <v>118</v>
+        <v>14</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>10906</v>
+        <v>10905</v>
       </c>
       <c r="B113" t="s">
         <v>114</v>
       </c>
       <c r="C113">
+        <v>4</v>
+      </c>
+      <c r="D113">
         <v>5</v>
       </c>
-      <c r="D113">
-        <v>6</v>
-      </c>
       <c r="E113" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F113" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F113" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="G113" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="H113">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I113" t="s">
-        <v>118</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>10910</v>
+        <v>10906</v>
       </c>
       <c r="B114" t="s">
         <v>114</v>
@@ -4414,13 +4420,13 @@
         <v>5</v>
       </c>
       <c r="D114">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E114" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F114" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="G114" t="s">
         <v>20</v>
@@ -4429,12 +4435,12 @@
         <v>5</v>
       </c>
       <c r="I114" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>10910</v>
+        <v>10906</v>
       </c>
       <c r="B115" t="s">
         <v>114</v>
@@ -4443,13 +4449,13 @@
         <v>5</v>
       </c>
       <c r="D115">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E115" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F115" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="G115" t="s">
         <v>10</v>
@@ -4458,85 +4464,85 @@
         <v>4</v>
       </c>
       <c r="I115" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>10911</v>
+        <v>10910</v>
       </c>
       <c r="B116" t="s">
         <v>114</v>
       </c>
       <c r="C116">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D116">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E116" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F116" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F116" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="G116" t="s">
         <v>20</v>
       </c>
       <c r="H116">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I116" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>10911</v>
+        <v>10910</v>
       </c>
       <c r="B117" t="s">
         <v>114</v>
       </c>
       <c r="C117">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D117">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E117" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F117" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F117" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="G117" t="s">
         <v>10</v>
       </c>
       <c r="H117">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I117" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>10912</v>
+        <v>10911</v>
       </c>
       <c r="B118" t="s">
         <v>114</v>
       </c>
       <c r="C118">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D118">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E118" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F118" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="G118" t="s">
         <v>20</v>
@@ -4545,27 +4551,27 @@
         <v>6</v>
       </c>
       <c r="I118" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>10912</v>
+        <v>10911</v>
       </c>
       <c r="B119" t="s">
         <v>114</v>
       </c>
       <c r="C119">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D119">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E119" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F119" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="G119" t="s">
         <v>10</v>
@@ -4574,12 +4580,12 @@
         <v>3</v>
       </c>
       <c r="I119" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>10913</v>
+        <v>10912</v>
       </c>
       <c r="B120" t="s">
         <v>114</v>
@@ -4588,13 +4594,13 @@
         <v>7</v>
       </c>
       <c r="D120">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E120" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F120" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>233</v>
       </c>
       <c r="G120" t="s">
         <v>20</v>
@@ -4603,12 +4609,12 @@
         <v>6</v>
       </c>
       <c r="I120" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>10913</v>
+        <v>10912</v>
       </c>
       <c r="B121" t="s">
         <v>114</v>
@@ -4617,13 +4623,13 @@
         <v>7</v>
       </c>
       <c r="D121">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E121" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F121" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>233</v>
       </c>
       <c r="G121" t="s">
         <v>10</v>
@@ -4632,172 +4638,172 @@
         <v>3</v>
       </c>
       <c r="I121" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>10914</v>
+        <v>10913</v>
       </c>
       <c r="B122" t="s">
         <v>114</v>
       </c>
       <c r="C122">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D122">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E122" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F122" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="F122" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G122" t="s">
         <v>20</v>
       </c>
       <c r="H122">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I122" t="s">
-        <v>234</v>
+        <v>125</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>10914</v>
+        <v>10913</v>
       </c>
       <c r="B123" t="s">
         <v>114</v>
       </c>
       <c r="C123">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D123">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E123" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F123" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="F123" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G123" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I123" t="s">
-        <v>234</v>
+        <v>125</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>11027</v>
+        <v>10914</v>
       </c>
       <c r="B124" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C124">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D124">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>128</v>
+        <v>233</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="G124" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H124">
         <v>7</v>
       </c>
       <c r="I124" t="s">
-        <v>14</v>
+        <v>234</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>11027</v>
+        <v>10914</v>
       </c>
       <c r="B125" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C125">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D125">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>128</v>
+        <v>233</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="G125" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="H125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I125" t="s">
-        <v>14</v>
+        <v>234</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>11028</v>
+        <v>11027</v>
       </c>
       <c r="B126" t="s">
         <v>127</v>
       </c>
       <c r="C126">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D126">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E126" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F126" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F126" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="G126" t="s">
         <v>10</v>
       </c>
       <c r="H126">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I126" t="s">
-        <v>131</v>
+        <v>14</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>11028</v>
+        <v>11027</v>
       </c>
       <c r="B127" t="s">
         <v>127</v>
       </c>
       <c r="C127">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D127">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E127" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F127" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="G127" t="s">
         <v>11</v>
@@ -4806,12 +4812,12 @@
         <v>3</v>
       </c>
       <c r="I127" t="s">
-        <v>131</v>
+        <v>14</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>11029</v>
+        <v>11028</v>
       </c>
       <c r="B128" t="s">
         <v>127</v>
@@ -4820,13 +4826,13 @@
         <v>16</v>
       </c>
       <c r="D128">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E128" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F128" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="G128" t="s">
         <v>10</v>
@@ -4835,12 +4841,12 @@
         <v>8</v>
       </c>
       <c r="I128" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>11029</v>
+        <v>11028</v>
       </c>
       <c r="B129" t="s">
         <v>127</v>
@@ -4849,13 +4855,13 @@
         <v>16</v>
       </c>
       <c r="D129">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E129" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F129" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="G129" t="s">
         <v>11</v>
@@ -4864,85 +4870,85 @@
         <v>3</v>
       </c>
       <c r="I129" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>11030</v>
+        <v>11029</v>
       </c>
       <c r="B130" t="s">
         <v>127</v>
       </c>
       <c r="C130">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D130">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E130" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F130" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F130" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="G130" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H130">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I130" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>11030</v>
+        <v>11029</v>
       </c>
       <c r="B131" t="s">
         <v>127</v>
       </c>
       <c r="C131">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D131">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E131" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F131" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F131" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="G131" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H131">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I131" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>11031</v>
+        <v>11030</v>
       </c>
       <c r="B132" t="s">
         <v>127</v>
       </c>
       <c r="C132">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D132">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E132" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F132" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="G132" t="s">
         <v>20</v>
@@ -4951,331 +4957,331 @@
         <v>6</v>
       </c>
       <c r="I132" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>11031</v>
+        <v>11030</v>
       </c>
       <c r="B133" t="s">
         <v>127</v>
       </c>
       <c r="C133">
+        <v>17</v>
+      </c>
+      <c r="D133">
+        <v>30</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G133" t="s">
         <v>18</v>
       </c>
-      <c r="D133">
-        <v>31</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="G133" t="s">
-        <v>10</v>
-      </c>
       <c r="H133">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I133" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>11032</v>
+        <v>11031</v>
       </c>
       <c r="B134" t="s">
         <v>127</v>
       </c>
       <c r="C134">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D134">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E134" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F134" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="F134" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G134" t="s">
         <v>20</v>
       </c>
       <c r="H134">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I134" t="s">
-        <v>247</v>
+        <v>136</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>11032</v>
+        <v>11031</v>
       </c>
       <c r="B135" t="s">
         <v>127</v>
       </c>
       <c r="C135">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D135">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E135" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F135" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="F135" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G135" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H135">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I135" t="s">
-        <v>247</v>
+        <v>136</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>11122</v>
+        <v>11032</v>
       </c>
       <c r="B136" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C136">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D136">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>138</v>
+        <v>246</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>139</v>
+        <v>24</v>
       </c>
       <c r="G136" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H136">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I136" t="s">
-        <v>14</v>
+        <v>247</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>11122</v>
+        <v>11032</v>
       </c>
       <c r="B137" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C137">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D137">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>138</v>
+        <v>246</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>139</v>
+        <v>24</v>
       </c>
       <c r="G137" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I137" t="s">
-        <v>14</v>
+        <v>247</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>11123</v>
+        <v>11122</v>
       </c>
       <c r="B138" t="s">
         <v>137</v>
       </c>
       <c r="C138">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D138">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E138" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F138" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F138" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="G138" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H138">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I138" t="s">
-        <v>141</v>
+        <v>14</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>11123</v>
+        <v>11122</v>
       </c>
       <c r="B139" t="s">
         <v>137</v>
       </c>
       <c r="C139">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D139">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E139" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F139" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F139" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="G139" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H139">
         <v>2</v>
       </c>
       <c r="I139" t="s">
-        <v>141</v>
+        <v>14</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>11124</v>
+        <v>11123</v>
       </c>
       <c r="B140" t="s">
         <v>137</v>
       </c>
       <c r="C140">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D140">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E140" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F140" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F140" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="G140" t="s">
         <v>20</v>
       </c>
       <c r="H140">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I140" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>11124</v>
+        <v>11123</v>
       </c>
       <c r="B141" t="s">
         <v>137</v>
       </c>
       <c r="C141">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D141">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E141" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F141" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="F141" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="G141" t="s">
         <v>18</v>
       </c>
       <c r="H141">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I141" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>11125</v>
+        <v>11124</v>
       </c>
       <c r="B142" t="s">
         <v>137</v>
       </c>
       <c r="C142">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D142">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E142" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F142" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F142" s="1" t="s">
-        <v>235</v>
-      </c>
       <c r="G142" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H142">
         <v>10</v>
       </c>
       <c r="I142" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>11125</v>
+        <v>11124</v>
       </c>
       <c r="B143" t="s">
         <v>137</v>
       </c>
       <c r="C143">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D143">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E143" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F143" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F143" s="1" t="s">
-        <v>235</v>
-      </c>
       <c r="G143" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H143">
         <v>3</v>
       </c>
       <c r="I143" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>11126</v>
+        <v>11125</v>
       </c>
       <c r="B144" t="s">
         <v>137</v>
@@ -5284,14 +5290,14 @@
         <v>17</v>
       </c>
       <c r="D144">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E144" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F144" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="F144" s="1" t="s">
-        <v>243</v>
-      </c>
       <c r="G144" t="s">
         <v>10</v>
       </c>
@@ -5299,12 +5305,12 @@
         <v>10</v>
       </c>
       <c r="I144" t="s">
-        <v>236</v>
+        <v>144</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>11126</v>
+        <v>11125</v>
       </c>
       <c r="B145" t="s">
         <v>137</v>
@@ -5313,13 +5319,13 @@
         <v>17</v>
       </c>
       <c r="D145">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E145" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F145" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="F145" s="1" t="s">
-        <v>243</v>
       </c>
       <c r="G145" t="s">
         <v>11</v>
@@ -5328,215 +5334,215 @@
         <v>3</v>
       </c>
       <c r="I145" t="s">
-        <v>236</v>
+        <v>144</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>11127</v>
+        <v>11126</v>
       </c>
       <c r="B146" t="s">
         <v>137</v>
       </c>
       <c r="C146">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D146">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E146" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F146" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="F146" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G146" t="s">
         <v>10</v>
       </c>
       <c r="H146">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I146" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>11127</v>
+        <v>11126</v>
       </c>
       <c r="B147" t="s">
         <v>137</v>
       </c>
       <c r="C147">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D147">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E147" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F147" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="F147" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G147" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H147">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I147" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>11221</v>
+        <v>11127</v>
       </c>
       <c r="B148" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C148">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D148">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>146</v>
+        <v>243</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>147</v>
+        <v>24</v>
       </c>
       <c r="G148" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H148">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I148" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>11221</v>
+        <v>11127</v>
       </c>
       <c r="B149" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C149">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D149">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>146</v>
+        <v>243</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>147</v>
+        <v>24</v>
       </c>
       <c r="G149" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I149" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>11222</v>
+        <v>11221</v>
       </c>
       <c r="B150" t="s">
         <v>145</v>
       </c>
       <c r="C150">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D150">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E150" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F150" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F150" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="G150" t="s">
         <v>20</v>
       </c>
       <c r="H150">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I150" t="s">
-        <v>149</v>
+        <v>14</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>11223</v>
+        <v>11221</v>
       </c>
       <c r="B151" t="s">
         <v>145</v>
       </c>
       <c r="C151">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D151">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G151" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H151">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I151" t="s">
-        <v>150</v>
+        <v>14</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>11223</v>
+        <v>11222</v>
       </c>
       <c r="B152" t="s">
         <v>145</v>
       </c>
       <c r="C152">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D152">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E152" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F152" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F152" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="G152" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H152">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I152" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>11224</v>
+        <v>11223</v>
       </c>
       <c r="B153" t="s">
         <v>145</v>
@@ -5545,13 +5551,13 @@
         <v>16</v>
       </c>
       <c r="D153">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E153" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F153" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="G153" t="s">
         <v>20</v>
@@ -5560,12 +5566,12 @@
         <v>7</v>
       </c>
       <c r="I153" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>11224</v>
+        <v>11223</v>
       </c>
       <c r="B154" t="s">
         <v>145</v>
@@ -5574,13 +5580,13 @@
         <v>16</v>
       </c>
       <c r="D154">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E154" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F154" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="F154" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="G154" t="s">
         <v>18</v>
@@ -5589,65 +5595,65 @@
         <v>3</v>
       </c>
       <c r="I154" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>11225</v>
+        <v>11224</v>
       </c>
       <c r="B155" t="s">
         <v>145</v>
       </c>
       <c r="C155">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D155">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E155" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F155" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F155" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="G155" t="s">
         <v>20</v>
       </c>
       <c r="H155">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I155" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>11225</v>
+        <v>11224</v>
       </c>
       <c r="B156" t="s">
         <v>145</v>
       </c>
       <c r="C156">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D156">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E156" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F156" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F156" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="G156" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I156" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
@@ -5670,10 +5676,10 @@
         <v>154</v>
       </c>
       <c r="G157" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I157" t="s">
         <v>155</v>
@@ -5681,60 +5687,60 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>11226</v>
+        <v>11225</v>
       </c>
       <c r="B158" t="s">
         <v>145</v>
       </c>
       <c r="C158">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D158">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E158" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F158" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F158" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G158" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H158">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I158" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>11226</v>
+        <v>11225</v>
       </c>
       <c r="B159" t="s">
         <v>145</v>
       </c>
       <c r="C159">
+        <v>17</v>
+      </c>
+      <c r="D159">
+        <v>25</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G159" t="s">
         <v>18</v>
-      </c>
-      <c r="D159">
-        <v>26</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F159" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G159" t="s">
-        <v>11</v>
       </c>
       <c r="H159">
         <v>2</v>
       </c>
       <c r="I159" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
@@ -5757,10 +5763,10 @@
         <v>24</v>
       </c>
       <c r="G160" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I160" t="s">
         <v>156</v>
@@ -5768,65 +5774,65 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>11314</v>
+        <v>11226</v>
       </c>
       <c r="B161" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C161">
-        <v>-2</v>
+        <v>18</v>
       </c>
       <c r="D161">
-        <v>-9</v>
+        <v>26</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>162</v>
+        <v>24</v>
       </c>
       <c r="G161" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="H161">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I161" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>11314</v>
+        <v>11226</v>
       </c>
       <c r="B162" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C162">
-        <v>-2</v>
+        <v>18</v>
       </c>
       <c r="D162">
-        <v>-9</v>
+        <v>26</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>162</v>
+        <v>24</v>
       </c>
       <c r="G162" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="H162">
         <v>2</v>
       </c>
       <c r="I162" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>11315</v>
+        <v>11314</v>
       </c>
       <c r="B163" t="s">
         <v>157</v>
@@ -5835,85 +5841,85 @@
         <v>-2</v>
       </c>
       <c r="D163">
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="E163" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F163" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="F163" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="G163" t="s">
         <v>159</v>
       </c>
       <c r="H163">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I163" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>11316</v>
+        <v>11314</v>
       </c>
       <c r="B164" t="s">
         <v>157</v>
       </c>
       <c r="C164">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D164">
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G164" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H164">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I164" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>11316</v>
+        <v>11315</v>
       </c>
       <c r="B165" t="s">
         <v>157</v>
       </c>
       <c r="C165">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D165">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="E165" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F165" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F165" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="G165" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I165" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>11317</v>
+        <v>11316</v>
       </c>
       <c r="B166" t="s">
         <v>157</v>
@@ -5922,27 +5928,27 @@
         <v>-1</v>
       </c>
       <c r="D166">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="E166" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F166" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="F166" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="G166" t="s">
         <v>159</v>
       </c>
       <c r="H166">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I166" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>11318</v>
+        <v>11316</v>
       </c>
       <c r="B167" t="s">
         <v>157</v>
@@ -5951,80 +5957,80 @@
         <v>-1</v>
       </c>
       <c r="D167">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G167" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="H167">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I167" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>11319</v>
+        <v>11317</v>
       </c>
       <c r="B168" t="s">
         <v>157</v>
       </c>
       <c r="C168">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D168">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="G168" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="H168">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I168" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>11319</v>
+        <v>11318</v>
       </c>
       <c r="B169" t="s">
         <v>157</v>
       </c>
       <c r="C169">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D169">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="E169" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F169" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F169" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="G169" t="s">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I169" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
@@ -6047,10 +6053,10 @@
         <v>174</v>
       </c>
       <c r="G170" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I170" t="s">
         <v>173</v>
@@ -6058,7 +6064,7 @@
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>11320</v>
+        <v>11319</v>
       </c>
       <c r="B171" t="s">
         <v>157</v>
@@ -6067,19 +6073,19 @@
         <v>0</v>
       </c>
       <c r="D171">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="E171" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F171" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F171" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="G171" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H171">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I171" t="s">
         <v>173</v>
@@ -6087,7 +6093,7 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>11320</v>
+        <v>11319</v>
       </c>
       <c r="B172" t="s">
         <v>157</v>
@@ -6096,16 +6102,16 @@
         <v>0</v>
       </c>
       <c r="D172">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="E172" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F172" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F172" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="G172" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H172">
         <v>1</v>
@@ -6116,7 +6122,7 @@
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>11321</v>
+        <v>11320</v>
       </c>
       <c r="B173" t="s">
         <v>157</v>
@@ -6125,27 +6131,27 @@
         <v>0</v>
       </c>
       <c r="D173">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="E173" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F173" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F173" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="G173" t="s">
         <v>10</v>
       </c>
       <c r="H173">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I173" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>11321</v>
+        <v>11320</v>
       </c>
       <c r="B174" t="s">
         <v>157</v>
@@ -6154,13 +6160,13 @@
         <v>0</v>
       </c>
       <c r="D174">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="E174" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F174" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="F174" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="G174" t="s">
         <v>20</v>
@@ -6169,7 +6175,7 @@
         <v>1</v>
       </c>
       <c r="I174" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
@@ -6192,10 +6198,10 @@
         <v>175</v>
       </c>
       <c r="G175" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I175" t="s">
         <v>176</v>
@@ -6203,7 +6209,7 @@
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>11322</v>
+        <v>11321</v>
       </c>
       <c r="B176" t="s">
         <v>157</v>
@@ -6212,27 +6218,27 @@
         <v>0</v>
       </c>
       <c r="D176">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E176" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F176" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="F176" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="G176" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H176">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I176" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>11322</v>
+        <v>11321</v>
       </c>
       <c r="B177" t="s">
         <v>157</v>
@@ -6241,22 +6247,22 @@
         <v>0</v>
       </c>
       <c r="D177">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E177" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F177" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="F177" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="G177" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H177">
         <v>2</v>
       </c>
       <c r="I177" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
@@ -6279,10 +6285,10 @@
         <v>177</v>
       </c>
       <c r="G178" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I178" t="s">
         <v>178</v>
@@ -6290,7 +6296,7 @@
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>11323</v>
+        <v>11322</v>
       </c>
       <c r="B179" t="s">
         <v>157</v>
@@ -6299,27 +6305,27 @@
         <v>0</v>
       </c>
       <c r="D179">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E179" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F179" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F179" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="G179" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H179">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I179" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>11323</v>
+        <v>11322</v>
       </c>
       <c r="B180" t="s">
         <v>157</v>
@@ -6328,109 +6334,109 @@
         <v>0</v>
       </c>
       <c r="D180">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E180" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F180" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F180" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="G180" t="s">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>11313</v>
+        <v>11323</v>
       </c>
       <c r="B181" t="s">
         <v>157</v>
       </c>
       <c r="C181">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D181">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G181" t="s">
         <v>10</v>
       </c>
       <c r="H181">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I181" t="s">
-        <v>14</v>
+        <v>180</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>11324</v>
+        <v>11323</v>
       </c>
       <c r="B182" t="s">
         <v>157</v>
       </c>
       <c r="C182">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D182">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G182" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H182">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I182" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>11324</v>
+        <v>11313</v>
       </c>
       <c r="B183" t="s">
         <v>157</v>
       </c>
       <c r="C183">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D183">
+        <v>13</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G183" t="s">
+        <v>10</v>
+      </c>
+      <c r="H183">
+        <v>8</v>
+      </c>
+      <c r="I183" t="s">
         <v>14</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F183" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="G183" t="s">
-        <v>11</v>
-      </c>
-      <c r="H183">
-        <v>2</v>
-      </c>
-      <c r="I183" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
@@ -6453,10 +6459,10 @@
         <v>183</v>
       </c>
       <c r="G184" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I184" t="s">
         <v>184</v>
@@ -6464,7 +6470,7 @@
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>11325</v>
+        <v>11324</v>
       </c>
       <c r="B185" t="s">
         <v>157</v>
@@ -6473,27 +6479,27 @@
         <v>11</v>
       </c>
       <c r="D185">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E185" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F185" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F185" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="G185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H185">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I185" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>11325</v>
+        <v>11324</v>
       </c>
       <c r="B186" t="s">
         <v>157</v>
@@ -6502,22 +6508,22 @@
         <v>11</v>
       </c>
       <c r="D186">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E186" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F186" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F186" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="G186" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H186">
         <v>2</v>
       </c>
       <c r="I186" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
@@ -6540,10 +6546,10 @@
         <v>185</v>
       </c>
       <c r="G187" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I187" t="s">
         <v>186</v>
@@ -6551,7 +6557,7 @@
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>11326</v>
+        <v>11325</v>
       </c>
       <c r="B188" t="s">
         <v>157</v>
@@ -6560,19 +6566,19 @@
         <v>11</v>
       </c>
       <c r="D188">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E188" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F188" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="F188" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="G188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H188">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I188" t="s">
         <v>186</v>
@@ -6580,80 +6586,80 @@
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>11327</v>
+        <v>11325</v>
       </c>
       <c r="B189" t="s">
         <v>157</v>
       </c>
       <c r="C189">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D189">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G189" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H189">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I189" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>11327</v>
+        <v>11326</v>
       </c>
       <c r="B190" t="s">
         <v>157</v>
       </c>
       <c r="C190">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D190">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E190" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F190" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F190" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="G190" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H190">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I190" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>11328</v>
+        <v>11327</v>
       </c>
       <c r="B191" t="s">
         <v>157</v>
       </c>
       <c r="C191">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D191">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E191" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F191" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="F191" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="G191" t="s">
         <v>10</v>
@@ -6662,41 +6668,41 @@
         <v>4</v>
       </c>
       <c r="I191" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>11328</v>
+        <v>11327</v>
       </c>
       <c r="B192" t="s">
         <v>157</v>
       </c>
       <c r="C192">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D192">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E192" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F192" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F192" s="1" t="s">
-        <v>190</v>
-      </c>
       <c r="G192" t="s">
         <v>20</v>
       </c>
       <c r="H192">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I192" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>11329</v>
+        <v>11328</v>
       </c>
       <c r="B193" t="s">
         <v>157</v>
@@ -6705,13 +6711,13 @@
         <v>13</v>
       </c>
       <c r="D193">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E193" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F193" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="F193" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="G193" t="s">
         <v>10</v>
@@ -6720,12 +6726,12 @@
         <v>4</v>
       </c>
       <c r="I193" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>11329</v>
+        <v>11328</v>
       </c>
       <c r="B194" t="s">
         <v>157</v>
@@ -6734,13 +6740,13 @@
         <v>13</v>
       </c>
       <c r="D194">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E194" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F194" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="F194" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="G194" t="s">
         <v>20</v>
@@ -6749,99 +6755,99 @@
         <v>3</v>
       </c>
       <c r="I194" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>11330</v>
+        <v>11329</v>
       </c>
       <c r="B195" t="s">
         <v>157</v>
       </c>
       <c r="C195">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D195">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E195" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F195" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F195" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G195" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H195">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I195" t="s">
-        <v>239</v>
+        <v>192</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>11405</v>
+        <v>11329</v>
       </c>
       <c r="B196" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="C196">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D196">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>195</v>
+        <v>240</v>
       </c>
       <c r="G196" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H196">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I196" t="s">
-        <v>14</v>
+        <v>192</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>11405</v>
+        <v>11330</v>
       </c>
       <c r="B197" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="C197">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D197">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>195</v>
+        <v>24</v>
       </c>
       <c r="G197" t="s">
         <v>20</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I197" t="s">
-        <v>14</v>
+        <v>239</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>11406</v>
+        <v>11405</v>
       </c>
       <c r="B198" t="s">
         <v>193</v>
@@ -6850,27 +6856,27 @@
         <v>4</v>
       </c>
       <c r="D198">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E198" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F198" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F198" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="G198" t="s">
         <v>10</v>
       </c>
       <c r="H198">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I198" t="s">
-        <v>199</v>
+        <v>14</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>11406</v>
+        <v>11405</v>
       </c>
       <c r="B199" t="s">
         <v>193</v>
@@ -6879,13 +6885,13 @@
         <v>4</v>
       </c>
       <c r="D199">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E199" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F199" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="F199" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="G199" t="s">
         <v>20</v>
@@ -6894,85 +6900,85 @@
         <v>2</v>
       </c>
       <c r="I199" t="s">
-        <v>199</v>
+        <v>14</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>11407</v>
+        <v>11406</v>
       </c>
       <c r="B200" t="s">
         <v>193</v>
       </c>
       <c r="C200">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D200">
+        <v>6</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G200" t="s">
+        <v>10</v>
+      </c>
+      <c r="H200">
         <v>7</v>
       </c>
-      <c r="E200" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F200" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="G200" t="s">
-        <v>10</v>
-      </c>
-      <c r="H200">
-        <v>8</v>
-      </c>
       <c r="I200" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>11407</v>
+        <v>11406</v>
       </c>
       <c r="B201" t="s">
         <v>193</v>
       </c>
       <c r="C201">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D201">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E201" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F201" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="F201" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="G201" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H201">
         <v>2</v>
       </c>
       <c r="I201" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>11408</v>
+        <v>11407</v>
       </c>
       <c r="B202" t="s">
         <v>193</v>
       </c>
       <c r="C202">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D202">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E202" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F202" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="F202" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="G202" t="s">
         <v>10</v>
@@ -6981,41 +6987,41 @@
         <v>8</v>
       </c>
       <c r="I202" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>11408</v>
+        <v>11407</v>
       </c>
       <c r="B203" t="s">
         <v>193</v>
       </c>
       <c r="C203">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D203">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E203" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F203" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F203" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="G203" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H203">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I203" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>11409</v>
+        <v>11408</v>
       </c>
       <c r="B204" t="s">
         <v>193</v>
@@ -7024,13 +7030,13 @@
         <v>6</v>
       </c>
       <c r="D204">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E204" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F204" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="F204" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="G204" t="s">
         <v>10</v>
@@ -7039,12 +7045,12 @@
         <v>8</v>
       </c>
       <c r="I204" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>11409</v>
+        <v>11408</v>
       </c>
       <c r="B205" t="s">
         <v>193</v>
@@ -7053,13 +7059,13 @@
         <v>6</v>
       </c>
       <c r="D205">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E205" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F205" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="F205" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="G205" t="s">
         <v>20</v>
@@ -7068,27 +7074,27 @@
         <v>3</v>
       </c>
       <c r="I205" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>11410</v>
+        <v>11409</v>
       </c>
       <c r="B206" t="s">
         <v>193</v>
       </c>
       <c r="C206">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D206">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E206" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F206" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="F206" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="G206" t="s">
         <v>10</v>
@@ -7097,36 +7103,36 @@
         <v>8</v>
       </c>
       <c r="I206" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>11410</v>
+        <v>11409</v>
       </c>
       <c r="B207" t="s">
         <v>193</v>
       </c>
       <c r="C207">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D207">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E207" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F207" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="F207" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G207" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I207" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
@@ -7149,10 +7155,10 @@
         <v>24</v>
       </c>
       <c r="G208" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I208" t="s">
         <v>204</v>
@@ -7160,167 +7166,167 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>11506</v>
+        <v>11410</v>
       </c>
       <c r="B209" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C209">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D209">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>207</v>
+        <v>24</v>
       </c>
       <c r="G209" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H209">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I209" t="s">
-        <v>14</v>
+        <v>204</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>11506</v>
+        <v>11410</v>
       </c>
       <c r="B210" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C210">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D210">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>207</v>
+        <v>24</v>
       </c>
       <c r="G210" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H210">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I210" t="s">
-        <v>14</v>
+        <v>204</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>11507</v>
+        <v>11506</v>
       </c>
       <c r="B211" t="s">
         <v>205</v>
       </c>
       <c r="C211">
+        <v>4</v>
+      </c>
+      <c r="D211">
+        <v>6</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G211" t="s">
+        <v>10</v>
+      </c>
+      <c r="H211">
         <v>5</v>
       </c>
-      <c r="D211">
-        <v>7</v>
-      </c>
-      <c r="E211" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F211" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G211" t="s">
-        <v>10</v>
-      </c>
-      <c r="H211">
-        <v>6</v>
-      </c>
       <c r="I211" t="s">
-        <v>209</v>
+        <v>14</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>11507</v>
+        <v>11506</v>
       </c>
       <c r="B212" t="s">
         <v>205</v>
       </c>
       <c r="C212">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D212">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E212" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F212" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F212" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="G212" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H212">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I212" t="s">
-        <v>209</v>
+        <v>14</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>11508</v>
+        <v>11507</v>
       </c>
       <c r="B213" t="s">
         <v>205</v>
       </c>
       <c r="C213">
+        <v>5</v>
+      </c>
+      <c r="D213">
+        <v>7</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G213" t="s">
+        <v>10</v>
+      </c>
+      <c r="H213">
         <v>6</v>
       </c>
-      <c r="D213">
-        <v>8</v>
-      </c>
-      <c r="E213" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F213" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="G213" t="s">
-        <v>10</v>
-      </c>
-      <c r="H213">
-        <v>5</v>
-      </c>
       <c r="I213" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>11508</v>
+        <v>11507</v>
       </c>
       <c r="B214" t="s">
         <v>205</v>
       </c>
       <c r="C214">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D214">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E214" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F214" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="F214" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="G214" t="s">
         <v>20</v>
@@ -7329,65 +7335,65 @@
         <v>4</v>
       </c>
       <c r="I214" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>11509</v>
+        <v>11508</v>
       </c>
       <c r="B215" t="s">
         <v>205</v>
       </c>
       <c r="C215">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D215">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E215" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F215" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="F215" s="1" t="s">
-        <v>237</v>
-      </c>
       <c r="G215" t="s">
         <v>10</v>
       </c>
       <c r="H215">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I215" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>11509</v>
+        <v>11508</v>
       </c>
       <c r="B216" t="s">
         <v>205</v>
       </c>
       <c r="C216">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D216">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E216" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F216" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="F216" s="1" t="s">
-        <v>237</v>
-      </c>
       <c r="G216" t="s">
         <v>20</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I216" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
@@ -7410,10 +7416,10 @@
         <v>237</v>
       </c>
       <c r="G217" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I217" t="s">
         <v>212</v>
@@ -7421,60 +7427,60 @@
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>11510</v>
+        <v>11509</v>
       </c>
       <c r="B218" t="s">
         <v>205</v>
       </c>
       <c r="C218">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D218">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E218" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F218" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F218" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G218" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H218">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I218" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>11510</v>
+        <v>11509</v>
       </c>
       <c r="B219" t="s">
         <v>205</v>
       </c>
       <c r="C219">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D219">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E219" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F219" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F219" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G219" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I219" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
@@ -7497,10 +7503,10 @@
         <v>24</v>
       </c>
       <c r="G220" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I220" t="s">
         <v>238</v>
@@ -7508,80 +7514,80 @@
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>11626</v>
+        <v>11510</v>
       </c>
       <c r="B221" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C221">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D221">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>9</v>
+        <v>237</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>214</v>
+        <v>24</v>
       </c>
       <c r="G221" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H221">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I221" t="s">
-        <v>14</v>
+        <v>238</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>11626</v>
+        <v>11510</v>
       </c>
       <c r="B222" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C222">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D222">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>9</v>
+        <v>237</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>214</v>
+        <v>24</v>
       </c>
       <c r="G222" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H222">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I222" t="s">
-        <v>14</v>
+        <v>238</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>11627</v>
+        <v>11626</v>
       </c>
       <c r="B223" t="s">
         <v>213</v>
       </c>
       <c r="C223">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D223">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E223" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F223" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="F223" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="G223" t="s">
         <v>10</v>
@@ -7590,94 +7596,94 @@
         <v>5</v>
       </c>
       <c r="I223" t="s">
-        <v>216</v>
+        <v>14</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>11627</v>
+        <v>11626</v>
       </c>
       <c r="B224" t="s">
         <v>213</v>
       </c>
       <c r="C224">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D224">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E224" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F224" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="F224" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="G224" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H224">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I224" t="s">
-        <v>216</v>
+        <v>14</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>11628</v>
+        <v>11627</v>
       </c>
       <c r="B225" t="s">
         <v>213</v>
       </c>
       <c r="C225">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D225">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E225" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F225" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F225" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="G225" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H225">
         <v>5</v>
       </c>
       <c r="I225" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>11628</v>
+        <v>11627</v>
       </c>
       <c r="B226" t="s">
         <v>213</v>
       </c>
       <c r="C226">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D226">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E226" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F226" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F226" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="G226" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I226" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
@@ -7700,10 +7706,10 @@
         <v>217</v>
       </c>
       <c r="G227" t="s">
-        <v>218</v>
+        <v>20</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I227" t="s">
         <v>219</v>
@@ -7711,60 +7717,60 @@
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>11629</v>
+        <v>11628</v>
       </c>
       <c r="B228" t="s">
         <v>213</v>
       </c>
       <c r="C228">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D228">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E228" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F228" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F228" s="1" t="s">
-        <v>243</v>
-      </c>
       <c r="G228" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H228">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I228" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>11629</v>
+        <v>11628</v>
       </c>
       <c r="B229" t="s">
         <v>213</v>
       </c>
       <c r="C229">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D229">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E229" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F229" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F229" s="1" t="s">
-        <v>243</v>
-      </c>
       <c r="G229" t="s">
-        <v>18</v>
+        <v>218</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I229" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
@@ -7787,10 +7793,10 @@
         <v>243</v>
       </c>
       <c r="G230" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I230" t="s">
         <v>220</v>
@@ -7798,205 +7804,205 @@
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>11630</v>
+        <v>11629</v>
       </c>
       <c r="B231" t="s">
         <v>213</v>
       </c>
       <c r="C231">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D231">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E231" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F231" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="F231" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G231" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H231">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I231" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>11630</v>
+        <v>11629</v>
       </c>
       <c r="B232" t="s">
         <v>213</v>
       </c>
       <c r="C232">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D232">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E232" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F232" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="F232" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G232" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H232">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I232" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>11706</v>
+        <v>11630</v>
       </c>
       <c r="B233" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C233">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D233">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>223</v>
+        <v>24</v>
       </c>
       <c r="G233" t="s">
         <v>10</v>
       </c>
       <c r="H233">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I233" t="s">
-        <v>14</v>
+        <v>245</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>11707</v>
+        <v>11630</v>
       </c>
       <c r="B234" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C234">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D234">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>224</v>
+        <v>24</v>
       </c>
       <c r="G234" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H234">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I234" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>11707</v>
+        <v>11706</v>
       </c>
       <c r="B235" t="s">
         <v>221</v>
       </c>
       <c r="C235">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D235">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E235" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F235" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="F235" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="G235" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H235">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I235" t="s">
-        <v>225</v>
+        <v>14</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>11708</v>
+        <v>11707</v>
       </c>
       <c r="B236" t="s">
         <v>221</v>
       </c>
       <c r="C236">
+        <v>5</v>
+      </c>
+      <c r="D236">
+        <v>7</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G236" t="s">
+        <v>10</v>
+      </c>
+      <c r="H236">
         <v>6</v>
       </c>
-      <c r="D236">
-        <v>8</v>
-      </c>
-      <c r="E236" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F236" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G236" t="s">
-        <v>53</v>
-      </c>
-      <c r="H236">
-        <v>5</v>
-      </c>
       <c r="I236" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>11708</v>
+        <v>11707</v>
       </c>
       <c r="B237" t="s">
         <v>221</v>
       </c>
       <c r="C237">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D237">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E237" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F237" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="F237" s="1" t="s">
-        <v>226</v>
-      </c>
       <c r="G237" t="s">
         <v>20</v>
       </c>
       <c r="H237">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I237" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
@@ -8019,10 +8025,10 @@
         <v>226</v>
       </c>
       <c r="G238" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I238" t="s">
         <v>227</v>
@@ -8030,57 +8036,57 @@
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>11709</v>
+        <v>11708</v>
       </c>
       <c r="B239" t="s">
         <v>221</v>
       </c>
       <c r="C239">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D239">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E239" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F239" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="F239" s="1" t="s">
-        <v>228</v>
-      </c>
       <c r="G239" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I239" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>11710</v>
+        <v>11708</v>
       </c>
       <c r="B240" t="s">
         <v>221</v>
       </c>
       <c r="C240">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D240">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>24</v>
+        <v>226</v>
       </c>
       <c r="G240" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="H240">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I240" t="s">
         <v>227</v>
@@ -8088,7 +8094,7 @@
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>11710</v>
+        <v>11709</v>
       </c>
       <c r="B241" t="s">
         <v>221</v>
@@ -8097,22 +8103,22 @@
         <v>7</v>
       </c>
       <c r="D241">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E241" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F241" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="F241" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G241" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H241">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I241" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
@@ -8135,12 +8141,70 @@
         <v>24</v>
       </c>
       <c r="G242" t="s">
+        <v>53</v>
+      </c>
+      <c r="H242">
+        <v>4</v>
+      </c>
+      <c r="I242" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>11710</v>
+      </c>
+      <c r="B243" t="s">
+        <v>221</v>
+      </c>
+      <c r="C243">
+        <v>7</v>
+      </c>
+      <c r="D243">
+        <v>10</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G243" t="s">
+        <v>20</v>
+      </c>
+      <c r="H243">
+        <v>3</v>
+      </c>
+      <c r="I243" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>11710</v>
+      </c>
+      <c r="B244" t="s">
+        <v>221</v>
+      </c>
+      <c r="C244">
+        <v>7</v>
+      </c>
+      <c r="D244">
+        <v>10</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G244" t="s">
         <v>18</v>
       </c>
-      <c r="H242">
+      <c r="H244">
         <v>2</v>
       </c>
-      <c r="I242" t="s">
+      <c r="I244" t="s">
         <v>227</v>
       </c>
     </row>

--- a/inst/extdata/additional_govdata.xlsx
+++ b/inst/extdata/additional_govdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Desktop\add\bundeslaendeR\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Git_Projekte\bundeslaendeR\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A340BBD0-397D-480E-8F25-0423DAAFAD3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1A60C5-8B28-4E2A-91E6-AE0599F6DF57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="256">
   <si>
     <t>gov_id</t>
   </si>
@@ -796,6 +796,12 @@
   </si>
   <si>
     <t>https://de.wikipedia.org/wiki/Kabinett_S%C3%B6der_III</t>
+  </si>
+  <si>
+    <t>2024-01-18</t>
+  </si>
+  <si>
+    <t>https://de.wikipedia.org/wiki/Kabinett_Rhein_II</t>
   </si>
 </sst>
 </file>
@@ -1114,11 +1120,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I244"/>
+  <dimension ref="A1:I246"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I23" sqref="I23"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F114" sqref="F114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3933,7 +3939,7 @@
         <v>241</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>24</v>
+        <v>254</v>
       </c>
       <c r="G97" t="s">
         <v>10</v>
@@ -3962,7 +3968,7 @@
         <v>241</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>24</v>
+        <v>254</v>
       </c>
       <c r="G98" t="s">
         <v>18</v>
@@ -3976,94 +3982,94 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>10826</v>
+        <v>10727</v>
       </c>
       <c r="B99" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C99">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D99">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>100</v>
+        <v>254</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="G99" t="s">
         <v>10</v>
       </c>
       <c r="H99">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I99" t="s">
-        <v>14</v>
+        <v>255</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>10827</v>
+        <v>10727</v>
       </c>
       <c r="B100" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C100">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D100">
         <v>27</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>102</v>
+        <v>254</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="G100" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H100">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I100" t="s">
-        <v>101</v>
+        <v>255</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>10827</v>
+        <v>10826</v>
       </c>
       <c r="B101" t="s">
         <v>99</v>
       </c>
       <c r="C101">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D101">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E101" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F101" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F101" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="G101" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H101">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I101" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>10828</v>
+        <v>10827</v>
       </c>
       <c r="B102" t="s">
         <v>99</v>
@@ -4072,27 +4078,27 @@
         <v>19</v>
       </c>
       <c r="D102">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E102" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F102" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F102" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="G102" t="s">
         <v>10</v>
       </c>
       <c r="H102">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I102" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>10828</v>
+        <v>10827</v>
       </c>
       <c r="B103" t="s">
         <v>99</v>
@@ -4101,13 +4107,13 @@
         <v>19</v>
       </c>
       <c r="D103">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E103" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F103" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="G103" t="s">
         <v>18</v>
@@ -4116,12 +4122,12 @@
         <v>3</v>
       </c>
       <c r="I103" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>10829</v>
+        <v>10828</v>
       </c>
       <c r="B104" t="s">
         <v>99</v>
@@ -4130,13 +4136,13 @@
         <v>19</v>
       </c>
       <c r="D104">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E104" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F104" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="G104" t="s">
         <v>10</v>
@@ -4150,94 +4156,94 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>10830</v>
+        <v>10828</v>
       </c>
       <c r="B105" t="s">
         <v>99</v>
       </c>
       <c r="C105">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D105">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G105" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H105">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I105" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>10831</v>
+        <v>10829</v>
       </c>
       <c r="B106" t="s">
         <v>99</v>
       </c>
       <c r="C106">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D106">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G106" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H106">
         <v>8</v>
       </c>
       <c r="I106" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>10831</v>
+        <v>10830</v>
       </c>
       <c r="B107" t="s">
         <v>99</v>
       </c>
       <c r="C107">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D107">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E107" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F107" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F107" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="G107" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H107">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I107" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>10832</v>
+        <v>10831</v>
       </c>
       <c r="B108" t="s">
         <v>99</v>
@@ -4246,13 +4252,13 @@
         <v>21</v>
       </c>
       <c r="D108">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E108" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F108" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="G108" t="s">
         <v>20</v>
@@ -4261,12 +4267,12 @@
         <v>8</v>
       </c>
       <c r="I108" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>10832</v>
+        <v>10831</v>
       </c>
       <c r="B109" t="s">
         <v>99</v>
@@ -4275,13 +4281,13 @@
         <v>21</v>
       </c>
       <c r="D109">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E109" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F109" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="G109" t="s">
         <v>18</v>
@@ -4290,186 +4296,186 @@
         <v>3</v>
       </c>
       <c r="I109" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>10833</v>
+        <v>10832</v>
       </c>
       <c r="B110" t="s">
         <v>99</v>
       </c>
       <c r="C110">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D110">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E110" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F110" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F110" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G110" t="s">
         <v>20</v>
       </c>
       <c r="H110">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I110" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>10833</v>
+        <v>10832</v>
       </c>
       <c r="B111" t="s">
         <v>99</v>
       </c>
       <c r="C111">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D111">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E111" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F111" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="G111" t="s">
         <v>18</v>
       </c>
       <c r="H111">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I111" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>10905</v>
+        <v>10833</v>
       </c>
       <c r="B112" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C112">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D112">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
       <c r="G112" t="s">
         <v>20</v>
       </c>
       <c r="H112">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I112" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>10905</v>
+        <v>10833</v>
       </c>
       <c r="B113" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C113">
+        <v>22</v>
+      </c>
+      <c r="D113">
+        <v>33</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G113" t="s">
+        <v>18</v>
+      </c>
+      <c r="H113">
         <v>4</v>
       </c>
-      <c r="D113">
-        <v>5</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G113" t="s">
-        <v>53</v>
-      </c>
-      <c r="H113">
-        <v>3</v>
-      </c>
       <c r="I113" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>10906</v>
+        <v>10905</v>
       </c>
       <c r="B114" t="s">
         <v>114</v>
       </c>
       <c r="C114">
+        <v>4</v>
+      </c>
+      <c r="D114">
         <v>5</v>
       </c>
-      <c r="D114">
+      <c r="E114" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G114" t="s">
+        <v>20</v>
+      </c>
+      <c r="H114">
         <v>6</v>
       </c>
-      <c r="E114" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G114" t="s">
-        <v>20</v>
-      </c>
-      <c r="H114">
-        <v>5</v>
-      </c>
       <c r="I114" t="s">
-        <v>118</v>
+        <v>14</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>10906</v>
+        <v>10905</v>
       </c>
       <c r="B115" t="s">
         <v>114</v>
       </c>
       <c r="C115">
+        <v>4</v>
+      </c>
+      <c r="D115">
         <v>5</v>
       </c>
-      <c r="D115">
-        <v>6</v>
-      </c>
       <c r="E115" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F115" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F115" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="G115" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="H115">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I115" t="s">
-        <v>118</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>10910</v>
+        <v>10906</v>
       </c>
       <c r="B116" t="s">
         <v>114</v>
@@ -4478,13 +4484,13 @@
         <v>5</v>
       </c>
       <c r="D116">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E116" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F116" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="G116" t="s">
         <v>20</v>
@@ -4493,12 +4499,12 @@
         <v>5</v>
       </c>
       <c r="I116" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>10910</v>
+        <v>10906</v>
       </c>
       <c r="B117" t="s">
         <v>114</v>
@@ -4507,13 +4513,13 @@
         <v>5</v>
       </c>
       <c r="D117">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E117" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F117" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="G117" t="s">
         <v>10</v>
@@ -4522,85 +4528,85 @@
         <v>4</v>
       </c>
       <c r="I117" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>10911</v>
+        <v>10910</v>
       </c>
       <c r="B118" t="s">
         <v>114</v>
       </c>
       <c r="C118">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D118">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E118" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F118" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F118" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="G118" t="s">
         <v>20</v>
       </c>
       <c r="H118">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I118" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>10911</v>
+        <v>10910</v>
       </c>
       <c r="B119" t="s">
         <v>114</v>
       </c>
       <c r="C119">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D119">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E119" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F119" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F119" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="G119" t="s">
         <v>10</v>
       </c>
       <c r="H119">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I119" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>10912</v>
+        <v>10911</v>
       </c>
       <c r="B120" t="s">
         <v>114</v>
       </c>
       <c r="C120">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D120">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E120" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F120" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="G120" t="s">
         <v>20</v>
@@ -4609,27 +4615,27 @@
         <v>6</v>
       </c>
       <c r="I120" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>10912</v>
+        <v>10911</v>
       </c>
       <c r="B121" t="s">
         <v>114</v>
       </c>
       <c r="C121">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D121">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E121" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F121" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="G121" t="s">
         <v>10</v>
@@ -4638,12 +4644,12 @@
         <v>3</v>
       </c>
       <c r="I121" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>10913</v>
+        <v>10912</v>
       </c>
       <c r="B122" t="s">
         <v>114</v>
@@ -4652,13 +4658,13 @@
         <v>7</v>
       </c>
       <c r="D122">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E122" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F122" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>233</v>
       </c>
       <c r="G122" t="s">
         <v>20</v>
@@ -4667,12 +4673,12 @@
         <v>6</v>
       </c>
       <c r="I122" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>10913</v>
+        <v>10912</v>
       </c>
       <c r="B123" t="s">
         <v>114</v>
@@ -4681,13 +4687,13 @@
         <v>7</v>
       </c>
       <c r="D123">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E123" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F123" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>233</v>
       </c>
       <c r="G123" t="s">
         <v>10</v>
@@ -4696,172 +4702,172 @@
         <v>3</v>
       </c>
       <c r="I123" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>10914</v>
+        <v>10913</v>
       </c>
       <c r="B124" t="s">
         <v>114</v>
       </c>
       <c r="C124">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D124">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E124" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F124" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="F124" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G124" t="s">
         <v>20</v>
       </c>
       <c r="H124">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I124" t="s">
-        <v>234</v>
+        <v>125</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>10914</v>
+        <v>10913</v>
       </c>
       <c r="B125" t="s">
         <v>114</v>
       </c>
       <c r="C125">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D125">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E125" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F125" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="F125" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G125" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I125" t="s">
-        <v>234</v>
+        <v>125</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>11027</v>
+        <v>10914</v>
       </c>
       <c r="B126" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C126">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D126">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>128</v>
+        <v>233</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="G126" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H126">
         <v>7</v>
       </c>
       <c r="I126" t="s">
-        <v>14</v>
+        <v>234</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>11027</v>
+        <v>10914</v>
       </c>
       <c r="B127" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C127">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D127">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>128</v>
+        <v>233</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="G127" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="H127">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I127" t="s">
-        <v>14</v>
+        <v>234</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>11028</v>
+        <v>11027</v>
       </c>
       <c r="B128" t="s">
         <v>127</v>
       </c>
       <c r="C128">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D128">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E128" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F128" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F128" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="G128" t="s">
         <v>10</v>
       </c>
       <c r="H128">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I128" t="s">
-        <v>131</v>
+        <v>14</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>11028</v>
+        <v>11027</v>
       </c>
       <c r="B129" t="s">
         <v>127</v>
       </c>
       <c r="C129">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D129">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E129" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F129" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="G129" t="s">
         <v>11</v>
@@ -4870,12 +4876,12 @@
         <v>3</v>
       </c>
       <c r="I129" t="s">
-        <v>131</v>
+        <v>14</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>11029</v>
+        <v>11028</v>
       </c>
       <c r="B130" t="s">
         <v>127</v>
@@ -4884,13 +4890,13 @@
         <v>16</v>
       </c>
       <c r="D130">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E130" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F130" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="G130" t="s">
         <v>10</v>
@@ -4899,12 +4905,12 @@
         <v>8</v>
       </c>
       <c r="I130" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>11029</v>
+        <v>11028</v>
       </c>
       <c r="B131" t="s">
         <v>127</v>
@@ -4913,13 +4919,13 @@
         <v>16</v>
       </c>
       <c r="D131">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E131" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F131" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="G131" t="s">
         <v>11</v>
@@ -4928,85 +4934,85 @@
         <v>3</v>
       </c>
       <c r="I131" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>11030</v>
+        <v>11029</v>
       </c>
       <c r="B132" t="s">
         <v>127</v>
       </c>
       <c r="C132">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D132">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E132" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F132" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F132" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="G132" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H132">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I132" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>11030</v>
+        <v>11029</v>
       </c>
       <c r="B133" t="s">
         <v>127</v>
       </c>
       <c r="C133">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D133">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E133" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F133" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F133" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="G133" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H133">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I133" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>11031</v>
+        <v>11030</v>
       </c>
       <c r="B134" t="s">
         <v>127</v>
       </c>
       <c r="C134">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D134">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E134" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F134" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="G134" t="s">
         <v>20</v>
@@ -5015,331 +5021,331 @@
         <v>6</v>
       </c>
       <c r="I134" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>11031</v>
+        <v>11030</v>
       </c>
       <c r="B135" t="s">
         <v>127</v>
       </c>
       <c r="C135">
+        <v>17</v>
+      </c>
+      <c r="D135">
+        <v>30</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G135" t="s">
         <v>18</v>
       </c>
-      <c r="D135">
-        <v>31</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="G135" t="s">
-        <v>10</v>
-      </c>
       <c r="H135">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I135" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>11032</v>
+        <v>11031</v>
       </c>
       <c r="B136" t="s">
         <v>127</v>
       </c>
       <c r="C136">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D136">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E136" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F136" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="F136" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G136" t="s">
         <v>20</v>
       </c>
       <c r="H136">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I136" t="s">
-        <v>247</v>
+        <v>136</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>11032</v>
+        <v>11031</v>
       </c>
       <c r="B137" t="s">
         <v>127</v>
       </c>
       <c r="C137">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D137">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E137" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F137" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="F137" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G137" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H137">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I137" t="s">
-        <v>247</v>
+        <v>136</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>11122</v>
+        <v>11032</v>
       </c>
       <c r="B138" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C138">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D138">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>138</v>
+        <v>246</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>139</v>
+        <v>24</v>
       </c>
       <c r="G138" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H138">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I138" t="s">
-        <v>14</v>
+        <v>247</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>11122</v>
+        <v>11032</v>
       </c>
       <c r="B139" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C139">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D139">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>138</v>
+        <v>246</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>139</v>
+        <v>24</v>
       </c>
       <c r="G139" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I139" t="s">
-        <v>14</v>
+        <v>247</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>11123</v>
+        <v>11122</v>
       </c>
       <c r="B140" t="s">
         <v>137</v>
       </c>
       <c r="C140">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D140">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E140" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F140" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F140" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="G140" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H140">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I140" t="s">
-        <v>141</v>
+        <v>14</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>11123</v>
+        <v>11122</v>
       </c>
       <c r="B141" t="s">
         <v>137</v>
       </c>
       <c r="C141">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D141">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E141" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F141" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F141" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="G141" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H141">
         <v>2</v>
       </c>
       <c r="I141" t="s">
-        <v>141</v>
+        <v>14</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>11124</v>
+        <v>11123</v>
       </c>
       <c r="B142" t="s">
         <v>137</v>
       </c>
       <c r="C142">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D142">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E142" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F142" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F142" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="G142" t="s">
         <v>20</v>
       </c>
       <c r="H142">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I142" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>11124</v>
+        <v>11123</v>
       </c>
       <c r="B143" t="s">
         <v>137</v>
       </c>
       <c r="C143">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D143">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E143" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F143" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="G143" t="s">
         <v>18</v>
       </c>
       <c r="H143">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I143" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>11125</v>
+        <v>11124</v>
       </c>
       <c r="B144" t="s">
         <v>137</v>
       </c>
       <c r="C144">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D144">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E144" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F144" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F144" s="1" t="s">
-        <v>235</v>
-      </c>
       <c r="G144" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H144">
         <v>10</v>
       </c>
       <c r="I144" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>11125</v>
+        <v>11124</v>
       </c>
       <c r="B145" t="s">
         <v>137</v>
       </c>
       <c r="C145">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D145">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E145" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F145" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F145" s="1" t="s">
-        <v>235</v>
-      </c>
       <c r="G145" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H145">
         <v>3</v>
       </c>
       <c r="I145" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>11126</v>
+        <v>11125</v>
       </c>
       <c r="B146" t="s">
         <v>137</v>
@@ -5348,14 +5354,14 @@
         <v>17</v>
       </c>
       <c r="D146">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E146" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F146" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="F146" s="1" t="s">
-        <v>243</v>
-      </c>
       <c r="G146" t="s">
         <v>10</v>
       </c>
@@ -5363,12 +5369,12 @@
         <v>10</v>
       </c>
       <c r="I146" t="s">
-        <v>236</v>
+        <v>144</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>11126</v>
+        <v>11125</v>
       </c>
       <c r="B147" t="s">
         <v>137</v>
@@ -5377,13 +5383,13 @@
         <v>17</v>
       </c>
       <c r="D147">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E147" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F147" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>243</v>
       </c>
       <c r="G147" t="s">
         <v>11</v>
@@ -5392,215 +5398,215 @@
         <v>3</v>
       </c>
       <c r="I147" t="s">
-        <v>236</v>
+        <v>144</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>11127</v>
+        <v>11126</v>
       </c>
       <c r="B148" t="s">
         <v>137</v>
       </c>
       <c r="C148">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D148">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E148" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F148" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="F148" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G148" t="s">
         <v>10</v>
       </c>
       <c r="H148">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I148" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>11127</v>
+        <v>11126</v>
       </c>
       <c r="B149" t="s">
         <v>137</v>
       </c>
       <c r="C149">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D149">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E149" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F149" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="F149" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G149" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H149">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I149" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>11221</v>
+        <v>11127</v>
       </c>
       <c r="B150" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C150">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D150">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>146</v>
+        <v>243</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>147</v>
+        <v>24</v>
       </c>
       <c r="G150" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H150">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I150" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>11221</v>
+        <v>11127</v>
       </c>
       <c r="B151" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C151">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D151">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>146</v>
+        <v>243</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>147</v>
+        <v>24</v>
       </c>
       <c r="G151" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I151" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>11222</v>
+        <v>11221</v>
       </c>
       <c r="B152" t="s">
         <v>145</v>
       </c>
       <c r="C152">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D152">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E152" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F152" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F152" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="G152" t="s">
         <v>20</v>
       </c>
       <c r="H152">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I152" t="s">
-        <v>149</v>
+        <v>14</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>11223</v>
+        <v>11221</v>
       </c>
       <c r="B153" t="s">
         <v>145</v>
       </c>
       <c r="C153">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D153">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G153" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H153">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I153" t="s">
-        <v>150</v>
+        <v>14</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>11223</v>
+        <v>11222</v>
       </c>
       <c r="B154" t="s">
         <v>145</v>
       </c>
       <c r="C154">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D154">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E154" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F154" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F154" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="G154" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H154">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I154" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>11224</v>
+        <v>11223</v>
       </c>
       <c r="B155" t="s">
         <v>145</v>
@@ -5609,13 +5615,13 @@
         <v>16</v>
       </c>
       <c r="D155">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E155" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F155" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="F155" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="G155" t="s">
         <v>20</v>
@@ -5624,12 +5630,12 @@
         <v>7</v>
       </c>
       <c r="I155" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>11224</v>
+        <v>11223</v>
       </c>
       <c r="B156" t="s">
         <v>145</v>
@@ -5638,13 +5644,13 @@
         <v>16</v>
       </c>
       <c r="D156">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E156" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F156" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="F156" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="G156" t="s">
         <v>18</v>
@@ -5653,65 +5659,65 @@
         <v>3</v>
       </c>
       <c r="I156" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>11225</v>
+        <v>11224</v>
       </c>
       <c r="B157" t="s">
         <v>145</v>
       </c>
       <c r="C157">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D157">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E157" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F157" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F157" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="G157" t="s">
         <v>20</v>
       </c>
       <c r="H157">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I157" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>11225</v>
+        <v>11224</v>
       </c>
       <c r="B158" t="s">
         <v>145</v>
       </c>
       <c r="C158">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D158">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E158" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F158" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F158" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="G158" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I158" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
@@ -5734,10 +5740,10 @@
         <v>154</v>
       </c>
       <c r="G159" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I159" t="s">
         <v>155</v>
@@ -5745,60 +5751,60 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>11226</v>
+        <v>11225</v>
       </c>
       <c r="B160" t="s">
         <v>145</v>
       </c>
       <c r="C160">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D160">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E160" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F160" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F160" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G160" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H160">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I160" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>11226</v>
+        <v>11225</v>
       </c>
       <c r="B161" t="s">
         <v>145</v>
       </c>
       <c r="C161">
+        <v>17</v>
+      </c>
+      <c r="D161">
+        <v>25</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G161" t="s">
         <v>18</v>
-      </c>
-      <c r="D161">
-        <v>26</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F161" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G161" t="s">
-        <v>11</v>
       </c>
       <c r="H161">
         <v>2</v>
       </c>
       <c r="I161" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
@@ -5821,10 +5827,10 @@
         <v>24</v>
       </c>
       <c r="G162" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I162" t="s">
         <v>156</v>
@@ -5832,65 +5838,65 @@
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>11314</v>
+        <v>11226</v>
       </c>
       <c r="B163" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C163">
-        <v>-2</v>
+        <v>18</v>
       </c>
       <c r="D163">
-        <v>-9</v>
+        <v>26</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>162</v>
+        <v>24</v>
       </c>
       <c r="G163" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="H163">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I163" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>11314</v>
+        <v>11226</v>
       </c>
       <c r="B164" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C164">
-        <v>-2</v>
+        <v>18</v>
       </c>
       <c r="D164">
-        <v>-9</v>
+        <v>26</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>162</v>
+        <v>24</v>
       </c>
       <c r="G164" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="H164">
         <v>2</v>
       </c>
       <c r="I164" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>11315</v>
+        <v>11314</v>
       </c>
       <c r="B165" t="s">
         <v>157</v>
@@ -5899,85 +5905,85 @@
         <v>-2</v>
       </c>
       <c r="D165">
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="E165" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F165" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="F165" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="G165" t="s">
         <v>159</v>
       </c>
       <c r="H165">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I165" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>11316</v>
+        <v>11314</v>
       </c>
       <c r="B166" t="s">
         <v>157</v>
       </c>
       <c r="C166">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D166">
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G166" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H166">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I166" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>11316</v>
+        <v>11315</v>
       </c>
       <c r="B167" t="s">
         <v>157</v>
       </c>
       <c r="C167">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D167">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="E167" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F167" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F167" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="G167" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I167" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>11317</v>
+        <v>11316</v>
       </c>
       <c r="B168" t="s">
         <v>157</v>
@@ -5986,27 +5992,27 @@
         <v>-1</v>
       </c>
       <c r="D168">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="E168" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F168" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="F168" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="G168" t="s">
         <v>159</v>
       </c>
       <c r="H168">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I168" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>11318</v>
+        <v>11316</v>
       </c>
       <c r="B169" t="s">
         <v>157</v>
@@ -6015,80 +6021,80 @@
         <v>-1</v>
       </c>
       <c r="D169">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G169" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="H169">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I169" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>11319</v>
+        <v>11317</v>
       </c>
       <c r="B170" t="s">
         <v>157</v>
       </c>
       <c r="C170">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D170">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="G170" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="H170">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I170" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>11319</v>
+        <v>11318</v>
       </c>
       <c r="B171" t="s">
         <v>157</v>
       </c>
       <c r="C171">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D171">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="E171" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F171" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F171" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="G171" t="s">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I171" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
@@ -6111,10 +6117,10 @@
         <v>174</v>
       </c>
       <c r="G172" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I172" t="s">
         <v>173</v>
@@ -6122,7 +6128,7 @@
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>11320</v>
+        <v>11319</v>
       </c>
       <c r="B173" t="s">
         <v>157</v>
@@ -6131,19 +6137,19 @@
         <v>0</v>
       </c>
       <c r="D173">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="E173" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F173" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F173" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="G173" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H173">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I173" t="s">
         <v>173</v>
@@ -6151,7 +6157,7 @@
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>11320</v>
+        <v>11319</v>
       </c>
       <c r="B174" t="s">
         <v>157</v>
@@ -6160,16 +6166,16 @@
         <v>0</v>
       </c>
       <c r="D174">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="E174" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F174" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F174" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="G174" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H174">
         <v>1</v>
@@ -6180,7 +6186,7 @@
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>11321</v>
+        <v>11320</v>
       </c>
       <c r="B175" t="s">
         <v>157</v>
@@ -6189,27 +6195,27 @@
         <v>0</v>
       </c>
       <c r="D175">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="E175" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F175" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F175" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="G175" t="s">
         <v>10</v>
       </c>
       <c r="H175">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I175" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>11321</v>
+        <v>11320</v>
       </c>
       <c r="B176" t="s">
         <v>157</v>
@@ -6218,13 +6224,13 @@
         <v>0</v>
       </c>
       <c r="D176">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="E176" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F176" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="F176" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="G176" t="s">
         <v>20</v>
@@ -6233,7 +6239,7 @@
         <v>1</v>
       </c>
       <c r="I176" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
@@ -6256,10 +6262,10 @@
         <v>175</v>
       </c>
       <c r="G177" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I177" t="s">
         <v>176</v>
@@ -6267,7 +6273,7 @@
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>11322</v>
+        <v>11321</v>
       </c>
       <c r="B178" t="s">
         <v>157</v>
@@ -6276,27 +6282,27 @@
         <v>0</v>
       </c>
       <c r="D178">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E178" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F178" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="F178" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="G178" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H178">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I178" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>11322</v>
+        <v>11321</v>
       </c>
       <c r="B179" t="s">
         <v>157</v>
@@ -6305,22 +6311,22 @@
         <v>0</v>
       </c>
       <c r="D179">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E179" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F179" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="F179" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="G179" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H179">
         <v>2</v>
       </c>
       <c r="I179" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
@@ -6343,10 +6349,10 @@
         <v>177</v>
       </c>
       <c r="G180" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I180" t="s">
         <v>178</v>
@@ -6354,7 +6360,7 @@
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>11323</v>
+        <v>11322</v>
       </c>
       <c r="B181" t="s">
         <v>157</v>
@@ -6363,27 +6369,27 @@
         <v>0</v>
       </c>
       <c r="D181">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E181" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F181" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F181" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="G181" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H181">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I181" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>11323</v>
+        <v>11322</v>
       </c>
       <c r="B182" t="s">
         <v>157</v>
@@ -6392,109 +6398,109 @@
         <v>0</v>
       </c>
       <c r="D182">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E182" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F182" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F182" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="G182" t="s">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I182" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>11313</v>
+        <v>11323</v>
       </c>
       <c r="B183" t="s">
         <v>157</v>
       </c>
       <c r="C183">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D183">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G183" t="s">
         <v>10</v>
       </c>
       <c r="H183">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I183" t="s">
-        <v>14</v>
+        <v>180</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>11324</v>
+        <v>11323</v>
       </c>
       <c r="B184" t="s">
         <v>157</v>
       </c>
       <c r="C184">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D184">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G184" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H184">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I184" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>11324</v>
+        <v>11313</v>
       </c>
       <c r="B185" t="s">
         <v>157</v>
       </c>
       <c r="C185">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D185">
+        <v>13</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G185" t="s">
+        <v>10</v>
+      </c>
+      <c r="H185">
+        <v>8</v>
+      </c>
+      <c r="I185" t="s">
         <v>14</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F185" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="G185" t="s">
-        <v>11</v>
-      </c>
-      <c r="H185">
-        <v>2</v>
-      </c>
-      <c r="I185" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
@@ -6517,10 +6523,10 @@
         <v>183</v>
       </c>
       <c r="G186" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I186" t="s">
         <v>184</v>
@@ -6528,7 +6534,7 @@
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>11325</v>
+        <v>11324</v>
       </c>
       <c r="B187" t="s">
         <v>157</v>
@@ -6537,27 +6543,27 @@
         <v>11</v>
       </c>
       <c r="D187">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E187" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F187" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F187" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="G187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H187">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I187" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>11325</v>
+        <v>11324</v>
       </c>
       <c r="B188" t="s">
         <v>157</v>
@@ -6566,22 +6572,22 @@
         <v>11</v>
       </c>
       <c r="D188">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E188" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F188" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F188" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="G188" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H188">
         <v>2</v>
       </c>
       <c r="I188" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
@@ -6604,10 +6610,10 @@
         <v>185</v>
       </c>
       <c r="G189" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I189" t="s">
         <v>186</v>
@@ -6615,7 +6621,7 @@
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>11326</v>
+        <v>11325</v>
       </c>
       <c r="B190" t="s">
         <v>157</v>
@@ -6624,19 +6630,19 @@
         <v>11</v>
       </c>
       <c r="D190">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E190" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F190" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="F190" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="G190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H190">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I190" t="s">
         <v>186</v>
@@ -6644,80 +6650,80 @@
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>11327</v>
+        <v>11325</v>
       </c>
       <c r="B191" t="s">
         <v>157</v>
       </c>
       <c r="C191">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D191">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G191" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H191">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I191" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>11327</v>
+        <v>11326</v>
       </c>
       <c r="B192" t="s">
         <v>157</v>
       </c>
       <c r="C192">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D192">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E192" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F192" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F192" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="G192" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H192">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I192" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>11328</v>
+        <v>11327</v>
       </c>
       <c r="B193" t="s">
         <v>157</v>
       </c>
       <c r="C193">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D193">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E193" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F193" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="F193" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="G193" t="s">
         <v>10</v>
@@ -6726,41 +6732,41 @@
         <v>4</v>
       </c>
       <c r="I193" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>11328</v>
+        <v>11327</v>
       </c>
       <c r="B194" t="s">
         <v>157</v>
       </c>
       <c r="C194">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D194">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E194" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F194" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F194" s="1" t="s">
-        <v>190</v>
-      </c>
       <c r="G194" t="s">
         <v>20</v>
       </c>
       <c r="H194">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I194" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>11329</v>
+        <v>11328</v>
       </c>
       <c r="B195" t="s">
         <v>157</v>
@@ -6769,13 +6775,13 @@
         <v>13</v>
       </c>
       <c r="D195">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E195" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F195" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="F195" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="G195" t="s">
         <v>10</v>
@@ -6784,12 +6790,12 @@
         <v>4</v>
       </c>
       <c r="I195" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>11329</v>
+        <v>11328</v>
       </c>
       <c r="B196" t="s">
         <v>157</v>
@@ -6798,13 +6804,13 @@
         <v>13</v>
       </c>
       <c r="D196">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E196" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F196" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="F196" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="G196" t="s">
         <v>20</v>
@@ -6813,99 +6819,99 @@
         <v>3</v>
       </c>
       <c r="I196" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>11330</v>
+        <v>11329</v>
       </c>
       <c r="B197" t="s">
         <v>157</v>
       </c>
       <c r="C197">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D197">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E197" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F197" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F197" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G197" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H197">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I197" t="s">
-        <v>239</v>
+        <v>192</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>11405</v>
+        <v>11329</v>
       </c>
       <c r="B198" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="C198">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D198">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>195</v>
+        <v>240</v>
       </c>
       <c r="G198" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H198">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I198" t="s">
-        <v>14</v>
+        <v>192</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>11405</v>
+        <v>11330</v>
       </c>
       <c r="B199" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="C199">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D199">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>195</v>
+        <v>24</v>
       </c>
       <c r="G199" t="s">
         <v>20</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I199" t="s">
-        <v>14</v>
+        <v>239</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>11406</v>
+        <v>11405</v>
       </c>
       <c r="B200" t="s">
         <v>193</v>
@@ -6914,27 +6920,27 @@
         <v>4</v>
       </c>
       <c r="D200">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E200" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F200" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F200" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="G200" t="s">
         <v>10</v>
       </c>
       <c r="H200">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I200" t="s">
-        <v>199</v>
+        <v>14</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>11406</v>
+        <v>11405</v>
       </c>
       <c r="B201" t="s">
         <v>193</v>
@@ -6943,13 +6949,13 @@
         <v>4</v>
       </c>
       <c r="D201">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E201" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F201" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="F201" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="G201" t="s">
         <v>20</v>
@@ -6958,85 +6964,85 @@
         <v>2</v>
       </c>
       <c r="I201" t="s">
-        <v>199</v>
+        <v>14</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>11407</v>
+        <v>11406</v>
       </c>
       <c r="B202" t="s">
         <v>193</v>
       </c>
       <c r="C202">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D202">
+        <v>6</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G202" t="s">
+        <v>10</v>
+      </c>
+      <c r="H202">
         <v>7</v>
       </c>
-      <c r="E202" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F202" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="G202" t="s">
-        <v>10</v>
-      </c>
-      <c r="H202">
-        <v>8</v>
-      </c>
       <c r="I202" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>11407</v>
+        <v>11406</v>
       </c>
       <c r="B203" t="s">
         <v>193</v>
       </c>
       <c r="C203">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D203">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E203" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F203" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="F203" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="G203" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H203">
         <v>2</v>
       </c>
       <c r="I203" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>11408</v>
+        <v>11407</v>
       </c>
       <c r="B204" t="s">
         <v>193</v>
       </c>
       <c r="C204">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D204">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E204" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F204" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="F204" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="G204" t="s">
         <v>10</v>
@@ -7045,41 +7051,41 @@
         <v>8</v>
       </c>
       <c r="I204" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>11408</v>
+        <v>11407</v>
       </c>
       <c r="B205" t="s">
         <v>193</v>
       </c>
       <c r="C205">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D205">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E205" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F205" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F205" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="G205" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H205">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I205" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>11409</v>
+        <v>11408</v>
       </c>
       <c r="B206" t="s">
         <v>193</v>
@@ -7088,13 +7094,13 @@
         <v>6</v>
       </c>
       <c r="D206">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E206" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F206" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="F206" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="G206" t="s">
         <v>10</v>
@@ -7103,12 +7109,12 @@
         <v>8</v>
       </c>
       <c r="I206" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>11409</v>
+        <v>11408</v>
       </c>
       <c r="B207" t="s">
         <v>193</v>
@@ -7117,13 +7123,13 @@
         <v>6</v>
       </c>
       <c r="D207">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E207" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F207" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="F207" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="G207" t="s">
         <v>20</v>
@@ -7132,27 +7138,27 @@
         <v>3</v>
       </c>
       <c r="I207" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>11410</v>
+        <v>11409</v>
       </c>
       <c r="B208" t="s">
         <v>193</v>
       </c>
       <c r="C208">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D208">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E208" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F208" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="F208" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="G208" t="s">
         <v>10</v>
@@ -7161,36 +7167,36 @@
         <v>8</v>
       </c>
       <c r="I208" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>11410</v>
+        <v>11409</v>
       </c>
       <c r="B209" t="s">
         <v>193</v>
       </c>
       <c r="C209">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D209">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E209" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F209" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="F209" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G209" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I209" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
@@ -7213,10 +7219,10 @@
         <v>24</v>
       </c>
       <c r="G210" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I210" t="s">
         <v>204</v>
@@ -7224,167 +7230,167 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>11506</v>
+        <v>11410</v>
       </c>
       <c r="B211" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C211">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D211">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>207</v>
+        <v>24</v>
       </c>
       <c r="G211" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H211">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I211" t="s">
-        <v>14</v>
+        <v>204</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>11506</v>
+        <v>11410</v>
       </c>
       <c r="B212" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C212">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D212">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>207</v>
+        <v>24</v>
       </c>
       <c r="G212" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H212">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I212" t="s">
-        <v>14</v>
+        <v>204</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>11507</v>
+        <v>11506</v>
       </c>
       <c r="B213" t="s">
         <v>205</v>
       </c>
       <c r="C213">
+        <v>4</v>
+      </c>
+      <c r="D213">
+        <v>6</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G213" t="s">
+        <v>10</v>
+      </c>
+      <c r="H213">
         <v>5</v>
       </c>
-      <c r="D213">
-        <v>7</v>
-      </c>
-      <c r="E213" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F213" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G213" t="s">
-        <v>10</v>
-      </c>
-      <c r="H213">
-        <v>6</v>
-      </c>
       <c r="I213" t="s">
-        <v>209</v>
+        <v>14</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>11507</v>
+        <v>11506</v>
       </c>
       <c r="B214" t="s">
         <v>205</v>
       </c>
       <c r="C214">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D214">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E214" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F214" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F214" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="G214" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H214">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I214" t="s">
-        <v>209</v>
+        <v>14</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>11508</v>
+        <v>11507</v>
       </c>
       <c r="B215" t="s">
         <v>205</v>
       </c>
       <c r="C215">
+        <v>5</v>
+      </c>
+      <c r="D215">
+        <v>7</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G215" t="s">
+        <v>10</v>
+      </c>
+      <c r="H215">
         <v>6</v>
       </c>
-      <c r="D215">
-        <v>8</v>
-      </c>
-      <c r="E215" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F215" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="G215" t="s">
-        <v>10</v>
-      </c>
-      <c r="H215">
-        <v>5</v>
-      </c>
       <c r="I215" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>11508</v>
+        <v>11507</v>
       </c>
       <c r="B216" t="s">
         <v>205</v>
       </c>
       <c r="C216">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D216">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E216" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F216" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="F216" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="G216" t="s">
         <v>20</v>
@@ -7393,65 +7399,65 @@
         <v>4</v>
       </c>
       <c r="I216" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>11509</v>
+        <v>11508</v>
       </c>
       <c r="B217" t="s">
         <v>205</v>
       </c>
       <c r="C217">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D217">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E217" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F217" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="F217" s="1" t="s">
-        <v>237</v>
-      </c>
       <c r="G217" t="s">
         <v>10</v>
       </c>
       <c r="H217">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I217" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>11509</v>
+        <v>11508</v>
       </c>
       <c r="B218" t="s">
         <v>205</v>
       </c>
       <c r="C218">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D218">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E218" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F218" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="F218" s="1" t="s">
-        <v>237</v>
-      </c>
       <c r="G218" t="s">
         <v>20</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I218" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
@@ -7474,10 +7480,10 @@
         <v>237</v>
       </c>
       <c r="G219" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I219" t="s">
         <v>212</v>
@@ -7485,60 +7491,60 @@
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>11510</v>
+        <v>11509</v>
       </c>
       <c r="B220" t="s">
         <v>205</v>
       </c>
       <c r="C220">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D220">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E220" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F220" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F220" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G220" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H220">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I220" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>11510</v>
+        <v>11509</v>
       </c>
       <c r="B221" t="s">
         <v>205</v>
       </c>
       <c r="C221">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D221">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E221" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F221" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F221" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G221" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I221" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
@@ -7561,10 +7567,10 @@
         <v>24</v>
       </c>
       <c r="G222" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I222" t="s">
         <v>238</v>
@@ -7572,80 +7578,80 @@
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>11626</v>
+        <v>11510</v>
       </c>
       <c r="B223" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C223">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D223">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>9</v>
+        <v>237</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>214</v>
+        <v>24</v>
       </c>
       <c r="G223" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H223">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I223" t="s">
-        <v>14</v>
+        <v>238</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>11626</v>
+        <v>11510</v>
       </c>
       <c r="B224" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C224">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D224">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>9</v>
+        <v>237</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>214</v>
+        <v>24</v>
       </c>
       <c r="G224" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H224">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I224" t="s">
-        <v>14</v>
+        <v>238</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>11627</v>
+        <v>11626</v>
       </c>
       <c r="B225" t="s">
         <v>213</v>
       </c>
       <c r="C225">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D225">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E225" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F225" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="F225" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="G225" t="s">
         <v>10</v>
@@ -7654,94 +7660,94 @@
         <v>5</v>
       </c>
       <c r="I225" t="s">
-        <v>216</v>
+        <v>14</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>11627</v>
+        <v>11626</v>
       </c>
       <c r="B226" t="s">
         <v>213</v>
       </c>
       <c r="C226">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D226">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E226" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F226" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="F226" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="G226" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H226">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I226" t="s">
-        <v>216</v>
+        <v>14</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>11628</v>
+        <v>11627</v>
       </c>
       <c r="B227" t="s">
         <v>213</v>
       </c>
       <c r="C227">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D227">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E227" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F227" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F227" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="G227" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H227">
         <v>5</v>
       </c>
       <c r="I227" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>11628</v>
+        <v>11627</v>
       </c>
       <c r="B228" t="s">
         <v>213</v>
       </c>
       <c r="C228">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D228">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E228" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F228" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F228" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="G228" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I228" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
@@ -7764,10 +7770,10 @@
         <v>217</v>
       </c>
       <c r="G229" t="s">
-        <v>218</v>
+        <v>20</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I229" t="s">
         <v>219</v>
@@ -7775,60 +7781,60 @@
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>11629</v>
+        <v>11628</v>
       </c>
       <c r="B230" t="s">
         <v>213</v>
       </c>
       <c r="C230">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D230">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E230" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F230" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F230" s="1" t="s">
-        <v>243</v>
-      </c>
       <c r="G230" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H230">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I230" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>11629</v>
+        <v>11628</v>
       </c>
       <c r="B231" t="s">
         <v>213</v>
       </c>
       <c r="C231">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D231">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E231" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F231" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F231" s="1" t="s">
-        <v>243</v>
-      </c>
       <c r="G231" t="s">
-        <v>18</v>
+        <v>218</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I231" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
@@ -7851,10 +7857,10 @@
         <v>243</v>
       </c>
       <c r="G232" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I232" t="s">
         <v>220</v>
@@ -7862,205 +7868,205 @@
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>11630</v>
+        <v>11629</v>
       </c>
       <c r="B233" t="s">
         <v>213</v>
       </c>
       <c r="C233">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D233">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E233" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F233" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="F233" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G233" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H233">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I233" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>11630</v>
+        <v>11629</v>
       </c>
       <c r="B234" t="s">
         <v>213</v>
       </c>
       <c r="C234">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D234">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E234" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F234" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="F234" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G234" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H234">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I234" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>11706</v>
+        <v>11630</v>
       </c>
       <c r="B235" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C235">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D235">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>223</v>
+        <v>24</v>
       </c>
       <c r="G235" t="s">
         <v>10</v>
       </c>
       <c r="H235">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I235" t="s">
-        <v>14</v>
+        <v>245</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>11707</v>
+        <v>11630</v>
       </c>
       <c r="B236" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C236">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D236">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>224</v>
+        <v>24</v>
       </c>
       <c r="G236" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H236">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I236" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>11707</v>
+        <v>11706</v>
       </c>
       <c r="B237" t="s">
         <v>221</v>
       </c>
       <c r="C237">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D237">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E237" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F237" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="F237" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="G237" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H237">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I237" t="s">
-        <v>225</v>
+        <v>14</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>11708</v>
+        <v>11707</v>
       </c>
       <c r="B238" t="s">
         <v>221</v>
       </c>
       <c r="C238">
+        <v>5</v>
+      </c>
+      <c r="D238">
+        <v>7</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G238" t="s">
+        <v>10</v>
+      </c>
+      <c r="H238">
         <v>6</v>
       </c>
-      <c r="D238">
-        <v>8</v>
-      </c>
-      <c r="E238" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F238" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G238" t="s">
-        <v>53</v>
-      </c>
-      <c r="H238">
-        <v>5</v>
-      </c>
       <c r="I238" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>11708</v>
+        <v>11707</v>
       </c>
       <c r="B239" t="s">
         <v>221</v>
       </c>
       <c r="C239">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D239">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E239" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F239" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="F239" s="1" t="s">
-        <v>226</v>
-      </c>
       <c r="G239" t="s">
         <v>20</v>
       </c>
       <c r="H239">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I239" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
@@ -8083,10 +8089,10 @@
         <v>226</v>
       </c>
       <c r="G240" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I240" t="s">
         <v>227</v>
@@ -8094,57 +8100,57 @@
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>11709</v>
+        <v>11708</v>
       </c>
       <c r="B241" t="s">
         <v>221</v>
       </c>
       <c r="C241">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D241">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E241" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F241" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="F241" s="1" t="s">
-        <v>228</v>
-      </c>
       <c r="G241" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I241" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>11710</v>
+        <v>11708</v>
       </c>
       <c r="B242" t="s">
         <v>221</v>
       </c>
       <c r="C242">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D242">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>24</v>
+        <v>226</v>
       </c>
       <c r="G242" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="H242">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I242" t="s">
         <v>227</v>
@@ -8152,7 +8158,7 @@
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>11710</v>
+        <v>11709</v>
       </c>
       <c r="B243" t="s">
         <v>221</v>
@@ -8161,22 +8167,22 @@
         <v>7</v>
       </c>
       <c r="D243">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E243" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F243" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="F243" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G243" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H243">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I243" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
@@ -8199,12 +8205,70 @@
         <v>24</v>
       </c>
       <c r="G244" t="s">
+        <v>53</v>
+      </c>
+      <c r="H244">
+        <v>4</v>
+      </c>
+      <c r="I244" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>11710</v>
+      </c>
+      <c r="B245" t="s">
+        <v>221</v>
+      </c>
+      <c r="C245">
+        <v>7</v>
+      </c>
+      <c r="D245">
+        <v>10</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G245" t="s">
+        <v>20</v>
+      </c>
+      <c r="H245">
+        <v>3</v>
+      </c>
+      <c r="I245" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>11710</v>
+      </c>
+      <c r="B246" t="s">
+        <v>221</v>
+      </c>
+      <c r="C246">
+        <v>7</v>
+      </c>
+      <c r="D246">
+        <v>10</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G246" t="s">
         <v>18</v>
       </c>
-      <c r="H244">
+      <c r="H246">
         <v>2</v>
       </c>
-      <c r="I244" t="s">
+      <c r="I246" t="s">
         <v>227</v>
       </c>
     </row>

--- a/inst/extdata/additional_govdata.xlsx
+++ b/inst/extdata/additional_govdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Git_Projekte\bundeslaendeR\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\au785183\git_projects\bundeslaendeR\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1A60C5-8B28-4E2A-91E6-AE0599F6DF57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2320DA3E-1B77-4E99-8892-8A0909057902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="270">
   <si>
     <t>gov_id</t>
   </si>
@@ -802,6 +802,48 @@
   </si>
   <si>
     <t>https://de.wikipedia.org/wiki/Kabinett_Rhein_II</t>
+  </si>
+  <si>
+    <t>2024-12-19</t>
+  </si>
+  <si>
+    <t>https://de.wikipedia.org/wiki/Kabinett_Kretschmer_III</t>
+  </si>
+  <si>
+    <t>https://de.wikipedia.org/wiki/Kabinett_Ramelow_II</t>
+  </si>
+  <si>
+    <t>2024-12-12</t>
+  </si>
+  <si>
+    <t>BSW</t>
+  </si>
+  <si>
+    <t>https://de.wikipedia.org/wiki/Kabinett_Voigt_(Th%C3%BCringen)</t>
+  </si>
+  <si>
+    <t>2024-12-11</t>
+  </si>
+  <si>
+    <t>https://de.wikipedia.org/wiki/Kabinett_Woidke_IV</t>
+  </si>
+  <si>
+    <t>2025-05-07</t>
+  </si>
+  <si>
+    <t>https://de.wikipedia.org/wiki/Senat_Tschentscher_III</t>
+  </si>
+  <si>
+    <t>2024-07-10</t>
+  </si>
+  <si>
+    <t>https://de.wikipedia.org/wiki/Kabinett_Schweitzer</t>
+  </si>
+  <si>
+    <t>2025-05-20</t>
+  </si>
+  <si>
+    <t>https://de.wikipedia.org/wiki/Kabinett_Lies</t>
   </si>
 </sst>
 </file>
@@ -842,7 +884,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1120,14 +1162,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I246"/>
+  <dimension ref="A1:I260"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F114" sqref="F114"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I145" sqref="I145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="19.140625" customWidth="1"/>
     <col min="4" max="4" width="19.7109375" customWidth="1"/>
@@ -2953,7 +2995,7 @@
         <v>68</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>24</v>
+        <v>262</v>
       </c>
       <c r="G63" t="s">
         <v>20</v>
@@ -2982,7 +3024,7 @@
         <v>68</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>24</v>
+        <v>262</v>
       </c>
       <c r="G64" t="s">
         <v>10</v>
@@ -3011,7 +3053,7 @@
         <v>68</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>24</v>
+        <v>262</v>
       </c>
       <c r="G65" t="s">
         <v>18</v>
@@ -3025,60 +3067,60 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>10620</v>
+        <v>10511</v>
       </c>
       <c r="B66" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D66">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>73</v>
+        <v>262</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="G66" t="s">
         <v>20</v>
       </c>
       <c r="H66">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I66" t="s">
-        <v>71</v>
+        <v>263</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>10620</v>
+        <v>10511</v>
       </c>
       <c r="B67" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D67">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>73</v>
+        <v>262</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="G67" t="s">
-        <v>11</v>
+        <v>260</v>
       </c>
       <c r="H67">
         <v>3</v>
       </c>
       <c r="I67" t="s">
-        <v>71</v>
+        <v>263</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -3101,10 +3143,10 @@
         <v>75</v>
       </c>
       <c r="G68" t="s">
-        <v>230</v>
+        <v>20</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I68" t="s">
         <v>71</v>
@@ -3112,7 +3154,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>10621</v>
+        <v>10620</v>
       </c>
       <c r="B69" t="s">
         <v>72</v>
@@ -3121,19 +3163,19 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E69" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F69" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F69" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="G69" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H69">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I69" t="s">
         <v>71</v>
@@ -3141,7 +3183,7 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>10621</v>
+        <v>10620</v>
       </c>
       <c r="B70" t="s">
         <v>72</v>
@@ -3150,19 +3192,19 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E70" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F70" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F70" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="G70" t="s">
-        <v>11</v>
+        <v>230</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="s">
         <v>71</v>
@@ -3170,65 +3212,65 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>10619</v>
+        <v>10621</v>
       </c>
       <c r="B71" t="s">
         <v>72</v>
       </c>
       <c r="C71">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D71">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G71" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H71">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I71" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>10619</v>
+        <v>10621</v>
       </c>
       <c r="B72" t="s">
         <v>72</v>
       </c>
       <c r="C72">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D72">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G72" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H72">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>10622</v>
+        <v>10619</v>
       </c>
       <c r="B73" t="s">
         <v>72</v>
@@ -3237,13 +3279,13 @@
         <v>15</v>
       </c>
       <c r="D73">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E73" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="G73" t="s">
         <v>10</v>
@@ -3252,12 +3294,12 @@
         <v>4</v>
       </c>
       <c r="I73" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>10622</v>
+        <v>10619</v>
       </c>
       <c r="B74" t="s">
         <v>72</v>
@@ -3266,187 +3308,187 @@
         <v>15</v>
       </c>
       <c r="D74">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E74" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F74" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="G74" t="s">
         <v>20</v>
       </c>
       <c r="H74">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I74" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>10623</v>
+        <v>10622</v>
       </c>
       <c r="B75" t="s">
         <v>72</v>
       </c>
       <c r="C75">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D75">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E75" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F75" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F75" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="G75" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H75">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I75" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>10623</v>
+        <v>10622</v>
       </c>
       <c r="B76" t="s">
         <v>72</v>
       </c>
       <c r="C76">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D76">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E76" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F76" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="G76" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>10624</v>
+        <v>10623</v>
       </c>
       <c r="B77" t="s">
         <v>72</v>
       </c>
       <c r="C77">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D77">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E77" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F77" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="G77" t="s">
         <v>20</v>
       </c>
       <c r="H77">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I77" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>10624</v>
+        <v>10623</v>
       </c>
       <c r="B78" t="s">
         <v>72</v>
       </c>
       <c r="C78">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D78">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E78" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F78" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="G78" t="s">
         <v>18</v>
       </c>
       <c r="H78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I78" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>10625</v>
+        <v>10624</v>
       </c>
       <c r="B79" t="s">
         <v>72</v>
       </c>
       <c r="C79">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E79" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F79" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F79" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="G79" t="s">
         <v>20</v>
       </c>
       <c r="H79">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I79" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>10625</v>
+        <v>10624</v>
       </c>
       <c r="B80" t="s">
         <v>72</v>
       </c>
       <c r="C80">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D80">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E80" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F80" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="G80" t="s">
         <v>18</v>
@@ -3455,56 +3497,56 @@
         <v>3</v>
       </c>
       <c r="I80" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>10626</v>
+        <v>10625</v>
       </c>
       <c r="B81" t="s">
         <v>72</v>
       </c>
       <c r="C81">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D81">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E81" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F81" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F81" s="1" t="s">
-        <v>250</v>
-      </c>
       <c r="G81" t="s">
         <v>20</v>
       </c>
       <c r="H81">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I81" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>10626</v>
+        <v>10625</v>
       </c>
       <c r="B82" t="s">
         <v>72</v>
       </c>
       <c r="C82">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D82">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E82" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F82" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="G82" t="s">
         <v>18</v>
@@ -3513,7 +3555,7 @@
         <v>3</v>
       </c>
       <c r="I82" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -3536,10 +3578,10 @@
         <v>250</v>
       </c>
       <c r="G83" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I83" t="s">
         <v>86</v>
@@ -3547,60 +3589,60 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>10627</v>
+        <v>10626</v>
       </c>
       <c r="B84" t="s">
         <v>72</v>
       </c>
       <c r="C84">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D84">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E84" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F84" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="F84" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G84" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H84">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I84" t="s">
-        <v>251</v>
+        <v>86</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>10627</v>
+        <v>10626</v>
       </c>
       <c r="B85" t="s">
         <v>72</v>
       </c>
       <c r="C85">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D85">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E85" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F85" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="F85" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G85" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="H85">
         <v>2</v>
       </c>
       <c r="I85" t="s">
-        <v>251</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -3623,10 +3665,10 @@
         <v>24</v>
       </c>
       <c r="G86" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I86" t="s">
         <v>251</v>
@@ -3634,123 +3676,123 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>10720</v>
+        <v>10627</v>
       </c>
       <c r="B87" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C87">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D87">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>88</v>
+        <v>250</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="G87" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H87">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I87" t="s">
-        <v>14</v>
+        <v>251</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>10721</v>
+        <v>10627</v>
       </c>
       <c r="B88" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C88">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D88">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>92</v>
+        <v>250</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="G88" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="H88">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I88" t="s">
-        <v>93</v>
+        <v>251</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>10722</v>
+        <v>10720</v>
       </c>
       <c r="B89" t="s">
         <v>87</v>
       </c>
       <c r="C89">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D89">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G89" t="s">
         <v>10</v>
       </c>
       <c r="H89">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I89" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>10722</v>
+        <v>10721</v>
       </c>
       <c r="B90" t="s">
         <v>87</v>
       </c>
       <c r="C90">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D90">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E90" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F90" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F90" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="G90" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H90">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I90" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>10723</v>
+        <v>10722</v>
       </c>
       <c r="B91" t="s">
         <v>87</v>
@@ -3759,13 +3801,13 @@
         <v>18</v>
       </c>
       <c r="D91">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E91" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F91" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="G91" t="s">
         <v>10</v>
@@ -3774,12 +3816,12 @@
         <v>8</v>
       </c>
       <c r="I91" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>10723</v>
+        <v>10722</v>
       </c>
       <c r="B92" t="s">
         <v>87</v>
@@ -3788,13 +3830,13 @@
         <v>18</v>
       </c>
       <c r="D92">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E92" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F92" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="G92" t="s">
         <v>11</v>
@@ -3803,128 +3845,128 @@
         <v>4</v>
       </c>
       <c r="I92" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>10724</v>
+        <v>10723</v>
       </c>
       <c r="B93" t="s">
         <v>87</v>
       </c>
       <c r="C93">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D93">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E93" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F93" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F93" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="G93" t="s">
         <v>10</v>
       </c>
       <c r="H93">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I93" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>10724</v>
+        <v>10723</v>
       </c>
       <c r="B94" t="s">
         <v>87</v>
       </c>
       <c r="C94">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D94">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E94" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F94" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F94" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="G94" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I94" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>10725</v>
+        <v>10724</v>
       </c>
       <c r="B95" t="s">
         <v>87</v>
       </c>
       <c r="C95">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D95">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E95" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F95" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F95" s="1" t="s">
-        <v>241</v>
-      </c>
       <c r="G95" t="s">
         <v>10</v>
       </c>
       <c r="H95">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>10725</v>
+        <v>10724</v>
       </c>
       <c r="B96" t="s">
         <v>87</v>
       </c>
       <c r="C96">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D96">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E96" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F96" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>241</v>
       </c>
       <c r="G96" t="s">
         <v>18</v>
       </c>
       <c r="H96">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I96" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>10726</v>
+        <v>10725</v>
       </c>
       <c r="B97" t="s">
         <v>87</v>
@@ -3933,13 +3975,13 @@
         <v>20</v>
       </c>
       <c r="D97">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E97" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F97" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="G97" t="s">
         <v>10</v>
@@ -3948,12 +3990,12 @@
         <v>8</v>
       </c>
       <c r="I97" t="s">
-        <v>242</v>
+        <v>98</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>10726</v>
+        <v>10725</v>
       </c>
       <c r="B98" t="s">
         <v>87</v>
@@ -3962,13 +4004,13 @@
         <v>20</v>
       </c>
       <c r="D98">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E98" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F98" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="G98" t="s">
         <v>18</v>
@@ -3977,157 +4019,157 @@
         <v>4</v>
       </c>
       <c r="I98" t="s">
-        <v>242</v>
+        <v>98</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>10727</v>
+        <v>10726</v>
       </c>
       <c r="B99" t="s">
         <v>87</v>
       </c>
       <c r="C99">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D99">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E99" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F99" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="F99" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G99" t="s">
         <v>10</v>
       </c>
       <c r="H99">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I99" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>10727</v>
+        <v>10726</v>
       </c>
       <c r="B100" t="s">
         <v>87</v>
       </c>
       <c r="C100">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D100">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E100" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F100" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="F100" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G100" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H100">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I100" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>10826</v>
+        <v>10727</v>
       </c>
       <c r="B101" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C101">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D101">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>100</v>
+        <v>254</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="G101" t="s">
         <v>10</v>
       </c>
       <c r="H101">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I101" t="s">
-        <v>14</v>
+        <v>255</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>10827</v>
+        <v>10727</v>
       </c>
       <c r="B102" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C102">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D102">
         <v>27</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>102</v>
+        <v>254</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="G102" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H102">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I102" t="s">
-        <v>101</v>
+        <v>255</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>10827</v>
+        <v>10826</v>
       </c>
       <c r="B103" t="s">
         <v>99</v>
       </c>
       <c r="C103">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D103">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E103" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F103" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F103" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="G103" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H103">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I103" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>10828</v>
+        <v>10827</v>
       </c>
       <c r="B104" t="s">
         <v>99</v>
@@ -4136,27 +4178,27 @@
         <v>19</v>
       </c>
       <c r="D104">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E104" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F104" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F104" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="G104" t="s">
         <v>10</v>
       </c>
       <c r="H104">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I104" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>10828</v>
+        <v>10827</v>
       </c>
       <c r="B105" t="s">
         <v>99</v>
@@ -4165,13 +4207,13 @@
         <v>19</v>
       </c>
       <c r="D105">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E105" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F105" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="G105" t="s">
         <v>18</v>
@@ -4180,12 +4222,12 @@
         <v>3</v>
       </c>
       <c r="I105" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>10829</v>
+        <v>10828</v>
       </c>
       <c r="B106" t="s">
         <v>99</v>
@@ -4194,13 +4236,13 @@
         <v>19</v>
       </c>
       <c r="D106">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E106" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F106" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="G106" t="s">
         <v>10</v>
@@ -4214,94 +4256,94 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>10830</v>
+        <v>10828</v>
       </c>
       <c r="B107" t="s">
         <v>99</v>
       </c>
       <c r="C107">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D107">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G107" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H107">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I107" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>10831</v>
+        <v>10829</v>
       </c>
       <c r="B108" t="s">
         <v>99</v>
       </c>
       <c r="C108">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D108">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G108" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H108">
         <v>8</v>
       </c>
       <c r="I108" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>10831</v>
+        <v>10830</v>
       </c>
       <c r="B109" t="s">
         <v>99</v>
       </c>
       <c r="C109">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D109">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E109" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F109" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F109" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="G109" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H109">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I109" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>10832</v>
+        <v>10831</v>
       </c>
       <c r="B110" t="s">
         <v>99</v>
@@ -4310,13 +4352,13 @@
         <v>21</v>
       </c>
       <c r="D110">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E110" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F110" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="G110" t="s">
         <v>20</v>
@@ -4325,12 +4367,12 @@
         <v>8</v>
       </c>
       <c r="I110" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>10832</v>
+        <v>10831</v>
       </c>
       <c r="B111" t="s">
         <v>99</v>
@@ -4339,13 +4381,13 @@
         <v>21</v>
       </c>
       <c r="D111">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E111" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F111" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="G111" t="s">
         <v>18</v>
@@ -4354,375 +4396,375 @@
         <v>3</v>
       </c>
       <c r="I111" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>10833</v>
+        <v>10832</v>
       </c>
       <c r="B112" t="s">
         <v>99</v>
       </c>
       <c r="C112">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D112">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E112" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F112" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F112" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G112" t="s">
         <v>20</v>
       </c>
       <c r="H112">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I112" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>10833</v>
+        <v>10832</v>
       </c>
       <c r="B113" t="s">
         <v>99</v>
       </c>
       <c r="C113">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D113">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E113" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F113" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="G113" t="s">
         <v>18</v>
       </c>
       <c r="H113">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I113" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>10905</v>
+        <v>10833</v>
       </c>
       <c r="B114" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C114">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D114">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>116</v>
+        <v>264</v>
       </c>
       <c r="G114" t="s">
         <v>20</v>
       </c>
       <c r="H114">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I114" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>10905</v>
+        <v>10833</v>
       </c>
       <c r="B115" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C115">
+        <v>22</v>
+      </c>
+      <c r="D115">
+        <v>33</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="G115" t="s">
+        <v>18</v>
+      </c>
+      <c r="H115">
         <v>4</v>
       </c>
-      <c r="D115">
-        <v>5</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G115" t="s">
-        <v>53</v>
-      </c>
-      <c r="H115">
-        <v>3</v>
-      </c>
       <c r="I115" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>10906</v>
+        <v>10834</v>
       </c>
       <c r="B116" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C116">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D116">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>116</v>
+        <v>264</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
       <c r="G116" t="s">
         <v>20</v>
       </c>
       <c r="H116">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I116" t="s">
-        <v>118</v>
+        <v>265</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>10906</v>
+        <v>10834</v>
       </c>
       <c r="B117" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C117">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D117">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>116</v>
+        <v>264</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
       <c r="G117" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H117">
         <v>4</v>
       </c>
       <c r="I117" t="s">
-        <v>118</v>
+        <v>265</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>10910</v>
+        <v>10905</v>
       </c>
       <c r="B118" t="s">
         <v>114</v>
       </c>
       <c r="C118">
+        <v>4</v>
+      </c>
+      <c r="D118">
         <v>5</v>
       </c>
-      <c r="D118">
-        <v>7</v>
-      </c>
       <c r="E118" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G118" t="s">
         <v>20</v>
       </c>
       <c r="H118">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I118" t="s">
-        <v>120</v>
+        <v>14</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>10910</v>
+        <v>10905</v>
       </c>
       <c r="B119" t="s">
         <v>114</v>
       </c>
       <c r="C119">
+        <v>4</v>
+      </c>
+      <c r="D119">
         <v>5</v>
       </c>
-      <c r="D119">
-        <v>7</v>
-      </c>
       <c r="E119" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G119" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="H119">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I119" t="s">
-        <v>120</v>
+        <v>14</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>10911</v>
+        <v>10906</v>
       </c>
       <c r="B120" t="s">
         <v>114</v>
       </c>
       <c r="C120">
+        <v>5</v>
+      </c>
+      <c r="D120">
         <v>6</v>
       </c>
-      <c r="D120">
-        <v>8</v>
-      </c>
       <c r="E120" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G120" t="s">
         <v>20</v>
       </c>
       <c r="H120">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I120" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>10911</v>
+        <v>10906</v>
       </c>
       <c r="B121" t="s">
         <v>114</v>
       </c>
       <c r="C121">
+        <v>5</v>
+      </c>
+      <c r="D121">
         <v>6</v>
       </c>
-      <c r="D121">
-        <v>8</v>
-      </c>
       <c r="E121" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G121" t="s">
         <v>10</v>
       </c>
       <c r="H121">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I121" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>10912</v>
+        <v>10910</v>
       </c>
       <c r="B122" t="s">
         <v>114</v>
       </c>
       <c r="C122">
+        <v>5</v>
+      </c>
+      <c r="D122">
         <v>7</v>
       </c>
-      <c r="D122">
-        <v>9</v>
-      </c>
       <c r="E122" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G122" t="s">
         <v>20</v>
       </c>
       <c r="H122">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I122" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>10912</v>
+        <v>10910</v>
       </c>
       <c r="B123" t="s">
         <v>114</v>
       </c>
       <c r="C123">
+        <v>5</v>
+      </c>
+      <c r="D123">
         <v>7</v>
       </c>
-      <c r="D123">
-        <v>9</v>
-      </c>
       <c r="E123" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G123" t="s">
         <v>10</v>
       </c>
       <c r="H123">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I123" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>10913</v>
+        <v>10911</v>
       </c>
       <c r="B124" t="s">
         <v>114</v>
       </c>
       <c r="C124">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D124">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>233</v>
+        <v>121</v>
       </c>
       <c r="G124" t="s">
         <v>20</v>
@@ -4731,27 +4773,27 @@
         <v>6</v>
       </c>
       <c r="I124" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>10913</v>
+        <v>10911</v>
       </c>
       <c r="B125" t="s">
         <v>114</v>
       </c>
       <c r="C125">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D125">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>233</v>
+        <v>121</v>
       </c>
       <c r="G125" t="s">
         <v>10</v>
@@ -4760,230 +4802,230 @@
         <v>3</v>
       </c>
       <c r="I125" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>10914</v>
+        <v>10912</v>
       </c>
       <c r="B126" t="s">
         <v>114</v>
       </c>
       <c r="C126">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D126">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>233</v>
+        <v>121</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="G126" t="s">
         <v>20</v>
       </c>
       <c r="H126">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I126" t="s">
-        <v>234</v>
+        <v>123</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>10914</v>
+        <v>10912</v>
       </c>
       <c r="B127" t="s">
         <v>114</v>
       </c>
       <c r="C127">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D127">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>233</v>
+        <v>121</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="G127" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I127" t="s">
-        <v>234</v>
+        <v>123</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>11027</v>
+        <v>10913</v>
       </c>
       <c r="B128" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C128">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D128">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>129</v>
+        <v>233</v>
       </c>
       <c r="G128" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H128">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I128" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>11027</v>
+        <v>10913</v>
       </c>
       <c r="B129" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C129">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D129">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>129</v>
+        <v>233</v>
       </c>
       <c r="G129" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H129">
         <v>3</v>
       </c>
       <c r="I129" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>11028</v>
+        <v>10914</v>
       </c>
       <c r="B130" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C130">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D130">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>129</v>
+        <v>233</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="G130" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H130">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I130" t="s">
-        <v>131</v>
+        <v>234</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>11028</v>
+        <v>10914</v>
       </c>
       <c r="B131" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C131">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D131">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>129</v>
+        <v>233</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="G131" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="H131">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I131" t="s">
-        <v>131</v>
+        <v>234</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>11029</v>
+        <v>11027</v>
       </c>
       <c r="B132" t="s">
         <v>127</v>
       </c>
       <c r="C132">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D132">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G132" t="s">
         <v>10</v>
       </c>
       <c r="H132">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I132" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>11029</v>
+        <v>11027</v>
       </c>
       <c r="B133" t="s">
         <v>127</v>
       </c>
       <c r="C133">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D133">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G133" t="s">
         <v>11</v>
@@ -4992,172 +5034,172 @@
         <v>3</v>
       </c>
       <c r="I133" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>11030</v>
+        <v>11028</v>
       </c>
       <c r="B134" t="s">
         <v>127</v>
       </c>
       <c r="C134">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D134">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G134" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H134">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I134" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>11030</v>
+        <v>11028</v>
       </c>
       <c r="B135" t="s">
         <v>127</v>
       </c>
       <c r="C135">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D135">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G135" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H135">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I135" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>11031</v>
+        <v>11029</v>
       </c>
       <c r="B136" t="s">
         <v>127</v>
       </c>
       <c r="C136">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D136">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>246</v>
+        <v>132</v>
       </c>
       <c r="G136" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H136">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I136" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>11031</v>
+        <v>11029</v>
       </c>
       <c r="B137" t="s">
         <v>127</v>
       </c>
       <c r="C137">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D137">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>246</v>
+        <v>132</v>
       </c>
       <c r="G137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H137">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I137" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>11032</v>
+        <v>11030</v>
       </c>
       <c r="B138" t="s">
         <v>127</v>
       </c>
       <c r="C138">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D138">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>246</v>
+        <v>132</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>24</v>
+        <v>134</v>
       </c>
       <c r="G138" t="s">
         <v>20</v>
       </c>
       <c r="H138">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I138" t="s">
-        <v>247</v>
+        <v>135</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>11032</v>
+        <v>11030</v>
       </c>
       <c r="B139" t="s">
         <v>127</v>
       </c>
       <c r="C139">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D139">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>246</v>
+        <v>132</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>24</v>
+        <v>134</v>
       </c>
       <c r="G139" t="s">
         <v>18</v>
@@ -5166,201 +5208,201 @@
         <v>4</v>
       </c>
       <c r="I139" t="s">
-        <v>247</v>
+        <v>135</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>11122</v>
+        <v>11031</v>
       </c>
       <c r="B140" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C140">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D140">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>139</v>
+        <v>246</v>
       </c>
       <c r="G140" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H140">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I140" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>11122</v>
+        <v>11031</v>
       </c>
       <c r="B141" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C141">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D141">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>139</v>
+        <v>246</v>
       </c>
       <c r="G141" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I141" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>11123</v>
+        <v>11032</v>
       </c>
       <c r="B142" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C142">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D142">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>139</v>
+        <v>246</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>140</v>
+        <v>268</v>
       </c>
       <c r="G142" t="s">
         <v>20</v>
       </c>
       <c r="H142">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I142" t="s">
-        <v>141</v>
+        <v>247</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>11123</v>
+        <v>11032</v>
       </c>
       <c r="B143" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C143">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D143">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>139</v>
+        <v>246</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>140</v>
+        <v>268</v>
       </c>
       <c r="G143" t="s">
         <v>18</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I143" t="s">
-        <v>141</v>
+        <v>247</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>11124</v>
+        <v>11033</v>
       </c>
       <c r="B144" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C144">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D144">
+        <v>33</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F144" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E144" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F144" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="G144" t="s">
         <v>20</v>
       </c>
       <c r="H144">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I144" t="s">
-        <v>143</v>
+        <v>269</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>11124</v>
+        <v>11033</v>
       </c>
       <c r="B145" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C145">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D145">
+        <v>33</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F145" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F145" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="G145" t="s">
         <v>18</v>
       </c>
       <c r="H145">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I145" t="s">
-        <v>143</v>
+        <v>269</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>11125</v>
+        <v>11122</v>
       </c>
       <c r="B146" t="s">
         <v>137</v>
       </c>
       <c r="C146">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D146">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>235</v>
+        <v>139</v>
       </c>
       <c r="G146" t="s">
         <v>10</v>
@@ -5369,998 +5411,998 @@
         <v>10</v>
       </c>
       <c r="I146" t="s">
-        <v>144</v>
+        <v>14</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>11125</v>
+        <v>11122</v>
       </c>
       <c r="B147" t="s">
         <v>137</v>
       </c>
       <c r="C147">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D147">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>235</v>
+        <v>139</v>
       </c>
       <c r="G147" t="s">
         <v>11</v>
       </c>
       <c r="H147">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>144</v>
+        <v>14</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>11126</v>
+        <v>11123</v>
       </c>
       <c r="B148" t="s">
         <v>137</v>
       </c>
       <c r="C148">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D148">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>235</v>
+        <v>139</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>243</v>
+        <v>140</v>
       </c>
       <c r="G148" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H148">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I148" t="s">
-        <v>236</v>
+        <v>141</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>11126</v>
+        <v>11123</v>
       </c>
       <c r="B149" t="s">
         <v>137</v>
       </c>
       <c r="C149">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D149">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>235</v>
+        <v>139</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>243</v>
+        <v>140</v>
       </c>
       <c r="G149" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H149">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I149" t="s">
-        <v>236</v>
+        <v>141</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>11127</v>
+        <v>11124</v>
       </c>
       <c r="B150" t="s">
         <v>137</v>
       </c>
       <c r="C150">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D150">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>243</v>
+        <v>140</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>24</v>
+        <v>142</v>
       </c>
       <c r="G150" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H150">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I150" t="s">
-        <v>244</v>
+        <v>143</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>11127</v>
+        <v>11124</v>
       </c>
       <c r="B151" t="s">
         <v>137</v>
       </c>
       <c r="C151">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D151">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>243</v>
+        <v>140</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>24</v>
+        <v>142</v>
       </c>
       <c r="G151" t="s">
         <v>18</v>
       </c>
       <c r="H151">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I151" t="s">
-        <v>244</v>
+        <v>143</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>11221</v>
+        <v>11125</v>
       </c>
       <c r="B152" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C152">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D152">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>147</v>
+        <v>235</v>
       </c>
       <c r="G152" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H152">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I152" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>11221</v>
+        <v>11125</v>
       </c>
       <c r="B153" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C153">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D153">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>147</v>
+        <v>235</v>
       </c>
       <c r="G153" t="s">
         <v>11</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I153" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>11222</v>
+        <v>11126</v>
       </c>
       <c r="B154" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C154">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D154">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>147</v>
+        <v>235</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>148</v>
+        <v>243</v>
       </c>
       <c r="G154" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H154">
         <v>10</v>
       </c>
       <c r="I154" t="s">
-        <v>149</v>
+        <v>236</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>11223</v>
+        <v>11126</v>
       </c>
       <c r="B155" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C155">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D155">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>148</v>
+        <v>235</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>151</v>
+        <v>243</v>
       </c>
       <c r="G155" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H155">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I155" t="s">
-        <v>150</v>
+        <v>236</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>11223</v>
+        <v>11127</v>
       </c>
       <c r="B156" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C156">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D156">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>148</v>
+        <v>243</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>151</v>
+        <v>24</v>
       </c>
       <c r="G156" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H156">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I156" t="s">
-        <v>150</v>
+        <v>244</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>11224</v>
+        <v>11127</v>
       </c>
       <c r="B157" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C157">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D157">
+        <v>27</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F157" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E157" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F157" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="G157" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H157">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I157" t="s">
-        <v>153</v>
+        <v>244</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>11224</v>
+        <v>11221</v>
       </c>
       <c r="B158" t="s">
         <v>145</v>
       </c>
       <c r="C158">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D158">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G158" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H158">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I158" t="s">
-        <v>153</v>
+        <v>14</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>11225</v>
+        <v>11221</v>
       </c>
       <c r="B159" t="s">
         <v>145</v>
       </c>
       <c r="C159">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D159">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="G159" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H159">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I159" t="s">
-        <v>155</v>
+        <v>14</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>11225</v>
+        <v>11222</v>
       </c>
       <c r="B160" t="s">
         <v>145</v>
       </c>
       <c r="C160">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D160">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="G160" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I160" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>11225</v>
+        <v>11223</v>
       </c>
       <c r="B161" t="s">
         <v>145</v>
       </c>
       <c r="C161">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D161">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G161" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I161" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>11226</v>
+        <v>11223</v>
       </c>
       <c r="B162" t="s">
         <v>145</v>
       </c>
       <c r="C162">
+        <v>16</v>
+      </c>
+      <c r="D162">
+        <v>23</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G162" t="s">
         <v>18</v>
       </c>
-      <c r="D162">
-        <v>26</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F162" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G162" t="s">
-        <v>20</v>
-      </c>
       <c r="H162">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I162" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>11226</v>
+        <v>11224</v>
       </c>
       <c r="B163" t="s">
         <v>145</v>
       </c>
       <c r="C163">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D163">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="G163" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I163" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>11226</v>
+        <v>11224</v>
       </c>
       <c r="B164" t="s">
         <v>145</v>
       </c>
       <c r="C164">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D164">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="G164" t="s">
         <v>18</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I164" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>11314</v>
+        <v>11225</v>
       </c>
       <c r="B165" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C165">
-        <v>-2</v>
+        <v>17</v>
       </c>
       <c r="D165">
-        <v>-9</v>
+        <v>25</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="G165" t="s">
-        <v>159</v>
+        <v>20</v>
       </c>
       <c r="H165">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I165" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>11314</v>
+        <v>11225</v>
       </c>
       <c r="B166" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C166">
-        <v>-2</v>
+        <v>17</v>
       </c>
       <c r="D166">
-        <v>-9</v>
+        <v>25</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="G166" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="H166">
         <v>2</v>
       </c>
       <c r="I166" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>11315</v>
+        <v>11225</v>
       </c>
       <c r="B167" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C167">
-        <v>-2</v>
+        <v>17</v>
       </c>
       <c r="D167">
-        <v>-8</v>
+        <v>25</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="G167" t="s">
-        <v>159</v>
+        <v>18</v>
       </c>
       <c r="H167">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I167" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>11316</v>
+        <v>11226</v>
       </c>
       <c r="B168" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C168">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="D168">
-        <v>-7</v>
+        <v>26</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>165</v>
+        <v>266</v>
       </c>
       <c r="G168" t="s">
-        <v>159</v>
+        <v>20</v>
       </c>
       <c r="H168">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I168" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>11316</v>
+        <v>11226</v>
       </c>
       <c r="B169" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C169">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="D169">
-        <v>-7</v>
+        <v>26</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>165</v>
+        <v>266</v>
       </c>
       <c r="G169" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="H169">
         <v>2</v>
       </c>
       <c r="I169" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>11317</v>
+        <v>11226</v>
       </c>
       <c r="B170" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C170">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="D170">
-        <v>-6</v>
+        <v>26</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>167</v>
+        <v>266</v>
       </c>
       <c r="G170" t="s">
-        <v>159</v>
+        <v>18</v>
       </c>
       <c r="H170">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I170" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>11318</v>
+        <v>11227</v>
       </c>
       <c r="B171" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C171">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="D171">
-        <v>-5</v>
+        <v>27</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>167</v>
+        <v>266</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>169</v>
+        <v>24</v>
       </c>
       <c r="G171" t="s">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="H171">
         <v>6</v>
       </c>
       <c r="I171" t="s">
-        <v>171</v>
+        <v>267</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>11319</v>
+        <v>11227</v>
       </c>
       <c r="B172" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C172">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D172">
-        <v>-4</v>
+        <v>27</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>169</v>
+        <v>266</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="G172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H172">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I172" t="s">
-        <v>173</v>
+        <v>267</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>11319</v>
+        <v>11227</v>
       </c>
       <c r="B173" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C173">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D173">
-        <v>-4</v>
+        <v>27</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>169</v>
+        <v>266</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="G173" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I173" t="s">
-        <v>173</v>
+        <v>267</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>11319</v>
+        <v>11314</v>
       </c>
       <c r="B174" t="s">
         <v>157</v>
       </c>
       <c r="C174">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D174">
-        <v>-4</v>
+        <v>-9</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="G174" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I174" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>11320</v>
+        <v>11314</v>
       </c>
       <c r="B175" t="s">
         <v>157</v>
       </c>
       <c r="C175">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D175">
-        <v>-3</v>
+        <v>-9</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G175" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="H175">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I175" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>11320</v>
+        <v>11315</v>
       </c>
       <c r="B176" t="s">
         <v>157</v>
       </c>
       <c r="C176">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D176">
-        <v>-3</v>
+        <v>-8</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="G176" t="s">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I176" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>11321</v>
+        <v>11316</v>
       </c>
       <c r="B177" t="s">
         <v>157</v>
       </c>
       <c r="C177">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D177">
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="G177" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="H177">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I177" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>11321</v>
+        <v>11316</v>
       </c>
       <c r="B178" t="s">
         <v>157</v>
       </c>
       <c r="C178">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D178">
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="G178" t="s">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I178" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>11321</v>
+        <v>11317</v>
       </c>
       <c r="B179" t="s">
         <v>157</v>
       </c>
       <c r="C179">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D179">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="G179" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I179" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>11322</v>
+        <v>11318</v>
       </c>
       <c r="B180" t="s">
         <v>157</v>
       </c>
       <c r="C180">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D180">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="G180" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="H180">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I180" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>11322</v>
+        <v>11319</v>
       </c>
       <c r="B181" t="s">
         <v>157</v>
@@ -6369,27 +6411,27 @@
         <v>0</v>
       </c>
       <c r="D181">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G181" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I181" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>11322</v>
+        <v>11319</v>
       </c>
       <c r="B182" t="s">
         <v>157</v>
@@ -6398,27 +6440,27 @@
         <v>0</v>
       </c>
       <c r="D182">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G182" t="s">
-        <v>159</v>
+        <v>20</v>
       </c>
       <c r="H182">
         <v>1</v>
       </c>
       <c r="I182" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>11323</v>
+        <v>11319</v>
       </c>
       <c r="B183" t="s">
         <v>157</v>
@@ -6427,27 +6469,27 @@
         <v>0</v>
       </c>
       <c r="D183">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H183">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I183" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>11323</v>
+        <v>11320</v>
       </c>
       <c r="B184" t="s">
         <v>157</v>
@@ -6456,71 +6498,71 @@
         <v>0</v>
       </c>
       <c r="D184">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="G184" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I184" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>11313</v>
+        <v>11320</v>
       </c>
       <c r="B185" t="s">
         <v>157</v>
       </c>
       <c r="C185">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D185">
-        <v>13</v>
+        <v>-3</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="G185" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H185">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I185" t="s">
-        <v>14</v>
+        <v>173</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>11324</v>
+        <v>11321</v>
       </c>
       <c r="B186" t="s">
         <v>157</v>
       </c>
       <c r="C186">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D186">
-        <v>14</v>
+        <v>-2</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="G186" t="s">
         <v>10</v>
@@ -6529,607 +6571,607 @@
         <v>5</v>
       </c>
       <c r="I186" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>11324</v>
+        <v>11321</v>
       </c>
       <c r="B187" t="s">
         <v>157</v>
       </c>
       <c r="C187">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D187">
-        <v>14</v>
+        <v>-2</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="G187" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I187" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>11324</v>
+        <v>11321</v>
       </c>
       <c r="B188" t="s">
         <v>157</v>
       </c>
       <c r="C188">
+        <v>0</v>
+      </c>
+      <c r="D188">
+        <v>-2</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G188" t="s">
         <v>11</v>
-      </c>
-      <c r="D188">
-        <v>14</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F188" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="G188" t="s">
-        <v>18</v>
       </c>
       <c r="H188">
         <v>2</v>
       </c>
       <c r="I188" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>11325</v>
+        <v>11322</v>
       </c>
       <c r="B189" t="s">
         <v>157</v>
       </c>
       <c r="C189">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D189">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G189" t="s">
         <v>10</v>
       </c>
       <c r="H189">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I189" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>11325</v>
+        <v>11322</v>
       </c>
       <c r="B190" t="s">
         <v>157</v>
       </c>
       <c r="C190">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D190">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G190" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H190">
         <v>2</v>
       </c>
       <c r="I190" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>11325</v>
+        <v>11322</v>
       </c>
       <c r="B191" t="s">
         <v>157</v>
       </c>
       <c r="C191">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D191">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G191" t="s">
-        <v>18</v>
+        <v>159</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I191" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>11326</v>
+        <v>11323</v>
       </c>
       <c r="B192" t="s">
         <v>157</v>
       </c>
       <c r="C192">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D192">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="G192" t="s">
         <v>10</v>
       </c>
       <c r="H192">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I192" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>11327</v>
+        <v>11323</v>
       </c>
       <c r="B193" t="s">
         <v>157</v>
       </c>
       <c r="C193">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D193">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="G193" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H193">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I193" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>11327</v>
+        <v>11313</v>
       </c>
       <c r="B194" t="s">
         <v>157</v>
       </c>
       <c r="C194">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D194">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G194" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H194">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I194" t="s">
-        <v>189</v>
+        <v>14</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>11328</v>
+        <v>11324</v>
       </c>
       <c r="B195" t="s">
         <v>157</v>
       </c>
       <c r="C195">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D195">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="G195" t="s">
         <v>10</v>
       </c>
       <c r="H195">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I195" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>11328</v>
+        <v>11324</v>
       </c>
       <c r="B196" t="s">
         <v>157</v>
       </c>
       <c r="C196">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D196">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="G196" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H196">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I196" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>11329</v>
+        <v>11324</v>
       </c>
       <c r="B197" t="s">
         <v>157</v>
       </c>
       <c r="C197">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D197">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>240</v>
+        <v>183</v>
       </c>
       <c r="G197" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H197">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I197" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>11329</v>
+        <v>11325</v>
       </c>
       <c r="B198" t="s">
         <v>157</v>
       </c>
       <c r="C198">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D198">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>240</v>
+        <v>185</v>
       </c>
       <c r="G198" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H198">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I198" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>11330</v>
+        <v>11325</v>
       </c>
       <c r="B199" t="s">
         <v>157</v>
       </c>
       <c r="C199">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D199">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>240</v>
+        <v>183</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>24</v>
+        <v>185</v>
       </c>
       <c r="G199" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H199">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I199" t="s">
-        <v>239</v>
+        <v>186</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>11405</v>
+        <v>11325</v>
       </c>
       <c r="B200" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="C200">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D200">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="G200" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H200">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I200" t="s">
-        <v>14</v>
+        <v>186</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>11405</v>
+        <v>11326</v>
       </c>
       <c r="B201" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="C201">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D201">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="G201" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I201" t="s">
-        <v>14</v>
+        <v>186</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>11406</v>
+        <v>11327</v>
       </c>
       <c r="B202" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="C202">
+        <v>12</v>
+      </c>
+      <c r="D202">
+        <v>17</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G202" t="s">
+        <v>10</v>
+      </c>
+      <c r="H202">
         <v>4</v>
       </c>
-      <c r="D202">
-        <v>6</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F202" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G202" t="s">
-        <v>10</v>
-      </c>
-      <c r="H202">
-        <v>7</v>
-      </c>
       <c r="I202" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>11406</v>
+        <v>11327</v>
       </c>
       <c r="B203" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="C203">
+        <v>12</v>
+      </c>
+      <c r="D203">
+        <v>17</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G203" t="s">
+        <v>20</v>
+      </c>
+      <c r="H203">
         <v>4</v>
       </c>
-      <c r="D203">
-        <v>6</v>
-      </c>
-      <c r="E203" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F203" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G203" t="s">
-        <v>20</v>
-      </c>
-      <c r="H203">
-        <v>2</v>
-      </c>
       <c r="I203" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>11407</v>
+        <v>11328</v>
       </c>
       <c r="B204" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="C204">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D204">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="G204" t="s">
         <v>10</v>
       </c>
       <c r="H204">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I204" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>11407</v>
+        <v>11328</v>
       </c>
       <c r="B205" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="C205">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D205">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="G205" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I205" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>11408</v>
+        <v>11329</v>
       </c>
       <c r="B206" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="C206">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D206">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G206" t="s">
         <v>10</v>
       </c>
       <c r="H206">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I206" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>11408</v>
+        <v>11329</v>
       </c>
       <c r="B207" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="C207">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D207">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G207" t="s">
         <v>20</v>
@@ -7138,143 +7180,143 @@
         <v>3</v>
       </c>
       <c r="I207" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>11409</v>
+        <v>11330</v>
       </c>
       <c r="B208" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="C208">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D208">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>202</v>
+        <v>24</v>
       </c>
       <c r="G208" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H208">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I208" t="s">
-        <v>203</v>
+        <v>239</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>11409</v>
+        <v>11405</v>
       </c>
       <c r="B209" t="s">
         <v>193</v>
       </c>
       <c r="C209">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D209">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="G209" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H209">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I209" t="s">
-        <v>203</v>
+        <v>14</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>11410</v>
+        <v>11405</v>
       </c>
       <c r="B210" t="s">
         <v>193</v>
       </c>
       <c r="C210">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D210">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>24</v>
+        <v>195</v>
       </c>
       <c r="G210" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H210">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I210" t="s">
-        <v>204</v>
+        <v>14</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>11410</v>
+        <v>11406</v>
       </c>
       <c r="B211" t="s">
         <v>193</v>
       </c>
       <c r="C211">
+        <v>4</v>
+      </c>
+      <c r="D211">
+        <v>6</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G211" t="s">
+        <v>10</v>
+      </c>
+      <c r="H211">
         <v>7</v>
       </c>
-      <c r="D211">
-        <v>10</v>
-      </c>
-      <c r="E211" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="F211" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G211" t="s">
-        <v>18</v>
-      </c>
-      <c r="H211">
-        <v>2</v>
-      </c>
       <c r="I211" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>11410</v>
+        <v>11406</v>
       </c>
       <c r="B212" t="s">
         <v>193</v>
       </c>
       <c r="C212">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D212">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>24</v>
+        <v>196</v>
       </c>
       <c r="G212" t="s">
         <v>20</v>
@@ -7283,285 +7325,285 @@
         <v>2</v>
       </c>
       <c r="I212" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>11506</v>
+        <v>11407</v>
       </c>
       <c r="B213" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C213">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D213">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="G213" t="s">
         <v>10</v>
       </c>
       <c r="H213">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I213" t="s">
-        <v>14</v>
+        <v>198</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>11506</v>
+        <v>11407</v>
       </c>
       <c r="B214" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C214">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D214">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="G214" t="s">
         <v>11</v>
       </c>
       <c r="H214">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I214" t="s">
-        <v>14</v>
+        <v>198</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>11507</v>
+        <v>11408</v>
       </c>
       <c r="B215" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C215">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D215">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G215" t="s">
         <v>10</v>
       </c>
       <c r="H215">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I215" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>11507</v>
+        <v>11408</v>
       </c>
       <c r="B216" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C216">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D216">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G216" t="s">
         <v>20</v>
       </c>
       <c r="H216">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I216" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>11508</v>
+        <v>11409</v>
       </c>
       <c r="B217" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C217">
         <v>6</v>
       </c>
       <c r="D217">
+        <v>9</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G217" t="s">
+        <v>10</v>
+      </c>
+      <c r="H217">
         <v>8</v>
       </c>
-      <c r="E217" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F217" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="G217" t="s">
-        <v>10</v>
-      </c>
-      <c r="H217">
-        <v>5</v>
-      </c>
       <c r="I217" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>11508</v>
+        <v>11409</v>
       </c>
       <c r="B218" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C218">
         <v>6</v>
       </c>
       <c r="D218">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="G218" t="s">
         <v>20</v>
       </c>
       <c r="H218">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I218" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>11509</v>
+        <v>11410</v>
       </c>
       <c r="B219" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C219">
         <v>7</v>
       </c>
       <c r="D219">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="G219" t="s">
         <v>10</v>
       </c>
       <c r="H219">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I219" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>11509</v>
+        <v>11410</v>
       </c>
       <c r="B220" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C220">
         <v>7</v>
       </c>
       <c r="D220">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="G220" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H220">
         <v>2</v>
       </c>
       <c r="I220" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>11509</v>
+        <v>11410</v>
       </c>
       <c r="B221" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C221">
         <v>7</v>
       </c>
       <c r="D221">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="G221" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I221" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>11510</v>
+        <v>11411</v>
       </c>
       <c r="B222" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C222">
         <v>8</v>
       </c>
       <c r="D222">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="F222" s="1" t="s">
         <v>24</v>
@@ -7570,27 +7612,27 @@
         <v>10</v>
       </c>
       <c r="H222">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I222" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>11510</v>
+        <v>11411</v>
       </c>
       <c r="B223" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C223">
         <v>8</v>
       </c>
       <c r="D223">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="F223" s="1" t="s">
         <v>24</v>
@@ -7602,62 +7644,62 @@
         <v>2</v>
       </c>
       <c r="I223" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>11510</v>
+        <v>11506</v>
       </c>
       <c r="B224" t="s">
         <v>205</v>
       </c>
       <c r="C224">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D224">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="G224" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I224" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>11626</v>
+        <v>11506</v>
       </c>
       <c r="B225" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C225">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D225">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>9</v>
+        <v>206</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="G225" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H225">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I225" t="s">
         <v>14</v>
@@ -7665,347 +7707,347 @@
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>11626</v>
+        <v>11507</v>
       </c>
       <c r="B226" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C226">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D226">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>9</v>
+        <v>207</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G226" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H226">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I226" t="s">
-        <v>14</v>
+        <v>209</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>11627</v>
+        <v>11507</v>
       </c>
       <c r="B227" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C227">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D227">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G227" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H227">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I227" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>11627</v>
+        <v>11508</v>
       </c>
       <c r="B228" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C228">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D228">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G228" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H228">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I228" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>11628</v>
+        <v>11508</v>
       </c>
       <c r="B229" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C229">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D229">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G229" t="s">
         <v>20</v>
       </c>
       <c r="H229">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I229" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>11628</v>
+        <v>11509</v>
       </c>
       <c r="B230" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C230">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D230">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="G230" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I230" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>11628</v>
+        <v>11509</v>
       </c>
       <c r="B231" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C231">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D231">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="G231" t="s">
-        <v>218</v>
+        <v>20</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I231" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>11629</v>
+        <v>11509</v>
       </c>
       <c r="B232" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C232">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D232">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="G232" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H232">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I232" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>11629</v>
+        <v>11510</v>
       </c>
       <c r="B233" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C233">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D233">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>243</v>
+        <v>24</v>
       </c>
       <c r="G233" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I233" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>11629</v>
+        <v>11510</v>
       </c>
       <c r="B234" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C234">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D234">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>243</v>
+        <v>24</v>
       </c>
       <c r="G234" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H234">
         <v>2</v>
       </c>
       <c r="I234" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>11630</v>
+        <v>11510</v>
       </c>
       <c r="B235" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C235">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D235">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G235" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H235">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I235" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>11630</v>
+        <v>11626</v>
       </c>
       <c r="B236" t="s">
         <v>213</v>
       </c>
       <c r="C236">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D236">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>243</v>
+        <v>9</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>24</v>
+        <v>214</v>
       </c>
       <c r="G236" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H236">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I236" t="s">
-        <v>245</v>
+        <v>14</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>11706</v>
+        <v>11626</v>
       </c>
       <c r="B237" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C237">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D237">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>222</v>
+        <v>9</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="G237" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H237">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I237" t="s">
         <v>14</v>
@@ -8013,263 +8055,669 @@
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>11707</v>
+        <v>11627</v>
       </c>
       <c r="B238" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C238">
+        <v>17</v>
+      </c>
+      <c r="D238">
+        <v>27</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G238" t="s">
+        <v>10</v>
+      </c>
+      <c r="H238">
         <v>5</v>
       </c>
-      <c r="D238">
-        <v>7</v>
-      </c>
-      <c r="E238" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="F238" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="G238" t="s">
-        <v>10</v>
-      </c>
-      <c r="H238">
-        <v>6</v>
-      </c>
       <c r="I238" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>11707</v>
+        <v>11627</v>
       </c>
       <c r="B239" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C239">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D239">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="G239" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H239">
         <v>4</v>
       </c>
       <c r="I239" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>11708</v>
+        <v>11628</v>
       </c>
       <c r="B240" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C240">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D240">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G240" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="H240">
         <v>5</v>
       </c>
       <c r="I240" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>11708</v>
+        <v>11628</v>
       </c>
       <c r="B241" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C241">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D241">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G241" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H241">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I241" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>11708</v>
+        <v>11628</v>
       </c>
       <c r="B242" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C242">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D242">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G242" t="s">
-        <v>18</v>
+        <v>218</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I242" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>11709</v>
+        <v>11629</v>
       </c>
       <c r="B243" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C243">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D243">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="G243" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I243" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>11710</v>
+        <v>11629</v>
       </c>
       <c r="B244" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C244">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D244">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>24</v>
+        <v>243</v>
       </c>
       <c r="G244" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="H244">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I244" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>11710</v>
+        <v>11629</v>
       </c>
       <c r="B245" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C245">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D245">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>24</v>
+        <v>243</v>
       </c>
       <c r="G245" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H245">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I245" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>11710</v>
+        <v>11630</v>
       </c>
       <c r="B246" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C246">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D246">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="F246" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G246" t="s">
+        <v>10</v>
+      </c>
+      <c r="H246">
+        <v>7</v>
+      </c>
+      <c r="I246" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>11630</v>
+      </c>
+      <c r="B247" t="s">
+        <v>213</v>
+      </c>
+      <c r="C247">
+        <v>20</v>
+      </c>
+      <c r="D247">
+        <v>30</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G247" t="s">
         <v>18</v>
       </c>
-      <c r="H246">
+      <c r="H247">
+        <v>3</v>
+      </c>
+      <c r="I247" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>11706</v>
+      </c>
+      <c r="B248" t="s">
+        <v>221</v>
+      </c>
+      <c r="C248">
+        <v>4</v>
+      </c>
+      <c r="D248">
+        <v>6</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G248" t="s">
+        <v>10</v>
+      </c>
+      <c r="H248">
+        <v>10</v>
+      </c>
+      <c r="I248" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>11707</v>
+      </c>
+      <c r="B249" t="s">
+        <v>221</v>
+      </c>
+      <c r="C249">
+        <v>5</v>
+      </c>
+      <c r="D249">
+        <v>7</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G249" t="s">
+        <v>10</v>
+      </c>
+      <c r="H249">
+        <v>6</v>
+      </c>
+      <c r="I249" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>11707</v>
+      </c>
+      <c r="B250" t="s">
+        <v>221</v>
+      </c>
+      <c r="C250">
+        <v>5</v>
+      </c>
+      <c r="D250">
+        <v>7</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G250" t="s">
+        <v>20</v>
+      </c>
+      <c r="H250">
+        <v>4</v>
+      </c>
+      <c r="I250" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>11708</v>
+      </c>
+      <c r="B251" t="s">
+        <v>221</v>
+      </c>
+      <c r="C251">
+        <v>6</v>
+      </c>
+      <c r="D251">
+        <v>8</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G251" t="s">
+        <v>53</v>
+      </c>
+      <c r="H251">
+        <v>5</v>
+      </c>
+      <c r="I251" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>11708</v>
+      </c>
+      <c r="B252" t="s">
+        <v>221</v>
+      </c>
+      <c r="C252">
+        <v>6</v>
+      </c>
+      <c r="D252">
+        <v>8</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G252" t="s">
+        <v>20</v>
+      </c>
+      <c r="H252">
+        <v>3</v>
+      </c>
+      <c r="I252" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>11708</v>
+      </c>
+      <c r="B253" t="s">
+        <v>221</v>
+      </c>
+      <c r="C253">
+        <v>6</v>
+      </c>
+      <c r="D253">
+        <v>8</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G253" t="s">
+        <v>18</v>
+      </c>
+      <c r="H253">
         <v>2</v>
       </c>
-      <c r="I246" t="s">
+      <c r="I253" t="s">
         <v>227</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>11709</v>
+      </c>
+      <c r="B254" t="s">
+        <v>221</v>
+      </c>
+      <c r="C254">
+        <v>7</v>
+      </c>
+      <c r="D254">
+        <v>9</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G254" t="s">
+        <v>11</v>
+      </c>
+      <c r="H254">
+        <v>1</v>
+      </c>
+      <c r="I254" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>11710</v>
+      </c>
+      <c r="B255" t="s">
+        <v>221</v>
+      </c>
+      <c r="C255">
+        <v>7</v>
+      </c>
+      <c r="D255">
+        <v>10</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G255" t="s">
+        <v>53</v>
+      </c>
+      <c r="H255">
+        <v>4</v>
+      </c>
+      <c r="I255" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>11710</v>
+      </c>
+      <c r="B256" t="s">
+        <v>221</v>
+      </c>
+      <c r="C256">
+        <v>7</v>
+      </c>
+      <c r="D256">
+        <v>10</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G256" t="s">
+        <v>20</v>
+      </c>
+      <c r="H256">
+        <v>3</v>
+      </c>
+      <c r="I256" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>11710</v>
+      </c>
+      <c r="B257" t="s">
+        <v>221</v>
+      </c>
+      <c r="C257">
+        <v>7</v>
+      </c>
+      <c r="D257">
+        <v>10</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F257" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G257" t="s">
+        <v>18</v>
+      </c>
+      <c r="H257">
+        <v>2</v>
+      </c>
+      <c r="I257" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>11711</v>
+      </c>
+      <c r="B258" t="s">
+        <v>221</v>
+      </c>
+      <c r="C258">
+        <v>8</v>
+      </c>
+      <c r="D258">
+        <v>11</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G258" t="s">
+        <v>10</v>
+      </c>
+      <c r="H258">
+        <v>5</v>
+      </c>
+      <c r="I258" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>11711</v>
+      </c>
+      <c r="B259" t="s">
+        <v>221</v>
+      </c>
+      <c r="C259">
+        <v>8</v>
+      </c>
+      <c r="D259">
+        <v>11</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F259" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G259" t="s">
+        <v>260</v>
+      </c>
+      <c r="H259">
+        <v>3</v>
+      </c>
+      <c r="I259" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>11711</v>
+      </c>
+      <c r="B260" t="s">
+        <v>221</v>
+      </c>
+      <c r="C260">
+        <v>8</v>
+      </c>
+      <c r="D260">
+        <v>11</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F260" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G260" t="s">
+        <v>20</v>
+      </c>
+      <c r="H260">
+        <v>2</v>
+      </c>
+      <c r="I260" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
